--- a/Code/Output/Ergebnisse.xlsx
+++ b/Code/Output/Ergebnisse.xlsx
@@ -909,784 +909,784 @@
                   <c:v>1.088759781086738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.095279724255</c:v>
+                  <c:v>1.095124304402439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.102030373963943</c:v>
+                  <c:v>1.101712746602582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.109017691477719</c:v>
+                  <c:v>1.10853079216579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.116247917968771</c:v>
+                  <c:v>1.115584390688094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.123727533055392</c:v>
+                  <c:v>1.122879720241499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.131463291448335</c:v>
+                  <c:v>1.130423284202726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.139462195711312</c:v>
+                  <c:v>1.138221693580711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.14773161600145</c:v>
+                  <c:v>1.146281838552179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.15627925126898</c:v>
+                  <c:v>1.154611097325773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.165113095555885</c:v>
+                  <c:v>1.163217130831776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.174241573970419</c:v>
+                  <c:v>1.17210789457867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.183673185158155</c:v>
+                  <c:v>1.181291651094135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.193416978300797</c:v>
+                  <c:v>1.190776982981427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.203482510177299</c:v>
+                  <c:v>1.200572822096494</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.213879707813881</c:v>
+                  <c:v>1.210688647236364</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.224618884865305</c:v>
+                  <c:v>1.221133892828014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.235710758822451</c:v>
+                  <c:v>1.231918838755965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.24716646909152</c:v>
+                  <c:v>1.243054167954633</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.258997858855472</c:v>
+                  <c:v>1.254550984459901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.271216761830125</c:v>
+                  <c:v>1.266420832380255</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.28383604897434</c:v>
+                  <c:v>1.278675715838488</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.296869115080899</c:v>
+                  <c:v>1.291328119937972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.310329893268156</c:v>
+                  <c:v>1.30439126459699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.324232880221064</c:v>
+                  <c:v>1.317878497283369</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.338593162754186</c:v>
+                  <c:v>1.331804084064057</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.35342659572216</c:v>
+                  <c:v>1.34618301397225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.36874954815194</c:v>
+                  <c:v>1.361030890753757</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.384579122876961</c:v>
+                  <c:v>1.376363962148873</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.400933524947639</c:v>
+                  <c:v>1.392199150729688</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4178317210723</c:v>
+                  <c:v>1.408554086382393</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.435293477053854</c:v>
+                  <c:v>1.42544730587052</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.453339397255754</c:v>
+                  <c:v>1.442897988361219</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.471990966216154</c:v>
+                  <c:v>1.460926091314155</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.491270955135659</c:v>
+                  <c:v>1.479552874780118</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.511202483097904</c:v>
+                  <c:v>1.498800513617065</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.53181039579835</c:v>
+                  <c:v>1.518692143307466</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.553120777707617</c:v>
+                  <c:v>1.539251908298908</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.575160863689934</c:v>
+                  <c:v>1.560505013016463</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.597959098324317</c:v>
+                  <c:v>1.582477785267452</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.621545198558387</c:v>
+                  <c:v>1.605198205313227</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.64595035488487</c:v>
+                  <c:v>1.628694546272275</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.67120731891021</c:v>
+                  <c:v>1.652997384958763</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.697349872330565</c:v>
+                  <c:v>1.678138684294878</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.72441432239515</c:v>
+                  <c:v>1.704151865928786</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.752438656587906</c:v>
+                  <c:v>1.731071886972237</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.781462632754429</c:v>
+                  <c:v>1.758935321101331</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.811527874424931</c:v>
+                  <c:v>1.787780444277735</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.842677971643748</c:v>
+                  <c:v>1.817647581674977</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.874958839052246</c:v>
+                  <c:v>1.848578711385218</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.908418464238687</c:v>
+                  <c:v>1.880618253987996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.943107664170699</c:v>
+                  <c:v>1.91381292471743</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.979079978416958</c:v>
+                  <c:v>1.948211684730142</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.016391563552713</c:v>
+                  <c:v>1.983865863589506</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.055101338643461</c:v>
+                  <c:v>2.020829288803732</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.095271454866833</c:v>
+                  <c:v>2.059158816373287</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.13696678973279</c:v>
+                  <c:v>2.09891350831655</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.18025630072308</c:v>
+                  <c:v>2.140156247993459</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.225212673483423</c:v>
+                  <c:v>2.1829530624123</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.271912286312352</c:v>
+                  <c:v>2.227373290113763</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.320435419726404</c:v>
+                  <c:v>2.273489765728509</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.370866906793924</c:v>
+                  <c:v>2.321379170130479</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.423295460507199</c:v>
+                  <c:v>2.371122071490334</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.477815521900297</c:v>
+                  <c:v>2.422803237569199</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.534526676359371</c:v>
+                  <c:v>2.476512391230027</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.5935337442607</c:v>
+                  <c:v>2.532343898107998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.654947080922312</c:v>
+                  <c:v>2.590397026933473</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.718883442652757</c:v>
+                  <c:v>2.650776223974929</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.785465197040258</c:v>
+                  <c:v>2.713591670201215</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.854822636536535</c:v>
+                  <c:v>2.778959089296718</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.927093198383958</c:v>
+                  <c:v>2.847000826455437</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.00242173663588</c:v>
+                  <c:v>2.917845936778749</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.080960942922573</c:v>
+                  <c:v>2.991630318194274</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.162872406263028</c:v>
+                  <c:v>3.068497086194161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.248325935743931</c:v>
+                  <c:v>3.148596965874894</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.337501982889314</c:v>
+                  <c:v>3.232088866979462</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.430590902691946</c:v>
+                  <c:v>3.319140289798584</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.527793449979203</c:v>
+                  <c:v>3.409927734752358</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.629321353353532</c:v>
+                  <c:v>3.504637089460812</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.735398297538175</c:v>
+                  <c:v>3.603464102199668</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.846260168153268</c:v>
+                  <c:v>3.706614873619528</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.962156224033797</c:v>
+                  <c:v>3.814306351947415</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.083349230662177</c:v>
+                  <c:v>3.926766782232171</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.210116121787147</c:v>
+                  <c:v>4.044236098318018</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.342748648828215</c:v>
+                  <c:v>4.166966383851315</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.481554172984744</c:v>
+                  <c:v>4.295222886152536</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.62685621041517</c:v>
+                  <c:v>4.42928320061141</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.778994670722144</c:v>
+                  <c:v>4.569438590783281</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.938326273905616</c:v>
+                  <c:v>4.715994175958453</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.10522705990583</c:v>
+                  <c:v>4.869269986985542</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.28009085636577</c:v>
+                  <c:v>5.029598873402583</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.463327458357972</c:v>
+                  <c:v>5.197328223882994</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.655365932938949</c:v>
+                  <c:v>5.372820045721989</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.856654926227536</c:v>
+                  <c:v>5.556451963783593</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.067661906138018</c:v>
+                  <c:v>5.748613028949192</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.288871187755201</c:v>
+                  <c:v>5.949705155682529</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.520783042258148</c:v>
+                  <c:v>6.160143466080356</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.763914881519993</c:v>
+                  <c:v>6.380356379701647</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.018799080895028</c:v>
+                  <c:v>6.610779099404485</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.285977914013257</c:v>
+                  <c:v>6.851852398402583</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.56600536628885</c:v>
+                  <c:v>7.104025004058324</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.859442465383775</c:v>
+                  <c:v>7.367748801815326</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.166848911775848</c:v>
+                  <c:v>7.643470936159301</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.488784908740472</c:v>
+                  <c:v>7.931631666994186</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.825802435322599</c:v>
+                  <c:v>8.232662364687151</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.178432395694697</c:v>
+                  <c:v>8.5469754240364</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.547186045613108</c:v>
+                  <c:v>8.874954140382401</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.932540302630125</c:v>
+                  <c:v>9.216951954188492</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>10.33491908739449</c:v>
+                  <c:v>9.573278964814248</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>10.75469381504252</c:v>
+                  <c:v>9.944182554037951</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>11.19216059283114</c:v>
+                  <c:v>10.32984855289077</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>11.64751462610317</c:v>
+                  <c:v>10.7303825753865</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12.1208500488023</c:v>
+                  <c:v>11.14578003743943</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12.61212551240888</c:v>
+                  <c:v>11.57592925819196</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>13.12113308923185</c:v>
+                  <c:v>12.02058851152159</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>13.64749903293009</c:v>
+                  <c:v>12.47934396414452</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14.19063274835605</c:v>
+                  <c:v>12.95161547602195</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>14.74969794569135</c:v>
+                  <c:v>13.43663212050851</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>15.32361368352394</c:v>
+                  <c:v>13.93338043665318</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.91098981974437</c:v>
+                  <c:v>14.44061383488151</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>16.51010885806027</c:v>
+                  <c:v>14.95683203168992</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>17.11892979582368</c:v>
+                  <c:v>15.48022913664496</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>17.73502233481879</c:v>
+                  <c:v>16.00870818953767</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>18.3555705348505</c:v>
+                  <c:v>16.53987289083013</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>18.97738504540262</c:v>
+                  <c:v>17.07099346672459</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>19.59686090490362</c:v>
+                  <c:v>17.59903006957841</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>20.21001315468777</c:v>
+                  <c:v>18.1206467599345</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>20.81250579865529</c:v>
+                  <c:v>18.63221636701289</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>21.39966813492651</c:v>
+                  <c:v>19.129862302276</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>21.96656116515048</c:v>
+                  <c:v>19.60950170390921</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22.50804303345005</c:v>
+                  <c:v>20.06688967766939</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23.01885102706362</c:v>
+                  <c:v>20.49772312546467</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>23.49369983855467</c:v>
+                  <c:v>20.89767415807521</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>24.22126764439578</c:v>
+                  <c:v>21.52800979682246</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>25.50073039552843</c:v>
+                  <c:v>22.65447850507148</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>27.33037534657847</c:v>
+                  <c:v>24.26350489687125</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>29.69181906832227</c:v>
+                  <c:v>26.32150679062023</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>32.55009678302523</c:v>
+                  <c:v>28.77797099564505</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>35.85459843921888</c:v>
+                  <c:v>31.56943013059102</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>39.54065169846891</c:v>
+                  <c:v>34.62377350024941</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>43.53185507239539</c:v>
+                  <c:v>37.86431269890067</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>47.74290139140591</c:v>
+                  <c:v>41.21331021369426</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>52.08280018126515</c:v>
+                  <c:v>44.5948937207807</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>56.45828794065649</c:v>
+                  <c:v>47.93738486122524</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>60.77724847655065</c:v>
+                  <c:v>51.17503880716882</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>64.95192853708045</c:v>
+                  <c:v>54.24933631077716</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>68.90180159433106</c:v>
+                  <c:v>57.10986910131115</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>72.55593629355926</c:v>
+                  <c:v>59.71487744555159</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>75.85477970104147</c:v>
+                  <c:v>62.0314820940707</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>78.75130913181451</c:v>
+                  <c:v>64.03564519440638</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>81.21155170705511</c:v>
+                  <c:v>65.71189190558667</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>83.21451053967132</c:v>
+                  <c:v>67.05282439008263</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>84.75156911760506</c:v>
+                  <c:v>68.05846293448313</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>85.8254677905573</c:v>
+                  <c:v>68.73544970522907</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>86.44895916817921</c:v>
+                  <c:v>69.0961331477359</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>86.64325188939311</c:v>
+                  <c:v>69.15763391406959</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>86.43634774953853</c:v>
+                  <c:v>68.94085813364423</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>85.8613674606666</c:v>
+                  <c:v>68.46950654563895</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>84.95492673624976</c:v>
+                  <c:v>67.76915877758478</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>83.75568350536896</c:v>
+                  <c:v>66.86640331179929</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>82.30298248340249</c:v>
+                  <c:v>65.78808222128694</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>80.6357441393006</c:v>
+                  <c:v>64.560641016586</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>78.79154958042292</c:v>
+                  <c:v>63.20954527182653</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>76.80594292582821</c:v>
+                  <c:v>61.75887677558946</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>74.71189907628457</c:v>
+                  <c:v>60.23099914349724</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>72.5394084191102</c:v>
+                  <c:v>58.64635084522983</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>70.31548672579825</c:v>
+                  <c:v>57.02331139481328</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>68.06378240599564</c:v>
+                  <c:v>55.37815783619345</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>65.80498604886476</c:v>
+                  <c:v>53.72511716077934</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>63.55665497024416</c:v>
+                  <c:v>52.07635804437678</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>61.33357371196276</c:v>
+                  <c:v>50.44223938261042</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>59.14789388946284</c:v>
+                  <c:v>48.83129588934174</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>57.0093849716577</c:v>
+                  <c:v>47.25053650189945</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>54.9257462737684</c:v>
+                  <c:v>45.70550314619268</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>52.90278193459519</c:v>
+                  <c:v>44.20050257305876</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>50.94469866041554</c:v>
+                  <c:v>42.7387419579741</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>49.05435403191176</c:v>
+                  <c:v>41.32247448516186</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>47.23340973799796</c:v>
+                  <c:v>39.95318078755404</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>45.48259004032242</c:v>
+                  <c:v>38.63163380214488</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>43.8018317338607</c:v>
+                  <c:v>37.35809202052506</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>42.19041927849518</c:v>
+                  <c:v>36.13232765133209</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>40.64716655598935</c:v>
+                  <c:v>34.95377850232391</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>39.17046641667604</c:v>
+                  <c:v>33.82157837751259</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>37.75845476610531</c:v>
+                  <c:v>32.73465865186436</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>36.40903246212326</c:v>
+                  <c:v>31.69176819740114</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>35.11997766097034</c:v>
+                  <c:v>30.69156087849453</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>33.88896516405232</c:v>
+                  <c:v>29.73258749671692</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>32.71364300647398</c:v>
+                  <c:v>28.81337128565538</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>31.59162794198499</c:v>
+                  <c:v>27.93239430946468</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>30.52057958375372</c:v>
+                  <c:v>27.08814731806315</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>29.4981765944496</c:v>
+                  <c:v>26.2791270590549</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>28.52216320491121</c:v>
+                  <c:v>25.50384980179983</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>27.59035205311008</c:v>
+                  <c:v>24.76087456993344</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>26.70061930193453</c:v>
+                  <c:v>24.04879146830699</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>25.85093189468827</c:v>
+                  <c:v>23.36623525172299</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>25.03933691678957</c:v>
+                  <c:v>22.71189348010742</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>24.26396202237842</c:v>
+                  <c:v>22.08449811415708</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>23.52302337385674</c:v>
+                  <c:v>21.48282992546365</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>22.81482172570595</c:v>
+                  <c:v>20.90572345391048</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>22.13773585719179</c:v>
+                  <c:v>20.35206418923149</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>21.49022628992563</c:v>
+                  <c:v>19.82078446724064</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>20.87083258627138</c:v>
+                  <c:v>19.31086443035487</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>20.27816503728541</c:v>
+                  <c:v>18.82133245125078</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>19.71090779442436</c:v>
+                  <c:v>18.35126268575234</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>19.16781399219655</c:v>
+                  <c:v>17.8997725730458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>18.64770123770617</c:v>
+                  <c:v>17.4660214446261</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>18.14944834975743</c:v>
+                  <c:v>17.04920916721172</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>17.67199365166256</c:v>
+                  <c:v>16.64857439119122</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>17.21433030663852</c:v>
+                  <c:v>16.26339273584912</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>16.77550757089042</c:v>
+                  <c:v>15.89297529315015</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>16.35462403154733</c:v>
+                  <c:v>15.53666608789798</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.95082529023611</c:v>
+                  <c:v>15.19384174409275</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>15.56330113758282</c:v>
+                  <c:v>14.86390974747224</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>15.1912857240732</c:v>
+                  <c:v>14.54630631476888</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>14.83405438105772</c:v>
+                  <c:v>14.24049495609404</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>14.49091925512521</c:v>
+                  <c:v>13.94596568574283</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>14.16122860824087</c:v>
+                  <c:v>13.66223242648979</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.84436362409416</c:v>
+                  <c:v>13.38883403668496</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>13.53974042316873</c:v>
+                  <c:v>13.12533161877752</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>13.24680456400659</c:v>
+                  <c:v>12.87130721200724</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>12.96503018609938</c:v>
+                  <c:v>12.62636289362662</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>12.69391657879026</c:v>
+                  <c:v>12.39011980541951</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>12.43298971847275</c:v>
+                  <c:v>12.16221709319375</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>12.18180221305974</c:v>
+                  <c:v>11.94231201373202</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11.9399284068728</c:v>
+                  <c:v>11.73007783056742</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>11.70696321485596</c:v>
+                  <c:v>11.52520299723222</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>11.482522134244</c:v>
+                  <c:v>11.32739139707958</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>11.26623857452098</c:v>
+                  <c:v>11.13635872637683</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>11.0577657745419</c:v>
+                  <c:v>10.95183526390084</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10.8567754467253</c:v>
+                  <c:v>10.77356473628295</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>10.66295469121396</c:v>
+                  <c:v>10.60130247847243</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>10.47600518655107</c:v>
+                  <c:v>10.43481484992134</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>10.29564349388358</c:v>
+                  <c:v>10.27387868159176</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10.12159854020203</c:v>
+                  <c:v>10.11828075219723</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9.953614119574022</c:v>
+                  <c:v>9.967818279266808</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.791446953156559</c:v>
+                  <c:v>9.822296064918721</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.634864736722665</c:v>
+                  <c:v>9.681528890266168</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.483645578222557</c:v>
+                  <c:v>9.545340340483865</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.33757845933723</c:v>
+                  <c:v>9.413561642190748</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.196460938671388</c:v>
+                  <c:v>9.286031291030321</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.06010181418862</c:v>
+                  <c:v>9.162594698816923</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>8.928318982476082</c:v>
+                  <c:v>9.04310385919052</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8.800938239825804</c:v>
+                  <c:v>8.92741790174307</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.677792889375713</c:v>
+                  <c:v>8.815400623124752</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.558724282145727</c:v>
+                  <c:v>8.706922896998426</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.443579747354907</c:v>
+                  <c:v>8.601861430367109</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.332215194817403</c:v>
+                  <c:v>8.500098032870842</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.224492987584812</c:v>
+                  <c:v>8.401519377994141</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.120281233388544</c:v>
+                  <c:v>8.30601677654823</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.019453508229105</c:v>
+                  <c:v>8.213485961761879</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7.921889439865892</c:v>
+                  <c:v>8.12382765498063</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7.827472821808393</c:v>
+                  <c:v>8.036945405429663</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7.736094081922553</c:v>
+                  <c:v>7.95274792351672</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.647648264194228</c:v>
+                  <c:v>7.871147831684974</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7.562034635341807</c:v>
+                  <c:v>7.792061217833712</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.479156488715534</c:v>
+                  <c:v>7.71540748060173</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.398921536420657</c:v>
+                  <c:v>7.641109182368385</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.321241068249</c:v>
+                  <c:v>7.569091909560147</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.246030954398167</c:v>
+                  <c:v>7.499284341872244</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.173210381020351</c:v>
+                  <c:v>7.43161831247881</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7.102701677662504</c:v>
+                  <c:v>7.36602830441401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2608,787 +2608,787 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="0">
-                  <c:v>334.6688883074813</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335.2399972323486</c:v>
+                  <c:v>300.4693042810783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335.8287559813696</c:v>
+                  <c:v>300.9529494041096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.4354451246813</c:v>
+                  <c:v>301.4511501487277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>337.0603607932728</c:v>
+                  <c:v>301.9641337787384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>337.703799118133</c:v>
+                  <c:v>302.4921275579473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338.3660643169121</c:v>
+                  <c:v>303.0353822714803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>339.0474573885525</c:v>
+                  <c:v>303.5941110349486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>339.7483085013146</c:v>
+                  <c:v>304.1685330936473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>340.4689615256806</c:v>
+                  <c:v>304.7589260458186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>341.2097603321331</c:v>
+                  <c:v>305.3655674897047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>341.971084756366</c:v>
+                  <c:v>305.9887350235478</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>342.7532422535672</c:v>
+                  <c:v>306.6287062455901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>343.5566033090611</c:v>
+                  <c:v>307.2857587540738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>344.3815831997736</c:v>
+                  <c:v>307.9601741161143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>345.2285972026305</c:v>
+                  <c:v>308.6522844767468</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>346.0980605945575</c:v>
+                  <c:v>309.3623173350931</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>346.9903886524808</c:v>
+                  <c:v>310.0906187891196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>347.9059966533258</c:v>
+                  <c:v>310.8375349367927</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>348.8453727084341</c:v>
+                  <c:v>311.6034118760787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>349.8088734962693</c:v>
+                  <c:v>312.388595704944</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>350.7970090031098</c:v>
+                  <c:v>313.193432521355</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>351.810291864906</c:v>
+                  <c:v>314.0182684232781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>352.8492347176087</c:v>
+                  <c:v>314.8635054589283</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>353.9143501971683</c:v>
+                  <c:v>315.7294484844023</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>355.0061509395354</c:v>
+                  <c:v>316.6164910299347</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>356.1251890368022</c:v>
+                  <c:v>317.5250597131962</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>357.2719805082382</c:v>
+                  <c:v>318.4555811518577</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>358.4470555173342</c:v>
+                  <c:v>319.40848196359</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>359.6510439667679</c:v>
+                  <c:v>320.384188766064</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>360.8845757592167</c:v>
+                  <c:v>321.3831281769505</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>362.1482807973582</c:v>
+                  <c:v>322.405764210527</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>363.4427889838701</c:v>
+                  <c:v>323.4525292451272</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>364.7687302214299</c:v>
+                  <c:v>324.5238471017334</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>366.1268234356497</c:v>
+                  <c:v>325.6202399903329</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>367.5176328068781</c:v>
+                  <c:v>326.742230120913</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>368.9418952783541</c:v>
+                  <c:v>327.8903397034605</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>370.4003836156301</c:v>
+                  <c:v>329.065090947963</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>371.8938705842581</c:v>
+                  <c:v>330.2670060644074</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>373.4231289497904</c:v>
+                  <c:v>331.4966092660808</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>374.988931477779</c:v>
+                  <c:v>332.7545245585455</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>376.5920818196223</c:v>
+                  <c:v>334.0411792787848</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>378.2334168340814</c:v>
+                  <c:v>335.3572095088467</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>379.913669258021</c:v>
+                  <c:v>336.7032513307795</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>381.6337870201476</c:v>
+                  <c:v>338.0799408266313</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>383.394718049168</c:v>
+                  <c:v>339.4879140784504</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>385.1974102737886</c:v>
+                  <c:v>340.9278071682849</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>387.0428116227161</c:v>
+                  <c:v>342.4002561781828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>388.9318700246571</c:v>
+                  <c:v>343.9059456856052</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>390.8655858206375</c:v>
+                  <c:v>345.4455138171734</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>392.8449334424223</c:v>
+                  <c:v>347.0196819874569</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>394.8709923216164</c:v>
+                  <c:v>348.6292031249844</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>396.9448931883335</c:v>
+                  <c:v>350.2748301582847</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>399.067766772687</c:v>
+                  <c:v>351.9573160158868</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>401.2407438047907</c:v>
+                  <c:v>353.6774136263194</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>403.4650157933754</c:v>
+                  <c:v>355.4359438506281</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>405.7417038018276</c:v>
+                  <c:v>357.2336260941419</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>408.0720842614917</c:v>
+                  <c:v>359.0713305372789</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>410.4574791996412</c:v>
+                  <c:v>360.9499285330662</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>412.8992106435493</c:v>
+                  <c:v>362.8702914345308</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>415.3986006204894</c:v>
+                  <c:v>364.8332905946999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>417.9570467159315</c:v>
+                  <c:v>366.8398218771156</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>420.5758587728366</c:v>
+                  <c:v>368.8907780824387</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>423.2565387546435</c:v>
+                  <c:v>370.9870635589818</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>426.0006232223027</c:v>
+                  <c:v>373.1296723749479</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>428.809648736765</c:v>
+                  <c:v>375.3195985985395</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>431.6851518589808</c:v>
+                  <c:v>377.5578362979593</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>434.6287569622465</c:v>
+                  <c:v>379.8453795414099</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>437.6419921214195</c:v>
+                  <c:v>382.1832601495886</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>440.7265997573162</c:v>
+                  <c:v>384.5724757284785</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>443.8843431017267</c:v>
+                  <c:v>387.0140956266747</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>447.1169853864412</c:v>
+                  <c:v>389.5092213902623</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>450.4262898432496</c:v>
+                  <c:v>392.0589545653261</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>453.8141083438439</c:v>
+                  <c:v>394.6643966979512</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>457.2822124116619</c:v>
+                  <c:v>397.3266493342225</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>460.8325677578094</c:v>
+                  <c:v>400.0468345262498</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>464.4671465323954</c:v>
+                  <c:v>402.8260903318078</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>468.187920885529</c:v>
+                  <c:v>405.6655650769229</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>471.9968644316863</c:v>
+                  <c:v>408.5664076245738</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>475.896002822592</c:v>
+                  <c:v>411.5297668377392</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>479.8873634618644</c:v>
+                  <c:v>414.556791579398</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>483.9730419830429</c:v>
+                  <c:v>417.6486297628044</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>488.155134019667</c:v>
+                  <c:v>420.8064215553608</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>492.4357352052762</c:v>
+                  <c:v>424.0312867744994</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>496.816938604949</c:v>
+                  <c:v>427.3243208325654</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>501.3008478517421</c:v>
+                  <c:v>430.6866471209001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>505.8895616179938</c:v>
+                  <c:v>434.119284108656</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>510.5851281994574</c:v>
+                  <c:v>437.623236357553</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>515.3895269125497</c:v>
+                  <c:v>441.1994705291326</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>520.3048689341754</c:v>
+                  <c:v>444.8489775166057</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>525.3331724680929</c:v>
+                  <c:v>448.5725496833277</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>530.4761464032377</c:v>
+                  <c:v>452.370927387066</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>535.7354996285452</c:v>
+                  <c:v>456.244794225136</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>541.1129410329505</c:v>
+                  <c:v>460.1948583526816</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>546.610095233537</c:v>
+                  <c:v>464.2215135159805</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>552.2283382156254</c:v>
+                  <c:v>468.3250064502988</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>557.9687688038019</c:v>
+                  <c:v>472.5055134978084</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>563.8323808983756</c:v>
+                  <c:v>476.7632053734405</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>569.8199630789366</c:v>
+                  <c:v>481.0978418380019</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>575.9318144587074</c:v>
+                  <c:v>485.5088286828504</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>582.1680693185865</c:v>
+                  <c:v>489.9955451786986</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>588.5285267051647</c:v>
+                  <c:v>494.5571710885729</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>595.0122810431535</c:v>
+                  <c:v>499.1923723204997</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>601.6181862922693</c:v>
+                  <c:v>503.8994429619821</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>608.344576752294</c:v>
+                  <c:v>508.6764801296043</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>615.1888173821599</c:v>
+                  <c:v>513.5210939404279</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>622.1479281246887</c:v>
+                  <c:v>518.4302145912774</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>629.2181628070556</c:v>
+                  <c:v>523.4005222562715</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>636.3944906890206</c:v>
+                  <c:v>528.4281664410566</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>643.6713972585242</c:v>
+                  <c:v>533.5082779442787</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>651.0422904639934</c:v>
+                  <c:v>538.6357010588007</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>658.4989363753539</c:v>
+                  <c:v>543.8046706086021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>666.0324809873717</c:v>
+                  <c:v>549.0080499834871</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>673.6325691231941</c:v>
+                  <c:v>554.2383462415096</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>681.2868640679228</c:v>
+                  <c:v>559.4874111223302</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>688.9823365866197</c:v>
+                  <c:v>564.7453772744831</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>696.7038704043454</c:v>
+                  <c:v>570.0019194675716</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>704.4341985493633</c:v>
+                  <c:v>575.2460504948322</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>712.1552696950391</c:v>
+                  <c:v>580.4648236333092</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>719.8464305024422</c:v>
+                  <c:v>585.6447111960847</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>727.4848962492177</c:v>
+                  <c:v>590.7715524186684</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>735.0470196666523</c:v>
+                  <c:v>595.8292350004051</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>742.5063306679806</c:v>
+                  <c:v>600.8009669937129</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>749.8345234088155</c:v>
+                  <c:v>605.6693900687345</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>757.0024151891465</c:v>
+                  <c:v>610.4155738671434</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>763.9783661516572</c:v>
+                  <c:v>615.0199413754699</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>770.7295372873614</c:v>
+                  <c:v>619.4624915219712</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>777.22234794735</c:v>
+                  <c:v>623.7223984267896</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>783.4219885512074</c:v>
+                  <c:v>627.7785550265602</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>789.2933352014672</c:v>
+                  <c:v>631.6097612251931</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>794.8012660964981</c:v>
+                  <c:v>635.1945894192776</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>799.911074641967</c:v>
+                  <c:v>638.5127936670261</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>804.5889930417626</c:v>
+                  <c:v>641.5441337027037</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>818.7364373310717</c:v>
+                  <c:v>652.3145207784695</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>852.1472435301471</c:v>
+                  <c:v>678.6127370877836</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>904.3570519193388</c:v>
+                  <c:v>719.7037778474001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>974.5519541628458</c:v>
+                  <c:v>774.4347853064332</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1061.588373218377</c:v>
+                  <c:v>841.3369317409544</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1164.025245622517</c:v>
+                  <c:v>918.7348542238801</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1280.16157676384</c:v>
+                  <c:v>1004.850092235572</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1408.083737054955</c:v>
+                  <c:v>1097.886132744784</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1545.716251481746</c:v>
+                  <c:v>1196.091424560226</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1690.876398364327</c:v>
+                  <c:v>1297.802431409422</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1841.329764674382</c:v>
+                  <c:v>1401.471017568676</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1994.845318677543</c:v>
+                  <c:v>1505.678626491136</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2149.247270240048</c:v>
+                  <c:v>1609.14313305227</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2302.462689977143</c:v>
+                  <c:v>1710.720667301606</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2452.563163099088</c:v>
+                  <c:v>1809.404679386085</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2597.799462684385</c:v>
+                  <c:v>1904.323569278997</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2736.628524292042</c:v>
+                  <c:v>1994.737584124919</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2867.732393371684</c:v>
+                  <c:v>2080.035265524058</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2990.029166022397</c:v>
+                  <c:v>2159.729453709273</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3102.676284151507</c:v>
+                  <c:v>2233.452747501227</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3205.06681104043</c:v>
+                  <c:v>2300.952216451886</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3296.819541317817</c:v>
+                  <c:v>2362.082510700908</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3377.763935649598</c:v>
+                  <c:v>2416.799322879739</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3447.920978047551</c:v>
+                  <c:v>2465.150816358208</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3507.481144585546</c:v>
+                  <c:v>2507.26741018643</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3556.779897550912</c:v>
+                  <c:v>2543.351758546811</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3596.274199090645</c:v>
+                  <c:v>2573.667197095031</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3626.516165803992</c:v>
+                  <c:v>2598.526705532936</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3648.12957881185</c:v>
+                  <c:v>2618.281909281648</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3661.787513050394</c:v>
+                  <c:v>2633.310539029942</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3668.192599468704</c:v>
+                  <c:v>2644.007042057072</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3668.058371656216</c:v>
+                  <c:v>2650.772421927089</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3662.090100656294</c:v>
+                  <c:v>2654.006142391912</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3650.981749902613</c:v>
+                  <c:v>2654.098410849611</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3635.388861400232</c:v>
+                  <c:v>2651.424169278921</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3615.939306484166</c:v>
+                  <c:v>2646.339844182854</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3593.212032006117</c:v>
+                  <c:v>2639.175866644057</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3567.742794662448</c:v>
+                  <c:v>2630.240979208231</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3540.017796831989</c:v>
+                  <c:v>2619.81318606541</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3510.473396718087</c:v>
+                  <c:v>2608.14653566709</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3479.500319977104</c:v>
+                  <c:v>2595.465869368214</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3447.440535398813</c:v>
+                  <c:v>2581.971204755516</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3414.592772453429</c:v>
+                  <c:v>2567.83767766255</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3381.216661044576</c:v>
+                  <c:v>2553.216680125117</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3347.531902912856</c:v>
+                  <c:v>2538.240098463536</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3313.726008647095</c:v>
+                  <c:v>2523.018283889709</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3279.956257820603</c:v>
+                  <c:v>2507.646881552913</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3246.351772963505</c:v>
+                  <c:v>2492.204007724586</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3213.020498205373</c:v>
+                  <c:v>2476.75622181521</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3180.047394160318</c:v>
+                  <c:v>2461.357144189241</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3147.502566595364</c:v>
+                  <c:v>2446.051577200153</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3115.439186455964</c:v>
+                  <c:v>2430.874424957945</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3083.899530276472</c:v>
+                  <c:v>2415.855083619143</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3052.914081608565</c:v>
+                  <c:v>2401.015114248389</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3022.506157885834</c:v>
+                  <c:v>2386.372707600325</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2992.689912601825</c:v>
+                  <c:v>2371.940505263011</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2963.475934215575</c:v>
+                  <c:v>2357.728778251883</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2934.868189569796</c:v>
+                  <c:v>2343.744565927499</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2906.86784621177</c:v>
+                  <c:v>2329.992285782333</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2879.473267520045</c:v>
+                  <c:v>2316.475454058986</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2852.679291065854</c:v>
+                  <c:v>2303.195402182735</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2826.480013401359</c:v>
+                  <c:v>2290.152347538351</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2800.867810925548</c:v>
+                  <c:v>2277.346138252793</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2775.833534284206</c:v>
+                  <c:v>2264.775447705407</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2751.367652167974</c:v>
+                  <c:v>2252.438234414809</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2727.46016273037</c:v>
+                  <c:v>2240.332355991164</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2704.100181722366</c:v>
+                  <c:v>2228.455435190057</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2681.276768498699</c:v>
+                  <c:v>2216.80457654406</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2658.979046473297</c:v>
+                  <c:v>2205.376635112868</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2637.195602748993</c:v>
+                  <c:v>2194.168465956174</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2615.915322109437</c:v>
+                  <c:v>2183.176866600493</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2595.12723106486</c:v>
+                  <c:v>2172.398504995435</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2574.820356125495</c:v>
+                  <c:v>2161.829973821281</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2554.983723801576</c:v>
+                  <c:v>2151.4678523881</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2535.606566299273</c:v>
+                  <c:v>2141.308720005963</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2516.678100047649</c:v>
+                  <c:v>2131.349155984939</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2498.188139894079</c:v>
+                  <c:v>2121.585774622408</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2480.126546338559</c:v>
+                  <c:v>2112.015114005999</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2462.483274273559</c:v>
+                  <c:v>2102.633809132899</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2445.248327307985</c:v>
+                  <c:v>2093.438577454417</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2428.412166308341</c:v>
+                  <c:v>2084.426136421862</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2411.965595919408</c:v>
+                  <c:v>2075.593203486544</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2395.899420785966</c:v>
+                  <c:v>2066.936582804829</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2380.204662658965</c:v>
+                  <c:v>2058.452978979267</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2364.87235510609</c:v>
+                  <c:v>2050.139337246297</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2349.894203508973</c:v>
+                  <c:v>2041.992629421065</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2335.261966046984</c:v>
+                  <c:v>2034.009827318718</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2320.96758673986</c:v>
+                  <c:v>2026.187930187809</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2307.002856991885</c:v>
+                  <c:v>2018.523973802207</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2293.359946926169</c:v>
+                  <c:v>2011.015017309052</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2280.031672191885</c:v>
+                  <c:v>2003.658316294667</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2267.010848438209</c:v>
+                  <c:v>1996.451126345376</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2254.290291314314</c:v>
+                  <c:v>1989.390703047503</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2241.863033839589</c:v>
+                  <c:v>1982.474479486436</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2229.72201884282</c:v>
+                  <c:v>1975.699566922282</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2217.860673719772</c:v>
+                  <c:v>1969.063355410348</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2206.272855133348</c:v>
+                  <c:v>1962.563446153086</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2194.952419746452</c:v>
+                  <c:v>1956.197440352945</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2183.893224221986</c:v>
+                  <c:v>1949.962939212377</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2173.089350827438</c:v>
+                  <c:v>1943.857543933833</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2162.534737898957</c:v>
+                  <c:v>1937.878855719762</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2152.223858771811</c:v>
+                  <c:v>1932.024667100651</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2142.151469774163</c:v>
+                  <c:v>1926.292505606214</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2132.312327234175</c:v>
+                  <c:v>1920.68018101697</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2122.701187480013</c:v>
+                  <c:v>1915.185650493605</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2113.313031643797</c:v>
+                  <c:v>1909.806871196811</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2104.142667479993</c:v>
+                  <c:v>1904.541800287273</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2095.185444971206</c:v>
+                  <c:v>1899.38839492568</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2086.436889526292</c:v>
+                  <c:v>1894.344612272721</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2077.892526554107</c:v>
+                  <c:v>1889.408593821269</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2069.547881463506</c:v>
+                  <c:v>1884.578211111083</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2061.398699526384</c:v>
+                  <c:v>1879.851633558272</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2053.440538823501</c:v>
+                  <c:v>1875.227130905097</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2045.669481427831</c:v>
+                  <c:v>1870.702972893817</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2038.081708821998</c:v>
+                  <c:v>1866.277429266692</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2030.673402488627</c:v>
+                  <c:v>1861.948769765982</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2023.440743910342</c:v>
+                  <c:v>1857.715264133945</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2016.380129762688</c:v>
+                  <c:v>1853.575357715656</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2009.487760734478</c:v>
+                  <c:v>1849.527226421701</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2002.760332763323</c:v>
+                  <c:v>1845.569349057697</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1996.194588899151</c:v>
+                  <c:v>1841.700268598039</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1989.787272191887</c:v>
+                  <c:v>1837.918528017122</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1983.535125691457</c:v>
+                  <c:v>1834.222670289343</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1977.435046987363</c:v>
+                  <c:v>1830.611238389098</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1971.483915147254</c:v>
+                  <c:v>1827.082775290782</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1965.678907211805</c:v>
+                  <c:v>1823.635873089824</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1960.017206731583</c:v>
+                  <c:v>1820.269220446972</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1954.495997257154</c:v>
+                  <c:v>1816.981511283165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,784 +4313,784 @@
                   <c:v>1.088759781086738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.095279724255</c:v>
+                  <c:v>1.095124304402439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.102030373963943</c:v>
+                  <c:v>1.101712746602582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.109017691477719</c:v>
+                  <c:v>1.10853079216579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.116247917968771</c:v>
+                  <c:v>1.115584390688094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.123727533055392</c:v>
+                  <c:v>1.122879720241499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.131463291448335</c:v>
+                  <c:v>1.130423284202726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.139462195711312</c:v>
+                  <c:v>1.138221693580711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.14773161600145</c:v>
+                  <c:v>1.146281838552179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.15627925126898</c:v>
+                  <c:v>1.154611097325773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.165113095555885</c:v>
+                  <c:v>1.163217130831776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.174241573970419</c:v>
+                  <c:v>1.17210789457867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.183673185158155</c:v>
+                  <c:v>1.181291651094135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.193416978300797</c:v>
+                  <c:v>1.190776982981427</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.203482510177299</c:v>
+                  <c:v>1.200572822096494</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.213879707813881</c:v>
+                  <c:v>1.210688647236364</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.224618884865305</c:v>
+                  <c:v>1.221133892828014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.235710758822451</c:v>
+                  <c:v>1.231918838755965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.24716646909152</c:v>
+                  <c:v>1.243054167954633</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.258997858855472</c:v>
+                  <c:v>1.254550984459901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.271216761830125</c:v>
+                  <c:v>1.266420832380255</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.28383604897434</c:v>
+                  <c:v>1.278675715838488</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.296869115080899</c:v>
+                  <c:v>1.291328119937972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.310329893268156</c:v>
+                  <c:v>1.30439126459699</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.324232880221064</c:v>
+                  <c:v>1.317878497283369</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.338593162754186</c:v>
+                  <c:v>1.331804084064057</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.35342659572216</c:v>
+                  <c:v>1.34618301397225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.36874954815194</c:v>
+                  <c:v>1.361030890753757</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.384579122876961</c:v>
+                  <c:v>1.376363962148873</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.400933524947639</c:v>
+                  <c:v>1.392199150729688</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4178317210723</c:v>
+                  <c:v>1.408554086382393</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.435293477053854</c:v>
+                  <c:v>1.42544730587052</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.453339397255754</c:v>
+                  <c:v>1.442897988361219</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.471990966216154</c:v>
+                  <c:v>1.460926091314155</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.491270955135659</c:v>
+                  <c:v>1.479552874780118</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.511202483097904</c:v>
+                  <c:v>1.498800513617065</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.53181039579835</c:v>
+                  <c:v>1.518692143307466</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.553120777707617</c:v>
+                  <c:v>1.539251908298908</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.575160863689934</c:v>
+                  <c:v>1.560505013016463</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.597959098324317</c:v>
+                  <c:v>1.582477785267452</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.621545198558387</c:v>
+                  <c:v>1.605198205313227</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.64595035488487</c:v>
+                  <c:v>1.628694546272275</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.67120731891021</c:v>
+                  <c:v>1.652997384958763</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.697349872330565</c:v>
+                  <c:v>1.678138684294878</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.72441432239515</c:v>
+                  <c:v>1.704151865928786</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.752438656587906</c:v>
+                  <c:v>1.731071886972237</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.781462632754429</c:v>
+                  <c:v>1.758935321101331</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.811527874424931</c:v>
+                  <c:v>1.787780444277735</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.842677971643748</c:v>
+                  <c:v>1.817647581674977</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.874958839052246</c:v>
+                  <c:v>1.848578711385218</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.908418464238687</c:v>
+                  <c:v>1.880618253987996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.943107664170699</c:v>
+                  <c:v>1.91381292471743</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.979079978416958</c:v>
+                  <c:v>1.948211684730142</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.016391563552713</c:v>
+                  <c:v>1.983865863589506</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.055101338643461</c:v>
+                  <c:v>2.020829288803732</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.095271454866833</c:v>
+                  <c:v>2.059158816373287</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.13696678973279</c:v>
+                  <c:v>2.09891350831655</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.18025630072308</c:v>
+                  <c:v>2.140156247993459</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.225212673483423</c:v>
+                  <c:v>2.1829530624123</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.271912286312352</c:v>
+                  <c:v>2.227373290113763</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.320435419726404</c:v>
+                  <c:v>2.273489765728509</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.370866906793924</c:v>
+                  <c:v>2.321379170130479</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.423295460507199</c:v>
+                  <c:v>2.371122071490334</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.477815521900297</c:v>
+                  <c:v>2.422803237569199</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.534526676359371</c:v>
+                  <c:v>2.476512391230027</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.5935337442607</c:v>
+                  <c:v>2.532343898107998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.654947080922312</c:v>
+                  <c:v>2.590397026933473</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.718883442652757</c:v>
+                  <c:v>2.650776223974929</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.785465197040258</c:v>
+                  <c:v>2.713591670201215</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.854822636536535</c:v>
+                  <c:v>2.778959089296718</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.927093198383958</c:v>
+                  <c:v>2.847000826455437</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.00242173663588</c:v>
+                  <c:v>2.917845936778749</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.080960942922573</c:v>
+                  <c:v>2.991630318194274</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.162872406263028</c:v>
+                  <c:v>3.068497086194161</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.248325935743931</c:v>
+                  <c:v>3.148596965874894</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.337501982889314</c:v>
+                  <c:v>3.232088866979462</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.430590902691946</c:v>
+                  <c:v>3.319140289798584</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.527793449979203</c:v>
+                  <c:v>3.409927734752358</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.629321353353532</c:v>
+                  <c:v>3.504637089460812</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.735398297538175</c:v>
+                  <c:v>3.603464102199668</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.846260168153268</c:v>
+                  <c:v>3.706614873619528</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.962156224033797</c:v>
+                  <c:v>3.814306351947415</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.083349230662177</c:v>
+                  <c:v>3.926766782232171</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.210116121787147</c:v>
+                  <c:v>4.044236098318018</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.342748648828215</c:v>
+                  <c:v>4.166966383851315</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.481554172984744</c:v>
+                  <c:v>4.295222886152536</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.62685621041517</c:v>
+                  <c:v>4.42928320061141</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.778994670722144</c:v>
+                  <c:v>4.569438590783281</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.938326273905616</c:v>
+                  <c:v>4.715994175958453</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.10522705990583</c:v>
+                  <c:v>4.869269986985542</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.28009085636577</c:v>
+                  <c:v>5.029598873402583</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.463327458357972</c:v>
+                  <c:v>5.197328223882994</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.655365932938949</c:v>
+                  <c:v>5.372820045721989</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.856654926227536</c:v>
+                  <c:v>5.556451963783593</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.067661906138018</c:v>
+                  <c:v>5.748613028949192</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.288871187755201</c:v>
+                  <c:v>5.949705155682529</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.520783042258148</c:v>
+                  <c:v>6.160143466080356</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.763914881519993</c:v>
+                  <c:v>6.380356379701647</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.018799080895028</c:v>
+                  <c:v>6.610779099404485</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.285977914013257</c:v>
+                  <c:v>6.851852398402583</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.56600536628885</c:v>
+                  <c:v>7.104025004058324</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.859442465383775</c:v>
+                  <c:v>7.367748801815326</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.166848911775848</c:v>
+                  <c:v>7.643470936159301</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.488784908740472</c:v>
+                  <c:v>7.931631666994186</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.825802435322599</c:v>
+                  <c:v>8.232662364687151</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.178432395694697</c:v>
+                  <c:v>8.5469754240364</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.547186045613108</c:v>
+                  <c:v>8.874954140382401</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.932540302630125</c:v>
+                  <c:v>9.216951954188492</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>10.33491908739449</c:v>
+                  <c:v>9.573278964814248</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>10.75469381504252</c:v>
+                  <c:v>9.944182554037951</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>11.19216059283114</c:v>
+                  <c:v>10.32984855289077</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>11.64751462610317</c:v>
+                  <c:v>10.7303825753865</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12.1208500488023</c:v>
+                  <c:v>11.14578003743943</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12.61212551240888</c:v>
+                  <c:v>11.57592925819196</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>13.12113308923185</c:v>
+                  <c:v>12.02058851152159</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>13.64749903293009</c:v>
+                  <c:v>12.47934396414452</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14.19063274835605</c:v>
+                  <c:v>12.95161547602195</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>14.74969794569135</c:v>
+                  <c:v>13.43663212050851</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>15.32361368352394</c:v>
+                  <c:v>13.93338043665318</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.91098981974437</c:v>
+                  <c:v>14.44061383488151</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>16.51010885806027</c:v>
+                  <c:v>14.95683203168992</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>17.11892979582368</c:v>
+                  <c:v>15.48022913664496</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>17.73502233481879</c:v>
+                  <c:v>16.00870818953767</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>18.3555705348505</c:v>
+                  <c:v>16.53987289083013</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>18.97738504540262</c:v>
+                  <c:v>17.07099346672459</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>19.59686090490362</c:v>
+                  <c:v>17.59903006957841</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>20.21001315468777</c:v>
+                  <c:v>18.1206467599345</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>20.81250579865529</c:v>
+                  <c:v>18.63221636701289</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>21.39966813492651</c:v>
+                  <c:v>19.129862302276</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>21.96656116515048</c:v>
+                  <c:v>19.60950170390921</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>22.50804303345005</c:v>
+                  <c:v>20.06688967766939</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>23.01885102706362</c:v>
+                  <c:v>20.49772312546467</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>23.49369983855467</c:v>
+                  <c:v>20.89767415807521</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>24.22126764439578</c:v>
+                  <c:v>21.52800979682246</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>25.50073039552843</c:v>
+                  <c:v>22.65447850507148</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>27.33037534657847</c:v>
+                  <c:v>24.26350489687125</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>29.69181906832227</c:v>
+                  <c:v>26.32150679062023</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>32.55009678302523</c:v>
+                  <c:v>28.77797099564505</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>35.85459843921888</c:v>
+                  <c:v>31.56943013059102</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>39.54065169846891</c:v>
+                  <c:v>34.62377350024941</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>43.53185507239539</c:v>
+                  <c:v>37.86431269890067</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>47.74290139140591</c:v>
+                  <c:v>41.21331021369426</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>52.08280018126515</c:v>
+                  <c:v>44.5948937207807</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>56.45828794065649</c:v>
+                  <c:v>47.93738486122524</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>60.77724847655065</c:v>
+                  <c:v>51.17503880716882</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>64.95192853708045</c:v>
+                  <c:v>54.24933631077716</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>68.90180159433106</c:v>
+                  <c:v>57.10986910131115</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>72.55593629355926</c:v>
+                  <c:v>59.71487744555159</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>75.85477970104147</c:v>
+                  <c:v>62.0314820940707</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>78.75130913181451</c:v>
+                  <c:v>64.03564519440638</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>81.21155170705511</c:v>
+                  <c:v>65.71189190558667</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>83.21451053967132</c:v>
+                  <c:v>67.05282439008263</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>84.75156911760506</c:v>
+                  <c:v>68.05846293448313</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>85.8254677905573</c:v>
+                  <c:v>68.73544970522907</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>86.44895916817921</c:v>
+                  <c:v>69.0961331477359</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>86.64325188939311</c:v>
+                  <c:v>69.15763391406959</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>86.43634774953853</c:v>
+                  <c:v>68.94085813364423</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>85.8613674606666</c:v>
+                  <c:v>68.46950654563895</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>84.95492673624976</c:v>
+                  <c:v>67.76915877758478</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>83.75568350536896</c:v>
+                  <c:v>66.86640331179929</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>82.30298248340249</c:v>
+                  <c:v>65.78808222128694</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>80.6357441393006</c:v>
+                  <c:v>64.560641016586</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>78.79154958042292</c:v>
+                  <c:v>63.20954527182653</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>76.80594292582821</c:v>
+                  <c:v>61.75887677558946</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>74.71189907628457</c:v>
+                  <c:v>60.23099914349724</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>72.5394084191102</c:v>
+                  <c:v>58.64635084522983</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>70.31548672579825</c:v>
+                  <c:v>57.02331139481328</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>68.06378240599564</c:v>
+                  <c:v>55.37815783619345</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>65.80498604886476</c:v>
+                  <c:v>53.72511716077934</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>63.55665497024416</c:v>
+                  <c:v>52.07635804437678</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>61.33357371196276</c:v>
+                  <c:v>50.44223938261042</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>59.14789388946284</c:v>
+                  <c:v>48.83129588934174</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>57.0093849716577</c:v>
+                  <c:v>47.25053650189945</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>54.9257462737684</c:v>
+                  <c:v>45.70550314619268</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>52.90278193459519</c:v>
+                  <c:v>44.20050257305876</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>50.94469866041554</c:v>
+                  <c:v>42.7387419579741</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>49.05435403191176</c:v>
+                  <c:v>41.32247448516186</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>47.23340973799796</c:v>
+                  <c:v>39.95318078755404</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>45.48259004032242</c:v>
+                  <c:v>38.63163380214488</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>43.8018317338607</c:v>
+                  <c:v>37.35809202052506</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>42.19041927849518</c:v>
+                  <c:v>36.13232765133209</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>40.64716655598935</c:v>
+                  <c:v>34.95377850232391</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>39.17046641667604</c:v>
+                  <c:v>33.82157837751259</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>37.75845476610531</c:v>
+                  <c:v>32.73465865186436</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>36.40903246212326</c:v>
+                  <c:v>31.69176819740114</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>35.11997766097034</c:v>
+                  <c:v>30.69156087849453</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>33.88896516405232</c:v>
+                  <c:v>29.73258749671692</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>32.71364300647398</c:v>
+                  <c:v>28.81337128565538</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>31.59162794198499</c:v>
+                  <c:v>27.93239430946468</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>30.52057958375372</c:v>
+                  <c:v>27.08814731806315</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>29.4981765944496</c:v>
+                  <c:v>26.2791270590549</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>28.52216320491121</c:v>
+                  <c:v>25.50384980179983</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>27.59035205311008</c:v>
+                  <c:v>24.76087456993344</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>26.70061930193453</c:v>
+                  <c:v>24.04879146830699</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>25.85093189468827</c:v>
+                  <c:v>23.36623525172299</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>25.03933691678957</c:v>
+                  <c:v>22.71189348010742</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>24.26396202237842</c:v>
+                  <c:v>22.08449811415708</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>23.52302337385674</c:v>
+                  <c:v>21.48282992546365</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>22.81482172570595</c:v>
+                  <c:v>20.90572345391048</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>22.13773585719179</c:v>
+                  <c:v>20.35206418923149</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>21.49022628992563</c:v>
+                  <c:v>19.82078446724064</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>20.87083258627138</c:v>
+                  <c:v>19.31086443035487</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>20.27816503728541</c:v>
+                  <c:v>18.82133245125078</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>19.71090779442436</c:v>
+                  <c:v>18.35126268575234</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>19.16781399219655</c:v>
+                  <c:v>17.8997725730458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>18.64770123770617</c:v>
+                  <c:v>17.4660214446261</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>18.14944834975743</c:v>
+                  <c:v>17.04920916721172</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>17.67199365166256</c:v>
+                  <c:v>16.64857439119122</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>17.21433030663852</c:v>
+                  <c:v>16.26339273584912</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>16.77550757089042</c:v>
+                  <c:v>15.89297529315015</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>16.35462403154733</c:v>
+                  <c:v>15.53666608789798</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.95082529023611</c:v>
+                  <c:v>15.19384174409275</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>15.56330113758282</c:v>
+                  <c:v>14.86390974747224</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>15.1912857240732</c:v>
+                  <c:v>14.54630631476888</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>14.83405438105772</c:v>
+                  <c:v>14.24049495609404</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>14.49091925512521</c:v>
+                  <c:v>13.94596568574283</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>14.16122860824087</c:v>
+                  <c:v>13.66223242648979</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.84436362409416</c:v>
+                  <c:v>13.38883403668496</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>13.53974042316873</c:v>
+                  <c:v>13.12533161877752</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>13.24680456400659</c:v>
+                  <c:v>12.87130721200724</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>12.96503018609938</c:v>
+                  <c:v>12.62636289362662</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>12.69391657879026</c:v>
+                  <c:v>12.39011980541951</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>12.43298971847275</c:v>
+                  <c:v>12.16221709319375</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>12.18180221305974</c:v>
+                  <c:v>11.94231201373202</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11.9399284068728</c:v>
+                  <c:v>11.73007783056742</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>11.70696321485596</c:v>
+                  <c:v>11.52520299723222</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>11.482522134244</c:v>
+                  <c:v>11.32739139707958</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>11.26623857452098</c:v>
+                  <c:v>11.13635872637683</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>11.0577657745419</c:v>
+                  <c:v>10.95183526390084</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10.8567754467253</c:v>
+                  <c:v>10.77356473628295</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>10.66295469121396</c:v>
+                  <c:v>10.60130247847243</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>10.47600518655107</c:v>
+                  <c:v>10.43481484992134</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>10.29564349388358</c:v>
+                  <c:v>10.27387868159176</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10.12159854020203</c:v>
+                  <c:v>10.11828075219723</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9.953614119574022</c:v>
+                  <c:v>9.967818279266808</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.791446953156559</c:v>
+                  <c:v>9.822296064918721</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.634864736722665</c:v>
+                  <c:v>9.681528890266168</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.483645578222557</c:v>
+                  <c:v>9.545340340483865</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.33757845933723</c:v>
+                  <c:v>9.413561642190748</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.196460938671388</c:v>
+                  <c:v>9.286031291030321</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.06010181418862</c:v>
+                  <c:v>9.162594698816923</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>8.928318982476082</c:v>
+                  <c:v>9.04310385919052</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8.800938239825804</c:v>
+                  <c:v>8.92741790174307</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.677792889375713</c:v>
+                  <c:v>8.815400623124752</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.558724282145727</c:v>
+                  <c:v>8.706922896998426</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.443579747354907</c:v>
+                  <c:v>8.601861430367109</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.332215194817403</c:v>
+                  <c:v>8.500098032870842</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.224492987584812</c:v>
+                  <c:v>8.401519377994141</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.120281233388544</c:v>
+                  <c:v>8.30601677654823</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.019453508229105</c:v>
+                  <c:v>8.213485961761879</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>7.921889439865892</c:v>
+                  <c:v>8.12382765498063</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7.827472821808393</c:v>
+                  <c:v>8.036945405429663</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7.736094081922553</c:v>
+                  <c:v>7.95274792351672</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.647648264194228</c:v>
+                  <c:v>7.871147831684974</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7.562034635341807</c:v>
+                  <c:v>7.792061217833712</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.479156488715534</c:v>
+                  <c:v>7.71540748060173</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.398921536420657</c:v>
+                  <c:v>7.641109182368385</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.321241068249</c:v>
+                  <c:v>7.569091909560147</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.246030954398167</c:v>
+                  <c:v>7.499284341872244</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.173210381020351</c:v>
+                  <c:v>7.43161831247881</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7.102701677662504</c:v>
+                  <c:v>7.36602830441401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6012,787 +6012,787 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="0">
-                  <c:v>334.6688883074813</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335.2399972323486</c:v>
+                  <c:v>300.4693042810783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335.8287559813696</c:v>
+                  <c:v>300.9529494041096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.4354451246813</c:v>
+                  <c:v>301.4511501487277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>337.0603607932728</c:v>
+                  <c:v>301.9641337787384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>337.703799118133</c:v>
+                  <c:v>302.4921275579473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>338.3660643169121</c:v>
+                  <c:v>303.0353822714803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>339.0474573885525</c:v>
+                  <c:v>303.5941110349486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>339.7483085013146</c:v>
+                  <c:v>304.1685330936473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>340.4689615256806</c:v>
+                  <c:v>304.7589260458186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>341.2097603321331</c:v>
+                  <c:v>305.3655674897047</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>341.971084756366</c:v>
+                  <c:v>305.9887350235478</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>342.7532422535672</c:v>
+                  <c:v>306.6287062455901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>343.5566033090611</c:v>
+                  <c:v>307.2857587540738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>344.3815831997736</c:v>
+                  <c:v>307.9601741161143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>345.2285972026305</c:v>
+                  <c:v>308.6522844767468</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>346.0980605945575</c:v>
+                  <c:v>309.3623173350931</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>346.9903886524808</c:v>
+                  <c:v>310.0906187891196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>347.9059966533258</c:v>
+                  <c:v>310.8375349367927</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>348.8453727084341</c:v>
+                  <c:v>311.6034118760787</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>349.8088734962693</c:v>
+                  <c:v>312.388595704944</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>350.7970090031098</c:v>
+                  <c:v>313.193432521355</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>351.810291864906</c:v>
+                  <c:v>314.0182684232781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>352.8492347176087</c:v>
+                  <c:v>314.8635054589283</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>353.9143501971683</c:v>
+                  <c:v>315.7294484844023</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>355.0061509395354</c:v>
+                  <c:v>316.6164910299347</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>356.1251890368022</c:v>
+                  <c:v>317.5250597131962</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>357.2719805082382</c:v>
+                  <c:v>318.4555811518577</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>358.4470555173342</c:v>
+                  <c:v>319.40848196359</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>359.6510439667679</c:v>
+                  <c:v>320.384188766064</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>360.8845757592167</c:v>
+                  <c:v>321.3831281769505</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>362.1482807973582</c:v>
+                  <c:v>322.405764210527</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>363.4427889838701</c:v>
+                  <c:v>323.4525292451272</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>364.7687302214299</c:v>
+                  <c:v>324.5238471017334</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>366.1268234356497</c:v>
+                  <c:v>325.6202399903329</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>367.5176328068781</c:v>
+                  <c:v>326.742230120913</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>368.9418952783541</c:v>
+                  <c:v>327.8903397034605</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>370.4003836156301</c:v>
+                  <c:v>329.065090947963</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>371.8938705842581</c:v>
+                  <c:v>330.2670060644074</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>373.4231289497904</c:v>
+                  <c:v>331.4966092660808</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>374.988931477779</c:v>
+                  <c:v>332.7545245585455</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>376.5920818196223</c:v>
+                  <c:v>334.0411792787848</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>378.2334168340814</c:v>
+                  <c:v>335.3572095088467</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>379.913669258021</c:v>
+                  <c:v>336.7032513307795</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>381.6337870201476</c:v>
+                  <c:v>338.0799408266313</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>383.394718049168</c:v>
+                  <c:v>339.4879140784504</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>385.1974102737886</c:v>
+                  <c:v>340.9278071682849</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>387.0428116227161</c:v>
+                  <c:v>342.4002561781828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>388.9318700246571</c:v>
+                  <c:v>343.9059456856052</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>390.8655858206375</c:v>
+                  <c:v>345.4455138171734</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>392.8449334424223</c:v>
+                  <c:v>347.0196819874569</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>394.8709923216164</c:v>
+                  <c:v>348.6292031249844</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>396.9448931883335</c:v>
+                  <c:v>350.2748301582847</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>399.067766772687</c:v>
+                  <c:v>351.9573160158868</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>401.2407438047907</c:v>
+                  <c:v>353.6774136263194</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>403.4650157933754</c:v>
+                  <c:v>355.4359438506281</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>405.7417038018276</c:v>
+                  <c:v>357.2336260941419</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>408.0720842614917</c:v>
+                  <c:v>359.0713305372789</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>410.4574791996412</c:v>
+                  <c:v>360.9499285330662</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>412.8992106435493</c:v>
+                  <c:v>362.8702914345308</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>415.3986006204894</c:v>
+                  <c:v>364.8332905946999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>417.9570467159315</c:v>
+                  <c:v>366.8398218771156</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>420.5758587728366</c:v>
+                  <c:v>368.8907780824387</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>423.2565387546435</c:v>
+                  <c:v>370.9870635589818</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>426.0006232223027</c:v>
+                  <c:v>373.1296723749479</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>428.809648736765</c:v>
+                  <c:v>375.3195985985395</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>431.6851518589808</c:v>
+                  <c:v>377.5578362979593</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>434.6287569622465</c:v>
+                  <c:v>379.8453795414099</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>437.6419921214195</c:v>
+                  <c:v>382.1832601495886</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>440.7265997573162</c:v>
+                  <c:v>384.5724757284785</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>443.8843431017267</c:v>
+                  <c:v>387.0140956266747</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>447.1169853864412</c:v>
+                  <c:v>389.5092213902623</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>450.4262898432496</c:v>
+                  <c:v>392.0589545653261</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>453.8141083438439</c:v>
+                  <c:v>394.6643966979512</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>457.2822124116619</c:v>
+                  <c:v>397.3266493342225</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>460.8325677578094</c:v>
+                  <c:v>400.0468345262498</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>464.4671465323954</c:v>
+                  <c:v>402.8260903318078</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>468.187920885529</c:v>
+                  <c:v>405.6655650769229</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>471.9968644316863</c:v>
+                  <c:v>408.5664076245738</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>475.896002822592</c:v>
+                  <c:v>411.5297668377392</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>479.8873634618644</c:v>
+                  <c:v>414.556791579398</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>483.9730419830429</c:v>
+                  <c:v>417.6486297628044</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>488.155134019667</c:v>
+                  <c:v>420.8064215553608</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>492.4357352052762</c:v>
+                  <c:v>424.0312867744994</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>496.816938604949</c:v>
+                  <c:v>427.3243208325654</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>501.3008478517421</c:v>
+                  <c:v>430.6866471209001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>505.8895616179938</c:v>
+                  <c:v>434.119284108656</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>510.5851281994574</c:v>
+                  <c:v>437.623236357553</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>515.3895269125497</c:v>
+                  <c:v>441.1994705291326</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>520.3048689341754</c:v>
+                  <c:v>444.8489775166057</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>525.3331724680929</c:v>
+                  <c:v>448.5725496833277</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>530.4761464032377</c:v>
+                  <c:v>452.370927387066</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>535.7354996285452</c:v>
+                  <c:v>456.244794225136</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>541.1129410329505</c:v>
+                  <c:v>460.1948583526816</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>546.610095233537</c:v>
+                  <c:v>464.2215135159805</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>552.2283382156254</c:v>
+                  <c:v>468.3250064502988</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>557.9687688038019</c:v>
+                  <c:v>472.5055134978084</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>563.8323808983756</c:v>
+                  <c:v>476.7632053734405</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>569.8199630789366</c:v>
+                  <c:v>481.0978418380019</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>575.9318144587074</c:v>
+                  <c:v>485.5088286828504</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>582.1680693185865</c:v>
+                  <c:v>489.9955451786986</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>588.5285267051647</c:v>
+                  <c:v>494.5571710885729</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>595.0122810431535</c:v>
+                  <c:v>499.1923723204997</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>601.6181862922693</c:v>
+                  <c:v>503.8994429619821</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>608.344576752294</c:v>
+                  <c:v>508.6764801296043</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>615.1888173821599</c:v>
+                  <c:v>513.5210939404279</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>622.1479281246887</c:v>
+                  <c:v>518.4302145912774</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>629.2181628070556</c:v>
+                  <c:v>523.4005222562715</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>636.3944906890206</c:v>
+                  <c:v>528.4281664410566</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>643.6713972585242</c:v>
+                  <c:v>533.5082779442787</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>651.0422904639934</c:v>
+                  <c:v>538.6357010588007</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>658.4989363753539</c:v>
+                  <c:v>543.8046706086021</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>666.0324809873717</c:v>
+                  <c:v>549.0080499834871</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>673.6325691231941</c:v>
+                  <c:v>554.2383462415096</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>681.2868640679228</c:v>
+                  <c:v>559.4874111223302</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>688.9823365866197</c:v>
+                  <c:v>564.7453772744831</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>696.7038704043454</c:v>
+                  <c:v>570.0019194675716</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>704.4341985493633</c:v>
+                  <c:v>575.2460504948322</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>712.1552696950391</c:v>
+                  <c:v>580.4648236333092</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>719.8464305024422</c:v>
+                  <c:v>585.6447111960847</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>727.4848962492177</c:v>
+                  <c:v>590.7715524186684</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>735.0470196666523</c:v>
+                  <c:v>595.8292350004051</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>742.5063306679806</c:v>
+                  <c:v>600.8009669937129</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>749.8345234088155</c:v>
+                  <c:v>605.6693900687345</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>757.0024151891465</c:v>
+                  <c:v>610.4155738671434</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>763.9783661516572</c:v>
+                  <c:v>615.0199413754699</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>770.7295372873614</c:v>
+                  <c:v>619.4624915219712</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>777.22234794735</c:v>
+                  <c:v>623.7223984267896</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>783.4219885512074</c:v>
+                  <c:v>627.7785550265602</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>789.2933352014672</c:v>
+                  <c:v>631.6097612251931</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>794.8012660964981</c:v>
+                  <c:v>635.1945894192776</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>799.911074641967</c:v>
+                  <c:v>638.5127936670261</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>804.5889930417626</c:v>
+                  <c:v>641.5441337027037</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>818.7364373310717</c:v>
+                  <c:v>652.3145207784695</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>852.1472435301471</c:v>
+                  <c:v>678.6127370877836</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>904.3570519193388</c:v>
+                  <c:v>719.7037778474001</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>974.5519541628458</c:v>
+                  <c:v>774.4347853064332</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1061.588373218377</c:v>
+                  <c:v>841.3369317409544</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1164.025245622517</c:v>
+                  <c:v>918.7348542238801</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1280.16157676384</c:v>
+                  <c:v>1004.850092235572</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1408.083737054955</c:v>
+                  <c:v>1097.886132744784</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1545.716251481746</c:v>
+                  <c:v>1196.091424560226</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1690.876398364327</c:v>
+                  <c:v>1297.802431409422</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1841.329764674382</c:v>
+                  <c:v>1401.471017568676</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1994.845318677543</c:v>
+                  <c:v>1505.678626491136</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2149.247270240048</c:v>
+                  <c:v>1609.14313305227</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2302.462689977143</c:v>
+                  <c:v>1710.720667301606</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2452.563163099088</c:v>
+                  <c:v>1809.404679386085</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2597.799462684385</c:v>
+                  <c:v>1904.323569278997</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2736.628524292042</c:v>
+                  <c:v>1994.737584124919</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2867.732393371684</c:v>
+                  <c:v>2080.035265524058</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2990.029166022397</c:v>
+                  <c:v>2159.729453709273</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3102.676284151507</c:v>
+                  <c:v>2233.452747501227</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3205.06681104043</c:v>
+                  <c:v>2300.952216451886</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3296.819541317817</c:v>
+                  <c:v>2362.082510700908</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3377.763935649598</c:v>
+                  <c:v>2416.799322879739</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3447.920978047551</c:v>
+                  <c:v>2465.150816358208</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3507.481144585546</c:v>
+                  <c:v>2507.26741018643</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3556.779897550912</c:v>
+                  <c:v>2543.351758546811</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3596.274199090645</c:v>
+                  <c:v>2573.667197095031</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3626.516165803992</c:v>
+                  <c:v>2598.526705532936</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3648.12957881185</c:v>
+                  <c:v>2618.281909281648</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3661.787513050394</c:v>
+                  <c:v>2633.310539029942</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3668.192599468704</c:v>
+                  <c:v>2644.007042057072</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3668.058371656216</c:v>
+                  <c:v>2650.772421927089</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3662.090100656294</c:v>
+                  <c:v>2654.006142391912</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3650.981749902613</c:v>
+                  <c:v>2654.098410849611</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3635.388861400232</c:v>
+                  <c:v>2651.424169278921</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3615.939306484166</c:v>
+                  <c:v>2646.339844182854</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3593.212032006117</c:v>
+                  <c:v>2639.175866644057</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3567.742794662448</c:v>
+                  <c:v>2630.240979208231</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3540.017796831989</c:v>
+                  <c:v>2619.81318606541</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3510.473396718087</c:v>
+                  <c:v>2608.14653566709</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3479.500319977104</c:v>
+                  <c:v>2595.465869368214</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3447.440535398813</c:v>
+                  <c:v>2581.971204755516</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3414.592772453429</c:v>
+                  <c:v>2567.83767766255</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3381.216661044576</c:v>
+                  <c:v>2553.216680125117</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3347.531902912856</c:v>
+                  <c:v>2538.240098463536</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3313.726008647095</c:v>
+                  <c:v>2523.018283889709</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3279.956257820603</c:v>
+                  <c:v>2507.646881552913</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3246.351772963505</c:v>
+                  <c:v>2492.204007724586</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3213.020498205373</c:v>
+                  <c:v>2476.75622181521</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3180.047394160318</c:v>
+                  <c:v>2461.357144189241</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3147.502566595364</c:v>
+                  <c:v>2446.051577200153</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3115.439186455964</c:v>
+                  <c:v>2430.874424957945</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3083.899530276472</c:v>
+                  <c:v>2415.855083619143</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3052.914081608565</c:v>
+                  <c:v>2401.015114248389</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3022.506157885834</c:v>
+                  <c:v>2386.372707600325</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2992.689912601825</c:v>
+                  <c:v>2371.940505263011</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2963.475934215575</c:v>
+                  <c:v>2357.728778251883</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2934.868189569796</c:v>
+                  <c:v>2343.744565927499</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2906.86784621177</c:v>
+                  <c:v>2329.992285782333</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2879.473267520045</c:v>
+                  <c:v>2316.475454058986</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2852.679291065854</c:v>
+                  <c:v>2303.195402182735</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2826.480013401359</c:v>
+                  <c:v>2290.152347538351</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2800.867810925548</c:v>
+                  <c:v>2277.346138252793</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2775.833534284206</c:v>
+                  <c:v>2264.775447705407</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2751.367652167974</c:v>
+                  <c:v>2252.438234414809</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2727.46016273037</c:v>
+                  <c:v>2240.332355991164</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2704.100181722366</c:v>
+                  <c:v>2228.455435190057</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2681.276768498699</c:v>
+                  <c:v>2216.80457654406</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2658.979046473297</c:v>
+                  <c:v>2205.376635112868</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2637.195602748993</c:v>
+                  <c:v>2194.168465956174</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2615.915322109437</c:v>
+                  <c:v>2183.176866600493</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2595.12723106486</c:v>
+                  <c:v>2172.398504995435</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2574.820356125495</c:v>
+                  <c:v>2161.829973821281</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2554.983723801576</c:v>
+                  <c:v>2151.4678523881</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2535.606566299273</c:v>
+                  <c:v>2141.308720005963</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2516.678100047649</c:v>
+                  <c:v>2131.349155984939</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2498.188139894079</c:v>
+                  <c:v>2121.585774622408</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2480.126546338559</c:v>
+                  <c:v>2112.015114005999</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2462.483274273559</c:v>
+                  <c:v>2102.633809132899</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2445.248327307985</c:v>
+                  <c:v>2093.438577454417</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2428.412166308341</c:v>
+                  <c:v>2084.426136421862</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2411.965595919408</c:v>
+                  <c:v>2075.593203486544</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2395.899420785966</c:v>
+                  <c:v>2066.936582804829</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2380.204662658965</c:v>
+                  <c:v>2058.452978979267</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2364.87235510609</c:v>
+                  <c:v>2050.139337246297</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2349.894203508973</c:v>
+                  <c:v>2041.992629421065</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2335.261966046984</c:v>
+                  <c:v>2034.009827318718</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2320.96758673986</c:v>
+                  <c:v>2026.187930187809</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2307.002856991885</c:v>
+                  <c:v>2018.523973802207</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2293.359946926169</c:v>
+                  <c:v>2011.015017309052</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2280.031672191885</c:v>
+                  <c:v>2003.658316294667</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2267.010848438209</c:v>
+                  <c:v>1996.451126345376</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2254.290291314314</c:v>
+                  <c:v>1989.390703047503</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2241.863033839589</c:v>
+                  <c:v>1982.474479486436</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2229.72201884282</c:v>
+                  <c:v>1975.699566922282</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2217.860673719772</c:v>
+                  <c:v>1969.063355410348</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2206.272855133348</c:v>
+                  <c:v>1962.563446153086</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2194.952419746452</c:v>
+                  <c:v>1956.197440352945</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2183.893224221986</c:v>
+                  <c:v>1949.962939212377</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2173.089350827438</c:v>
+                  <c:v>1943.857543933833</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2162.534737898957</c:v>
+                  <c:v>1937.878855719762</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2152.223858771811</c:v>
+                  <c:v>1932.024667100651</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2142.151469774163</c:v>
+                  <c:v>1926.292505606214</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2132.312327234175</c:v>
+                  <c:v>1920.68018101697</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2122.701187480013</c:v>
+                  <c:v>1915.185650493605</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2113.313031643797</c:v>
+                  <c:v>1909.806871196811</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2104.142667479993</c:v>
+                  <c:v>1904.541800287273</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2095.185444971206</c:v>
+                  <c:v>1899.38839492568</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2086.436889526292</c:v>
+                  <c:v>1894.344612272721</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2077.892526554107</c:v>
+                  <c:v>1889.408593821269</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2069.547881463506</c:v>
+                  <c:v>1884.578211111083</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2061.398699526384</c:v>
+                  <c:v>1879.851633558272</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2053.440538823501</c:v>
+                  <c:v>1875.227130905097</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2045.669481427831</c:v>
+                  <c:v>1870.702972893817</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>2038.081708821998</c:v>
+                  <c:v>1866.277429266692</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2030.673402488627</c:v>
+                  <c:v>1861.948769765982</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2023.440743910342</c:v>
+                  <c:v>1857.715264133945</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2016.380129762688</c:v>
+                  <c:v>1853.575357715656</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2009.487760734478</c:v>
+                  <c:v>1849.527226421701</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2002.760332763323</c:v>
+                  <c:v>1845.569349057697</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1996.194588899151</c:v>
+                  <c:v>1841.700268598039</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1989.787272191887</c:v>
+                  <c:v>1837.918528017122</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1983.535125691457</c:v>
+                  <c:v>1834.222670289343</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1977.435046987363</c:v>
+                  <c:v>1830.611238389098</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1971.483915147254</c:v>
+                  <c:v>1827.082775290782</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1965.678907211805</c:v>
+                  <c:v>1823.635873089824</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1960.017206731583</c:v>
+                  <c:v>1820.269220446972</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1954.495997257154</c:v>
+                  <c:v>1816.981511283165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7321,7 +7321,7 @@
         <v>1.088759781086738</v>
       </c>
       <c r="D2">
-        <v>334.6688883074813</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7332,10 +7332,10 @@
         <v>453.0020688411092</v>
       </c>
       <c r="C3">
-        <v>1.095279724255</v>
+        <v>1.095124304402439</v>
       </c>
       <c r="D3">
-        <v>335.2399972323486</v>
+        <v>300.4693042810783</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>451.0178404944635</v>
       </c>
       <c r="C4">
-        <v>1.102030373963943</v>
+        <v>1.101712746602582</v>
       </c>
       <c r="D4">
-        <v>335.8287559813696</v>
+        <v>300.9529494041096</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7360,10 +7360,10 @@
         <v>448.9858719852913</v>
       </c>
       <c r="C5">
-        <v>1.109017691477719</v>
+        <v>1.10853079216579</v>
       </c>
       <c r="D5">
-        <v>336.4354451246813</v>
+        <v>301.4511501487277</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>446.9062461758243</v>
       </c>
       <c r="C6">
-        <v>1.116247917968771</v>
+        <v>1.115584390688094</v>
       </c>
       <c r="D6">
-        <v>337.0603607932728</v>
+        <v>301.9641337787384</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>444.7790569342612</v>
       </c>
       <c r="C7">
-        <v>1.123727533055392</v>
+        <v>1.122879720241499</v>
       </c>
       <c r="D7">
-        <v>337.703799118133</v>
+        <v>302.4921275579473</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>442.6044097388335</v>
       </c>
       <c r="C8">
-        <v>1.131463291448335</v>
+        <v>1.130423284202726</v>
       </c>
       <c r="D8">
-        <v>338.3660643169121</v>
+        <v>303.0353822714803</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7416,10 +7416,10 @@
         <v>440.3824222897506</v>
       </c>
       <c r="C9">
-        <v>1.139462195711312</v>
+        <v>1.138221693580711</v>
       </c>
       <c r="D9">
-        <v>339.0474573885525</v>
+        <v>303.5941110349486</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>438.1132251282135</v>
       </c>
       <c r="C10">
-        <v>1.14773161600145</v>
+        <v>1.146281838552179</v>
       </c>
       <c r="D10">
-        <v>339.7483085013146</v>
+        <v>304.1685330936473</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7444,10 +7444,10 @@
         <v>435.7969622616277</v>
       </c>
       <c r="C11">
-        <v>1.15627925126898</v>
+        <v>1.154611097325773</v>
       </c>
       <c r="D11">
-        <v>340.4689615256806</v>
+        <v>304.7589260458186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>433.4337917941004</v>
       </c>
       <c r="C12">
-        <v>1.165113095555885</v>
+        <v>1.163217130831776</v>
       </c>
       <c r="D12">
-        <v>341.2097603321331</v>
+        <v>305.3655674897047</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7472,10 +7472,10 @@
         <v>431.0238865612484</v>
       </c>
       <c r="C13">
-        <v>1.174241573970419</v>
+        <v>1.17210789457867</v>
       </c>
       <c r="D13">
-        <v>341.971084756366</v>
+        <v>305.9887350235478</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7486,10 +7486,10 @@
         <v>428.5674347682892</v>
       </c>
       <c r="C14">
-        <v>1.183673185158155</v>
+        <v>1.181291651094135</v>
       </c>
       <c r="D14">
-        <v>342.7532422535672</v>
+        <v>306.6287062455901</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7500,10 +7500,10 @@
         <v>426.0646406303418</v>
       </c>
       <c r="C15">
-        <v>1.193416978300797</v>
+        <v>1.190776982981427</v>
       </c>
       <c r="D15">
-        <v>343.5566033090611</v>
+        <v>307.2857587540738</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7514,10 +7514,10 @@
         <v>423.5157250138036</v>
       </c>
       <c r="C16">
-        <v>1.203482510177299</v>
+        <v>1.200572822096494</v>
       </c>
       <c r="D16">
-        <v>344.3815831997736</v>
+        <v>307.9601741161143</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>420.920926077624</v>
       </c>
       <c r="C17">
-        <v>1.213879707813881</v>
+        <v>1.210688647236364</v>
       </c>
       <c r="D17">
-        <v>345.2285972026305</v>
+        <v>308.6522844767468</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7542,10 +7542,10 @@
         <v>418.280499913244</v>
       </c>
       <c r="C18">
-        <v>1.224618884865305</v>
+        <v>1.221133892828014</v>
       </c>
       <c r="D18">
-        <v>346.0980605945575</v>
+        <v>309.3623173350931</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>415.5947211819234</v>
       </c>
       <c r="C19">
-        <v>1.235710758822451</v>
+        <v>1.231918838755965</v>
       </c>
       <c r="D19">
-        <v>346.9903886524808</v>
+        <v>310.0906187891196</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>412.8638837481304</v>
       </c>
       <c r="C20">
-        <v>1.24716646909152</v>
+        <v>1.243054167954633</v>
       </c>
       <c r="D20">
-        <v>347.9059966533258</v>
+        <v>310.8375349367927</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7584,10 +7584,10 @@
         <v>410.0883013076264</v>
       </c>
       <c r="C21">
-        <v>1.258997858855472</v>
+        <v>1.254550984459901</v>
       </c>
       <c r="D21">
-        <v>348.8453727084341</v>
+        <v>311.6034118760787</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7598,10 +7598,10 @@
         <v>407.2683080088377</v>
       </c>
       <c r="C22">
-        <v>1.271216761830125</v>
+        <v>1.266420832380255</v>
       </c>
       <c r="D22">
-        <v>349.8088734962693</v>
+        <v>312.388595704944</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>404.4042590660646</v>
       </c>
       <c r="C23">
-        <v>1.28383604897434</v>
+        <v>1.278675715838488</v>
       </c>
       <c r="D23">
-        <v>350.7970090031098</v>
+        <v>313.193432521355</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7626,10 +7626,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C24">
-        <v>1.296869115080899</v>
+        <v>1.291328119937972</v>
       </c>
       <c r="D24">
-        <v>351.810291864906</v>
+        <v>314.0182684232781</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C25">
-        <v>1.310329893268156</v>
+        <v>1.30439126459699</v>
       </c>
       <c r="D25">
-        <v>352.8492347176087</v>
+        <v>314.8635054589283</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7654,10 +7654,10 @@
         <v>395.5516591002702</v>
       </c>
       <c r="C26">
-        <v>1.324232880221064</v>
+        <v>1.317878497283369</v>
       </c>
       <c r="D26">
-        <v>353.9143501971683</v>
+        <v>315.7294484844023</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7668,10 +7668,10 @@
         <v>392.5153819218948</v>
       </c>
       <c r="C27">
-        <v>1.338593162754186</v>
+        <v>1.331804084064057</v>
       </c>
       <c r="D27">
-        <v>355.0061509395354</v>
+        <v>316.6164910299347</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7682,10 +7682,10 @@
         <v>389.4371618611553</v>
       </c>
       <c r="C28">
-        <v>1.35342659572216</v>
+        <v>1.34618301397225</v>
       </c>
       <c r="D28">
-        <v>356.1251890368022</v>
+        <v>317.5250597131962</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7696,10 +7696,10 @@
         <v>386.3174927578167</v>
       </c>
       <c r="C29">
-        <v>1.36874954815194</v>
+        <v>1.361030890753757</v>
       </c>
       <c r="D29">
-        <v>357.2719805082382</v>
+        <v>318.4555811518577</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7710,10 +7710,10 @@
         <v>383.1568934536983</v>
       </c>
       <c r="C30">
-        <v>1.384579122876961</v>
+        <v>1.376363962148873</v>
       </c>
       <c r="D30">
-        <v>358.4470555173342</v>
+        <v>319.40848196359</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7724,10 +7724,10 @@
         <v>379.9559082852276</v>
       </c>
       <c r="C31">
-        <v>1.400933524947639</v>
+        <v>1.392199150729688</v>
       </c>
       <c r="D31">
-        <v>359.6510439667679</v>
+        <v>320.384188766064</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>376.7151075537643</v>
       </c>
       <c r="C32">
-        <v>1.4178317210723</v>
+        <v>1.408554086382393</v>
       </c>
       <c r="D32">
-        <v>360.8845757592167</v>
+        <v>321.3831281769505</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7752,10 +7752,10 @@
         <v>373.435087972113</v>
       </c>
       <c r="C33">
-        <v>1.435293477053854</v>
+        <v>1.42544730587052</v>
       </c>
       <c r="D33">
-        <v>362.1482807973582</v>
+        <v>322.405764210527</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>370.116473085649</v>
       </c>
       <c r="C34">
-        <v>1.453339397255754</v>
+        <v>1.442897988361219</v>
       </c>
       <c r="D34">
-        <v>363.4427889838701</v>
+        <v>323.4525292451272</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7780,10 +7780,10 @@
         <v>366.7599136665037</v>
       </c>
       <c r="C35">
-        <v>1.471990966216154</v>
+        <v>1.460926091314155</v>
       </c>
       <c r="D35">
-        <v>364.7687302214299</v>
+        <v>324.5238471017334</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7794,10 +7794,10 @@
         <v>363.3660880792923</v>
       </c>
       <c r="C36">
-        <v>1.491270955135659</v>
+        <v>1.479552874780118</v>
       </c>
       <c r="D36">
-        <v>366.1268234356497</v>
+        <v>325.6202399903329</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C37">
-        <v>1.511202483097904</v>
+        <v>1.498800513617065</v>
       </c>
       <c r="D37">
-        <v>367.5176328068781</v>
+        <v>326.742230120913</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7822,10 +7822,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C38">
-        <v>1.53181039579835</v>
+        <v>1.518692143307466</v>
       </c>
       <c r="D38">
-        <v>368.9418952783541</v>
+        <v>327.8903397034605</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7836,10 +7836,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C39">
-        <v>1.553120777707617</v>
+        <v>1.539251908298908</v>
       </c>
       <c r="D39">
-        <v>370.4003836156301</v>
+        <v>329.065090947963</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7850,10 +7850,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C40">
-        <v>1.575160863689934</v>
+        <v>1.560505013016463</v>
       </c>
       <c r="D40">
-        <v>371.8938705842581</v>
+        <v>330.2670060644074</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>345.8636814784479</v>
       </c>
       <c r="C41">
-        <v>1.597959098324317</v>
+        <v>1.582477785267452</v>
       </c>
       <c r="D41">
-        <v>373.4231289497904</v>
+        <v>331.4966092660808</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7878,10 +7878,10 @@
         <v>342.2620879553368</v>
       </c>
       <c r="C42">
-        <v>1.621545198558387</v>
+        <v>1.605198205313227</v>
       </c>
       <c r="D42">
-        <v>374.988931477779</v>
+        <v>332.7545245585455</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7892,10 +7892,10 @@
         <v>338.6287734837973</v>
       </c>
       <c r="C43">
-        <v>1.64595035488487</v>
+        <v>1.628694546272275</v>
       </c>
       <c r="D43">
-        <v>376.5920818196223</v>
+        <v>334.0411792787848</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7906,10 +7906,10 @@
         <v>334.964646449961</v>
       </c>
       <c r="C44">
-        <v>1.67120731891021</v>
+        <v>1.652997384958763</v>
       </c>
       <c r="D44">
-        <v>378.2334168340814</v>
+        <v>335.3572095088467</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7920,10 +7920,10 @@
         <v>331.2706446141488</v>
       </c>
       <c r="C45">
-        <v>1.697349872330565</v>
+        <v>1.678138684294878</v>
       </c>
       <c r="D45">
-        <v>379.913669258021</v>
+        <v>336.7032513307795</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7934,10 +7934,10 @@
         <v>327.5477351189685</v>
       </c>
       <c r="C46">
-        <v>1.72441432239515</v>
+        <v>1.704151865928786</v>
       </c>
       <c r="D46">
-        <v>381.6337870201476</v>
+        <v>338.0799408266313</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7948,10 +7948,10 @@
         <v>323.7969144558572</v>
       </c>
       <c r="C47">
-        <v>1.752438656587906</v>
+        <v>1.731071886972237</v>
       </c>
       <c r="D47">
-        <v>383.394718049168</v>
+        <v>339.4879140784504</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7962,10 +7962,10 @@
         <v>320.0192083893523</v>
       </c>
       <c r="C48">
-        <v>1.781462632754429</v>
+        <v>1.758935321101331</v>
       </c>
       <c r="D48">
-        <v>385.1974102737886</v>
+        <v>340.9278071682849</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7976,10 +7976,10 @@
         <v>316.2156718384867</v>
       </c>
       <c r="C49">
-        <v>1.811527874424931</v>
+        <v>1.787780444277735</v>
       </c>
       <c r="D49">
-        <v>387.0428116227161</v>
+        <v>342.4002561781828</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>312.3873887148046</v>
       </c>
       <c r="C50">
-        <v>1.842677971643748</v>
+        <v>1.817647581674977</v>
       </c>
       <c r="D50">
-        <v>388.9318700246571</v>
+        <v>343.9059456856052</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8004,10 +8004,10 @@
         <v>308.5354717165984</v>
       </c>
       <c r="C51">
-        <v>1.874958839052246</v>
+        <v>1.848578711385218</v>
       </c>
       <c r="D51">
-        <v>390.8655858206375</v>
+        <v>345.4455138171734</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>304.6610620790851</v>
       </c>
       <c r="C52">
-        <v>1.908418464238687</v>
+        <v>1.880618253987996</v>
       </c>
       <c r="D52">
-        <v>392.8449334424223</v>
+        <v>347.0196819874569</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8032,10 +8032,10 @@
         <v>300.7653292803428</v>
       </c>
       <c r="C53">
-        <v>1.943107664170699</v>
+        <v>1.91381292471743</v>
       </c>
       <c r="D53">
-        <v>394.8709923216164</v>
+        <v>348.6292031249844</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8046,10 +8046,10 @@
         <v>296.8494707029503</v>
       </c>
       <c r="C54">
-        <v>1.979079978416958</v>
+        <v>1.948211684730142</v>
       </c>
       <c r="D54">
-        <v>396.9448931883335</v>
+        <v>350.2748301582847</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8060,10 +8060,10 @@
         <v>292.9147112513796</v>
       </c>
       <c r="C55">
-        <v>2.016391563552713</v>
+        <v>1.983865863589506</v>
       </c>
       <c r="D55">
-        <v>399.067766772687</v>
+        <v>351.9573160158868</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8074,10 +8074,10 @@
         <v>288.9623029253086</v>
       </c>
       <c r="C56">
-        <v>2.055101338643461</v>
+        <v>2.020829288803732</v>
       </c>
       <c r="D56">
-        <v>401.2407438047907</v>
+        <v>353.6774136263194</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8088,10 +8088,10 @@
         <v>284.9935243491365</v>
       </c>
       <c r="C57">
-        <v>2.095271454866833</v>
+        <v>2.059158816373287</v>
       </c>
       <c r="D57">
-        <v>403.4650157933754</v>
+        <v>355.4359438506281</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8102,10 +8102,10 @@
         <v>281.009680258094</v>
       </c>
       <c r="C58">
-        <v>2.13696678973279</v>
+        <v>2.09891350831655</v>
       </c>
       <c r="D58">
-        <v>405.7417038018276</v>
+        <v>357.2336260941419</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8116,10 +8116,10 @@
         <v>277.0121009414553</v>
       </c>
       <c r="C59">
-        <v>2.18025630072308</v>
+        <v>2.140156247993459</v>
       </c>
       <c r="D59">
-        <v>408.0720842614917</v>
+        <v>359.0713305372789</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C60">
-        <v>2.225212673483423</v>
+        <v>2.1829530624123</v>
       </c>
       <c r="D60">
-        <v>410.4574791996412</v>
+        <v>360.9499285330662</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8144,10 +8144,10 @@
         <v>268.9811819227082</v>
       </c>
       <c r="C61">
-        <v>2.271912286312352</v>
+        <v>2.227373290113763</v>
       </c>
       <c r="D61">
-        <v>412.8992106435493</v>
+        <v>362.8702914345308</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8158,10 +8158,10 @@
         <v>264.950624970735</v>
       </c>
       <c r="C62">
-        <v>2.320435419726404</v>
+        <v>2.273489765728509</v>
       </c>
       <c r="D62">
-        <v>415.3986006204894</v>
+        <v>364.8332905946999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8172,10 +8172,10 @@
         <v>260.9118968908913</v>
       </c>
       <c r="C63">
-        <v>2.370866906793924</v>
+        <v>2.321379170130479</v>
       </c>
       <c r="D63">
-        <v>417.9570467159315</v>
+        <v>366.8398218771156</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8186,10 +8186,10 @@
         <v>256.8664459383544</v>
       </c>
       <c r="C64">
-        <v>2.423295460507199</v>
+        <v>2.371122071490334</v>
       </c>
       <c r="D64">
-        <v>420.5758587728366</v>
+        <v>368.8907780824387</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -8200,10 +8200,10 @@
         <v>252.8157417225046</v>
       </c>
       <c r="C65">
-        <v>2.477815521900297</v>
+        <v>2.422803237569199</v>
       </c>
       <c r="D65">
-        <v>423.2565387546435</v>
+        <v>370.9870635589818</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8214,10 +8214,10 @@
         <v>248.7612743728317</v>
       </c>
       <c r="C66">
-        <v>2.534526676359371</v>
+        <v>2.476512391230027</v>
       </c>
       <c r="D66">
-        <v>426.0006232223027</v>
+        <v>373.1296723749479</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>244.704553669659</v>
       </c>
       <c r="C67">
-        <v>2.5935337442607</v>
+        <v>2.532343898107998</v>
       </c>
       <c r="D67">
-        <v>428.809648736765</v>
+        <v>375.3195985985395</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>240.6471081410551</v>
       </c>
       <c r="C68">
-        <v>2.654947080922312</v>
+        <v>2.590397026933473</v>
       </c>
       <c r="D68">
-        <v>431.6851518589808</v>
+        <v>377.5578362979593</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -8256,10 +8256,10 @@
         <v>236.5904841273563</v>
       </c>
       <c r="C69">
-        <v>2.718883442652757</v>
+        <v>2.650776223974929</v>
       </c>
       <c r="D69">
-        <v>434.6287569622465</v>
+        <v>379.8453795414099</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -8270,10 +8270,10 @@
         <v>232.5362448148089</v>
       </c>
       <c r="C70">
-        <v>2.785465197040258</v>
+        <v>2.713591670201215</v>
       </c>
       <c r="D70">
-        <v>437.6419921214195</v>
+        <v>382.1832601495886</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -8284,10 +8284,10 @@
         <v>228.485969239881</v>
       </c>
       <c r="C71">
-        <v>2.854822636536535</v>
+        <v>2.778959089296718</v>
       </c>
       <c r="D71">
-        <v>440.7265997573162</v>
+        <v>384.5724757284785</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -8298,10 +8298,10 @@
         <v>224.4412512658597</v>
       </c>
       <c r="C72">
-        <v>2.927093198383958</v>
+        <v>2.847000826455437</v>
       </c>
       <c r="D72">
-        <v>443.8843431017267</v>
+        <v>387.0140956266747</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8312,10 +8312,10 @@
         <v>220.4036985333859</v>
       </c>
       <c r="C73">
-        <v>3.00242173663588</v>
+        <v>2.917845936778749</v>
       </c>
       <c r="D73">
-        <v>447.1169853864412</v>
+        <v>389.5092213902623</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8326,10 +8326,10 @@
         <v>216.3749313866268</v>
       </c>
       <c r="C74">
-        <v>3.080960942922573</v>
+        <v>2.991630318194274</v>
       </c>
       <c r="D74">
-        <v>450.4262898432496</v>
+        <v>392.0589545653261</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -8340,10 +8340,10 @@
         <v>212.356581776814</v>
       </c>
       <c r="C75">
-        <v>3.162872406263028</v>
+        <v>3.068497086194161</v>
       </c>
       <c r="D75">
-        <v>453.8141083438439</v>
+        <v>394.6643966979512</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -8354,10 +8354,10 @@
         <v>208.3502921449035</v>
       </c>
       <c r="C76">
-        <v>3.248325935743931</v>
+        <v>3.148596965874894</v>
       </c>
       <c r="D76">
-        <v>457.2822124116619</v>
+        <v>397.3266493342225</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -8368,10 +8368,10 @@
         <v>204.3577142851373</v>
       </c>
       <c r="C77">
-        <v>3.337501982889314</v>
+        <v>3.232088866979462</v>
       </c>
       <c r="D77">
-        <v>460.8325677578094</v>
+        <v>400.0468345262498</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8382,10 +8382,10 @@
         <v>200.3805081912936</v>
       </c>
       <c r="C78">
-        <v>3.430590902691946</v>
+        <v>3.319140289798584</v>
       </c>
       <c r="D78">
-        <v>464.4671465323954</v>
+        <v>402.8260903318078</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C79">
-        <v>3.527793449979203</v>
+        <v>3.409927734752358</v>
       </c>
       <c r="D79">
-        <v>468.187920885529</v>
+        <v>405.6655650769229</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>192.4788852449206</v>
       </c>
       <c r="C80">
-        <v>3.629321353353532</v>
+        <v>3.504637089460812</v>
       </c>
       <c r="D80">
-        <v>471.9968644316863</v>
+        <v>408.5664076245738</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8424,10 +8424,10 @@
         <v>188.5578187875755</v>
       </c>
       <c r="C81">
-        <v>3.735398297538175</v>
+        <v>3.603464102199668</v>
       </c>
       <c r="D81">
-        <v>475.896002822592</v>
+        <v>411.5297668377392</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8438,10 +8438,10 @@
         <v>184.6588224866492</v>
       </c>
       <c r="C82">
-        <v>3.846260168153268</v>
+        <v>3.706614873619528</v>
       </c>
       <c r="D82">
-        <v>479.8873634618644</v>
+        <v>414.556791579398</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8452,10 +8452,10 @@
         <v>180.7835795474954</v>
       </c>
       <c r="C83">
-        <v>3.962156224033797</v>
+        <v>3.814306351947415</v>
       </c>
       <c r="D83">
-        <v>483.9730419830429</v>
+        <v>417.6486297628044</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8466,10 +8466,10 @@
         <v>176.9337741896296</v>
       </c>
       <c r="C84">
-        <v>4.083349230662177</v>
+        <v>3.926766782232171</v>
       </c>
       <c r="D84">
-        <v>488.155134019667</v>
+        <v>420.8064215553608</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>173.1110904219308</v>
       </c>
       <c r="C85">
-        <v>4.210116121787147</v>
+        <v>4.044236098318018</v>
       </c>
       <c r="D85">
-        <v>492.4357352052762</v>
+        <v>424.0312867744994</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8494,10 +8494,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C86">
-        <v>4.342748648828215</v>
+        <v>4.166966383851315</v>
       </c>
       <c r="D86">
-        <v>496.816938604949</v>
+        <v>427.3243208325654</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8508,10 +8508,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C87">
-        <v>4.481554172984744</v>
+        <v>4.295222886152536</v>
       </c>
       <c r="D87">
-        <v>501.3008478517421</v>
+        <v>430.6866471209001</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8522,10 +8522,10 @@
         <v>161.8225797930893</v>
       </c>
       <c r="C88">
-        <v>4.62685621041517</v>
+        <v>4.42928320061141</v>
       </c>
       <c r="D88">
-        <v>505.8895616179938</v>
+        <v>434.119284108656</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8536,10 +8536,10 @@
         <v>158.1251752635391</v>
       </c>
       <c r="C89">
-        <v>4.778994670722144</v>
+        <v>4.569438590783281</v>
       </c>
       <c r="D89">
-        <v>510.5851281994574</v>
+        <v>437.623236357553</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8550,10 +8550,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C90">
-        <v>4.938326273905616</v>
+        <v>4.715994175958453</v>
       </c>
       <c r="D90">
-        <v>515.3895269125497</v>
+        <v>441.1994705291326</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8564,10 +8564,10 @@
         <v>150.8385096007949</v>
       </c>
       <c r="C91">
-        <v>5.10522705990583</v>
+        <v>4.869269986985542</v>
       </c>
       <c r="D91">
-        <v>520.3048689341754</v>
+        <v>444.8489775166057</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8578,10 +8578,10 @@
         <v>147.252553609385</v>
       </c>
       <c r="C92">
-        <v>5.28009085636577</v>
+        <v>5.029598873402583</v>
       </c>
       <c r="D92">
-        <v>525.3331724680929</v>
+        <v>448.5725496833277</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8592,10 +8592,10 @@
         <v>143.7070364301009</v>
       </c>
       <c r="C93">
-        <v>5.463327458357972</v>
+        <v>5.197328223882994</v>
       </c>
       <c r="D93">
-        <v>530.4761464032377</v>
+        <v>452.370927387066</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>140.2035850708226</v>
       </c>
       <c r="C94">
-        <v>5.655365932938949</v>
+        <v>5.372820045721989</v>
       </c>
       <c r="D94">
-        <v>535.7354996285452</v>
+        <v>456.244794225136</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8620,10 +8620,10 @@
         <v>136.7438141687726</v>
       </c>
       <c r="C95">
-        <v>5.856654926227536</v>
+        <v>5.556451963783593</v>
       </c>
       <c r="D95">
-        <v>541.1129410329505</v>
+        <v>460.1948583526816</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8634,10 +8634,10 @@
         <v>133.3293248157152</v>
       </c>
       <c r="C96">
-        <v>6.067661906138018</v>
+        <v>5.748613028949192</v>
       </c>
       <c r="D96">
-        <v>546.610095233537</v>
+        <v>464.2215135159805</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8648,10 +8648,10 @@
         <v>129.9617033958852</v>
       </c>
       <c r="C97">
-        <v>6.288871187755201</v>
+        <v>5.949705155682529</v>
       </c>
       <c r="D97">
-        <v>552.2283382156254</v>
+        <v>468.3250064502988</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8662,10 +8662,10 @@
         <v>126.6425204377826</v>
       </c>
       <c r="C98">
-        <v>6.520783042258148</v>
+        <v>6.160143466080356</v>
       </c>
       <c r="D98">
-        <v>557.9687688038019</v>
+        <v>472.5055134978084</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>123.3733294809079</v>
       </c>
       <c r="C99">
-        <v>6.763914881519993</v>
+        <v>6.380356379701647</v>
       </c>
       <c r="D99">
-        <v>563.8323808983756</v>
+        <v>476.7632053734405</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8690,10 +8690,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C100">
-        <v>7.018799080895028</v>
+        <v>6.610779099404485</v>
       </c>
       <c r="D100">
-        <v>569.8199630789366</v>
+        <v>481.0978418380019</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8704,10 +8704,10 @@
         <v>116.9910460969931</v>
       </c>
       <c r="C101">
-        <v>7.285977914013257</v>
+        <v>6.851852398402583</v>
       </c>
       <c r="D101">
-        <v>575.9318144587074</v>
+        <v>485.5088286828504</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>113.8809658338429</v>
       </c>
       <c r="C102">
-        <v>7.56600536628885</v>
+        <v>7.104025004058324</v>
       </c>
       <c r="D102">
-        <v>582.1680693185865</v>
+        <v>489.9955451786986</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8732,10 +8732,10 @@
         <v>110.8268997533531</v>
       </c>
       <c r="C103">
-        <v>7.859442465383775</v>
+        <v>7.367748801815326</v>
       </c>
       <c r="D103">
-        <v>588.5285267051647</v>
+        <v>494.5571710885729</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8746,10 +8746,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C104">
-        <v>8.166848911775848</v>
+        <v>7.643470936159301</v>
       </c>
       <c r="D104">
-        <v>595.0122810431535</v>
+        <v>499.1923723204997</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -8760,10 +8760,10 @@
         <v>104.8925954669868</v>
       </c>
       <c r="C105">
-        <v>8.488784908740472</v>
+        <v>7.931631666994186</v>
       </c>
       <c r="D105">
-        <v>601.6181862922693</v>
+        <v>503.8994429619821</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>102.0151903678276</v>
       </c>
       <c r="C106">
-        <v>8.825802435322599</v>
+        <v>8.232662364687151</v>
       </c>
       <c r="D106">
-        <v>608.344576752294</v>
+        <v>508.6764801296043</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8788,10 +8788,10 @@
         <v>99.19946368015324</v>
       </c>
       <c r="C107">
-        <v>9.178432395694697</v>
+        <v>8.5469754240364</v>
       </c>
       <c r="D107">
-        <v>615.1888173821599</v>
+        <v>513.5210939404279</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>96.44676797376539</v>
       </c>
       <c r="C108">
-        <v>9.547186045613108</v>
+        <v>8.874954140382401</v>
       </c>
       <c r="D108">
-        <v>622.1479281246887</v>
+        <v>518.4302145912774</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8816,10 +8816,10 @@
         <v>93.75842851664086</v>
       </c>
       <c r="C109">
-        <v>9.932540302630125</v>
+        <v>9.216951954188492</v>
       </c>
       <c r="D109">
-        <v>629.2181628070556</v>
+        <v>523.4005222562715</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>91.1357423616824</v>
       </c>
       <c r="C110">
-        <v>10.33491908739449</v>
+        <v>9.573278964814248</v>
       </c>
       <c r="D110">
-        <v>636.3944906890206</v>
+        <v>528.4281664410566</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>88.57997745721445</v>
       </c>
       <c r="C111">
-        <v>10.75469381504252</v>
+        <v>9.944182554037951</v>
       </c>
       <c r="D111">
-        <v>643.6713972585242</v>
+        <v>533.5082779442787</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8858,10 +8858,10 @@
         <v>86.09237178165456</v>
       </c>
       <c r="C112">
-        <v>11.19216059283114</v>
+        <v>10.32984855289077</v>
       </c>
       <c r="D112">
-        <v>651.0422904639934</v>
+        <v>538.6357010588007</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8872,10 +8872,10 @@
         <v>83.67413250274423</v>
       </c>
       <c r="C113">
-        <v>11.64751462610317</v>
+        <v>10.7303825753865</v>
       </c>
       <c r="D113">
-        <v>658.4989363753539</v>
+        <v>543.8046706086021</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>81.32643516169593</v>
       </c>
       <c r="C114">
-        <v>12.1208500488023</v>
+        <v>11.14578003743943</v>
       </c>
       <c r="D114">
-        <v>666.0324809873717</v>
+        <v>549.0080499834871</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8900,10 +8900,10 @@
         <v>79.05042288256821</v>
       </c>
       <c r="C115">
-        <v>12.61212551240888</v>
+        <v>11.57592925819196</v>
       </c>
       <c r="D115">
-        <v>673.6325691231941</v>
+        <v>554.2383462415096</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>76.84720560715456</v>
       </c>
       <c r="C116">
-        <v>13.12113308923185</v>
+        <v>12.02058851152159</v>
       </c>
       <c r="D116">
-        <v>681.2868640679228</v>
+        <v>559.4874111223302</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8928,10 +8928,10 @@
         <v>74.71785935563842</v>
       </c>
       <c r="C117">
-        <v>13.64749903293009</v>
+        <v>12.47934396414452</v>
       </c>
       <c r="D117">
-        <v>688.9823365866197</v>
+        <v>564.7453772744831</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>72.66342551323461</v>
       </c>
       <c r="C118">
-        <v>14.19063274835605</v>
+        <v>12.95161547602195</v>
       </c>
       <c r="D118">
-        <v>696.7038704043454</v>
+        <v>570.0019194675716</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8956,10 +8956,10 @@
         <v>70.6849101430177</v>
       </c>
       <c r="C119">
-        <v>14.74969794569135</v>
+        <v>13.43663212050851</v>
       </c>
       <c r="D119">
-        <v>704.4341985493633</v>
+        <v>575.2460504948322</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8970,10 +8970,10 @@
         <v>68.78328332510246</v>
       </c>
       <c r="C120">
-        <v>15.32361368352394</v>
+        <v>13.93338043665318</v>
       </c>
       <c r="D120">
-        <v>712.1552696950391</v>
+        <v>580.4648236333092</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8984,10 +8984,10 @@
         <v>66.95947852232982</v>
       </c>
       <c r="C121">
-        <v>15.91098981974437</v>
+        <v>14.44061383488151</v>
       </c>
       <c r="D121">
-        <v>719.8464305024422</v>
+        <v>585.6447111960847</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8998,10 +8998,10 @@
         <v>65.2143919725788</v>
       </c>
       <c r="C122">
-        <v>16.51010885806027</v>
+        <v>14.95683203168992</v>
       </c>
       <c r="D122">
-        <v>727.4848962492177</v>
+        <v>590.7715524186684</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -9012,10 +9012,10 @@
         <v>63.54888210781604</v>
       </c>
       <c r="C123">
-        <v>17.11892979582368</v>
+        <v>15.48022913664496</v>
       </c>
       <c r="D123">
-        <v>735.0470196666523</v>
+        <v>595.8292350004051</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -9026,10 +9026,10 @@
         <v>61.96376899996756</v>
       </c>
       <c r="C124">
-        <v>17.73502233481879</v>
+        <v>16.00870818953767</v>
       </c>
       <c r="D124">
-        <v>742.5063306679806</v>
+        <v>600.8009669937129</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -9040,10 +9040,10 @@
         <v>60.45983383368911</v>
       </c>
       <c r="C125">
-        <v>18.3555705348505</v>
+        <v>16.53987289083013</v>
       </c>
       <c r="D125">
-        <v>749.8345234088155</v>
+        <v>605.6693900687345</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -9054,10 +9054,10 @@
         <v>59.03781840609101</v>
       </c>
       <c r="C126">
-        <v>18.97738504540262</v>
+        <v>17.07099346672459</v>
       </c>
       <c r="D126">
-        <v>757.0024151891465</v>
+        <v>610.4155738671434</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>57.69842465346358</v>
       </c>
       <c r="C127">
-        <v>19.59686090490362</v>
+        <v>17.59903006957841</v>
       </c>
       <c r="D127">
-        <v>763.9783661516572</v>
+        <v>615.0199413754699</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -9082,10 +9082,10 @@
         <v>56.44231420504</v>
       </c>
       <c r="C128">
-        <v>20.21001315468777</v>
+        <v>18.1206467599345</v>
       </c>
       <c r="D128">
-        <v>770.7295372873614</v>
+        <v>619.4624915219712</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -9096,10 +9096,10 @@
         <v>55.27010796381659</v>
       </c>
       <c r="C129">
-        <v>20.81250579865529</v>
+        <v>18.63221636701289</v>
       </c>
       <c r="D129">
-        <v>777.22234794735</v>
+        <v>623.7223984267896</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>54.18238571445136</v>
       </c>
       <c r="C130">
-        <v>21.39966813492651</v>
+        <v>19.129862302276</v>
       </c>
       <c r="D130">
-        <v>783.4219885512074</v>
+        <v>627.7785550265602</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -9124,10 +9124,10 @@
         <v>53.17968575824655</v>
       </c>
       <c r="C131">
-        <v>21.96656116515048</v>
+        <v>19.60950170390921</v>
       </c>
       <c r="D131">
-        <v>789.2933352014672</v>
+        <v>631.6097612251931</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -9138,10 +9138,10 @@
         <v>52.26250457521967</v>
       </c>
       <c r="C132">
-        <v>22.50804303345005</v>
+        <v>20.06688967766939</v>
       </c>
       <c r="D132">
-        <v>794.8012660964981</v>
+        <v>635.1945894192776</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -9152,10 +9152,10 @@
         <v>51.43129651326064</v>
       </c>
       <c r="C133">
-        <v>23.01885102706362</v>
+        <v>20.49772312546467</v>
       </c>
       <c r="D133">
-        <v>799.911074641967</v>
+        <v>638.5127936670261</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9166,10 +9166,10 @@
         <v>50.68647350437045</v>
       </c>
       <c r="C134">
-        <v>23.49369983855467</v>
+        <v>20.89767415807521</v>
       </c>
       <c r="D134">
-        <v>804.5889930417626</v>
+        <v>641.5441337027037</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C135">
-        <v>24.22126764439578</v>
+        <v>21.52800979682246</v>
       </c>
       <c r="D135">
-        <v>818.7364373310717</v>
+        <v>652.3145207784695</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>49.4574167812807</v>
       </c>
       <c r="C136">
-        <v>25.50073039552843</v>
+        <v>22.65447850507148</v>
       </c>
       <c r="D136">
-        <v>852.1472435301471</v>
+        <v>678.6127370877836</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -9208,10 +9208,10 @@
         <v>48.97379267673445</v>
       </c>
       <c r="C137">
-        <v>27.33037534657847</v>
+        <v>24.26350489687125</v>
       </c>
       <c r="D137">
-        <v>904.3570519193388</v>
+        <v>719.7037778474001</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -9222,10 +9222,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C138">
-        <v>29.69181906832227</v>
+        <v>26.32150679062023</v>
       </c>
       <c r="D138">
-        <v>974.5519541628458</v>
+        <v>774.4347853064332</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -9236,10 +9236,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C139">
-        <v>32.55009678302523</v>
+        <v>28.77797099564505</v>
       </c>
       <c r="D139">
-        <v>1061.588373218377</v>
+        <v>841.3369317409544</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -9250,10 +9250,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C140">
-        <v>35.85459843921888</v>
+        <v>31.56943013059102</v>
       </c>
       <c r="D140">
-        <v>1164.025245622517</v>
+        <v>918.7348542238801</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -9264,10 +9264,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C141">
-        <v>39.54065169846891</v>
+        <v>34.62377350024941</v>
       </c>
       <c r="D141">
-        <v>1280.16157676384</v>
+        <v>1004.850092235572</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>47.87300763918031</v>
       </c>
       <c r="C142">
-        <v>43.53185507239539</v>
+        <v>37.86431269890067</v>
       </c>
       <c r="D142">
-        <v>1408.083737054955</v>
+        <v>1097.886132744784</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C143">
-        <v>47.74290139140591</v>
+        <v>41.21331021369426</v>
       </c>
       <c r="D143">
-        <v>1545.716251481746</v>
+        <v>1196.091424560226</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -9306,10 +9306,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C144">
-        <v>52.08280018126515</v>
+        <v>44.5948937207807</v>
       </c>
       <c r="D144">
-        <v>1690.876398364327</v>
+        <v>1297.802431409422</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -9320,10 +9320,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C145">
-        <v>56.45828794065649</v>
+        <v>47.93738486122524</v>
       </c>
       <c r="D145">
-        <v>1841.329764674382</v>
+        <v>1401.471017568676</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -9334,10 +9334,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C146">
-        <v>60.77724847655065</v>
+        <v>51.17503880716882</v>
       </c>
       <c r="D146">
-        <v>1994.845318677543</v>
+        <v>1505.678626491136</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>48.97379267673448</v>
       </c>
       <c r="C147">
-        <v>64.95192853708045</v>
+        <v>54.24933631077716</v>
       </c>
       <c r="D147">
-        <v>2149.247270240048</v>
+        <v>1609.14313305227</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>49.45741678128068</v>
       </c>
       <c r="C148">
-        <v>68.90180159433106</v>
+        <v>57.10986910131115</v>
       </c>
       <c r="D148">
-        <v>2302.462689977143</v>
+        <v>1710.720667301606</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -9376,10 +9376,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C149">
-        <v>72.55593629355926</v>
+        <v>59.71487744555159</v>
       </c>
       <c r="D149">
-        <v>2452.563163099088</v>
+        <v>1809.404679386085</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -9390,10 +9390,10 @@
         <v>50.68647350437031</v>
       </c>
       <c r="C150">
-        <v>75.85477970104147</v>
+        <v>62.0314820940707</v>
       </c>
       <c r="D150">
-        <v>2597.799462684385</v>
+        <v>1904.323569278997</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -9404,10 +9404,10 @@
         <v>51.43129651326062</v>
       </c>
       <c r="C151">
-        <v>78.75130913181451</v>
+        <v>64.03564519440638</v>
       </c>
       <c r="D151">
-        <v>2736.628524292042</v>
+        <v>1994.737584124919</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -9418,10 +9418,10 @@
         <v>52.26250457521963</v>
       </c>
       <c r="C152">
-        <v>81.21155170705511</v>
+        <v>65.71189190558667</v>
       </c>
       <c r="D152">
-        <v>2867.732393371684</v>
+        <v>2080.035265524058</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>53.17968575824658</v>
       </c>
       <c r="C153">
-        <v>83.21451053967132</v>
+        <v>67.05282439008263</v>
       </c>
       <c r="D153">
-        <v>2990.029166022397</v>
+        <v>2159.729453709273</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -9446,10 +9446,10 @@
         <v>54.18238571445131</v>
       </c>
       <c r="C154">
-        <v>84.75156911760506</v>
+        <v>68.05846293448313</v>
       </c>
       <c r="D154">
-        <v>3102.676284151507</v>
+        <v>2233.452747501227</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -9460,10 +9460,10 @@
         <v>55.27010796381656</v>
       </c>
       <c r="C155">
-        <v>85.8254677905573</v>
+        <v>68.73544970522907</v>
       </c>
       <c r="D155">
-        <v>3205.06681104043</v>
+        <v>2300.952216451886</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -9474,10 +9474,10 @@
         <v>56.44231420504003</v>
       </c>
       <c r="C156">
-        <v>86.44895916817921</v>
+        <v>69.0961331477359</v>
       </c>
       <c r="D156">
-        <v>3296.819541317817</v>
+        <v>2362.082510700908</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -9488,10 +9488,10 @@
         <v>57.69842465346355</v>
       </c>
       <c r="C157">
-        <v>86.64325188939311</v>
+        <v>69.15763391406959</v>
       </c>
       <c r="D157">
-        <v>3377.763935649598</v>
+        <v>2416.799322879739</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>59.03781840609098</v>
       </c>
       <c r="C158">
-        <v>86.43634774953853</v>
+        <v>68.94085813364423</v>
       </c>
       <c r="D158">
-        <v>3447.920978047551</v>
+        <v>2465.150816358208</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -9516,10 +9516,10 @@
         <v>60.45983383368914</v>
       </c>
       <c r="C159">
-        <v>85.8613674606666</v>
+        <v>68.46950654563895</v>
       </c>
       <c r="D159">
-        <v>3507.481144585546</v>
+        <v>2507.26741018643</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -9530,10 +9530,10 @@
         <v>61.96376899996753</v>
       </c>
       <c r="C160">
-        <v>84.95492673624976</v>
+        <v>67.76915877758478</v>
       </c>
       <c r="D160">
-        <v>3556.779897550912</v>
+        <v>2543.351758546811</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -9544,10 +9544,10 @@
         <v>63.54888210781595</v>
       </c>
       <c r="C161">
-        <v>83.75568350536896</v>
+        <v>66.86640331179929</v>
       </c>
       <c r="D161">
-        <v>3596.274199090645</v>
+        <v>2573.667197095031</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>65.21439197257881</v>
       </c>
       <c r="C162">
-        <v>82.30298248340249</v>
+        <v>65.78808222128694</v>
       </c>
       <c r="D162">
-        <v>3626.516165803992</v>
+        <v>2598.526705532936</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>66.95947852232968</v>
       </c>
       <c r="C163">
-        <v>80.6357441393006</v>
+        <v>64.560641016586</v>
       </c>
       <c r="D163">
-        <v>3648.12957881185</v>
+        <v>2618.281909281648</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>68.78328332510243</v>
       </c>
       <c r="C164">
-        <v>78.79154958042292</v>
+        <v>63.20954527182653</v>
       </c>
       <c r="D164">
-        <v>3661.787513050394</v>
+        <v>2633.310539029942</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>70.6849101430175</v>
       </c>
       <c r="C165">
-        <v>76.80594292582821</v>
+        <v>61.75887677558946</v>
       </c>
       <c r="D165">
-        <v>3668.192599468704</v>
+        <v>2644.007042057072</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>72.66342551323459</v>
       </c>
       <c r="C166">
-        <v>74.71189907628457</v>
+        <v>60.23099914349724</v>
       </c>
       <c r="D166">
-        <v>3668.058371656216</v>
+        <v>2650.772421927089</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -9628,10 +9628,10 @@
         <v>74.71785935563838</v>
       </c>
       <c r="C167">
-        <v>72.5394084191102</v>
+        <v>58.64635084522983</v>
       </c>
       <c r="D167">
-        <v>3662.090100656294</v>
+        <v>2654.006142391912</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -9642,10 +9642,10 @@
         <v>76.84720560715459</v>
       </c>
       <c r="C168">
-        <v>70.31548672579825</v>
+        <v>57.02331139481328</v>
       </c>
       <c r="D168">
-        <v>3650.981749902613</v>
+        <v>2654.098410849611</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -9656,10 +9656,10 @@
         <v>79.05042288256826</v>
       </c>
       <c r="C169">
-        <v>68.06378240599564</v>
+        <v>55.37815783619345</v>
       </c>
       <c r="D169">
-        <v>3635.388861400232</v>
+        <v>2651.424169278921</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -9670,10 +9670,10 @@
         <v>81.32643516169587</v>
       </c>
       <c r="C170">
-        <v>65.80498604886476</v>
+        <v>53.72511716077934</v>
       </c>
       <c r="D170">
-        <v>3615.939306484166</v>
+        <v>2646.339844182854</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -9684,10 +9684,10 @@
         <v>83.67413250274427</v>
       </c>
       <c r="C171">
-        <v>63.55665497024416</v>
+        <v>52.07635804437678</v>
       </c>
       <c r="D171">
-        <v>3593.212032006117</v>
+        <v>2639.175866644057</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9698,10 +9698,10 @@
         <v>86.09237178165434</v>
       </c>
       <c r="C172">
-        <v>61.33357371196276</v>
+        <v>50.44223938261042</v>
       </c>
       <c r="D172">
-        <v>3567.742794662448</v>
+        <v>2630.240979208231</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>88.57997745721441</v>
       </c>
       <c r="C173">
-        <v>59.14789388946284</v>
+        <v>48.83129588934174</v>
       </c>
       <c r="D173">
-        <v>3540.017796831989</v>
+        <v>2619.81318606541</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>91.13574236168223</v>
       </c>
       <c r="C174">
-        <v>57.0093849716577</v>
+        <v>47.25053650189945</v>
       </c>
       <c r="D174">
-        <v>3510.473396718087</v>
+        <v>2608.14653566709</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9740,10 +9740,10 @@
         <v>93.75842851664078</v>
       </c>
       <c r="C175">
-        <v>54.9257462737684</v>
+        <v>45.70550314619268</v>
       </c>
       <c r="D175">
-        <v>3479.500319977104</v>
+        <v>2595.465869368214</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -9754,10 +9754,10 @@
         <v>96.44676797376516</v>
       </c>
       <c r="C176">
-        <v>52.90278193459519</v>
+        <v>44.20050257305876</v>
       </c>
       <c r="D176">
-        <v>3447.440535398813</v>
+        <v>2581.971204755516</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9768,10 +9768,10 @@
         <v>99.19946368015319</v>
       </c>
       <c r="C177">
-        <v>50.94469866041554</v>
+        <v>42.7387419579741</v>
       </c>
       <c r="D177">
-        <v>3414.592772453429</v>
+        <v>2567.83767766255</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>102.0151903678277</v>
       </c>
       <c r="C178">
-        <v>49.05435403191176</v>
+        <v>41.32247448516186</v>
       </c>
       <c r="D178">
-        <v>3381.216661044576</v>
+        <v>2553.216680125117</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9796,10 +9796,10 @@
         <v>104.8925954669867</v>
       </c>
       <c r="C179">
-        <v>47.23340973799796</v>
+        <v>39.95318078755404</v>
       </c>
       <c r="D179">
-        <v>3347.531902912856</v>
+        <v>2538.240098463536</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9810,10 +9810,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C180">
-        <v>45.48259004032242</v>
+        <v>38.63163380214488</v>
       </c>
       <c r="D180">
-        <v>3313.726008647095</v>
+        <v>2523.018283889709</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9824,10 +9824,10 @@
         <v>110.8268997533529</v>
       </c>
       <c r="C181">
-        <v>43.8018317338607</v>
+        <v>37.35809202052506</v>
       </c>
       <c r="D181">
-        <v>3279.956257820603</v>
+        <v>2507.646881552913</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9838,10 +9838,10 @@
         <v>113.8809658338428</v>
       </c>
       <c r="C182">
-        <v>42.19041927849518</v>
+        <v>36.13232765133209</v>
       </c>
       <c r="D182">
-        <v>3246.351772963505</v>
+        <v>2492.204007724586</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9852,10 +9852,10 @@
         <v>116.991046096993</v>
       </c>
       <c r="C183">
-        <v>40.64716655598935</v>
+        <v>34.95377850232391</v>
       </c>
       <c r="D183">
-        <v>3213.020498205373</v>
+        <v>2476.75622181521</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C184">
-        <v>39.17046641667604</v>
+        <v>33.82157837751259</v>
       </c>
       <c r="D184">
-        <v>3180.047394160318</v>
+        <v>2461.357144189241</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>123.3733294809078</v>
       </c>
       <c r="C185">
-        <v>37.75845476610531</v>
+        <v>32.73465865186436</v>
       </c>
       <c r="D185">
-        <v>3147.502566595364</v>
+        <v>2446.051577200153</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>126.6425204377825</v>
       </c>
       <c r="C186">
-        <v>36.40903246212326</v>
+        <v>31.69176819740114</v>
       </c>
       <c r="D186">
-        <v>3115.439186455964</v>
+        <v>2430.874424957945</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9908,10 +9908,10 @@
         <v>129.9617033958849</v>
       </c>
       <c r="C187">
-        <v>35.11997766097034</v>
+        <v>30.69156087849453</v>
       </c>
       <c r="D187">
-        <v>3083.899530276472</v>
+        <v>2415.855083619143</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9922,10 +9922,10 @@
         <v>133.329324815715</v>
       </c>
       <c r="C188">
-        <v>33.88896516405232</v>
+        <v>29.73258749671692</v>
       </c>
       <c r="D188">
-        <v>3052.914081608565</v>
+        <v>2401.015114248389</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9936,10 +9936,10 @@
         <v>136.7438141687725</v>
       </c>
       <c r="C189">
-        <v>32.71364300647398</v>
+        <v>28.81337128565538</v>
       </c>
       <c r="D189">
-        <v>3022.506157885834</v>
+        <v>2386.372707600325</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9950,10 +9950,10 @@
         <v>140.2035850708223</v>
       </c>
       <c r="C190">
-        <v>31.59162794198499</v>
+        <v>27.93239430946468</v>
       </c>
       <c r="D190">
-        <v>2992.689912601825</v>
+        <v>2371.940505263011</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9964,10 +9964,10 @@
         <v>143.7070364301008</v>
       </c>
       <c r="C191">
-        <v>30.52057958375372</v>
+        <v>27.08814731806315</v>
       </c>
       <c r="D191">
-        <v>2963.475934215575</v>
+        <v>2357.728778251883</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9978,10 +9978,10 @@
         <v>147.2525536093848</v>
       </c>
       <c r="C192">
-        <v>29.4981765944496</v>
+        <v>26.2791270590549</v>
       </c>
       <c r="D192">
-        <v>2934.868189569796</v>
+        <v>2343.744565927499</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>150.8385096007951</v>
       </c>
       <c r="C193">
-        <v>28.52216320491121</v>
+        <v>25.50384980179983</v>
       </c>
       <c r="D193">
-        <v>2906.86784621177</v>
+        <v>2329.992285782333</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -10006,10 +10006,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C194">
-        <v>27.59035205311008</v>
+        <v>24.76087456993344</v>
       </c>
       <c r="D194">
-        <v>2879.473267520045</v>
+        <v>2316.475454058986</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>158.125175263539</v>
       </c>
       <c r="C195">
-        <v>26.70061930193453</v>
+        <v>24.04879146830699</v>
       </c>
       <c r="D195">
-        <v>2852.679291065854</v>
+        <v>2303.195402182735</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -10034,10 +10034,10 @@
         <v>161.8225797930889</v>
       </c>
       <c r="C196">
-        <v>25.85093189468827</v>
+        <v>23.36623525172299</v>
       </c>
       <c r="D196">
-        <v>2826.480013401359</v>
+        <v>2290.152347538351</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -10048,10 +10048,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C197">
-        <v>25.03933691678957</v>
+        <v>22.71189348010742</v>
       </c>
       <c r="D197">
-        <v>2800.867810925548</v>
+        <v>2277.346138252793</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C198">
-        <v>24.26396202237842</v>
+        <v>22.08449811415708</v>
       </c>
       <c r="D198">
-        <v>2775.833534284206</v>
+        <v>2264.775447705407</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -10076,10 +10076,10 @@
         <v>173.1110904219307</v>
       </c>
       <c r="C199">
-        <v>23.52302337385674</v>
+        <v>21.48282992546365</v>
       </c>
       <c r="D199">
-        <v>2751.367652167974</v>
+        <v>2252.438234414809</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>176.9337741896295</v>
       </c>
       <c r="C200">
-        <v>22.81482172570595</v>
+        <v>20.90572345391048</v>
       </c>
       <c r="D200">
-        <v>2727.46016273037</v>
+        <v>2240.332355991164</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -10104,10 +10104,10 @@
         <v>180.7835795474953</v>
       </c>
       <c r="C201">
-        <v>22.13773585719179</v>
+        <v>20.35206418923149</v>
       </c>
       <c r="D201">
-        <v>2704.100181722366</v>
+        <v>2228.455435190057</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>184.6588224866493</v>
       </c>
       <c r="C202">
-        <v>21.49022628992563</v>
+        <v>19.82078446724064</v>
       </c>
       <c r="D202">
-        <v>2681.276768498699</v>
+        <v>2216.80457654406</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -10132,10 +10132,10 @@
         <v>188.5578187875752</v>
       </c>
       <c r="C203">
-        <v>20.87083258627138</v>
+        <v>19.31086443035487</v>
       </c>
       <c r="D203">
-        <v>2658.979046473297</v>
+        <v>2205.376635112868</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -10146,10 +10146,10 @@
         <v>192.4788852449205</v>
       </c>
       <c r="C204">
-        <v>20.27816503728541</v>
+        <v>18.82133245125078</v>
       </c>
       <c r="D204">
-        <v>2637.195602748993</v>
+        <v>2194.168465956174</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -10160,10 +10160,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C205">
-        <v>19.71090779442436</v>
+        <v>18.35126268575234</v>
       </c>
       <c r="D205">
-        <v>2615.915322109437</v>
+        <v>2183.176866600493</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -10174,10 +10174,10 @@
         <v>200.3805081912935</v>
       </c>
       <c r="C206">
-        <v>19.16781399219655</v>
+        <v>17.8997725730458</v>
       </c>
       <c r="D206">
-        <v>2595.12723106486</v>
+        <v>2172.398504995435</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -10188,10 +10188,10 @@
         <v>204.3577142851372</v>
       </c>
       <c r="C207">
-        <v>18.64770123770617</v>
+        <v>17.4660214446261</v>
       </c>
       <c r="D207">
-        <v>2574.820356125495</v>
+        <v>2161.829973821281</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -10202,10 +10202,10 @@
         <v>208.3502921449036</v>
       </c>
       <c r="C208">
-        <v>18.14944834975743</v>
+        <v>17.04920916721172</v>
       </c>
       <c r="D208">
-        <v>2554.983723801576</v>
+        <v>2151.4678523881</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -10216,10 +10216,10 @@
         <v>212.3565817768141</v>
       </c>
       <c r="C209">
-        <v>17.67199365166256</v>
+        <v>16.64857439119122</v>
       </c>
       <c r="D209">
-        <v>2535.606566299273</v>
+        <v>2141.308720005963</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -10230,10 +10230,10 @@
         <v>216.3749313866266</v>
       </c>
       <c r="C210">
-        <v>17.21433030663852</v>
+        <v>16.26339273584912</v>
       </c>
       <c r="D210">
-        <v>2516.678100047649</v>
+        <v>2131.349155984939</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -10244,10 +10244,10 @@
         <v>220.4036985333858</v>
       </c>
       <c r="C211">
-        <v>16.77550757089042</v>
+        <v>15.89297529315015</v>
       </c>
       <c r="D211">
-        <v>2498.188139894079</v>
+        <v>2121.585774622408</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -10258,10 +10258,10 @@
         <v>224.4412512658594</v>
       </c>
       <c r="C212">
-        <v>16.35462403154733</v>
+        <v>15.53666608789798</v>
       </c>
       <c r="D212">
-        <v>2480.126546338559</v>
+        <v>2112.015114005999</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -10272,10 +10272,10 @@
         <v>228.4859692398809</v>
       </c>
       <c r="C213">
-        <v>15.95082529023611</v>
+        <v>15.19384174409275</v>
       </c>
       <c r="D213">
-        <v>2462.483274273559</v>
+        <v>2102.633809132899</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -10286,10 +10286,10 @@
         <v>232.5362448148088</v>
       </c>
       <c r="C214">
-        <v>15.56330113758282</v>
+        <v>14.86390974747224</v>
       </c>
       <c r="D214">
-        <v>2445.248327307985</v>
+        <v>2093.438577454417</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>236.5904841273564</v>
       </c>
       <c r="C215">
-        <v>15.1912857240732</v>
+        <v>14.54630631476888</v>
       </c>
       <c r="D215">
-        <v>2428.412166308341</v>
+        <v>2084.426136421862</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -10314,10 +10314,10 @@
         <v>240.647108141055</v>
       </c>
       <c r="C216">
-        <v>14.83405438105772</v>
+        <v>14.24049495609404</v>
       </c>
       <c r="D216">
-        <v>2411.965595919408</v>
+        <v>2075.593203486544</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>244.7045536696592</v>
       </c>
       <c r="C217">
-        <v>14.49091925512521</v>
+        <v>13.94596568574283</v>
       </c>
       <c r="D217">
-        <v>2395.899420785966</v>
+        <v>2066.936582804829</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>248.7612743728313</v>
       </c>
       <c r="C218">
-        <v>14.16122860824087</v>
+        <v>13.66223242648979</v>
       </c>
       <c r="D218">
-        <v>2380.204662658965</v>
+        <v>2058.452978979267</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>252.8157417225045</v>
       </c>
       <c r="C219">
-        <v>13.84436362409416</v>
+        <v>13.38883403668496</v>
       </c>
       <c r="D219">
-        <v>2364.87235510609</v>
+        <v>2050.139337246297</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -10370,10 +10370,10 @@
         <v>256.8664459383542</v>
       </c>
       <c r="C220">
-        <v>13.53974042316873</v>
+        <v>13.12533161877752</v>
       </c>
       <c r="D220">
-        <v>2349.894203508973</v>
+        <v>2041.992629421065</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>260.9118968908909</v>
       </c>
       <c r="C221">
-        <v>13.24680456400659</v>
+        <v>12.87130721200724</v>
       </c>
       <c r="D221">
-        <v>2335.261966046984</v>
+        <v>2034.009827318718</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -10398,10 +10398,10 @@
         <v>264.9506249707349</v>
       </c>
       <c r="C222">
-        <v>12.96503018609938</v>
+        <v>12.62636289362662</v>
       </c>
       <c r="D222">
-        <v>2320.96758673986</v>
+        <v>2026.187930187809</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -10412,10 +10412,10 @@
         <v>268.9811819227081</v>
       </c>
       <c r="C223">
-        <v>12.69391657879026</v>
+        <v>12.39011980541951</v>
       </c>
       <c r="D223">
-        <v>2307.002856991885</v>
+        <v>2018.523973802207</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -10426,10 +10426,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C224">
-        <v>12.43298971847275</v>
+        <v>12.16221709319375</v>
       </c>
       <c r="D224">
-        <v>2293.359946926169</v>
+        <v>2011.015017309052</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -10440,10 +10440,10 @@
         <v>277.0121009414551</v>
       </c>
       <c r="C225">
-        <v>12.18180221305974</v>
+        <v>11.94231201373202</v>
       </c>
       <c r="D225">
-        <v>2280.031672191885</v>
+        <v>2003.658316294667</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>281.0096802580939</v>
       </c>
       <c r="C226">
-        <v>11.9399284068728</v>
+        <v>11.73007783056742</v>
       </c>
       <c r="D226">
-        <v>2267.010848438209</v>
+        <v>1996.451126345376</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>284.9935243491361</v>
       </c>
       <c r="C227">
-        <v>11.70696321485596</v>
+        <v>11.52520299723222</v>
       </c>
       <c r="D227">
-        <v>2254.290291314314</v>
+        <v>1989.390703047503</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -10482,10 +10482,10 @@
         <v>288.9623029253084</v>
       </c>
       <c r="C228">
-        <v>11.482522134244</v>
+        <v>11.32739139707958</v>
       </c>
       <c r="D228">
-        <v>2241.863033839589</v>
+        <v>1982.474479486436</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -10496,10 +10496,10 @@
         <v>292.9147112513795</v>
       </c>
       <c r="C229">
-        <v>11.26623857452098</v>
+        <v>11.13635872637683</v>
       </c>
       <c r="D229">
-        <v>2229.72201884282</v>
+        <v>1975.699566922282</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -10510,10 +10510,10 @@
         <v>296.8494707029504</v>
       </c>
       <c r="C230">
-        <v>11.0577657745419</v>
+        <v>10.95183526390084</v>
       </c>
       <c r="D230">
-        <v>2217.860673719772</v>
+        <v>1969.063355410348</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>300.7653292803427</v>
       </c>
       <c r="C231">
-        <v>10.8567754467253</v>
+        <v>10.77356473628295</v>
       </c>
       <c r="D231">
-        <v>2206.272855133348</v>
+        <v>1962.563446153086</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>304.661062079085</v>
       </c>
       <c r="C232">
-        <v>10.66295469121396</v>
+        <v>10.60130247847243</v>
       </c>
       <c r="D232">
-        <v>2194.952419746452</v>
+        <v>1956.197440352945</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -10552,10 +10552,10 @@
         <v>308.5354717165985</v>
       </c>
       <c r="C233">
-        <v>10.47600518655107</v>
+        <v>10.43481484992134</v>
       </c>
       <c r="D233">
-        <v>2183.893224221986</v>
+        <v>1949.962939212377</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>312.3873887148044</v>
       </c>
       <c r="C234">
-        <v>10.29564349388358</v>
+        <v>10.27387868159176</v>
       </c>
       <c r="D234">
-        <v>2173.089350827438</v>
+        <v>1943.857543933833</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -10580,10 +10580,10 @@
         <v>316.2156718384866</v>
       </c>
       <c r="C235">
-        <v>10.12159854020203</v>
+        <v>10.11828075219723</v>
       </c>
       <c r="D235">
-        <v>2162.534737898957</v>
+        <v>1937.878855719762</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -10594,10 +10594,10 @@
         <v>320.0192083893519</v>
       </c>
       <c r="C236">
-        <v>9.953614119574022</v>
+        <v>9.967818279266808</v>
       </c>
       <c r="D236">
-        <v>2152.223858771811</v>
+        <v>1932.024667100651</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -10608,10 +10608,10 @@
         <v>323.7969144558571</v>
       </c>
       <c r="C237">
-        <v>9.791446953156559</v>
+        <v>9.822296064918721</v>
       </c>
       <c r="D237">
-        <v>2142.151469774163</v>
+        <v>1926.292505606214</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -10622,10 +10622,10 @@
         <v>327.5477351189684</v>
       </c>
       <c r="C238">
-        <v>9.634864736722665</v>
+        <v>9.681528890266168</v>
       </c>
       <c r="D238">
-        <v>2132.312327234175</v>
+        <v>1920.68018101697</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -10636,10 +10636,10 @@
         <v>331.2706446141489</v>
       </c>
       <c r="C239">
-        <v>9.483645578222557</v>
+        <v>9.545340340483865</v>
       </c>
       <c r="D239">
-        <v>2122.701187480013</v>
+        <v>1915.185650493605</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -10650,10 +10650,10 @@
         <v>334.9646464499609</v>
       </c>
       <c r="C240">
-        <v>9.33757845933723</v>
+        <v>9.413561642190748</v>
       </c>
       <c r="D240">
-        <v>2113.313031643797</v>
+        <v>1909.806871196811</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>338.628773483797</v>
       </c>
       <c r="C241">
-        <v>9.196460938671388</v>
+        <v>9.286031291030321</v>
       </c>
       <c r="D241">
-        <v>2104.142667479993</v>
+        <v>1904.541800287273</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -10678,10 +10678,10 @@
         <v>342.2620879553367</v>
       </c>
       <c r="C242">
-        <v>9.06010181418862</v>
+        <v>9.162594698816923</v>
       </c>
       <c r="D242">
-        <v>2095.185444971206</v>
+        <v>1899.38839492568</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -10692,10 +10692,10 @@
         <v>345.8636814784477</v>
       </c>
       <c r="C243">
-        <v>8.928318982476082</v>
+        <v>9.04310385919052</v>
       </c>
       <c r="D243">
-        <v>2086.436889526292</v>
+        <v>1894.344612272721</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -10706,10 +10706,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C244">
-        <v>8.800938239825804</v>
+        <v>8.92741790174307</v>
       </c>
       <c r="D244">
-        <v>2077.892526554107</v>
+        <v>1889.408593821269</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C245">
-        <v>8.677792889375713</v>
+        <v>8.815400623124752</v>
       </c>
       <c r="D245">
-        <v>2069.547881463506</v>
+        <v>1884.578211111083</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C246">
-        <v>8.558724282145727</v>
+        <v>8.706922896998426</v>
       </c>
       <c r="D246">
-        <v>2061.398699526384</v>
+        <v>1879.851633558272</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C247">
-        <v>8.443579747354907</v>
+        <v>8.601861430367109</v>
       </c>
       <c r="D247">
-        <v>2053.440538823501</v>
+        <v>1875.227130905097</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>363.3660880792924</v>
       </c>
       <c r="C248">
-        <v>8.332215194817403</v>
+        <v>8.500098032870842</v>
       </c>
       <c r="D248">
-        <v>2045.669481427831</v>
+        <v>1870.702972893817</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -10776,10 +10776,10 @@
         <v>366.7599136665034</v>
       </c>
       <c r="C249">
-        <v>8.224492987584812</v>
+        <v>8.401519377994141</v>
       </c>
       <c r="D249">
-        <v>2038.081708821998</v>
+        <v>1866.277429266692</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10790,10 +10790,10 @@
         <v>370.1164730856487</v>
       </c>
       <c r="C250">
-        <v>8.120281233388544</v>
+        <v>8.30601677654823</v>
       </c>
       <c r="D250">
-        <v>2030.673402488627</v>
+        <v>1861.948769765982</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10804,10 +10804,10 @@
         <v>373.4350879721127</v>
       </c>
       <c r="C251">
-        <v>8.019453508229105</v>
+        <v>8.213485961761879</v>
       </c>
       <c r="D251">
-        <v>2023.440743910342</v>
+        <v>1857.715264133945</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>376.715107553764</v>
       </c>
       <c r="C252">
-        <v>7.921889439865892</v>
+        <v>8.12382765498063</v>
       </c>
       <c r="D252">
-        <v>2016.380129762688</v>
+        <v>1853.575357715656</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>379.9559082852275</v>
       </c>
       <c r="C253">
-        <v>7.827472821808393</v>
+        <v>8.036945405429663</v>
       </c>
       <c r="D253">
-        <v>2009.487760734478</v>
+        <v>1849.527226421701</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10846,10 +10846,10 @@
         <v>383.1568934536982</v>
       </c>
       <c r="C254">
-        <v>7.736094081922553</v>
+        <v>7.95274792351672</v>
       </c>
       <c r="D254">
-        <v>2002.760332763323</v>
+        <v>1845.569349057697</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10860,10 +10860,10 @@
         <v>386.3174927578165</v>
       </c>
       <c r="C255">
-        <v>7.647648264194228</v>
+        <v>7.871147831684974</v>
       </c>
       <c r="D255">
-        <v>1996.194588899151</v>
+        <v>1841.700268598039</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>389.4371618611554</v>
       </c>
       <c r="C256">
-        <v>7.562034635341807</v>
+        <v>7.792061217833712</v>
       </c>
       <c r="D256">
-        <v>1989.787272191887</v>
+        <v>1837.918528017122</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10888,10 +10888,10 @@
         <v>392.5153819218946</v>
       </c>
       <c r="C257">
-        <v>7.479156488715534</v>
+        <v>7.71540748060173</v>
       </c>
       <c r="D257">
-        <v>1983.535125691457</v>
+        <v>1834.222670289343</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10902,10 +10902,10 @@
         <v>395.5516591002701</v>
       </c>
       <c r="C258">
-        <v>7.398921536420657</v>
+        <v>7.641109182368385</v>
       </c>
       <c r="D258">
-        <v>1977.435046987363</v>
+        <v>1830.611238389098</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10916,10 +10916,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C259">
-        <v>7.321241068249</v>
+        <v>7.569091909560147</v>
       </c>
       <c r="D259">
-        <v>1971.483915147254</v>
+        <v>1827.082775290782</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C260">
-        <v>7.246030954398167</v>
+        <v>7.499284341872244</v>
       </c>
       <c r="D260">
-        <v>1965.678907211805</v>
+        <v>1823.635873089824</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10944,10 +10944,10 @@
         <v>404.4042590660648</v>
       </c>
       <c r="C261">
-        <v>7.173210381020351</v>
+        <v>7.43161831247881</v>
       </c>
       <c r="D261">
-        <v>1960.017206731583</v>
+        <v>1820.269220446972</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10958,10 +10958,10 @@
         <v>407.2683080088374</v>
       </c>
       <c r="C262">
-        <v>7.102701677662504</v>
+        <v>7.36602830441401</v>
       </c>
       <c r="D262">
-        <v>1954.495997257154</v>
+        <v>1816.981511283165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Output/Ergebnisse.xlsx
+++ b/Code/Output/Ergebnisse.xlsx
@@ -909,784 +909,784 @@
                   <c:v>1.088759781086738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.095124304402439</c:v>
+                  <c:v>1.095124289299665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.101712746602582</c:v>
+                  <c:v>1.101712736381529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.10853079216579</c:v>
+                  <c:v>1.108530801436664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.115584390688094</c:v>
+                  <c:v>1.11558440604138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.122879720241499</c:v>
+                  <c:v>1.122879725605705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.130423284202726</c:v>
+                  <c:v>1.130423199052752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.138221693580711</c:v>
+                  <c:v>1.138221538998511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.146281838552179</c:v>
+                  <c:v>1.146281742457988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.154611097325773</c:v>
+                  <c:v>1.154611102105073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.163217130831776</c:v>
+                  <c:v>1.163217218115127</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.17210789457867</c:v>
+                  <c:v>1.172108078224589</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.181291651094135</c:v>
+                  <c:v>1.181292035377312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.190776982981427</c:v>
+                  <c:v>1.190777639522464</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.200572822096494</c:v>
+                  <c:v>1.200573810072033</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.210688647236364</c:v>
+                  <c:v>1.210689855472231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.221133892828014</c:v>
+                  <c:v>1.221135489603333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231918838755965</c:v>
+                  <c:v>1.231920849055033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.243054167954633</c:v>
+                  <c:v>1.243056511325874</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.254550984459901</c:v>
+                  <c:v>1.254553513998317</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.266420832380255</c:v>
+                  <c:v>1.26642337494421</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.278675715838488</c:v>
+                  <c:v>1.278678113618793</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.291328119937972</c:v>
+                  <c:v>1.291330273504981</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.30439126459699</c:v>
+                  <c:v>1.304392945773524</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.317878497283369</c:v>
+                  <c:v>1.31787979422867</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.331804084064057</c:v>
+                  <c:v>1.331805081613333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.34618301397225</c:v>
+                  <c:v>1.34618369735235</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.361030890753757</c:v>
+                  <c:v>1.361031186817318</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.376363962148873</c:v>
+                  <c:v>1.376363782201701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.392199150729688</c:v>
+                  <c:v>1.39219843510043</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.408554086382393</c:v>
+                  <c:v>1.408552850894103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.42544730587052</c:v>
+                  <c:v>1.42544552504415</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.442897988361219</c:v>
+                  <c:v>1.442895781411919</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.460926091314155</c:v>
+                  <c:v>1.460923812721774</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.479552874780118</c:v>
+                  <c:v>1.479550723295662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.498800513617065</c:v>
+                  <c:v>1.498798574194655</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.518692143307466</c:v>
+                  <c:v>1.518690430911328</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.539251908298908</c:v>
+                  <c:v>1.539250413765775</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.560505013016463</c:v>
+                  <c:v>1.560503751167524</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.582477785267452</c:v>
+                  <c:v>1.582476835915656</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.605198205313227</c:v>
+                  <c:v>1.60519728471995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.628694546272275</c:v>
+                  <c:v>1.628694001137169</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.652997384958763</c:v>
+                  <c:v>1.652997242128345</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.678138684294878</c:v>
+                  <c:v>1.67813885254552</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.704151865928786</c:v>
+                  <c:v>1.704152400868386</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.731071886972237</c:v>
+                  <c:v>1.731072746833026</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.758935321101331</c:v>
+                  <c:v>1.75893644172217</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.787780444277735</c:v>
+                  <c:v>1.787781830995917</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.817647581674977</c:v>
+                  <c:v>1.817649150519185</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.848578711385218</c:v>
+                  <c:v>1.848580628495556</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.880618253987996</c:v>
+                  <c:v>1.880620593453149</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.91381292471743</c:v>
+                  <c:v>1.913815588647798</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.948211684730142</c:v>
+                  <c:v>1.948214493269156</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.983865863589506</c:v>
+                  <c:v>1.983868650856391</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.020829288803732</c:v>
+                  <c:v>2.020832005351736</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.059158816373287</c:v>
+                  <c:v>2.059161245242269</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.09891350831655</c:v>
+                  <c:v>2.098915956262715</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.140156247993459</c:v>
+                  <c:v>2.140158783154728</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1829530624123</c:v>
+                  <c:v>2.18295560100059</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.227373290113763</c:v>
+                  <c:v>2.227375696671551</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.273489765728509</c:v>
+                  <c:v>2.273491960952506</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.321379170130479</c:v>
+                  <c:v>2.321381091925181</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.371122071490334</c:v>
+                  <c:v>2.371123810210754</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.422803237569199</c:v>
+                  <c:v>2.422805086689454</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.476512391230027</c:v>
+                  <c:v>2.476514383328169</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.532343898107998</c:v>
+                  <c:v>2.532345907756845</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.590397026933473</c:v>
+                  <c:v>2.590398882239009</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.650776223974929</c:v>
+                  <c:v>2.650777827680311</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.713591670201215</c:v>
+                  <c:v>2.713592863309449</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.778959089296718</c:v>
+                  <c:v>2.778960022646975</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.847000826455437</c:v>
+                  <c:v>2.847001586346675</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.917845936778749</c:v>
+                  <c:v>2.917846432449274</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.991630318194274</c:v>
+                  <c:v>2.991630404525996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.068497086194161</c:v>
+                  <c:v>3.068496698106593</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.148596965874894</c:v>
+                  <c:v>3.148596265678895</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.232088866979462</c:v>
+                  <c:v>3.232087364218481</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.319140289798584</c:v>
+                  <c:v>3.31913621457276</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.409927734752358</c:v>
+                  <c:v>3.409920368513462</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.504637089460812</c:v>
+                  <c:v>3.504626656313431</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.603464102199668</c:v>
+                  <c:v>3.603451543367046</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.706614873619528</c:v>
+                  <c:v>3.706601597038095</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.814306351947415</c:v>
+                  <c:v>3.814293962733831</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.926766782232171</c:v>
+                  <c:v>3.926756846484963</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.044236098318018</c:v>
+                  <c:v>4.044230000607179</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.166966383851315</c:v>
+                  <c:v>4.166965208191203</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.295222886152536</c:v>
+                  <c:v>4.295226761196731</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.42928320061141</c:v>
+                  <c:v>4.429291925790428</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.569438590783281</c:v>
+                  <c:v>4.569451387246794</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.715994175958453</c:v>
+                  <c:v>4.716009665197871</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.869269986985542</c:v>
+                  <c:v>4.869285488247016</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.029598873402583</c:v>
+                  <c:v>5.02961211492351</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.197328223882994</c:v>
+                  <c:v>5.197337585618598</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.372820045721989</c:v>
+                  <c:v>5.372824887477835</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.556451963783593</c:v>
+                  <c:v>5.556452011197877</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.748613028949192</c:v>
+                  <c:v>5.748609422502507</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.949705155682529</c:v>
+                  <c:v>5.94968175024829</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.160143466080356</c:v>
+                  <c:v>6.160089502678749</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.380356379701647</c:v>
+                  <c:v>6.380269275776736</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.610779099404485</c:v>
+                  <c:v>6.610664692872954</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.851852398402583</c:v>
+                  <c:v>6.851724384807406</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.104025004058324</c:v>
+                  <c:v>7.103899509451411</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.367748801815326</c:v>
+                  <c:v>7.367640744442889</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.643470936159301</c:v>
+                  <c:v>7.643394680961163</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.931631666994186</c:v>
+                  <c:v>7.93159954062953</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.232662364687151</c:v>
+                  <c:v>8.232680132506275</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.5469754240364</c:v>
+                  <c:v>8.547041963027382</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.874954140382401</c:v>
+                  <c:v>8.875064409229459</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.216951954188492</c:v>
+                  <c:v>9.217092865276308</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.573278964814248</c:v>
+                  <c:v>9.573429775047321</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>9.944182554037951</c:v>
+                  <c:v>9.944324470293157</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>10.32984855289077</c:v>
+                  <c:v>10.32996174575654</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>10.7303825753865</c:v>
+                  <c:v>10.73044912098691</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>11.14578003743943</c:v>
+                  <c:v>11.1458027647684</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11.57592925819196</c:v>
+                  <c:v>11.57593209364607</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.02058851152159</c:v>
+                  <c:v>12.02058912309371</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>12.47934396414452</c:v>
+                  <c:v>12.47934783704929</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>12.95161547602195</c:v>
+                  <c:v>12.95162530990211</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13.43663212050851</c:v>
+                  <c:v>13.4366390107774</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>13.93338043665318</c:v>
+                  <c:v>13.93338501069353</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>14.44061383488151</c:v>
+                  <c:v>14.4406164093854</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>14.95683203168992</c:v>
+                  <c:v>14.95682265865642</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>15.48022913664496</c:v>
+                  <c:v>15.4802106036361</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>16.00870818953767</c:v>
+                  <c:v>16.00868820468443</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>16.53987289083013</c:v>
+                  <c:v>16.53985203305371</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.07099346672459</c:v>
+                  <c:v>17.07097974019002</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>17.59903006957841</c:v>
+                  <c:v>17.59902876866878</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>18.1206467599345</c:v>
+                  <c:v>18.12064702598797</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>18.63221636701289</c:v>
+                  <c:v>18.63221593884098</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>19.129862302276</c:v>
+                  <c:v>19.12986119477269</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19.60950170390921</c:v>
+                  <c:v>19.60949901429694</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20.06688967766939</c:v>
+                  <c:v>20.06689333823592</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20.49772312546467</c:v>
+                  <c:v>20.49772602263837</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>20.89767415807521</c:v>
+                  <c:v>20.8972362563141</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>21.52800979682246</c:v>
+                  <c:v>21.52828108410602</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>22.65447850507148</c:v>
+                  <c:v>22.65525687106201</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>24.26350489687125</c:v>
+                  <c:v>24.26387600633937</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>26.32150679062023</c:v>
+                  <c:v>26.32129504877021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>28.77797099564505</c:v>
+                  <c:v>28.77809834344786</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>31.56943013059102</c:v>
+                  <c:v>31.5697872517641</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>34.62377350024941</c:v>
+                  <c:v>34.62415191535234</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>37.86431269890067</c:v>
+                  <c:v>37.86445922329422</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>41.21331021369426</c:v>
+                  <c:v>41.213458332579</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44.5948937207807</c:v>
+                  <c:v>44.59510081713482</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>47.93738486122524</c:v>
+                  <c:v>47.93759864069898</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>51.17503880716882</c:v>
+                  <c:v>51.1752430769818</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>54.24933631077716</c:v>
+                  <c:v>54.24952890065754</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>57.10986910131115</c:v>
+                  <c:v>57.11005067946872</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>59.71487744555159</c:v>
+                  <c:v>59.71501263531388</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>62.0314820940707</c:v>
+                  <c:v>62.03163202114592</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>64.03564519440638</c:v>
+                  <c:v>64.03586061522144</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>65.71189190558667</c:v>
+                  <c:v>65.71213290992679</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>67.05282439008263</c:v>
+                  <c:v>67.05301125805904</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>68.05846293448313</c:v>
+                  <c:v>68.05854178714873</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>68.73544970522907</c:v>
+                  <c:v>68.73522924451679</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>69.0961331477359</c:v>
+                  <c:v>69.09590536501754</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>69.15763391406959</c:v>
+                  <c:v>69.15772035202845</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>68.94085813364423</c:v>
+                  <c:v>68.94128651818514</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>68.46950654563895</c:v>
+                  <c:v>68.47000403007613</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>67.76915877758478</c:v>
+                  <c:v>67.76941693113362</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>66.86640331179929</c:v>
+                  <c:v>66.8664902811374</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>65.78808222128694</c:v>
+                  <c:v>65.78781463380965</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>64.560641016586</c:v>
+                  <c:v>64.56023460513211</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>63.20954527182653</c:v>
+                  <c:v>63.20935583290512</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>61.75887677558946</c:v>
+                  <c:v>61.75905336912351</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>60.23099914349724</c:v>
+                  <c:v>60.23141391456372</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>58.64635084522983</c:v>
+                  <c:v>58.64671954213357</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>57.02331139481328</c:v>
+                  <c:v>57.02346569946019</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>55.37815783619345</c:v>
+                  <c:v>55.37826900044057</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>53.72511716077934</c:v>
+                  <c:v>53.72520181163551</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>52.07635804437678</c:v>
+                  <c:v>52.07644726786446</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>50.44223938261042</c:v>
+                  <c:v>50.44231758293082</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>48.83129588934174</c:v>
+                  <c:v>48.83137843136433</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>47.25053650189945</c:v>
+                  <c:v>47.2506139426021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>45.70550314619268</c:v>
+                  <c:v>45.70558551817646</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>44.20050257305876</c:v>
+                  <c:v>44.20060592050115</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>42.7387419579741</c:v>
+                  <c:v>42.73897124685615</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>41.32247448516186</c:v>
+                  <c:v>41.32280417288771</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>39.95318078755404</c:v>
+                  <c:v>39.95349316745445</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>38.63163380214488</c:v>
+                  <c:v>38.63184282001605</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>37.35809202052506</c:v>
+                  <c:v>37.35814910188374</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>36.13232765133209</c:v>
+                  <c:v>36.13226749848248</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>34.95377850232391</c:v>
+                  <c:v>34.95367433251641</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>33.82157837751259</c:v>
+                  <c:v>33.82152166429918</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32.73465865186436</c:v>
+                  <c:v>32.73468619635366</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>31.69176819740114</c:v>
+                  <c:v>31.6918305860985</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>30.69156087849453</c:v>
+                  <c:v>30.6916572677538</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>29.73258749671692</c:v>
+                  <c:v>29.73271849999533</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>28.81337128565538</c:v>
+                  <c:v>28.81350452722143</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>27.93239430946468</c:v>
+                  <c:v>27.93250536153091</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>27.08814731806315</c:v>
+                  <c:v>27.08821922908209</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>26.2791270590549</c:v>
+                  <c:v>26.27915956740803</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>25.50384980179983</c:v>
+                  <c:v>25.50386075693897</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24.76087456993344</c:v>
+                  <c:v>24.76088275130392</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>24.04879146830699</c:v>
+                  <c:v>24.04881475345579</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>23.36623525172299</c:v>
+                  <c:v>23.36627806841593</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>22.71189348010742</c:v>
+                  <c:v>22.71193895110343</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>22.08449811415708</c:v>
+                  <c:v>22.08454757295003</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>21.48282992546365</c:v>
+                  <c:v>21.48288443357774</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>20.90572345391048</c:v>
+                  <c:v>20.90578044155773</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>20.35206418923149</c:v>
+                  <c:v>20.35211882927394</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>19.82078446724064</c:v>
+                  <c:v>19.82083344372179</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>19.31086443035487</c:v>
+                  <c:v>19.31090696676918</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>18.82133245125078</c:v>
+                  <c:v>18.82136909197079</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>18.35126268575234</c:v>
+                  <c:v>18.35129468040788</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>17.8997725730458</c:v>
+                  <c:v>17.89980191405231</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>17.4660214446261</c:v>
+                  <c:v>17.46605046175221</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>17.04920916721172</c:v>
+                  <c:v>17.04923967002867</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>16.64857439119122</c:v>
+                  <c:v>16.64860678840018</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>16.26339273584912</c:v>
+                  <c:v>16.26342535809496</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>15.89297529315015</c:v>
+                  <c:v>15.8930074817879</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>15.53666608789798</c:v>
+                  <c:v>15.53669852188019</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.19384174409275</c:v>
+                  <c:v>15.19387473010469</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>14.86390974747224</c:v>
+                  <c:v>14.86394300645834</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>14.54630631476888</c:v>
+                  <c:v>14.5463393622695</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>14.24049495609404</c:v>
+                  <c:v>14.24052745060313</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>13.94596568574283</c:v>
+                  <c:v>13.94599716316032</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>13.66223242648979</c:v>
+                  <c:v>13.66226329242565</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.38883403668496</c:v>
+                  <c:v>13.38886425750041</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>13.12533161877752</c:v>
+                  <c:v>13.12536089182007</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>12.87130721200724</c:v>
+                  <c:v>12.87133529077438</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>12.62636289362662</c:v>
+                  <c:v>12.6263897171231</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>12.39011980541951</c:v>
+                  <c:v>12.39014556201569</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>12.16221709319375</c:v>
+                  <c:v>12.1622423593748</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>11.94231201373202</c:v>
+                  <c:v>11.94233685138421</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11.73007783056742</c:v>
+                  <c:v>11.73010210282552</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>11.52520299723222</c:v>
+                  <c:v>11.52522666203105</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>11.32739139707958</c:v>
+                  <c:v>11.32741376625804</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>11.13635872637683</c:v>
+                  <c:v>11.13638058933957</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>10.95183526390084</c:v>
+                  <c:v>10.95185752952564</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10.77356473628295</c:v>
+                  <c:v>10.77358753549421</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>10.60130247847243</c:v>
+                  <c:v>10.60132546858181</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>10.43481484992134</c:v>
+                  <c:v>10.43483734338207</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>10.27387868159176</c:v>
+                  <c:v>10.27389976933831</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10.11828075219723</c:v>
+                  <c:v>10.11830010364552</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9.967818279266808</c:v>
+                  <c:v>9.967835354099837</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.822296064918721</c:v>
+                  <c:v>9.822311664840738</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.681528890266168</c:v>
+                  <c:v>9.681543863208816</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.545340340483865</c:v>
+                  <c:v>9.545355030938538</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.413561642190748</c:v>
+                  <c:v>9.413576098360886</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.286031291030321</c:v>
+                  <c:v>9.286045460356938</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.162594698816923</c:v>
+                  <c:v>9.162608612869018</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9.04310385919052</c:v>
+                  <c:v>9.043117808837851</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8.92741790174307</c:v>
+                  <c:v>8.927431732494473</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.815400623124752</c:v>
+                  <c:v>8.815415190993125</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.706922896998426</c:v>
+                  <c:v>8.706938822426226</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.601861430367109</c:v>
+                  <c:v>8.601878819315077</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.500098032870842</c:v>
+                  <c:v>8.500116666719773</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.401519377994141</c:v>
+                  <c:v>8.401538894159625</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.30601677654823</c:v>
+                  <c:v>8.306036840580184</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.213485961761879</c:v>
+                  <c:v>8.2135064316463</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.12382765498063</c:v>
+                  <c:v>8.123847968680771</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>8.036945405429663</c:v>
+                  <c:v>8.036965928607085</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7.95274792351672</c:v>
+                  <c:v>7.952768774290862</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.871147831684974</c:v>
+                  <c:v>7.871168774709227</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7.792061217833712</c:v>
+                  <c:v>7.792081834409868</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.71540748060173</c:v>
+                  <c:v>7.715427331752243</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.641109182368385</c:v>
+                  <c:v>7.641127965452448</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.569091909560147</c:v>
+                  <c:v>7.569109608980771</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.499284341872244</c:v>
+                  <c:v>7.499301172386639</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.43161831247881</c:v>
+                  <c:v>7.43163447115017</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7.36602830441401</c:v>
+                  <c:v>7.366044101682564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,784 +2611,784 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.4693042810783</c:v>
+                  <c:v>300.4693001373295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.9529494041096</c:v>
+                  <c:v>300.9529466120424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301.4511501487277</c:v>
+                  <c:v>301.4511526698265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>301.9641337787384</c:v>
+                  <c:v>301.964137934535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302.4921275579473</c:v>
+                  <c:v>302.4921290030088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>303.0353822714803</c:v>
+                  <c:v>303.0353594451152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303.5941110349486</c:v>
+                  <c:v>303.5940698037491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304.1685330936473</c:v>
+                  <c:v>304.1685075948318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304.7589260458186</c:v>
+                  <c:v>304.7589273073121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>305.3655674897047</c:v>
+                  <c:v>305.3655904031656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>305.9887350235478</c:v>
+                  <c:v>305.9887829658768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306.6287062455901</c:v>
+                  <c:v>306.6288059942453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307.2857587540738</c:v>
+                  <c:v>307.2859281776633</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>307.9601741161143</c:v>
+                  <c:v>307.9604275427399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>308.6522844767468</c:v>
+                  <c:v>308.6525925037209</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309.3623173350931</c:v>
+                  <c:v>309.3627218624883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310.0906187891196</c:v>
+                  <c:v>310.0911248085605</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>310.8375349367927</c:v>
+                  <c:v>310.8381209190924</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>311.6034118760787</c:v>
+                  <c:v>311.6040401588754</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>312.388595704944</c:v>
+                  <c:v>312.3892228803371</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>313.193432521355</c:v>
+                  <c:v>313.1940198235417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>314.0182684232781</c:v>
+                  <c:v>314.0187921161898</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>314.8635054589283</c:v>
+                  <c:v>314.8639112736184</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>315.7294484844023</c:v>
+                  <c:v>315.7297591988009</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>316.6164910299347</c:v>
+                  <c:v>316.6167281823471</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>317.5250597131962</c:v>
+                  <c:v>317.5252209025032</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>318.4555811518577</c:v>
+                  <c:v>318.455650425152</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>319.40848196359</c:v>
+                  <c:v>319.4084402038125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>320.384188766064</c:v>
+                  <c:v>320.3840240796403</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>321.3831281769505</c:v>
+                  <c:v>321.3828462814272</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>322.405764210527</c:v>
+                  <c:v>322.4053614256016</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>323.4525292451272</c:v>
+                  <c:v>323.4520345162283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>324.5238471017334</c:v>
+                  <c:v>324.5233409450086</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>325.6202399903329</c:v>
+                  <c:v>325.6197664912798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>326.742230120913</c:v>
+                  <c:v>326.7418073220163</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>327.8903397034605</c:v>
+                  <c:v>327.8899699918283</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>329.065090947963</c:v>
+                  <c:v>329.0647714429628</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>330.2670060644074</c:v>
+                  <c:v>330.266739005303</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>331.4966092660808</c:v>
+                  <c:v>331.4964103963687</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>332.7545245585455</c:v>
+                  <c:v>332.754333721316</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>334.0411792787848</c:v>
+                  <c:v>334.0410674729374</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>335.3572095088467</c:v>
+                  <c:v>335.357180531662</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>336.7032513307795</c:v>
+                  <c:v>336.7032850887393</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>338.0799408266313</c:v>
+                  <c:v>338.0800469511803</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>339.4879140784504</c:v>
+                  <c:v>339.4880827094286</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>340.9278071682849</c:v>
+                  <c:v>340.9280243740006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>342.4002561781828</c:v>
+                  <c:v>342.4005217659748</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>343.9059456856052</c:v>
+                  <c:v>343.9062425169912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>345.4455138171734</c:v>
+                  <c:v>345.4458720692521</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>347.0196819874569</c:v>
+                  <c:v>347.0201136755211</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>348.6292031249844</c:v>
+                  <c:v>348.6296883991244</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>350.2748301582847</c:v>
+                  <c:v>350.2753351139493</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>351.9573160158868</c:v>
+                  <c:v>351.9578105044455</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>353.6774136263194</c:v>
+                  <c:v>353.6778890656243</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>355.4359438506281</c:v>
+                  <c:v>355.4363631030589</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>357.2336260941419</c:v>
+                  <c:v>357.2340427328845</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>359.0713305372789</c:v>
+                  <c:v>359.0717558817979</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>360.9499285330662</c:v>
+                  <c:v>360.950348287058</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>362.8702914345308</c:v>
+                  <c:v>362.8706834964854</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>364.8332905946999</c:v>
+                  <c:v>364.8336428684627</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>366.8398218771156</c:v>
+                  <c:v>366.8401255719344</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>368.8907780824387</c:v>
+                  <c:v>368.8910485864066</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>370.9870635589818</c:v>
+                  <c:v>370.9873467019474</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>373.1296723749479</c:v>
+                  <c:v>373.1299725191869</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>375.3195985985395</c:v>
+                  <c:v>375.3198964493168</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>377.5578362979593</c:v>
+                  <c:v>377.558106714091</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>379.8453795414099</c:v>
+                  <c:v>379.8456093458249</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>382.1832601495886</c:v>
+                  <c:v>382.183428187396</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>384.5724757284785</c:v>
+                  <c:v>384.5726048922435</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>387.0140956266747</c:v>
+                  <c:v>387.0141989243687</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>389.5092213902623</c:v>
+                  <c:v>389.5092875583344</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>392.0589545653261</c:v>
+                  <c:v>392.0589658792657</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>394.6643966979512</c:v>
+                  <c:v>394.6643467828491</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>397.3266493342225</c:v>
+                  <c:v>397.3265609753333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>400.0468345262498</c:v>
+                  <c:v>400.0466485243178</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>402.8260903318078</c:v>
+                  <c:v>402.825595743709</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>405.6655650769229</c:v>
+                  <c:v>405.6646887447258</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>408.5664076245738</c:v>
+                  <c:v>408.5651913407085</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>411.5297668377392</c:v>
+                  <c:v>411.528332569681</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>414.556791579398</c:v>
+                  <c:v>414.5553066943509</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>417.6486297628044</c:v>
+                  <c:v>417.6472732021091</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>420.8064215553608</c:v>
+                  <c:v>420.8053568050305</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>424.0312867744994</c:v>
+                  <c:v>424.0306474398734</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>427.3243208325654</c:v>
+                  <c:v>427.3242002680798</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>430.6866471209001</c:v>
+                  <c:v>430.6870356757753</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>434.119284108656</c:v>
+                  <c:v>434.1201392737692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>437.623236357553</c:v>
+                  <c:v>437.6244618975542</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>441.1994705291326</c:v>
+                  <c:v>441.2009196073067</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>444.8489775166057</c:v>
+                  <c:v>444.850393687887</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>448.5725496833277</c:v>
+                  <c:v>448.5737306488388</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>452.370927387066</c:v>
+                  <c:v>452.3717422243893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>456.244794225136</c:v>
+                  <c:v>456.2452053734494</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>460.1948583526816</c:v>
+                  <c:v>460.1948622796138</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>464.2215135159805</c:v>
+                  <c:v>464.221222282229</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>468.3250064502988</c:v>
+                  <c:v>468.3231641152832</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472.5055134978084</c:v>
+                  <c:v>472.5013743077186</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>476.7632053734405</c:v>
+                  <c:v>476.7566966544961</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>481.0978418380019</c:v>
+                  <c:v>481.0895159304827</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>485.5088286828504</c:v>
+                  <c:v>485.4997578904521</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.9955451786986</c:v>
+                  <c:v>489.9868892690845</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>494.5571710885729</c:v>
+                  <c:v>494.5499177809664</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>499.1923723204997</c:v>
+                  <c:v>499.1873921205909</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>503.8994429619821</c:v>
+                  <c:v>503.8974019623574</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>508.6764801296043</c:v>
+                  <c:v>508.6775779605721</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>513.5210939404279</c:v>
+                  <c:v>513.5250917494473</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>518.4302145912774</c:v>
+                  <c:v>518.4366559431018</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>523.4005222562715</c:v>
+                  <c:v>523.408524135561</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>528.4281664410566</c:v>
+                  <c:v>528.436490900757</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>533.5082779442787</c:v>
+                  <c:v>533.5158917925278</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>538.6357010588007</c:v>
+                  <c:v>538.6416033446183</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>543.8046706086021</c:v>
+                  <c:v>543.8080430706797</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>549.0080499834871</c:v>
+                  <c:v>549.0091694642697</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>554.2383462415096</c:v>
+                  <c:v>554.2384819988523</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>559.4874111223302</c:v>
+                  <c:v>559.4874395874006</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>564.7453772744831</c:v>
+                  <c:v>564.7455525405124</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>570.0019194675716</c:v>
+                  <c:v>570.0023522576414</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>575.2460504948322</c:v>
+                  <c:v>575.2463454794631</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>580.4648236333092</c:v>
+                  <c:v>580.465014187894</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>585.6447111960847</c:v>
+                  <c:v>585.6448156060916</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>590.7715524186684</c:v>
+                  <c:v>590.7711821984545</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>595.8292350004051</c:v>
+                  <c:v>595.8285216706222</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>600.8009669937129</c:v>
+                  <c:v>600.8002169694754</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>605.6693900687345</c:v>
+                  <c:v>605.6686262831356</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>610.4155738671434</c:v>
+                  <c:v>610.4150830409656</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>615.0199413754699</c:v>
+                  <c:v>615.0198959135688</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>619.4624915219712</c:v>
+                  <c:v>619.4625006171293</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>623.7223984267896</c:v>
+                  <c:v>623.7223840935288</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>627.7785550265602</c:v>
+                  <c:v>627.7785186819791</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>631.6097612251931</c:v>
+                  <c:v>631.6096745944674</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>635.1945894192776</c:v>
+                  <c:v>635.1947052903511</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>638.5127936670261</c:v>
+                  <c:v>638.5128839152192</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>641.5441337027037</c:v>
+                  <c:v>641.5306904217025</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>652.3145207784695</c:v>
+                  <c:v>652.3227409825686</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>678.6127370877836</c:v>
+                  <c:v>678.6360529665919</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>719.7037778474001</c:v>
+                  <c:v>719.7147856917877</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>774.4347853064332</c:v>
+                  <c:v>774.4285554102702</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>841.3369317409544</c:v>
+                  <c:v>841.3406548112741</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>918.7348542238801</c:v>
+                  <c:v>918.7452471789488</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1004.850092235572</c:v>
+                  <c:v>1004.861074587079</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1097.886132744784</c:v>
+                  <c:v>1097.890381259766</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1196.091424560226</c:v>
+                  <c:v>1196.095723261955</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1297.802431409422</c:v>
+                  <c:v>1297.808458336038</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1401.471017568676</c:v>
+                  <c:v>1401.477267507789</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1505.678626491136</c:v>
+                  <c:v>1505.684636544056</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1609.14313305227</c:v>
+                  <c:v>1609.148845650885</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1710.720667301606</c:v>
+                  <c:v>1710.726106457951</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1809.404679386085</c:v>
+                  <c:v>1809.408775735252</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1904.323569278997</c:v>
+                  <c:v>1904.328171936445</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1994.737584124919</c:v>
+                  <c:v>1994.744294574933</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2080.035265524058</c:v>
+                  <c:v>2080.042894242575</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2159.729453709273</c:v>
+                  <c:v>2159.735472609689</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2233.452747501227</c:v>
+                  <c:v>2233.455335183861</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2300.952216451886</c:v>
+                  <c:v>2300.944836423579</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2362.082510700908</c:v>
+                  <c:v>2362.074723845831</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2416.799322879739</c:v>
+                  <c:v>2416.802343561457</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2465.150816358208</c:v>
+                  <c:v>2465.166134306509</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2507.26741018643</c:v>
+                  <c:v>2507.285627442247</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2543.351758546811</c:v>
+                  <c:v>2543.361446955141</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2573.667197095031</c:v>
+                  <c:v>2573.670544517976</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2598.526705532936</c:v>
+                  <c:v>2598.516136244665</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2618.281909281648</c:v>
+                  <c:v>2618.265427107049</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2633.310539029942</c:v>
+                  <c:v>2633.302647001831</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2644.007042057072</c:v>
+                  <c:v>2644.014602339447</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2650.772421927089</c:v>
+                  <c:v>2650.790676044073</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2654.006142391912</c:v>
+                  <c:v>2654.022827553616</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2654.098410849611</c:v>
+                  <c:v>2654.105592819724</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2651.424169278921</c:v>
+                  <c:v>2651.429491658414</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2646.339844182854</c:v>
+                  <c:v>2646.34401383283</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2639.175866644057</c:v>
+                  <c:v>2639.180388397963</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2630.240979208231</c:v>
+                  <c:v>2630.245056856048</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2619.81318606541</c:v>
+                  <c:v>2619.81761446886</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2608.14653566709</c:v>
+                  <c:v>2608.150810257714</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2595.465869368214</c:v>
+                  <c:v>2595.470547003461</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2581.971204755516</c:v>
+                  <c:v>2581.977241793667</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2567.83767766255</c:v>
+                  <c:v>2567.85145384321</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2553.216680125117</c:v>
+                  <c:v>2553.237050739689</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2538.240098463536</c:v>
+                  <c:v>2538.25994407216</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2523.018283889709</c:v>
+                  <c:v>2523.031934772644</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2507.646881552913</c:v>
+                  <c:v>2507.650713116126</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2492.204007724586</c:v>
+                  <c:v>2492.19985872056</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2476.75622181521</c:v>
+                  <c:v>2476.748840546863</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2461.357144189241</c:v>
+                  <c:v>2461.353016898922</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2446.051577200153</c:v>
+                  <c:v>2446.053635423585</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2430.874424957945</c:v>
+                  <c:v>2430.879210399006</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2415.855083619143</c:v>
+                  <c:v>2415.862670801918</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2401.015114248389</c:v>
+                  <c:v>2401.025693241943</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2386.372707600325</c:v>
+                  <c:v>2386.383742894793</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2371.940505263011</c:v>
+                  <c:v>2371.949935492699</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2357.728778251883</c:v>
+                  <c:v>2357.735037324417</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2343.744565927499</c:v>
+                  <c:v>2343.74746523522</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2329.992285782333</c:v>
+                  <c:v>2329.993286626906</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2316.475454058986</c:v>
+                  <c:v>2316.476219457795</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2303.195402182735</c:v>
+                  <c:v>2303.197632242724</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2290.152347538351</c:v>
+                  <c:v>2290.156544053058</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2277.346138252793</c:v>
+                  <c:v>2277.350697678773</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2264.775447705407</c:v>
+                  <c:v>2264.780519727391</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2252.438234414809</c:v>
+                  <c:v>2252.443949498002</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2240.332355991164</c:v>
+                  <c:v>2240.338462991972</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2228.455435190057</c:v>
+                  <c:v>2228.46141801806</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2216.80457654406</c:v>
+                  <c:v>2216.810054192421</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2205.376635112868</c:v>
+                  <c:v>2205.381492938608</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2194.168465956174</c:v>
+                  <c:v>2194.172737487567</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2183.176866600493</c:v>
+                  <c:v>2183.180672877642</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2172.398504995435</c:v>
+                  <c:v>2172.402065954572</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2161.829973821281</c:v>
+                  <c:v>2161.833565371491</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2151.4678523881</c:v>
+                  <c:v>2151.47170158893</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2141.308720005963</c:v>
+                  <c:v>2141.312886874814</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2131.349155984939</c:v>
+                  <c:v>2131.353431193518</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2121.585774622408</c:v>
+                  <c:v>2121.590071549489</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2112.015114005999</c:v>
+                  <c:v>2112.019522999554</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2102.633809132899</c:v>
+                  <c:v>2102.638373976017</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2093.438577454417</c:v>
+                  <c:v>2093.443261662389</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2084.426136421862</c:v>
+                  <c:v>2084.430871993391</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2075.593203486544</c:v>
+                  <c:v>2075.597939654944</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2066.936582804829</c:v>
+                  <c:v>2066.94124808418</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2058.452978979267</c:v>
+                  <c:v>2058.457629469438</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2050.139337246297</c:v>
+                  <c:v>2050.14396475026</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2041.992629421065</c:v>
+                  <c:v>2041.997183617398</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2034.009827318718</c:v>
+                  <c:v>2034.014264512808</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2026.187930187809</c:v>
+                  <c:v>2026.192234629655</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2018.523973802207</c:v>
+                  <c:v>2018.528169912308</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2011.015017309052</c:v>
+                  <c:v>2011.019195056344</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2003.658316294667</c:v>
+                  <c:v>2003.662483508545</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1996.451126345376</c:v>
+                  <c:v>1996.455257466903</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1989.390703047503</c:v>
+                  <c:v>1989.394787880611</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1982.474479486436</c:v>
+                  <c:v>1982.478394450074</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1975.699566922282</c:v>
+                  <c:v>1975.7034456269</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1969.063355410348</c:v>
+                  <c:v>1969.067358613905</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1962.563446153086</c:v>
+                  <c:v>1962.567599365111</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1956.197440352945</c:v>
+                  <c:v>1956.201682585747</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1949.962939212377</c:v>
+                  <c:v>1949.967142584976</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1943.857543933833</c:v>
+                  <c:v>1943.86153381696</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1937.878855719762</c:v>
+                  <c:v>1937.882561958342</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1932.024667100651</c:v>
+                  <c:v>1932.027976651214</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1926.292505606214</c:v>
+                  <c:v>1926.295564973665</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1920.68018101697</c:v>
+                  <c:v>1920.683151439773</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1915.185650493605</c:v>
+                  <c:v>1915.188597999612</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1909.806871196811</c:v>
+                  <c:v>1909.809804039247</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1904.541800287273</c:v>
+                  <c:v>1904.544706380735</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1899.38839492568</c:v>
+                  <c:v>1899.391279282126</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1894.344612272721</c:v>
+                  <c:v>1894.347534437465</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1889.408593821269</c:v>
+                  <c:v>1889.411520976786</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1884.578211111083</c:v>
+                  <c:v>1884.581325466118</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1879.851633558272</c:v>
+                  <c:v>1879.855071907482</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1875.227130905097</c:v>
+                  <c:v>1875.230921738892</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1870.702972893817</c:v>
+                  <c:v>1870.707073834355</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1866.277429266692</c:v>
+                  <c:v>1866.281764503869</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1861.948769765982</c:v>
+                  <c:v>1861.953267493427</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1857.715264133945</c:v>
+                  <c:v>1857.719893985012</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1853.575357715656</c:v>
+                  <c:v>1853.579992596602</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1849.527226421701</c:v>
+                  <c:v>1849.531949382167</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1845.569349057697</c:v>
+                  <c:v>1845.574187831669</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1841.700268598039</c:v>
+                  <c:v>1841.705168871063</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1837.918528017122</c:v>
+                  <c:v>1837.923390862298</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1834.222670289343</c:v>
+                  <c:v>1834.227389603312</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1830.611238389098</c:v>
+                  <c:v>1830.615738328041</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1827.082775290782</c:v>
+                  <c:v>1827.087047706409</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1823.635873089824</c:v>
+                  <c:v>1823.639965844334</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1820.269220446972</c:v>
+                  <c:v>1820.273178283729</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1816.981511283165</c:v>
+                  <c:v>1816.985408002497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,784 +4313,784 @@
                   <c:v>1.088759781086738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.095124304402439</c:v>
+                  <c:v>1.095124289299665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.101712746602582</c:v>
+                  <c:v>1.101712736381529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.10853079216579</c:v>
+                  <c:v>1.108530801436664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.115584390688094</c:v>
+                  <c:v>1.11558440604138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.122879720241499</c:v>
+                  <c:v>1.122879725605705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.130423284202726</c:v>
+                  <c:v>1.130423199052752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.138221693580711</c:v>
+                  <c:v>1.138221538998511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.146281838552179</c:v>
+                  <c:v>1.146281742457988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.154611097325773</c:v>
+                  <c:v>1.154611102105073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.163217130831776</c:v>
+                  <c:v>1.163217218115127</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.17210789457867</c:v>
+                  <c:v>1.172108078224589</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.181291651094135</c:v>
+                  <c:v>1.181292035377312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.190776982981427</c:v>
+                  <c:v>1.190777639522464</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.200572822096494</c:v>
+                  <c:v>1.200573810072033</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.210688647236364</c:v>
+                  <c:v>1.210689855472231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.221133892828014</c:v>
+                  <c:v>1.221135489603333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231918838755965</c:v>
+                  <c:v>1.231920849055033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.243054167954633</c:v>
+                  <c:v>1.243056511325874</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.254550984459901</c:v>
+                  <c:v>1.254553513998317</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.266420832380255</c:v>
+                  <c:v>1.26642337494421</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.278675715838488</c:v>
+                  <c:v>1.278678113618793</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.291328119937972</c:v>
+                  <c:v>1.291330273504981</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.30439126459699</c:v>
+                  <c:v>1.304392945773524</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.317878497283369</c:v>
+                  <c:v>1.31787979422867</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.331804084064057</c:v>
+                  <c:v>1.331805081613333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.34618301397225</c:v>
+                  <c:v>1.34618369735235</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.361030890753757</c:v>
+                  <c:v>1.361031186817318</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.376363962148873</c:v>
+                  <c:v>1.376363782201701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.392199150729688</c:v>
+                  <c:v>1.39219843510043</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.408554086382393</c:v>
+                  <c:v>1.408552850894103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.42544730587052</c:v>
+                  <c:v>1.42544552504415</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.442897988361219</c:v>
+                  <c:v>1.442895781411919</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.460926091314155</c:v>
+                  <c:v>1.460923812721774</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.479552874780118</c:v>
+                  <c:v>1.479550723295662</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.498800513617065</c:v>
+                  <c:v>1.498798574194655</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.518692143307466</c:v>
+                  <c:v>1.518690430911328</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.539251908298908</c:v>
+                  <c:v>1.539250413765775</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.560505013016463</c:v>
+                  <c:v>1.560503751167524</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.582477785267452</c:v>
+                  <c:v>1.582476835915656</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.605198205313227</c:v>
+                  <c:v>1.60519728471995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.628694546272275</c:v>
+                  <c:v>1.628694001137169</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.652997384958763</c:v>
+                  <c:v>1.652997242128345</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.678138684294878</c:v>
+                  <c:v>1.67813885254552</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.704151865928786</c:v>
+                  <c:v>1.704152400868386</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.731071886972237</c:v>
+                  <c:v>1.731072746833026</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.758935321101331</c:v>
+                  <c:v>1.75893644172217</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.787780444277735</c:v>
+                  <c:v>1.787781830995917</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.817647581674977</c:v>
+                  <c:v>1.817649150519185</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.848578711385218</c:v>
+                  <c:v>1.848580628495556</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.880618253987996</c:v>
+                  <c:v>1.880620593453149</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.91381292471743</c:v>
+                  <c:v>1.913815588647798</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.948211684730142</c:v>
+                  <c:v>1.948214493269156</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.983865863589506</c:v>
+                  <c:v>1.983868650856391</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.020829288803732</c:v>
+                  <c:v>2.020832005351736</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.059158816373287</c:v>
+                  <c:v>2.059161245242269</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.09891350831655</c:v>
+                  <c:v>2.098915956262715</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.140156247993459</c:v>
+                  <c:v>2.140158783154728</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1829530624123</c:v>
+                  <c:v>2.18295560100059</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.227373290113763</c:v>
+                  <c:v>2.227375696671551</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.273489765728509</c:v>
+                  <c:v>2.273491960952506</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.321379170130479</c:v>
+                  <c:v>2.321381091925181</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.371122071490334</c:v>
+                  <c:v>2.371123810210754</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.422803237569199</c:v>
+                  <c:v>2.422805086689454</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.476512391230027</c:v>
+                  <c:v>2.476514383328169</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.532343898107998</c:v>
+                  <c:v>2.532345907756845</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.590397026933473</c:v>
+                  <c:v>2.590398882239009</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.650776223974929</c:v>
+                  <c:v>2.650777827680311</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.713591670201215</c:v>
+                  <c:v>2.713592863309449</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.778959089296718</c:v>
+                  <c:v>2.778960022646975</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.847000826455437</c:v>
+                  <c:v>2.847001586346675</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.917845936778749</c:v>
+                  <c:v>2.917846432449274</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.991630318194274</c:v>
+                  <c:v>2.991630404525996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.068497086194161</c:v>
+                  <c:v>3.068496698106593</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.148596965874894</c:v>
+                  <c:v>3.148596265678895</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.232088866979462</c:v>
+                  <c:v>3.232087364218481</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.319140289798584</c:v>
+                  <c:v>3.31913621457276</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.409927734752358</c:v>
+                  <c:v>3.409920368513462</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.504637089460812</c:v>
+                  <c:v>3.504626656313431</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.603464102199668</c:v>
+                  <c:v>3.603451543367046</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.706614873619528</c:v>
+                  <c:v>3.706601597038095</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.814306351947415</c:v>
+                  <c:v>3.814293962733831</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.926766782232171</c:v>
+                  <c:v>3.926756846484963</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.044236098318018</c:v>
+                  <c:v>4.044230000607179</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.166966383851315</c:v>
+                  <c:v>4.166965208191203</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.295222886152536</c:v>
+                  <c:v>4.295226761196731</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.42928320061141</c:v>
+                  <c:v>4.429291925790428</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.569438590783281</c:v>
+                  <c:v>4.569451387246794</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.715994175958453</c:v>
+                  <c:v>4.716009665197871</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.869269986985542</c:v>
+                  <c:v>4.869285488247016</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.029598873402583</c:v>
+                  <c:v>5.02961211492351</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.197328223882994</c:v>
+                  <c:v>5.197337585618598</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.372820045721989</c:v>
+                  <c:v>5.372824887477835</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.556451963783593</c:v>
+                  <c:v>5.556452011197877</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.748613028949192</c:v>
+                  <c:v>5.748609422502507</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.949705155682529</c:v>
+                  <c:v>5.94968175024829</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.160143466080356</c:v>
+                  <c:v>6.160089502678749</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.380356379701647</c:v>
+                  <c:v>6.380269275776736</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.610779099404485</c:v>
+                  <c:v>6.610664692872954</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.851852398402583</c:v>
+                  <c:v>6.851724384807406</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.104025004058324</c:v>
+                  <c:v>7.103899509451411</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.367748801815326</c:v>
+                  <c:v>7.367640744442889</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.643470936159301</c:v>
+                  <c:v>7.643394680961163</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.931631666994186</c:v>
+                  <c:v>7.93159954062953</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.232662364687151</c:v>
+                  <c:v>8.232680132506275</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.5469754240364</c:v>
+                  <c:v>8.547041963027382</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.874954140382401</c:v>
+                  <c:v>8.875064409229459</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.216951954188492</c:v>
+                  <c:v>9.217092865276308</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.573278964814248</c:v>
+                  <c:v>9.573429775047321</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>9.944182554037951</c:v>
+                  <c:v>9.944324470293157</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>10.32984855289077</c:v>
+                  <c:v>10.32996174575654</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>10.7303825753865</c:v>
+                  <c:v>10.73044912098691</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>11.14578003743943</c:v>
+                  <c:v>11.1458027647684</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11.57592925819196</c:v>
+                  <c:v>11.57593209364607</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.02058851152159</c:v>
+                  <c:v>12.02058912309371</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>12.47934396414452</c:v>
+                  <c:v>12.47934783704929</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>12.95161547602195</c:v>
+                  <c:v>12.95162530990211</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13.43663212050851</c:v>
+                  <c:v>13.4366390107774</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>13.93338043665318</c:v>
+                  <c:v>13.93338501069353</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>14.44061383488151</c:v>
+                  <c:v>14.4406164093854</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>14.95683203168992</c:v>
+                  <c:v>14.95682265865642</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>15.48022913664496</c:v>
+                  <c:v>15.4802106036361</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>16.00870818953767</c:v>
+                  <c:v>16.00868820468443</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>16.53987289083013</c:v>
+                  <c:v>16.53985203305371</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.07099346672459</c:v>
+                  <c:v>17.07097974019002</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>17.59903006957841</c:v>
+                  <c:v>17.59902876866878</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>18.1206467599345</c:v>
+                  <c:v>18.12064702598797</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>18.63221636701289</c:v>
+                  <c:v>18.63221593884098</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>19.129862302276</c:v>
+                  <c:v>19.12986119477269</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19.60950170390921</c:v>
+                  <c:v>19.60949901429694</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20.06688967766939</c:v>
+                  <c:v>20.06689333823592</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20.49772312546467</c:v>
+                  <c:v>20.49772602263837</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>20.89767415807521</c:v>
+                  <c:v>20.8972362563141</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>21.52800979682246</c:v>
+                  <c:v>21.52828108410602</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>22.65447850507148</c:v>
+                  <c:v>22.65525687106201</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>24.26350489687125</c:v>
+                  <c:v>24.26387600633937</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>26.32150679062023</c:v>
+                  <c:v>26.32129504877021</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>28.77797099564505</c:v>
+                  <c:v>28.77809834344786</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>31.56943013059102</c:v>
+                  <c:v>31.5697872517641</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>34.62377350024941</c:v>
+                  <c:v>34.62415191535234</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>37.86431269890067</c:v>
+                  <c:v>37.86445922329422</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>41.21331021369426</c:v>
+                  <c:v>41.213458332579</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44.5948937207807</c:v>
+                  <c:v>44.59510081713482</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>47.93738486122524</c:v>
+                  <c:v>47.93759864069898</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>51.17503880716882</c:v>
+                  <c:v>51.1752430769818</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>54.24933631077716</c:v>
+                  <c:v>54.24952890065754</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>57.10986910131115</c:v>
+                  <c:v>57.11005067946872</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>59.71487744555159</c:v>
+                  <c:v>59.71501263531388</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>62.0314820940707</c:v>
+                  <c:v>62.03163202114592</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>64.03564519440638</c:v>
+                  <c:v>64.03586061522144</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>65.71189190558667</c:v>
+                  <c:v>65.71213290992679</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>67.05282439008263</c:v>
+                  <c:v>67.05301125805904</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>68.05846293448313</c:v>
+                  <c:v>68.05854178714873</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>68.73544970522907</c:v>
+                  <c:v>68.73522924451679</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>69.0961331477359</c:v>
+                  <c:v>69.09590536501754</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>69.15763391406959</c:v>
+                  <c:v>69.15772035202845</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>68.94085813364423</c:v>
+                  <c:v>68.94128651818514</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>68.46950654563895</c:v>
+                  <c:v>68.47000403007613</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>67.76915877758478</c:v>
+                  <c:v>67.76941693113362</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>66.86640331179929</c:v>
+                  <c:v>66.8664902811374</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>65.78808222128694</c:v>
+                  <c:v>65.78781463380965</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>64.560641016586</c:v>
+                  <c:v>64.56023460513211</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>63.20954527182653</c:v>
+                  <c:v>63.20935583290512</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>61.75887677558946</c:v>
+                  <c:v>61.75905336912351</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>60.23099914349724</c:v>
+                  <c:v>60.23141391456372</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>58.64635084522983</c:v>
+                  <c:v>58.64671954213357</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>57.02331139481328</c:v>
+                  <c:v>57.02346569946019</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>55.37815783619345</c:v>
+                  <c:v>55.37826900044057</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>53.72511716077934</c:v>
+                  <c:v>53.72520181163551</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>52.07635804437678</c:v>
+                  <c:v>52.07644726786446</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>50.44223938261042</c:v>
+                  <c:v>50.44231758293082</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>48.83129588934174</c:v>
+                  <c:v>48.83137843136433</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>47.25053650189945</c:v>
+                  <c:v>47.2506139426021</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>45.70550314619268</c:v>
+                  <c:v>45.70558551817646</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>44.20050257305876</c:v>
+                  <c:v>44.20060592050115</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>42.7387419579741</c:v>
+                  <c:v>42.73897124685615</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>41.32247448516186</c:v>
+                  <c:v>41.32280417288771</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>39.95318078755404</c:v>
+                  <c:v>39.95349316745445</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>38.63163380214488</c:v>
+                  <c:v>38.63184282001605</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>37.35809202052506</c:v>
+                  <c:v>37.35814910188374</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>36.13232765133209</c:v>
+                  <c:v>36.13226749848248</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>34.95377850232391</c:v>
+                  <c:v>34.95367433251641</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>33.82157837751259</c:v>
+                  <c:v>33.82152166429918</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32.73465865186436</c:v>
+                  <c:v>32.73468619635366</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>31.69176819740114</c:v>
+                  <c:v>31.6918305860985</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>30.69156087849453</c:v>
+                  <c:v>30.6916572677538</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>29.73258749671692</c:v>
+                  <c:v>29.73271849999533</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>28.81337128565538</c:v>
+                  <c:v>28.81350452722143</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>27.93239430946468</c:v>
+                  <c:v>27.93250536153091</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>27.08814731806315</c:v>
+                  <c:v>27.08821922908209</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>26.2791270590549</c:v>
+                  <c:v>26.27915956740803</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>25.50384980179983</c:v>
+                  <c:v>25.50386075693897</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24.76087456993344</c:v>
+                  <c:v>24.76088275130392</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>24.04879146830699</c:v>
+                  <c:v>24.04881475345579</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>23.36623525172299</c:v>
+                  <c:v>23.36627806841593</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>22.71189348010742</c:v>
+                  <c:v>22.71193895110343</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>22.08449811415708</c:v>
+                  <c:v>22.08454757295003</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>21.48282992546365</c:v>
+                  <c:v>21.48288443357774</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>20.90572345391048</c:v>
+                  <c:v>20.90578044155773</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>20.35206418923149</c:v>
+                  <c:v>20.35211882927394</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>19.82078446724064</c:v>
+                  <c:v>19.82083344372179</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>19.31086443035487</c:v>
+                  <c:v>19.31090696676918</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>18.82133245125078</c:v>
+                  <c:v>18.82136909197079</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>18.35126268575234</c:v>
+                  <c:v>18.35129468040788</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>17.8997725730458</c:v>
+                  <c:v>17.89980191405231</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>17.4660214446261</c:v>
+                  <c:v>17.46605046175221</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>17.04920916721172</c:v>
+                  <c:v>17.04923967002867</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>16.64857439119122</c:v>
+                  <c:v>16.64860678840018</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>16.26339273584912</c:v>
+                  <c:v>16.26342535809496</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>15.89297529315015</c:v>
+                  <c:v>15.8930074817879</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>15.53666608789798</c:v>
+                  <c:v>15.53669852188019</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.19384174409275</c:v>
+                  <c:v>15.19387473010469</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>14.86390974747224</c:v>
+                  <c:v>14.86394300645834</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>14.54630631476888</c:v>
+                  <c:v>14.5463393622695</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>14.24049495609404</c:v>
+                  <c:v>14.24052745060313</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>13.94596568574283</c:v>
+                  <c:v>13.94599716316032</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>13.66223242648979</c:v>
+                  <c:v>13.66226329242565</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.38883403668496</c:v>
+                  <c:v>13.38886425750041</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>13.12533161877752</c:v>
+                  <c:v>13.12536089182007</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>12.87130721200724</c:v>
+                  <c:v>12.87133529077438</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>12.62636289362662</c:v>
+                  <c:v>12.6263897171231</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>12.39011980541951</c:v>
+                  <c:v>12.39014556201569</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>12.16221709319375</c:v>
+                  <c:v>12.1622423593748</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>11.94231201373202</c:v>
+                  <c:v>11.94233685138421</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11.73007783056742</c:v>
+                  <c:v>11.73010210282552</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>11.52520299723222</c:v>
+                  <c:v>11.52522666203105</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>11.32739139707958</c:v>
+                  <c:v>11.32741376625804</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>11.13635872637683</c:v>
+                  <c:v>11.13638058933957</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>10.95183526390084</c:v>
+                  <c:v>10.95185752952564</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10.77356473628295</c:v>
+                  <c:v>10.77358753549421</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>10.60130247847243</c:v>
+                  <c:v>10.60132546858181</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>10.43481484992134</c:v>
+                  <c:v>10.43483734338207</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>10.27387868159176</c:v>
+                  <c:v>10.27389976933831</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10.11828075219723</c:v>
+                  <c:v>10.11830010364552</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9.967818279266808</c:v>
+                  <c:v>9.967835354099837</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.822296064918721</c:v>
+                  <c:v>9.822311664840738</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.681528890266168</c:v>
+                  <c:v>9.681543863208816</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.545340340483865</c:v>
+                  <c:v>9.545355030938538</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.413561642190748</c:v>
+                  <c:v>9.413576098360886</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.286031291030321</c:v>
+                  <c:v>9.286045460356938</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.162594698816923</c:v>
+                  <c:v>9.162608612869018</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9.04310385919052</c:v>
+                  <c:v>9.043117808837851</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8.92741790174307</c:v>
+                  <c:v>8.927431732494473</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.815400623124752</c:v>
+                  <c:v>8.815415190993125</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.706922896998426</c:v>
+                  <c:v>8.706938822426226</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.601861430367109</c:v>
+                  <c:v>8.601878819315077</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.500098032870842</c:v>
+                  <c:v>8.500116666719773</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.401519377994141</c:v>
+                  <c:v>8.401538894159625</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.30601677654823</c:v>
+                  <c:v>8.306036840580184</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.213485961761879</c:v>
+                  <c:v>8.2135064316463</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.12382765498063</c:v>
+                  <c:v>8.123847968680771</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>8.036945405429663</c:v>
+                  <c:v>8.036965928607085</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7.95274792351672</c:v>
+                  <c:v>7.952768774290862</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.871147831684974</c:v>
+                  <c:v>7.871168774709227</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7.792061217833712</c:v>
+                  <c:v>7.792081834409868</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.71540748060173</c:v>
+                  <c:v>7.715427331752243</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.641109182368385</c:v>
+                  <c:v>7.641127965452448</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.569091909560147</c:v>
+                  <c:v>7.569109608980771</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.499284341872244</c:v>
+                  <c:v>7.499301172386639</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.43161831247881</c:v>
+                  <c:v>7.43163447115017</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7.36602830441401</c:v>
+                  <c:v>7.366044101682564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,784 +6015,784 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.4693042810783</c:v>
+                  <c:v>300.4693001373295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.9529494041096</c:v>
+                  <c:v>300.9529466120424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301.4511501487277</c:v>
+                  <c:v>301.4511526698265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>301.9641337787384</c:v>
+                  <c:v>301.964137934535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302.4921275579473</c:v>
+                  <c:v>302.4921290030088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>303.0353822714803</c:v>
+                  <c:v>303.0353594451152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303.5941110349486</c:v>
+                  <c:v>303.5940698037491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304.1685330936473</c:v>
+                  <c:v>304.1685075948318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304.7589260458186</c:v>
+                  <c:v>304.7589273073121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>305.3655674897047</c:v>
+                  <c:v>305.3655904031656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>305.9887350235478</c:v>
+                  <c:v>305.9887829658768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306.6287062455901</c:v>
+                  <c:v>306.6288059942453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307.2857587540738</c:v>
+                  <c:v>307.2859281776633</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>307.9601741161143</c:v>
+                  <c:v>307.9604275427399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>308.6522844767468</c:v>
+                  <c:v>308.6525925037209</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309.3623173350931</c:v>
+                  <c:v>309.3627218624883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310.0906187891196</c:v>
+                  <c:v>310.0911248085605</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>310.8375349367927</c:v>
+                  <c:v>310.8381209190924</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>311.6034118760787</c:v>
+                  <c:v>311.6040401588754</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>312.388595704944</c:v>
+                  <c:v>312.3892228803371</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>313.193432521355</c:v>
+                  <c:v>313.1940198235417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>314.0182684232781</c:v>
+                  <c:v>314.0187921161898</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>314.8635054589283</c:v>
+                  <c:v>314.8639112736184</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>315.7294484844023</c:v>
+                  <c:v>315.7297591988009</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>316.6164910299347</c:v>
+                  <c:v>316.6167281823471</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>317.5250597131962</c:v>
+                  <c:v>317.5252209025032</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>318.4555811518577</c:v>
+                  <c:v>318.455650425152</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>319.40848196359</c:v>
+                  <c:v>319.4084402038125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>320.384188766064</c:v>
+                  <c:v>320.3840240796403</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>321.3831281769505</c:v>
+                  <c:v>321.3828462814272</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>322.405764210527</c:v>
+                  <c:v>322.4053614256016</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>323.4525292451272</c:v>
+                  <c:v>323.4520345162283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>324.5238471017334</c:v>
+                  <c:v>324.5233409450086</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>325.6202399903329</c:v>
+                  <c:v>325.6197664912798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>326.742230120913</c:v>
+                  <c:v>326.7418073220163</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>327.8903397034605</c:v>
+                  <c:v>327.8899699918283</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>329.065090947963</c:v>
+                  <c:v>329.0647714429628</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>330.2670060644074</c:v>
+                  <c:v>330.266739005303</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>331.4966092660808</c:v>
+                  <c:v>331.4964103963687</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>332.7545245585455</c:v>
+                  <c:v>332.754333721316</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>334.0411792787848</c:v>
+                  <c:v>334.0410674729374</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>335.3572095088467</c:v>
+                  <c:v>335.357180531662</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>336.7032513307795</c:v>
+                  <c:v>336.7032850887393</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>338.0799408266313</c:v>
+                  <c:v>338.0800469511803</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>339.4879140784504</c:v>
+                  <c:v>339.4880827094286</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>340.9278071682849</c:v>
+                  <c:v>340.9280243740006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>342.4002561781828</c:v>
+                  <c:v>342.4005217659748</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>343.9059456856052</c:v>
+                  <c:v>343.9062425169912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>345.4455138171734</c:v>
+                  <c:v>345.4458720692521</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>347.0196819874569</c:v>
+                  <c:v>347.0201136755211</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>348.6292031249844</c:v>
+                  <c:v>348.6296883991244</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>350.2748301582847</c:v>
+                  <c:v>350.2753351139493</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>351.9573160158868</c:v>
+                  <c:v>351.9578105044455</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>353.6774136263194</c:v>
+                  <c:v>353.6778890656243</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>355.4359438506281</c:v>
+                  <c:v>355.4363631030589</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>357.2336260941419</c:v>
+                  <c:v>357.2340427328845</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>359.0713305372789</c:v>
+                  <c:v>359.0717558817979</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>360.9499285330662</c:v>
+                  <c:v>360.950348287058</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>362.8702914345308</c:v>
+                  <c:v>362.8706834964854</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>364.8332905946999</c:v>
+                  <c:v>364.8336428684627</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>366.8398218771156</c:v>
+                  <c:v>366.8401255719344</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>368.8907780824387</c:v>
+                  <c:v>368.8910485864066</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>370.9870635589818</c:v>
+                  <c:v>370.9873467019474</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>373.1296723749479</c:v>
+                  <c:v>373.1299725191869</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>375.3195985985395</c:v>
+                  <c:v>375.3198964493168</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>377.5578362979593</c:v>
+                  <c:v>377.558106714091</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>379.8453795414099</c:v>
+                  <c:v>379.8456093458249</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>382.1832601495886</c:v>
+                  <c:v>382.183428187396</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>384.5724757284785</c:v>
+                  <c:v>384.5726048922435</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>387.0140956266747</c:v>
+                  <c:v>387.0141989243687</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>389.5092213902623</c:v>
+                  <c:v>389.5092875583344</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>392.0589545653261</c:v>
+                  <c:v>392.0589658792657</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>394.6643966979512</c:v>
+                  <c:v>394.6643467828491</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>397.3266493342225</c:v>
+                  <c:v>397.3265609753333</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>400.0468345262498</c:v>
+                  <c:v>400.0466485243178</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>402.8260903318078</c:v>
+                  <c:v>402.825595743709</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>405.6655650769229</c:v>
+                  <c:v>405.6646887447258</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>408.5664076245738</c:v>
+                  <c:v>408.5651913407085</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>411.5297668377392</c:v>
+                  <c:v>411.528332569681</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>414.556791579398</c:v>
+                  <c:v>414.5553066943509</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>417.6486297628044</c:v>
+                  <c:v>417.6472732021091</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>420.8064215553608</c:v>
+                  <c:v>420.8053568050305</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>424.0312867744994</c:v>
+                  <c:v>424.0306474398734</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>427.3243208325654</c:v>
+                  <c:v>427.3242002680798</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>430.6866471209001</c:v>
+                  <c:v>430.6870356757753</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>434.119284108656</c:v>
+                  <c:v>434.1201392737692</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>437.623236357553</c:v>
+                  <c:v>437.6244618975542</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>441.1994705291326</c:v>
+                  <c:v>441.2009196073067</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>444.8489775166057</c:v>
+                  <c:v>444.850393687887</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>448.5725496833277</c:v>
+                  <c:v>448.5737306488388</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>452.370927387066</c:v>
+                  <c:v>452.3717422243893</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>456.244794225136</c:v>
+                  <c:v>456.2452053734494</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>460.1948583526816</c:v>
+                  <c:v>460.1948622796138</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>464.2215135159805</c:v>
+                  <c:v>464.221222282229</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>468.3250064502988</c:v>
+                  <c:v>468.3231641152832</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472.5055134978084</c:v>
+                  <c:v>472.5013743077186</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>476.7632053734405</c:v>
+                  <c:v>476.7566966544961</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>481.0978418380019</c:v>
+                  <c:v>481.0895159304827</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>485.5088286828504</c:v>
+                  <c:v>485.4997578904521</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.9955451786986</c:v>
+                  <c:v>489.9868892690845</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>494.5571710885729</c:v>
+                  <c:v>494.5499177809664</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>499.1923723204997</c:v>
+                  <c:v>499.1873921205909</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>503.8994429619821</c:v>
+                  <c:v>503.8974019623574</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>508.6764801296043</c:v>
+                  <c:v>508.6775779605721</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>513.5210939404279</c:v>
+                  <c:v>513.5250917494473</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>518.4302145912774</c:v>
+                  <c:v>518.4366559431018</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>523.4005222562715</c:v>
+                  <c:v>523.408524135561</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>528.4281664410566</c:v>
+                  <c:v>528.436490900757</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>533.5082779442787</c:v>
+                  <c:v>533.5158917925278</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>538.6357010588007</c:v>
+                  <c:v>538.6416033446183</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>543.8046706086021</c:v>
+                  <c:v>543.8080430706797</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>549.0080499834871</c:v>
+                  <c:v>549.0091694642697</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>554.2383462415096</c:v>
+                  <c:v>554.2384819988523</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>559.4874111223302</c:v>
+                  <c:v>559.4874395874006</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>564.7453772744831</c:v>
+                  <c:v>564.7455525405124</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>570.0019194675716</c:v>
+                  <c:v>570.0023522576414</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>575.2460504948322</c:v>
+                  <c:v>575.2463454794631</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>580.4648236333092</c:v>
+                  <c:v>580.465014187894</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>585.6447111960847</c:v>
+                  <c:v>585.6448156060916</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>590.7715524186684</c:v>
+                  <c:v>590.7711821984545</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>595.8292350004051</c:v>
+                  <c:v>595.8285216706222</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>600.8009669937129</c:v>
+                  <c:v>600.8002169694754</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>605.6693900687345</c:v>
+                  <c:v>605.6686262831356</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>610.4155738671434</c:v>
+                  <c:v>610.4150830409656</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>615.0199413754699</c:v>
+                  <c:v>615.0198959135688</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>619.4624915219712</c:v>
+                  <c:v>619.4625006171293</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>623.7223984267896</c:v>
+                  <c:v>623.7223840935288</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>627.7785550265602</c:v>
+                  <c:v>627.7785186819791</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>631.6097612251931</c:v>
+                  <c:v>631.6096745944674</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>635.1945894192776</c:v>
+                  <c:v>635.1947052903511</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>638.5127936670261</c:v>
+                  <c:v>638.5128839152192</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>641.5441337027037</c:v>
+                  <c:v>641.5306904217025</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>652.3145207784695</c:v>
+                  <c:v>652.3227409825686</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>678.6127370877836</c:v>
+                  <c:v>678.6360529665919</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>719.7037778474001</c:v>
+                  <c:v>719.7147856917877</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>774.4347853064332</c:v>
+                  <c:v>774.4285554102702</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>841.3369317409544</c:v>
+                  <c:v>841.3406548112741</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>918.7348542238801</c:v>
+                  <c:v>918.7452471789488</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1004.850092235572</c:v>
+                  <c:v>1004.861074587079</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1097.886132744784</c:v>
+                  <c:v>1097.890381259766</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1196.091424560226</c:v>
+                  <c:v>1196.095723261955</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1297.802431409422</c:v>
+                  <c:v>1297.808458336038</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1401.471017568676</c:v>
+                  <c:v>1401.477267507789</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1505.678626491136</c:v>
+                  <c:v>1505.684636544056</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1609.14313305227</c:v>
+                  <c:v>1609.148845650885</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1710.720667301606</c:v>
+                  <c:v>1710.726106457951</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1809.404679386085</c:v>
+                  <c:v>1809.408775735252</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1904.323569278997</c:v>
+                  <c:v>1904.328171936445</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1994.737584124919</c:v>
+                  <c:v>1994.744294574933</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2080.035265524058</c:v>
+                  <c:v>2080.042894242575</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2159.729453709273</c:v>
+                  <c:v>2159.735472609689</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2233.452747501227</c:v>
+                  <c:v>2233.455335183861</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2300.952216451886</c:v>
+                  <c:v>2300.944836423579</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2362.082510700908</c:v>
+                  <c:v>2362.074723845831</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2416.799322879739</c:v>
+                  <c:v>2416.802343561457</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2465.150816358208</c:v>
+                  <c:v>2465.166134306509</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2507.26741018643</c:v>
+                  <c:v>2507.285627442247</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2543.351758546811</c:v>
+                  <c:v>2543.361446955141</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2573.667197095031</c:v>
+                  <c:v>2573.670544517976</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2598.526705532936</c:v>
+                  <c:v>2598.516136244665</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2618.281909281648</c:v>
+                  <c:v>2618.265427107049</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2633.310539029942</c:v>
+                  <c:v>2633.302647001831</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2644.007042057072</c:v>
+                  <c:v>2644.014602339447</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2650.772421927089</c:v>
+                  <c:v>2650.790676044073</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2654.006142391912</c:v>
+                  <c:v>2654.022827553616</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2654.098410849611</c:v>
+                  <c:v>2654.105592819724</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2651.424169278921</c:v>
+                  <c:v>2651.429491658414</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2646.339844182854</c:v>
+                  <c:v>2646.34401383283</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2639.175866644057</c:v>
+                  <c:v>2639.180388397963</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2630.240979208231</c:v>
+                  <c:v>2630.245056856048</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2619.81318606541</c:v>
+                  <c:v>2619.81761446886</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2608.14653566709</c:v>
+                  <c:v>2608.150810257714</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2595.465869368214</c:v>
+                  <c:v>2595.470547003461</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2581.971204755516</c:v>
+                  <c:v>2581.977241793667</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2567.83767766255</c:v>
+                  <c:v>2567.85145384321</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2553.216680125117</c:v>
+                  <c:v>2553.237050739689</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2538.240098463536</c:v>
+                  <c:v>2538.25994407216</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2523.018283889709</c:v>
+                  <c:v>2523.031934772644</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2507.646881552913</c:v>
+                  <c:v>2507.650713116126</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2492.204007724586</c:v>
+                  <c:v>2492.19985872056</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2476.75622181521</c:v>
+                  <c:v>2476.748840546863</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2461.357144189241</c:v>
+                  <c:v>2461.353016898922</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2446.051577200153</c:v>
+                  <c:v>2446.053635423585</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2430.874424957945</c:v>
+                  <c:v>2430.879210399006</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2415.855083619143</c:v>
+                  <c:v>2415.862670801918</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2401.015114248389</c:v>
+                  <c:v>2401.025693241943</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2386.372707600325</c:v>
+                  <c:v>2386.383742894793</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2371.940505263011</c:v>
+                  <c:v>2371.949935492699</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2357.728778251883</c:v>
+                  <c:v>2357.735037324417</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2343.744565927499</c:v>
+                  <c:v>2343.74746523522</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2329.992285782333</c:v>
+                  <c:v>2329.993286626906</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2316.475454058986</c:v>
+                  <c:v>2316.476219457795</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2303.195402182735</c:v>
+                  <c:v>2303.197632242724</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2290.152347538351</c:v>
+                  <c:v>2290.156544053058</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2277.346138252793</c:v>
+                  <c:v>2277.350697678773</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2264.775447705407</c:v>
+                  <c:v>2264.780519727391</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2252.438234414809</c:v>
+                  <c:v>2252.443949498002</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2240.332355991164</c:v>
+                  <c:v>2240.338462991972</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2228.455435190057</c:v>
+                  <c:v>2228.46141801806</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2216.80457654406</c:v>
+                  <c:v>2216.810054192421</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2205.376635112868</c:v>
+                  <c:v>2205.381492938608</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2194.168465956174</c:v>
+                  <c:v>2194.172737487567</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2183.176866600493</c:v>
+                  <c:v>2183.180672877642</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2172.398504995435</c:v>
+                  <c:v>2172.402065954572</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2161.829973821281</c:v>
+                  <c:v>2161.833565371491</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2151.4678523881</c:v>
+                  <c:v>2151.47170158893</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2141.308720005963</c:v>
+                  <c:v>2141.312886874814</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2131.349155984939</c:v>
+                  <c:v>2131.353431193518</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2121.585774622408</c:v>
+                  <c:v>2121.590071549489</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2112.015114005999</c:v>
+                  <c:v>2112.019522999554</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2102.633809132899</c:v>
+                  <c:v>2102.638373976017</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2093.438577454417</c:v>
+                  <c:v>2093.443261662389</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2084.426136421862</c:v>
+                  <c:v>2084.430871993391</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2075.593203486544</c:v>
+                  <c:v>2075.597939654944</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2066.936582804829</c:v>
+                  <c:v>2066.94124808418</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2058.452978979267</c:v>
+                  <c:v>2058.457629469438</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2050.139337246297</c:v>
+                  <c:v>2050.14396475026</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2041.992629421065</c:v>
+                  <c:v>2041.997183617398</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2034.009827318718</c:v>
+                  <c:v>2034.014264512808</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2026.187930187809</c:v>
+                  <c:v>2026.192234629655</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2018.523973802207</c:v>
+                  <c:v>2018.528169912308</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2011.015017309052</c:v>
+                  <c:v>2011.019195056344</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2003.658316294667</c:v>
+                  <c:v>2003.662483508545</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1996.451126345376</c:v>
+                  <c:v>1996.455257466903</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1989.390703047503</c:v>
+                  <c:v>1989.394787880611</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1982.474479486436</c:v>
+                  <c:v>1982.478394450074</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1975.699566922282</c:v>
+                  <c:v>1975.7034456269</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1969.063355410348</c:v>
+                  <c:v>1969.067358613905</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1962.563446153086</c:v>
+                  <c:v>1962.567599365111</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1956.197440352945</c:v>
+                  <c:v>1956.201682585747</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1949.962939212377</c:v>
+                  <c:v>1949.967142584976</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1943.857543933833</c:v>
+                  <c:v>1943.86153381696</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1937.878855719762</c:v>
+                  <c:v>1937.882561958342</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1932.024667100651</c:v>
+                  <c:v>1932.027976651214</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1926.292505606214</c:v>
+                  <c:v>1926.295564973665</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1920.68018101697</c:v>
+                  <c:v>1920.683151439773</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1915.185650493605</c:v>
+                  <c:v>1915.188597999612</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1909.806871196811</c:v>
+                  <c:v>1909.809804039247</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1904.541800287273</c:v>
+                  <c:v>1904.544706380735</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1899.38839492568</c:v>
+                  <c:v>1899.391279282126</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1894.344612272721</c:v>
+                  <c:v>1894.347534437465</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1889.408593821269</c:v>
+                  <c:v>1889.411520976786</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1884.578211111083</c:v>
+                  <c:v>1884.581325466118</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1879.851633558272</c:v>
+                  <c:v>1879.855071907482</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1875.227130905097</c:v>
+                  <c:v>1875.230921738892</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1870.702972893817</c:v>
+                  <c:v>1870.707073834355</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1866.277429266692</c:v>
+                  <c:v>1866.281764503869</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1861.948769765982</c:v>
+                  <c:v>1861.953267493427</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1857.715264133945</c:v>
+                  <c:v>1857.719893985012</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1853.575357715656</c:v>
+                  <c:v>1853.579992596602</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1849.527226421701</c:v>
+                  <c:v>1849.531949382167</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1845.569349057697</c:v>
+                  <c:v>1845.574187831669</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1841.700268598039</c:v>
+                  <c:v>1841.705168871063</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1837.918528017122</c:v>
+                  <c:v>1837.923390862298</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1834.222670289343</c:v>
+                  <c:v>1834.227389603312</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1830.611238389098</c:v>
+                  <c:v>1830.615738328041</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1827.082775290782</c:v>
+                  <c:v>1827.087047706409</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1823.635873089824</c:v>
+                  <c:v>1823.639965844334</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1820.269220446972</c:v>
+                  <c:v>1820.273178283729</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1816.981511283165</c:v>
+                  <c:v>1816.985408002497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7332,10 +7332,10 @@
         <v>453.0020688411092</v>
       </c>
       <c r="C3">
-        <v>1.095124304402439</v>
+        <v>1.095124289299665</v>
       </c>
       <c r="D3">
-        <v>300.4693042810783</v>
+        <v>300.4693001373295</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>451.0178404944635</v>
       </c>
       <c r="C4">
-        <v>1.101712746602582</v>
+        <v>1.101712736381529</v>
       </c>
       <c r="D4">
-        <v>300.9529494041096</v>
+        <v>300.9529466120424</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7360,10 +7360,10 @@
         <v>448.9858719852913</v>
       </c>
       <c r="C5">
-        <v>1.10853079216579</v>
+        <v>1.108530801436664</v>
       </c>
       <c r="D5">
-        <v>301.4511501487277</v>
+        <v>301.4511526698265</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>446.9062461758243</v>
       </c>
       <c r="C6">
-        <v>1.115584390688094</v>
+        <v>1.11558440604138</v>
       </c>
       <c r="D6">
-        <v>301.9641337787384</v>
+        <v>301.964137934535</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>444.7790569342612</v>
       </c>
       <c r="C7">
-        <v>1.122879720241499</v>
+        <v>1.122879725605705</v>
       </c>
       <c r="D7">
-        <v>302.4921275579473</v>
+        <v>302.4921290030088</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>442.6044097388335</v>
       </c>
       <c r="C8">
-        <v>1.130423284202726</v>
+        <v>1.130423199052752</v>
       </c>
       <c r="D8">
-        <v>303.0353822714803</v>
+        <v>303.0353594451152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7416,10 +7416,10 @@
         <v>440.3824222897506</v>
       </c>
       <c r="C9">
-        <v>1.138221693580711</v>
+        <v>1.138221538998511</v>
       </c>
       <c r="D9">
-        <v>303.5941110349486</v>
+        <v>303.5940698037491</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>438.1132251282135</v>
       </c>
       <c r="C10">
-        <v>1.146281838552179</v>
+        <v>1.146281742457988</v>
       </c>
       <c r="D10">
-        <v>304.1685330936473</v>
+        <v>304.1685075948318</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7444,10 +7444,10 @@
         <v>435.7969622616277</v>
       </c>
       <c r="C11">
-        <v>1.154611097325773</v>
+        <v>1.154611102105073</v>
       </c>
       <c r="D11">
-        <v>304.7589260458186</v>
+        <v>304.7589273073121</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>433.4337917941004</v>
       </c>
       <c r="C12">
-        <v>1.163217130831776</v>
+        <v>1.163217218115127</v>
       </c>
       <c r="D12">
-        <v>305.3655674897047</v>
+        <v>305.3655904031656</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7472,10 +7472,10 @@
         <v>431.0238865612484</v>
       </c>
       <c r="C13">
-        <v>1.17210789457867</v>
+        <v>1.172108078224589</v>
       </c>
       <c r="D13">
-        <v>305.9887350235478</v>
+        <v>305.9887829658768</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7486,10 +7486,10 @@
         <v>428.5674347682892</v>
       </c>
       <c r="C14">
-        <v>1.181291651094135</v>
+        <v>1.181292035377312</v>
       </c>
       <c r="D14">
-        <v>306.6287062455901</v>
+        <v>306.6288059942453</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7500,10 +7500,10 @@
         <v>426.0646406303418</v>
       </c>
       <c r="C15">
-        <v>1.190776982981427</v>
+        <v>1.190777639522464</v>
       </c>
       <c r="D15">
-        <v>307.2857587540738</v>
+        <v>307.2859281776633</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7514,10 +7514,10 @@
         <v>423.5157250138036</v>
       </c>
       <c r="C16">
-        <v>1.200572822096494</v>
+        <v>1.200573810072033</v>
       </c>
       <c r="D16">
-        <v>307.9601741161143</v>
+        <v>307.9604275427399</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>420.920926077624</v>
       </c>
       <c r="C17">
-        <v>1.210688647236364</v>
+        <v>1.210689855472231</v>
       </c>
       <c r="D17">
-        <v>308.6522844767468</v>
+        <v>308.6525925037209</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7542,10 +7542,10 @@
         <v>418.280499913244</v>
       </c>
       <c r="C18">
-        <v>1.221133892828014</v>
+        <v>1.221135489603333</v>
       </c>
       <c r="D18">
-        <v>309.3623173350931</v>
+        <v>309.3627218624883</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>415.5947211819234</v>
       </c>
       <c r="C19">
-        <v>1.231918838755965</v>
+        <v>1.231920849055033</v>
       </c>
       <c r="D19">
-        <v>310.0906187891196</v>
+        <v>310.0911248085605</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>412.8638837481304</v>
       </c>
       <c r="C20">
-        <v>1.243054167954633</v>
+        <v>1.243056511325874</v>
       </c>
       <c r="D20">
-        <v>310.8375349367927</v>
+        <v>310.8381209190924</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7584,10 +7584,10 @@
         <v>410.0883013076264</v>
       </c>
       <c r="C21">
-        <v>1.254550984459901</v>
+        <v>1.254553513998317</v>
       </c>
       <c r="D21">
-        <v>311.6034118760787</v>
+        <v>311.6040401588754</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7598,10 +7598,10 @@
         <v>407.2683080088377</v>
       </c>
       <c r="C22">
-        <v>1.266420832380255</v>
+        <v>1.26642337494421</v>
       </c>
       <c r="D22">
-        <v>312.388595704944</v>
+        <v>312.3892228803371</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>404.4042590660646</v>
       </c>
       <c r="C23">
-        <v>1.278675715838488</v>
+        <v>1.278678113618793</v>
       </c>
       <c r="D23">
-        <v>313.193432521355</v>
+        <v>313.1940198235417</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7626,10 +7626,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C24">
-        <v>1.291328119937972</v>
+        <v>1.291330273504981</v>
       </c>
       <c r="D24">
-        <v>314.0182684232781</v>
+        <v>314.0187921161898</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C25">
-        <v>1.30439126459699</v>
+        <v>1.304392945773524</v>
       </c>
       <c r="D25">
-        <v>314.8635054589283</v>
+        <v>314.8639112736184</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7654,10 +7654,10 @@
         <v>395.5516591002702</v>
       </c>
       <c r="C26">
-        <v>1.317878497283369</v>
+        <v>1.31787979422867</v>
       </c>
       <c r="D26">
-        <v>315.7294484844023</v>
+        <v>315.7297591988009</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7668,10 +7668,10 @@
         <v>392.5153819218948</v>
       </c>
       <c r="C27">
-        <v>1.331804084064057</v>
+        <v>1.331805081613333</v>
       </c>
       <c r="D27">
-        <v>316.6164910299347</v>
+        <v>316.6167281823471</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7682,10 +7682,10 @@
         <v>389.4371618611553</v>
       </c>
       <c r="C28">
-        <v>1.34618301397225</v>
+        <v>1.34618369735235</v>
       </c>
       <c r="D28">
-        <v>317.5250597131962</v>
+        <v>317.5252209025032</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7696,10 +7696,10 @@
         <v>386.3174927578167</v>
       </c>
       <c r="C29">
-        <v>1.361030890753757</v>
+        <v>1.361031186817318</v>
       </c>
       <c r="D29">
-        <v>318.4555811518577</v>
+        <v>318.455650425152</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7710,10 +7710,10 @@
         <v>383.1568934536983</v>
       </c>
       <c r="C30">
-        <v>1.376363962148873</v>
+        <v>1.376363782201701</v>
       </c>
       <c r="D30">
-        <v>319.40848196359</v>
+        <v>319.4084402038125</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7724,10 +7724,10 @@
         <v>379.9559082852276</v>
       </c>
       <c r="C31">
-        <v>1.392199150729688</v>
+        <v>1.39219843510043</v>
       </c>
       <c r="D31">
-        <v>320.384188766064</v>
+        <v>320.3840240796403</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>376.7151075537643</v>
       </c>
       <c r="C32">
-        <v>1.408554086382393</v>
+        <v>1.408552850894103</v>
       </c>
       <c r="D32">
-        <v>321.3831281769505</v>
+        <v>321.3828462814272</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7752,10 +7752,10 @@
         <v>373.435087972113</v>
       </c>
       <c r="C33">
-        <v>1.42544730587052</v>
+        <v>1.42544552504415</v>
       </c>
       <c r="D33">
-        <v>322.405764210527</v>
+        <v>322.4053614256016</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>370.116473085649</v>
       </c>
       <c r="C34">
-        <v>1.442897988361219</v>
+        <v>1.442895781411919</v>
       </c>
       <c r="D34">
-        <v>323.4525292451272</v>
+        <v>323.4520345162283</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7780,10 +7780,10 @@
         <v>366.7599136665037</v>
       </c>
       <c r="C35">
-        <v>1.460926091314155</v>
+        <v>1.460923812721774</v>
       </c>
       <c r="D35">
-        <v>324.5238471017334</v>
+        <v>324.5233409450086</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7794,10 +7794,10 @@
         <v>363.3660880792923</v>
       </c>
       <c r="C36">
-        <v>1.479552874780118</v>
+        <v>1.479550723295662</v>
       </c>
       <c r="D36">
-        <v>325.6202399903329</v>
+        <v>325.6197664912798</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C37">
-        <v>1.498800513617065</v>
+        <v>1.498798574194655</v>
       </c>
       <c r="D37">
-        <v>326.742230120913</v>
+        <v>326.7418073220163</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7822,10 +7822,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C38">
-        <v>1.518692143307466</v>
+        <v>1.518690430911328</v>
       </c>
       <c r="D38">
-        <v>327.8903397034605</v>
+        <v>327.8899699918283</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7836,10 +7836,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C39">
-        <v>1.539251908298908</v>
+        <v>1.539250413765775</v>
       </c>
       <c r="D39">
-        <v>329.065090947963</v>
+        <v>329.0647714429628</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7850,10 +7850,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C40">
-        <v>1.560505013016463</v>
+        <v>1.560503751167524</v>
       </c>
       <c r="D40">
-        <v>330.2670060644074</v>
+        <v>330.266739005303</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>345.8636814784479</v>
       </c>
       <c r="C41">
-        <v>1.582477785267452</v>
+        <v>1.582476835915656</v>
       </c>
       <c r="D41">
-        <v>331.4966092660808</v>
+        <v>331.4964103963687</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7878,10 +7878,10 @@
         <v>342.2620879553368</v>
       </c>
       <c r="C42">
-        <v>1.605198205313227</v>
+        <v>1.60519728471995</v>
       </c>
       <c r="D42">
-        <v>332.7545245585455</v>
+        <v>332.754333721316</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7892,10 +7892,10 @@
         <v>338.6287734837973</v>
       </c>
       <c r="C43">
-        <v>1.628694546272275</v>
+        <v>1.628694001137169</v>
       </c>
       <c r="D43">
-        <v>334.0411792787848</v>
+        <v>334.0410674729374</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7906,10 +7906,10 @@
         <v>334.964646449961</v>
       </c>
       <c r="C44">
-        <v>1.652997384958763</v>
+        <v>1.652997242128345</v>
       </c>
       <c r="D44">
-        <v>335.3572095088467</v>
+        <v>335.357180531662</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7920,10 +7920,10 @@
         <v>331.2706446141488</v>
       </c>
       <c r="C45">
-        <v>1.678138684294878</v>
+        <v>1.67813885254552</v>
       </c>
       <c r="D45">
-        <v>336.7032513307795</v>
+        <v>336.7032850887393</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7934,10 +7934,10 @@
         <v>327.5477351189685</v>
       </c>
       <c r="C46">
-        <v>1.704151865928786</v>
+        <v>1.704152400868386</v>
       </c>
       <c r="D46">
-        <v>338.0799408266313</v>
+        <v>338.0800469511803</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7948,10 +7948,10 @@
         <v>323.7969144558572</v>
       </c>
       <c r="C47">
-        <v>1.731071886972237</v>
+        <v>1.731072746833026</v>
       </c>
       <c r="D47">
-        <v>339.4879140784504</v>
+        <v>339.4880827094286</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7962,10 +7962,10 @@
         <v>320.0192083893523</v>
       </c>
       <c r="C48">
-        <v>1.758935321101331</v>
+        <v>1.75893644172217</v>
       </c>
       <c r="D48">
-        <v>340.9278071682849</v>
+        <v>340.9280243740006</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7976,10 +7976,10 @@
         <v>316.2156718384867</v>
       </c>
       <c r="C49">
-        <v>1.787780444277735</v>
+        <v>1.787781830995917</v>
       </c>
       <c r="D49">
-        <v>342.4002561781828</v>
+        <v>342.4005217659748</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>312.3873887148046</v>
       </c>
       <c r="C50">
-        <v>1.817647581674977</v>
+        <v>1.817649150519185</v>
       </c>
       <c r="D50">
-        <v>343.9059456856052</v>
+        <v>343.9062425169912</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8004,10 +8004,10 @@
         <v>308.5354717165984</v>
       </c>
       <c r="C51">
-        <v>1.848578711385218</v>
+        <v>1.848580628495556</v>
       </c>
       <c r="D51">
-        <v>345.4455138171734</v>
+        <v>345.4458720692521</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>304.6610620790851</v>
       </c>
       <c r="C52">
-        <v>1.880618253987996</v>
+        <v>1.880620593453149</v>
       </c>
       <c r="D52">
-        <v>347.0196819874569</v>
+        <v>347.0201136755211</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8032,10 +8032,10 @@
         <v>300.7653292803428</v>
       </c>
       <c r="C53">
-        <v>1.91381292471743</v>
+        <v>1.913815588647798</v>
       </c>
       <c r="D53">
-        <v>348.6292031249844</v>
+        <v>348.6296883991244</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8046,10 +8046,10 @@
         <v>296.8494707029503</v>
       </c>
       <c r="C54">
-        <v>1.948211684730142</v>
+        <v>1.948214493269156</v>
       </c>
       <c r="D54">
-        <v>350.2748301582847</v>
+        <v>350.2753351139493</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8060,10 +8060,10 @@
         <v>292.9147112513796</v>
       </c>
       <c r="C55">
-        <v>1.983865863589506</v>
+        <v>1.983868650856391</v>
       </c>
       <c r="D55">
-        <v>351.9573160158868</v>
+        <v>351.9578105044455</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8074,10 +8074,10 @@
         <v>288.9623029253086</v>
       </c>
       <c r="C56">
-        <v>2.020829288803732</v>
+        <v>2.020832005351736</v>
       </c>
       <c r="D56">
-        <v>353.6774136263194</v>
+        <v>353.6778890656243</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8088,10 +8088,10 @@
         <v>284.9935243491365</v>
       </c>
       <c r="C57">
-        <v>2.059158816373287</v>
+        <v>2.059161245242269</v>
       </c>
       <c r="D57">
-        <v>355.4359438506281</v>
+        <v>355.4363631030589</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8102,10 +8102,10 @@
         <v>281.009680258094</v>
       </c>
       <c r="C58">
-        <v>2.09891350831655</v>
+        <v>2.098915956262715</v>
       </c>
       <c r="D58">
-        <v>357.2336260941419</v>
+        <v>357.2340427328845</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8116,10 +8116,10 @@
         <v>277.0121009414553</v>
       </c>
       <c r="C59">
-        <v>2.140156247993459</v>
+        <v>2.140158783154728</v>
       </c>
       <c r="D59">
-        <v>359.0713305372789</v>
+        <v>359.0717558817979</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C60">
-        <v>2.1829530624123</v>
+        <v>2.18295560100059</v>
       </c>
       <c r="D60">
-        <v>360.9499285330662</v>
+        <v>360.950348287058</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8144,10 +8144,10 @@
         <v>268.9811819227082</v>
       </c>
       <c r="C61">
-        <v>2.227373290113763</v>
+        <v>2.227375696671551</v>
       </c>
       <c r="D61">
-        <v>362.8702914345308</v>
+        <v>362.8706834964854</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8158,10 +8158,10 @@
         <v>264.950624970735</v>
       </c>
       <c r="C62">
-        <v>2.273489765728509</v>
+        <v>2.273491960952506</v>
       </c>
       <c r="D62">
-        <v>364.8332905946999</v>
+        <v>364.8336428684627</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8172,10 +8172,10 @@
         <v>260.9118968908913</v>
       </c>
       <c r="C63">
-        <v>2.321379170130479</v>
+        <v>2.321381091925181</v>
       </c>
       <c r="D63">
-        <v>366.8398218771156</v>
+        <v>366.8401255719344</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8186,10 +8186,10 @@
         <v>256.8664459383544</v>
       </c>
       <c r="C64">
-        <v>2.371122071490334</v>
+        <v>2.371123810210754</v>
       </c>
       <c r="D64">
-        <v>368.8907780824387</v>
+        <v>368.8910485864066</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -8200,10 +8200,10 @@
         <v>252.8157417225046</v>
       </c>
       <c r="C65">
-        <v>2.422803237569199</v>
+        <v>2.422805086689454</v>
       </c>
       <c r="D65">
-        <v>370.9870635589818</v>
+        <v>370.9873467019474</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8214,10 +8214,10 @@
         <v>248.7612743728317</v>
       </c>
       <c r="C66">
-        <v>2.476512391230027</v>
+        <v>2.476514383328169</v>
       </c>
       <c r="D66">
-        <v>373.1296723749479</v>
+        <v>373.1299725191869</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>244.704553669659</v>
       </c>
       <c r="C67">
-        <v>2.532343898107998</v>
+        <v>2.532345907756845</v>
       </c>
       <c r="D67">
-        <v>375.3195985985395</v>
+        <v>375.3198964493168</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>240.6471081410551</v>
       </c>
       <c r="C68">
-        <v>2.590397026933473</v>
+        <v>2.590398882239009</v>
       </c>
       <c r="D68">
-        <v>377.5578362979593</v>
+        <v>377.558106714091</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -8256,10 +8256,10 @@
         <v>236.5904841273563</v>
       </c>
       <c r="C69">
-        <v>2.650776223974929</v>
+        <v>2.650777827680311</v>
       </c>
       <c r="D69">
-        <v>379.8453795414099</v>
+        <v>379.8456093458249</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -8270,10 +8270,10 @@
         <v>232.5362448148089</v>
       </c>
       <c r="C70">
-        <v>2.713591670201215</v>
+        <v>2.713592863309449</v>
       </c>
       <c r="D70">
-        <v>382.1832601495886</v>
+        <v>382.183428187396</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -8284,10 +8284,10 @@
         <v>228.485969239881</v>
       </c>
       <c r="C71">
-        <v>2.778959089296718</v>
+        <v>2.778960022646975</v>
       </c>
       <c r="D71">
-        <v>384.5724757284785</v>
+        <v>384.5726048922435</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -8298,10 +8298,10 @@
         <v>224.4412512658597</v>
       </c>
       <c r="C72">
-        <v>2.847000826455437</v>
+        <v>2.847001586346675</v>
       </c>
       <c r="D72">
-        <v>387.0140956266747</v>
+        <v>387.0141989243687</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8312,10 +8312,10 @@
         <v>220.4036985333859</v>
       </c>
       <c r="C73">
-        <v>2.917845936778749</v>
+        <v>2.917846432449274</v>
       </c>
       <c r="D73">
-        <v>389.5092213902623</v>
+        <v>389.5092875583344</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8326,10 +8326,10 @@
         <v>216.3749313866268</v>
       </c>
       <c r="C74">
-        <v>2.991630318194274</v>
+        <v>2.991630404525996</v>
       </c>
       <c r="D74">
-        <v>392.0589545653261</v>
+        <v>392.0589658792657</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -8340,10 +8340,10 @@
         <v>212.356581776814</v>
       </c>
       <c r="C75">
-        <v>3.068497086194161</v>
+        <v>3.068496698106593</v>
       </c>
       <c r="D75">
-        <v>394.6643966979512</v>
+        <v>394.6643467828491</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -8354,10 +8354,10 @@
         <v>208.3502921449035</v>
       </c>
       <c r="C76">
-        <v>3.148596965874894</v>
+        <v>3.148596265678895</v>
       </c>
       <c r="D76">
-        <v>397.3266493342225</v>
+        <v>397.3265609753333</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -8368,10 +8368,10 @@
         <v>204.3577142851373</v>
       </c>
       <c r="C77">
-        <v>3.232088866979462</v>
+        <v>3.232087364218481</v>
       </c>
       <c r="D77">
-        <v>400.0468345262498</v>
+        <v>400.0466485243178</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8382,10 +8382,10 @@
         <v>200.3805081912936</v>
       </c>
       <c r="C78">
-        <v>3.319140289798584</v>
+        <v>3.31913621457276</v>
       </c>
       <c r="D78">
-        <v>402.8260903318078</v>
+        <v>402.825595743709</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C79">
-        <v>3.409927734752358</v>
+        <v>3.409920368513462</v>
       </c>
       <c r="D79">
-        <v>405.6655650769229</v>
+        <v>405.6646887447258</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>192.4788852449206</v>
       </c>
       <c r="C80">
-        <v>3.504637089460812</v>
+        <v>3.504626656313431</v>
       </c>
       <c r="D80">
-        <v>408.5664076245738</v>
+        <v>408.5651913407085</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8424,10 +8424,10 @@
         <v>188.5578187875755</v>
       </c>
       <c r="C81">
-        <v>3.603464102199668</v>
+        <v>3.603451543367046</v>
       </c>
       <c r="D81">
-        <v>411.5297668377392</v>
+        <v>411.528332569681</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8438,10 +8438,10 @@
         <v>184.6588224866492</v>
       </c>
       <c r="C82">
-        <v>3.706614873619528</v>
+        <v>3.706601597038095</v>
       </c>
       <c r="D82">
-        <v>414.556791579398</v>
+        <v>414.5553066943509</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8452,10 +8452,10 @@
         <v>180.7835795474954</v>
       </c>
       <c r="C83">
-        <v>3.814306351947415</v>
+        <v>3.814293962733831</v>
       </c>
       <c r="D83">
-        <v>417.6486297628044</v>
+        <v>417.6472732021091</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8466,10 +8466,10 @@
         <v>176.9337741896296</v>
       </c>
       <c r="C84">
-        <v>3.926766782232171</v>
+        <v>3.926756846484963</v>
       </c>
       <c r="D84">
-        <v>420.8064215553608</v>
+        <v>420.8053568050305</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>173.1110904219308</v>
       </c>
       <c r="C85">
-        <v>4.044236098318018</v>
+        <v>4.044230000607179</v>
       </c>
       <c r="D85">
-        <v>424.0312867744994</v>
+        <v>424.0306474398734</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8494,10 +8494,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C86">
-        <v>4.166966383851315</v>
+        <v>4.166965208191203</v>
       </c>
       <c r="D86">
-        <v>427.3243208325654</v>
+        <v>427.3242002680798</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8508,10 +8508,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C87">
-        <v>4.295222886152536</v>
+        <v>4.295226761196731</v>
       </c>
       <c r="D87">
-        <v>430.6866471209001</v>
+        <v>430.6870356757753</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8522,10 +8522,10 @@
         <v>161.8225797930893</v>
       </c>
       <c r="C88">
-        <v>4.42928320061141</v>
+        <v>4.429291925790428</v>
       </c>
       <c r="D88">
-        <v>434.119284108656</v>
+        <v>434.1201392737692</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8536,10 +8536,10 @@
         <v>158.1251752635391</v>
       </c>
       <c r="C89">
-        <v>4.569438590783281</v>
+        <v>4.569451387246794</v>
       </c>
       <c r="D89">
-        <v>437.623236357553</v>
+        <v>437.6244618975542</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8550,10 +8550,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C90">
-        <v>4.715994175958453</v>
+        <v>4.716009665197871</v>
       </c>
       <c r="D90">
-        <v>441.1994705291326</v>
+        <v>441.2009196073067</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8564,10 +8564,10 @@
         <v>150.8385096007949</v>
       </c>
       <c r="C91">
-        <v>4.869269986985542</v>
+        <v>4.869285488247016</v>
       </c>
       <c r="D91">
-        <v>444.8489775166057</v>
+        <v>444.850393687887</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8578,10 +8578,10 @@
         <v>147.252553609385</v>
       </c>
       <c r="C92">
-        <v>5.029598873402583</v>
+        <v>5.02961211492351</v>
       </c>
       <c r="D92">
-        <v>448.5725496833277</v>
+        <v>448.5737306488388</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8592,10 +8592,10 @@
         <v>143.7070364301009</v>
       </c>
       <c r="C93">
-        <v>5.197328223882994</v>
+        <v>5.197337585618598</v>
       </c>
       <c r="D93">
-        <v>452.370927387066</v>
+        <v>452.3717422243893</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>140.2035850708226</v>
       </c>
       <c r="C94">
-        <v>5.372820045721989</v>
+        <v>5.372824887477835</v>
       </c>
       <c r="D94">
-        <v>456.244794225136</v>
+        <v>456.2452053734494</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8620,10 +8620,10 @@
         <v>136.7438141687726</v>
       </c>
       <c r="C95">
-        <v>5.556451963783593</v>
+        <v>5.556452011197877</v>
       </c>
       <c r="D95">
-        <v>460.1948583526816</v>
+        <v>460.1948622796138</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8634,10 +8634,10 @@
         <v>133.3293248157152</v>
       </c>
       <c r="C96">
-        <v>5.748613028949192</v>
+        <v>5.748609422502507</v>
       </c>
       <c r="D96">
-        <v>464.2215135159805</v>
+        <v>464.221222282229</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8648,10 +8648,10 @@
         <v>129.9617033958852</v>
       </c>
       <c r="C97">
-        <v>5.949705155682529</v>
+        <v>5.94968175024829</v>
       </c>
       <c r="D97">
-        <v>468.3250064502988</v>
+        <v>468.3231641152832</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8662,10 +8662,10 @@
         <v>126.6425204377826</v>
       </c>
       <c r="C98">
-        <v>6.160143466080356</v>
+        <v>6.160089502678749</v>
       </c>
       <c r="D98">
-        <v>472.5055134978084</v>
+        <v>472.5013743077186</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>123.3733294809079</v>
       </c>
       <c r="C99">
-        <v>6.380356379701647</v>
+        <v>6.380269275776736</v>
       </c>
       <c r="D99">
-        <v>476.7632053734405</v>
+        <v>476.7566966544961</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8690,10 +8690,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C100">
-        <v>6.610779099404485</v>
+        <v>6.610664692872954</v>
       </c>
       <c r="D100">
-        <v>481.0978418380019</v>
+        <v>481.0895159304827</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8704,10 +8704,10 @@
         <v>116.9910460969931</v>
       </c>
       <c r="C101">
-        <v>6.851852398402583</v>
+        <v>6.851724384807406</v>
       </c>
       <c r="D101">
-        <v>485.5088286828504</v>
+        <v>485.4997578904521</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>113.8809658338429</v>
       </c>
       <c r="C102">
-        <v>7.104025004058324</v>
+        <v>7.103899509451411</v>
       </c>
       <c r="D102">
-        <v>489.9955451786986</v>
+        <v>489.9868892690845</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8732,10 +8732,10 @@
         <v>110.8268997533531</v>
       </c>
       <c r="C103">
-        <v>7.367748801815326</v>
+        <v>7.367640744442889</v>
       </c>
       <c r="D103">
-        <v>494.5571710885729</v>
+        <v>494.5499177809664</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8746,10 +8746,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C104">
-        <v>7.643470936159301</v>
+        <v>7.643394680961163</v>
       </c>
       <c r="D104">
-        <v>499.1923723204997</v>
+        <v>499.1873921205909</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -8760,10 +8760,10 @@
         <v>104.8925954669868</v>
       </c>
       <c r="C105">
-        <v>7.931631666994186</v>
+        <v>7.93159954062953</v>
       </c>
       <c r="D105">
-        <v>503.8994429619821</v>
+        <v>503.8974019623574</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>102.0151903678276</v>
       </c>
       <c r="C106">
-        <v>8.232662364687151</v>
+        <v>8.232680132506275</v>
       </c>
       <c r="D106">
-        <v>508.6764801296043</v>
+        <v>508.6775779605721</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8788,10 +8788,10 @@
         <v>99.19946368015324</v>
       </c>
       <c r="C107">
-        <v>8.5469754240364</v>
+        <v>8.547041963027382</v>
       </c>
       <c r="D107">
-        <v>513.5210939404279</v>
+        <v>513.5250917494473</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>96.44676797376539</v>
       </c>
       <c r="C108">
-        <v>8.874954140382401</v>
+        <v>8.875064409229459</v>
       </c>
       <c r="D108">
-        <v>518.4302145912774</v>
+        <v>518.4366559431018</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8816,10 +8816,10 @@
         <v>93.75842851664086</v>
       </c>
       <c r="C109">
-        <v>9.216951954188492</v>
+        <v>9.217092865276308</v>
       </c>
       <c r="D109">
-        <v>523.4005222562715</v>
+        <v>523.408524135561</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>91.1357423616824</v>
       </c>
       <c r="C110">
-        <v>9.573278964814248</v>
+        <v>9.573429775047321</v>
       </c>
       <c r="D110">
-        <v>528.4281664410566</v>
+        <v>528.436490900757</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>88.57997745721445</v>
       </c>
       <c r="C111">
-        <v>9.944182554037951</v>
+        <v>9.944324470293157</v>
       </c>
       <c r="D111">
-        <v>533.5082779442787</v>
+        <v>533.5158917925278</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8858,10 +8858,10 @@
         <v>86.09237178165456</v>
       </c>
       <c r="C112">
-        <v>10.32984855289077</v>
+        <v>10.32996174575654</v>
       </c>
       <c r="D112">
-        <v>538.6357010588007</v>
+        <v>538.6416033446183</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8872,10 +8872,10 @@
         <v>83.67413250274423</v>
       </c>
       <c r="C113">
-        <v>10.7303825753865</v>
+        <v>10.73044912098691</v>
       </c>
       <c r="D113">
-        <v>543.8046706086021</v>
+        <v>543.8080430706797</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>81.32643516169593</v>
       </c>
       <c r="C114">
-        <v>11.14578003743943</v>
+        <v>11.1458027647684</v>
       </c>
       <c r="D114">
-        <v>549.0080499834871</v>
+        <v>549.0091694642697</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8900,10 +8900,10 @@
         <v>79.05042288256821</v>
       </c>
       <c r="C115">
-        <v>11.57592925819196</v>
+        <v>11.57593209364607</v>
       </c>
       <c r="D115">
-        <v>554.2383462415096</v>
+        <v>554.2384819988523</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>76.84720560715456</v>
       </c>
       <c r="C116">
-        <v>12.02058851152159</v>
+        <v>12.02058912309371</v>
       </c>
       <c r="D116">
-        <v>559.4874111223302</v>
+        <v>559.4874395874006</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8928,10 +8928,10 @@
         <v>74.71785935563842</v>
       </c>
       <c r="C117">
-        <v>12.47934396414452</v>
+        <v>12.47934783704929</v>
       </c>
       <c r="D117">
-        <v>564.7453772744831</v>
+        <v>564.7455525405124</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>72.66342551323461</v>
       </c>
       <c r="C118">
-        <v>12.95161547602195</v>
+        <v>12.95162530990211</v>
       </c>
       <c r="D118">
-        <v>570.0019194675716</v>
+        <v>570.0023522576414</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8956,10 +8956,10 @@
         <v>70.6849101430177</v>
       </c>
       <c r="C119">
-        <v>13.43663212050851</v>
+        <v>13.4366390107774</v>
       </c>
       <c r="D119">
-        <v>575.2460504948322</v>
+        <v>575.2463454794631</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8970,10 +8970,10 @@
         <v>68.78328332510246</v>
       </c>
       <c r="C120">
-        <v>13.93338043665318</v>
+        <v>13.93338501069353</v>
       </c>
       <c r="D120">
-        <v>580.4648236333092</v>
+        <v>580.465014187894</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8984,10 +8984,10 @@
         <v>66.95947852232982</v>
       </c>
       <c r="C121">
-        <v>14.44061383488151</v>
+        <v>14.4406164093854</v>
       </c>
       <c r="D121">
-        <v>585.6447111960847</v>
+        <v>585.6448156060916</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8998,10 +8998,10 @@
         <v>65.2143919725788</v>
       </c>
       <c r="C122">
-        <v>14.95683203168992</v>
+        <v>14.95682265865642</v>
       </c>
       <c r="D122">
-        <v>590.7715524186684</v>
+        <v>590.7711821984545</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -9012,10 +9012,10 @@
         <v>63.54888210781604</v>
       </c>
       <c r="C123">
-        <v>15.48022913664496</v>
+        <v>15.4802106036361</v>
       </c>
       <c r="D123">
-        <v>595.8292350004051</v>
+        <v>595.8285216706222</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -9026,10 +9026,10 @@
         <v>61.96376899996756</v>
       </c>
       <c r="C124">
-        <v>16.00870818953767</v>
+        <v>16.00868820468443</v>
       </c>
       <c r="D124">
-        <v>600.8009669937129</v>
+        <v>600.8002169694754</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -9040,10 +9040,10 @@
         <v>60.45983383368911</v>
       </c>
       <c r="C125">
-        <v>16.53987289083013</v>
+        <v>16.53985203305371</v>
       </c>
       <c r="D125">
-        <v>605.6693900687345</v>
+        <v>605.6686262831356</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -9054,10 +9054,10 @@
         <v>59.03781840609101</v>
       </c>
       <c r="C126">
-        <v>17.07099346672459</v>
+        <v>17.07097974019002</v>
       </c>
       <c r="D126">
-        <v>610.4155738671434</v>
+        <v>610.4150830409656</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>57.69842465346358</v>
       </c>
       <c r="C127">
-        <v>17.59903006957841</v>
+        <v>17.59902876866878</v>
       </c>
       <c r="D127">
-        <v>615.0199413754699</v>
+        <v>615.0198959135688</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -9082,10 +9082,10 @@
         <v>56.44231420504</v>
       </c>
       <c r="C128">
-        <v>18.1206467599345</v>
+        <v>18.12064702598797</v>
       </c>
       <c r="D128">
-        <v>619.4624915219712</v>
+        <v>619.4625006171293</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -9096,10 +9096,10 @@
         <v>55.27010796381659</v>
       </c>
       <c r="C129">
-        <v>18.63221636701289</v>
+        <v>18.63221593884098</v>
       </c>
       <c r="D129">
-        <v>623.7223984267896</v>
+        <v>623.7223840935288</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>54.18238571445136</v>
       </c>
       <c r="C130">
-        <v>19.129862302276</v>
+        <v>19.12986119477269</v>
       </c>
       <c r="D130">
-        <v>627.7785550265602</v>
+        <v>627.7785186819791</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -9124,10 +9124,10 @@
         <v>53.17968575824655</v>
       </c>
       <c r="C131">
-        <v>19.60950170390921</v>
+        <v>19.60949901429694</v>
       </c>
       <c r="D131">
-        <v>631.6097612251931</v>
+        <v>631.6096745944674</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -9138,10 +9138,10 @@
         <v>52.26250457521967</v>
       </c>
       <c r="C132">
-        <v>20.06688967766939</v>
+        <v>20.06689333823592</v>
       </c>
       <c r="D132">
-        <v>635.1945894192776</v>
+        <v>635.1947052903511</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -9152,10 +9152,10 @@
         <v>51.43129651326064</v>
       </c>
       <c r="C133">
-        <v>20.49772312546467</v>
+        <v>20.49772602263837</v>
       </c>
       <c r="D133">
-        <v>638.5127936670261</v>
+        <v>638.5128839152192</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9166,10 +9166,10 @@
         <v>50.68647350437045</v>
       </c>
       <c r="C134">
-        <v>20.89767415807521</v>
+        <v>20.8972362563141</v>
       </c>
       <c r="D134">
-        <v>641.5441337027037</v>
+        <v>641.5306904217025</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C135">
-        <v>21.52800979682246</v>
+        <v>21.52828108410602</v>
       </c>
       <c r="D135">
-        <v>652.3145207784695</v>
+        <v>652.3227409825686</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>49.4574167812807</v>
       </c>
       <c r="C136">
-        <v>22.65447850507148</v>
+        <v>22.65525687106201</v>
       </c>
       <c r="D136">
-        <v>678.6127370877836</v>
+        <v>678.6360529665919</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -9208,10 +9208,10 @@
         <v>48.97379267673445</v>
       </c>
       <c r="C137">
-        <v>24.26350489687125</v>
+        <v>24.26387600633937</v>
       </c>
       <c r="D137">
-        <v>719.7037778474001</v>
+        <v>719.7147856917877</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -9222,10 +9222,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C138">
-        <v>26.32150679062023</v>
+        <v>26.32129504877021</v>
       </c>
       <c r="D138">
-        <v>774.4347853064332</v>
+        <v>774.4285554102702</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -9236,10 +9236,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C139">
-        <v>28.77797099564505</v>
+        <v>28.77809834344786</v>
       </c>
       <c r="D139">
-        <v>841.3369317409544</v>
+        <v>841.3406548112741</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -9250,10 +9250,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C140">
-        <v>31.56943013059102</v>
+        <v>31.5697872517641</v>
       </c>
       <c r="D140">
-        <v>918.7348542238801</v>
+        <v>918.7452471789488</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -9264,10 +9264,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C141">
-        <v>34.62377350024941</v>
+        <v>34.62415191535234</v>
       </c>
       <c r="D141">
-        <v>1004.850092235572</v>
+        <v>1004.861074587079</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>47.87300763918031</v>
       </c>
       <c r="C142">
-        <v>37.86431269890067</v>
+        <v>37.86445922329422</v>
       </c>
       <c r="D142">
-        <v>1097.886132744784</v>
+        <v>1097.890381259766</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C143">
-        <v>41.21331021369426</v>
+        <v>41.213458332579</v>
       </c>
       <c r="D143">
-        <v>1196.091424560226</v>
+        <v>1196.095723261955</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -9306,10 +9306,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C144">
-        <v>44.5948937207807</v>
+        <v>44.59510081713482</v>
       </c>
       <c r="D144">
-        <v>1297.802431409422</v>
+        <v>1297.808458336038</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -9320,10 +9320,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C145">
-        <v>47.93738486122524</v>
+        <v>47.93759864069898</v>
       </c>
       <c r="D145">
-        <v>1401.471017568676</v>
+        <v>1401.477267507789</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -9334,10 +9334,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C146">
-        <v>51.17503880716882</v>
+        <v>51.1752430769818</v>
       </c>
       <c r="D146">
-        <v>1505.678626491136</v>
+        <v>1505.684636544056</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>48.97379267673448</v>
       </c>
       <c r="C147">
-        <v>54.24933631077716</v>
+        <v>54.24952890065754</v>
       </c>
       <c r="D147">
-        <v>1609.14313305227</v>
+        <v>1609.148845650885</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>49.45741678128068</v>
       </c>
       <c r="C148">
-        <v>57.10986910131115</v>
+        <v>57.11005067946872</v>
       </c>
       <c r="D148">
-        <v>1710.720667301606</v>
+        <v>1710.726106457951</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -9376,10 +9376,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C149">
-        <v>59.71487744555159</v>
+        <v>59.71501263531388</v>
       </c>
       <c r="D149">
-        <v>1809.404679386085</v>
+        <v>1809.408775735252</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -9390,10 +9390,10 @@
         <v>50.68647350437031</v>
       </c>
       <c r="C150">
-        <v>62.0314820940707</v>
+        <v>62.03163202114592</v>
       </c>
       <c r="D150">
-        <v>1904.323569278997</v>
+        <v>1904.328171936445</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -9404,10 +9404,10 @@
         <v>51.43129651326062</v>
       </c>
       <c r="C151">
-        <v>64.03564519440638</v>
+        <v>64.03586061522144</v>
       </c>
       <c r="D151">
-        <v>1994.737584124919</v>
+        <v>1994.744294574933</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -9418,10 +9418,10 @@
         <v>52.26250457521963</v>
       </c>
       <c r="C152">
-        <v>65.71189190558667</v>
+        <v>65.71213290992679</v>
       </c>
       <c r="D152">
-        <v>2080.035265524058</v>
+        <v>2080.042894242575</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>53.17968575824658</v>
       </c>
       <c r="C153">
-        <v>67.05282439008263</v>
+        <v>67.05301125805904</v>
       </c>
       <c r="D153">
-        <v>2159.729453709273</v>
+        <v>2159.735472609689</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -9446,10 +9446,10 @@
         <v>54.18238571445131</v>
       </c>
       <c r="C154">
-        <v>68.05846293448313</v>
+        <v>68.05854178714873</v>
       </c>
       <c r="D154">
-        <v>2233.452747501227</v>
+        <v>2233.455335183861</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -9460,10 +9460,10 @@
         <v>55.27010796381656</v>
       </c>
       <c r="C155">
-        <v>68.73544970522907</v>
+        <v>68.73522924451679</v>
       </c>
       <c r="D155">
-        <v>2300.952216451886</v>
+        <v>2300.944836423579</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -9474,10 +9474,10 @@
         <v>56.44231420504003</v>
       </c>
       <c r="C156">
-        <v>69.0961331477359</v>
+        <v>69.09590536501754</v>
       </c>
       <c r="D156">
-        <v>2362.082510700908</v>
+        <v>2362.074723845831</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -9488,10 +9488,10 @@
         <v>57.69842465346355</v>
       </c>
       <c r="C157">
-        <v>69.15763391406959</v>
+        <v>69.15772035202845</v>
       </c>
       <c r="D157">
-        <v>2416.799322879739</v>
+        <v>2416.802343561457</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>59.03781840609098</v>
       </c>
       <c r="C158">
-        <v>68.94085813364423</v>
+        <v>68.94128651818514</v>
       </c>
       <c r="D158">
-        <v>2465.150816358208</v>
+        <v>2465.166134306509</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -9516,10 +9516,10 @@
         <v>60.45983383368914</v>
       </c>
       <c r="C159">
-        <v>68.46950654563895</v>
+        <v>68.47000403007613</v>
       </c>
       <c r="D159">
-        <v>2507.26741018643</v>
+        <v>2507.285627442247</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -9530,10 +9530,10 @@
         <v>61.96376899996753</v>
       </c>
       <c r="C160">
-        <v>67.76915877758478</v>
+        <v>67.76941693113362</v>
       </c>
       <c r="D160">
-        <v>2543.351758546811</v>
+        <v>2543.361446955141</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -9544,10 +9544,10 @@
         <v>63.54888210781595</v>
       </c>
       <c r="C161">
-        <v>66.86640331179929</v>
+        <v>66.8664902811374</v>
       </c>
       <c r="D161">
-        <v>2573.667197095031</v>
+        <v>2573.670544517976</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>65.21439197257881</v>
       </c>
       <c r="C162">
-        <v>65.78808222128694</v>
+        <v>65.78781463380965</v>
       </c>
       <c r="D162">
-        <v>2598.526705532936</v>
+        <v>2598.516136244665</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>66.95947852232968</v>
       </c>
       <c r="C163">
-        <v>64.560641016586</v>
+        <v>64.56023460513211</v>
       </c>
       <c r="D163">
-        <v>2618.281909281648</v>
+        <v>2618.265427107049</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>68.78328332510243</v>
       </c>
       <c r="C164">
-        <v>63.20954527182653</v>
+        <v>63.20935583290512</v>
       </c>
       <c r="D164">
-        <v>2633.310539029942</v>
+        <v>2633.302647001831</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>70.6849101430175</v>
       </c>
       <c r="C165">
-        <v>61.75887677558946</v>
+        <v>61.75905336912351</v>
       </c>
       <c r="D165">
-        <v>2644.007042057072</v>
+        <v>2644.014602339447</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>72.66342551323459</v>
       </c>
       <c r="C166">
-        <v>60.23099914349724</v>
+        <v>60.23141391456372</v>
       </c>
       <c r="D166">
-        <v>2650.772421927089</v>
+        <v>2650.790676044073</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -9628,10 +9628,10 @@
         <v>74.71785935563838</v>
       </c>
       <c r="C167">
-        <v>58.64635084522983</v>
+        <v>58.64671954213357</v>
       </c>
       <c r="D167">
-        <v>2654.006142391912</v>
+        <v>2654.022827553616</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -9642,10 +9642,10 @@
         <v>76.84720560715459</v>
       </c>
       <c r="C168">
-        <v>57.02331139481328</v>
+        <v>57.02346569946019</v>
       </c>
       <c r="D168">
-        <v>2654.098410849611</v>
+        <v>2654.105592819724</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -9656,10 +9656,10 @@
         <v>79.05042288256826</v>
       </c>
       <c r="C169">
-        <v>55.37815783619345</v>
+        <v>55.37826900044057</v>
       </c>
       <c r="D169">
-        <v>2651.424169278921</v>
+        <v>2651.429491658414</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -9670,10 +9670,10 @@
         <v>81.32643516169587</v>
       </c>
       <c r="C170">
-        <v>53.72511716077934</v>
+        <v>53.72520181163551</v>
       </c>
       <c r="D170">
-        <v>2646.339844182854</v>
+        <v>2646.34401383283</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -9684,10 +9684,10 @@
         <v>83.67413250274427</v>
       </c>
       <c r="C171">
-        <v>52.07635804437678</v>
+        <v>52.07644726786446</v>
       </c>
       <c r="D171">
-        <v>2639.175866644057</v>
+        <v>2639.180388397963</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9698,10 +9698,10 @@
         <v>86.09237178165434</v>
       </c>
       <c r="C172">
-        <v>50.44223938261042</v>
+        <v>50.44231758293082</v>
       </c>
       <c r="D172">
-        <v>2630.240979208231</v>
+        <v>2630.245056856048</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>88.57997745721441</v>
       </c>
       <c r="C173">
-        <v>48.83129588934174</v>
+        <v>48.83137843136433</v>
       </c>
       <c r="D173">
-        <v>2619.81318606541</v>
+        <v>2619.81761446886</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>91.13574236168223</v>
       </c>
       <c r="C174">
-        <v>47.25053650189945</v>
+        <v>47.2506139426021</v>
       </c>
       <c r="D174">
-        <v>2608.14653566709</v>
+        <v>2608.150810257714</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9740,10 +9740,10 @@
         <v>93.75842851664078</v>
       </c>
       <c r="C175">
-        <v>45.70550314619268</v>
+        <v>45.70558551817646</v>
       </c>
       <c r="D175">
-        <v>2595.465869368214</v>
+        <v>2595.470547003461</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -9754,10 +9754,10 @@
         <v>96.44676797376516</v>
       </c>
       <c r="C176">
-        <v>44.20050257305876</v>
+        <v>44.20060592050115</v>
       </c>
       <c r="D176">
-        <v>2581.971204755516</v>
+        <v>2581.977241793667</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9768,10 +9768,10 @@
         <v>99.19946368015319</v>
       </c>
       <c r="C177">
-        <v>42.7387419579741</v>
+        <v>42.73897124685615</v>
       </c>
       <c r="D177">
-        <v>2567.83767766255</v>
+        <v>2567.85145384321</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>102.0151903678277</v>
       </c>
       <c r="C178">
-        <v>41.32247448516186</v>
+        <v>41.32280417288771</v>
       </c>
       <c r="D178">
-        <v>2553.216680125117</v>
+        <v>2553.237050739689</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9796,10 +9796,10 @@
         <v>104.8925954669867</v>
       </c>
       <c r="C179">
-        <v>39.95318078755404</v>
+        <v>39.95349316745445</v>
       </c>
       <c r="D179">
-        <v>2538.240098463536</v>
+        <v>2538.25994407216</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9810,10 +9810,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C180">
-        <v>38.63163380214488</v>
+        <v>38.63184282001605</v>
       </c>
       <c r="D180">
-        <v>2523.018283889709</v>
+        <v>2523.031934772644</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9824,10 +9824,10 @@
         <v>110.8268997533529</v>
       </c>
       <c r="C181">
-        <v>37.35809202052506</v>
+        <v>37.35814910188374</v>
       </c>
       <c r="D181">
-        <v>2507.646881552913</v>
+        <v>2507.650713116126</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9838,10 +9838,10 @@
         <v>113.8809658338428</v>
       </c>
       <c r="C182">
-        <v>36.13232765133209</v>
+        <v>36.13226749848248</v>
       </c>
       <c r="D182">
-        <v>2492.204007724586</v>
+        <v>2492.19985872056</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9852,10 +9852,10 @@
         <v>116.991046096993</v>
       </c>
       <c r="C183">
-        <v>34.95377850232391</v>
+        <v>34.95367433251641</v>
       </c>
       <c r="D183">
-        <v>2476.75622181521</v>
+        <v>2476.748840546863</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C184">
-        <v>33.82157837751259</v>
+        <v>33.82152166429918</v>
       </c>
       <c r="D184">
-        <v>2461.357144189241</v>
+        <v>2461.353016898922</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>123.3733294809078</v>
       </c>
       <c r="C185">
-        <v>32.73465865186436</v>
+        <v>32.73468619635366</v>
       </c>
       <c r="D185">
-        <v>2446.051577200153</v>
+        <v>2446.053635423585</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>126.6425204377825</v>
       </c>
       <c r="C186">
-        <v>31.69176819740114</v>
+        <v>31.6918305860985</v>
       </c>
       <c r="D186">
-        <v>2430.874424957945</v>
+        <v>2430.879210399006</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9908,10 +9908,10 @@
         <v>129.9617033958849</v>
       </c>
       <c r="C187">
-        <v>30.69156087849453</v>
+        <v>30.6916572677538</v>
       </c>
       <c r="D187">
-        <v>2415.855083619143</v>
+        <v>2415.862670801918</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9922,10 +9922,10 @@
         <v>133.329324815715</v>
       </c>
       <c r="C188">
-        <v>29.73258749671692</v>
+        <v>29.73271849999533</v>
       </c>
       <c r="D188">
-        <v>2401.015114248389</v>
+        <v>2401.025693241943</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9936,10 +9936,10 @@
         <v>136.7438141687725</v>
       </c>
       <c r="C189">
-        <v>28.81337128565538</v>
+        <v>28.81350452722143</v>
       </c>
       <c r="D189">
-        <v>2386.372707600325</v>
+        <v>2386.383742894793</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9950,10 +9950,10 @@
         <v>140.2035850708223</v>
       </c>
       <c r="C190">
-        <v>27.93239430946468</v>
+        <v>27.93250536153091</v>
       </c>
       <c r="D190">
-        <v>2371.940505263011</v>
+        <v>2371.949935492699</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9964,10 +9964,10 @@
         <v>143.7070364301008</v>
       </c>
       <c r="C191">
-        <v>27.08814731806315</v>
+        <v>27.08821922908209</v>
       </c>
       <c r="D191">
-        <v>2357.728778251883</v>
+        <v>2357.735037324417</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9978,10 +9978,10 @@
         <v>147.2525536093848</v>
       </c>
       <c r="C192">
-        <v>26.2791270590549</v>
+        <v>26.27915956740803</v>
       </c>
       <c r="D192">
-        <v>2343.744565927499</v>
+        <v>2343.74746523522</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>150.8385096007951</v>
       </c>
       <c r="C193">
-        <v>25.50384980179983</v>
+        <v>25.50386075693897</v>
       </c>
       <c r="D193">
-        <v>2329.992285782333</v>
+        <v>2329.993286626906</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -10006,10 +10006,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C194">
-        <v>24.76087456993344</v>
+        <v>24.76088275130392</v>
       </c>
       <c r="D194">
-        <v>2316.475454058986</v>
+        <v>2316.476219457795</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>158.125175263539</v>
       </c>
       <c r="C195">
-        <v>24.04879146830699</v>
+        <v>24.04881475345579</v>
       </c>
       <c r="D195">
-        <v>2303.195402182735</v>
+        <v>2303.197632242724</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -10034,10 +10034,10 @@
         <v>161.8225797930889</v>
       </c>
       <c r="C196">
-        <v>23.36623525172299</v>
+        <v>23.36627806841593</v>
       </c>
       <c r="D196">
-        <v>2290.152347538351</v>
+        <v>2290.156544053058</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -10048,10 +10048,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C197">
-        <v>22.71189348010742</v>
+        <v>22.71193895110343</v>
       </c>
       <c r="D197">
-        <v>2277.346138252793</v>
+        <v>2277.350697678773</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C198">
-        <v>22.08449811415708</v>
+        <v>22.08454757295003</v>
       </c>
       <c r="D198">
-        <v>2264.775447705407</v>
+        <v>2264.780519727391</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -10076,10 +10076,10 @@
         <v>173.1110904219307</v>
       </c>
       <c r="C199">
-        <v>21.48282992546365</v>
+        <v>21.48288443357774</v>
       </c>
       <c r="D199">
-        <v>2252.438234414809</v>
+        <v>2252.443949498002</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>176.9337741896295</v>
       </c>
       <c r="C200">
-        <v>20.90572345391048</v>
+        <v>20.90578044155773</v>
       </c>
       <c r="D200">
-        <v>2240.332355991164</v>
+        <v>2240.338462991972</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -10104,10 +10104,10 @@
         <v>180.7835795474953</v>
       </c>
       <c r="C201">
-        <v>20.35206418923149</v>
+        <v>20.35211882927394</v>
       </c>
       <c r="D201">
-        <v>2228.455435190057</v>
+        <v>2228.46141801806</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>184.6588224866493</v>
       </c>
       <c r="C202">
-        <v>19.82078446724064</v>
+        <v>19.82083344372179</v>
       </c>
       <c r="D202">
-        <v>2216.80457654406</v>
+        <v>2216.810054192421</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -10132,10 +10132,10 @@
         <v>188.5578187875752</v>
       </c>
       <c r="C203">
-        <v>19.31086443035487</v>
+        <v>19.31090696676918</v>
       </c>
       <c r="D203">
-        <v>2205.376635112868</v>
+        <v>2205.381492938608</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -10146,10 +10146,10 @@
         <v>192.4788852449205</v>
       </c>
       <c r="C204">
-        <v>18.82133245125078</v>
+        <v>18.82136909197079</v>
       </c>
       <c r="D204">
-        <v>2194.168465956174</v>
+        <v>2194.172737487567</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -10160,10 +10160,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C205">
-        <v>18.35126268575234</v>
+        <v>18.35129468040788</v>
       </c>
       <c r="D205">
-        <v>2183.176866600493</v>
+        <v>2183.180672877642</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -10174,10 +10174,10 @@
         <v>200.3805081912935</v>
       </c>
       <c r="C206">
-        <v>17.8997725730458</v>
+        <v>17.89980191405231</v>
       </c>
       <c r="D206">
-        <v>2172.398504995435</v>
+        <v>2172.402065954572</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -10188,10 +10188,10 @@
         <v>204.3577142851372</v>
       </c>
       <c r="C207">
-        <v>17.4660214446261</v>
+        <v>17.46605046175221</v>
       </c>
       <c r="D207">
-        <v>2161.829973821281</v>
+        <v>2161.833565371491</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -10202,10 +10202,10 @@
         <v>208.3502921449036</v>
       </c>
       <c r="C208">
-        <v>17.04920916721172</v>
+        <v>17.04923967002867</v>
       </c>
       <c r="D208">
-        <v>2151.4678523881</v>
+        <v>2151.47170158893</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -10216,10 +10216,10 @@
         <v>212.3565817768141</v>
       </c>
       <c r="C209">
-        <v>16.64857439119122</v>
+        <v>16.64860678840018</v>
       </c>
       <c r="D209">
-        <v>2141.308720005963</v>
+        <v>2141.312886874814</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -10230,10 +10230,10 @@
         <v>216.3749313866266</v>
       </c>
       <c r="C210">
-        <v>16.26339273584912</v>
+        <v>16.26342535809496</v>
       </c>
       <c r="D210">
-        <v>2131.349155984939</v>
+        <v>2131.353431193518</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -10244,10 +10244,10 @@
         <v>220.4036985333858</v>
       </c>
       <c r="C211">
-        <v>15.89297529315015</v>
+        <v>15.8930074817879</v>
       </c>
       <c r="D211">
-        <v>2121.585774622408</v>
+        <v>2121.590071549489</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -10258,10 +10258,10 @@
         <v>224.4412512658594</v>
       </c>
       <c r="C212">
-        <v>15.53666608789798</v>
+        <v>15.53669852188019</v>
       </c>
       <c r="D212">
-        <v>2112.015114005999</v>
+        <v>2112.019522999554</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -10272,10 +10272,10 @@
         <v>228.4859692398809</v>
       </c>
       <c r="C213">
-        <v>15.19384174409275</v>
+        <v>15.19387473010469</v>
       </c>
       <c r="D213">
-        <v>2102.633809132899</v>
+        <v>2102.638373976017</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -10286,10 +10286,10 @@
         <v>232.5362448148088</v>
       </c>
       <c r="C214">
-        <v>14.86390974747224</v>
+        <v>14.86394300645834</v>
       </c>
       <c r="D214">
-        <v>2093.438577454417</v>
+        <v>2093.443261662389</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>236.5904841273564</v>
       </c>
       <c r="C215">
-        <v>14.54630631476888</v>
+        <v>14.5463393622695</v>
       </c>
       <c r="D215">
-        <v>2084.426136421862</v>
+        <v>2084.430871993391</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -10314,10 +10314,10 @@
         <v>240.647108141055</v>
       </c>
       <c r="C216">
-        <v>14.24049495609404</v>
+        <v>14.24052745060313</v>
       </c>
       <c r="D216">
-        <v>2075.593203486544</v>
+        <v>2075.597939654944</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>244.7045536696592</v>
       </c>
       <c r="C217">
-        <v>13.94596568574283</v>
+        <v>13.94599716316032</v>
       </c>
       <c r="D217">
-        <v>2066.936582804829</v>
+        <v>2066.94124808418</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>248.7612743728313</v>
       </c>
       <c r="C218">
-        <v>13.66223242648979</v>
+        <v>13.66226329242565</v>
       </c>
       <c r="D218">
-        <v>2058.452978979267</v>
+        <v>2058.457629469438</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>252.8157417225045</v>
       </c>
       <c r="C219">
-        <v>13.38883403668496</v>
+        <v>13.38886425750041</v>
       </c>
       <c r="D219">
-        <v>2050.139337246297</v>
+        <v>2050.14396475026</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -10370,10 +10370,10 @@
         <v>256.8664459383542</v>
       </c>
       <c r="C220">
-        <v>13.12533161877752</v>
+        <v>13.12536089182007</v>
       </c>
       <c r="D220">
-        <v>2041.992629421065</v>
+        <v>2041.997183617398</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>260.9118968908909</v>
       </c>
       <c r="C221">
-        <v>12.87130721200724</v>
+        <v>12.87133529077438</v>
       </c>
       <c r="D221">
-        <v>2034.009827318718</v>
+        <v>2034.014264512808</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -10398,10 +10398,10 @@
         <v>264.9506249707349</v>
       </c>
       <c r="C222">
-        <v>12.62636289362662</v>
+        <v>12.6263897171231</v>
       </c>
       <c r="D222">
-        <v>2026.187930187809</v>
+        <v>2026.192234629655</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -10412,10 +10412,10 @@
         <v>268.9811819227081</v>
       </c>
       <c r="C223">
-        <v>12.39011980541951</v>
+        <v>12.39014556201569</v>
       </c>
       <c r="D223">
-        <v>2018.523973802207</v>
+        <v>2018.528169912308</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -10426,10 +10426,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C224">
-        <v>12.16221709319375</v>
+        <v>12.1622423593748</v>
       </c>
       <c r="D224">
-        <v>2011.015017309052</v>
+        <v>2011.019195056344</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -10440,10 +10440,10 @@
         <v>277.0121009414551</v>
       </c>
       <c r="C225">
-        <v>11.94231201373202</v>
+        <v>11.94233685138421</v>
       </c>
       <c r="D225">
-        <v>2003.658316294667</v>
+        <v>2003.662483508545</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>281.0096802580939</v>
       </c>
       <c r="C226">
-        <v>11.73007783056742</v>
+        <v>11.73010210282552</v>
       </c>
       <c r="D226">
-        <v>1996.451126345376</v>
+        <v>1996.455257466903</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>284.9935243491361</v>
       </c>
       <c r="C227">
-        <v>11.52520299723222</v>
+        <v>11.52522666203105</v>
       </c>
       <c r="D227">
-        <v>1989.390703047503</v>
+        <v>1989.394787880611</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -10482,10 +10482,10 @@
         <v>288.9623029253084</v>
       </c>
       <c r="C228">
-        <v>11.32739139707958</v>
+        <v>11.32741376625804</v>
       </c>
       <c r="D228">
-        <v>1982.474479486436</v>
+        <v>1982.478394450074</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -10496,10 +10496,10 @@
         <v>292.9147112513795</v>
       </c>
       <c r="C229">
-        <v>11.13635872637683</v>
+        <v>11.13638058933957</v>
       </c>
       <c r="D229">
-        <v>1975.699566922282</v>
+        <v>1975.7034456269</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -10510,10 +10510,10 @@
         <v>296.8494707029504</v>
       </c>
       <c r="C230">
-        <v>10.95183526390084</v>
+        <v>10.95185752952564</v>
       </c>
       <c r="D230">
-        <v>1969.063355410348</v>
+        <v>1969.067358613905</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>300.7653292803427</v>
       </c>
       <c r="C231">
-        <v>10.77356473628295</v>
+        <v>10.77358753549421</v>
       </c>
       <c r="D231">
-        <v>1962.563446153086</v>
+        <v>1962.567599365111</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>304.661062079085</v>
       </c>
       <c r="C232">
-        <v>10.60130247847243</v>
+        <v>10.60132546858181</v>
       </c>
       <c r="D232">
-        <v>1956.197440352945</v>
+        <v>1956.201682585747</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -10552,10 +10552,10 @@
         <v>308.5354717165985</v>
       </c>
       <c r="C233">
-        <v>10.43481484992134</v>
+        <v>10.43483734338207</v>
       </c>
       <c r="D233">
-        <v>1949.962939212377</v>
+        <v>1949.967142584976</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>312.3873887148044</v>
       </c>
       <c r="C234">
-        <v>10.27387868159176</v>
+        <v>10.27389976933831</v>
       </c>
       <c r="D234">
-        <v>1943.857543933833</v>
+        <v>1943.86153381696</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -10580,10 +10580,10 @@
         <v>316.2156718384866</v>
       </c>
       <c r="C235">
-        <v>10.11828075219723</v>
+        <v>10.11830010364552</v>
       </c>
       <c r="D235">
-        <v>1937.878855719762</v>
+        <v>1937.882561958342</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -10594,10 +10594,10 @@
         <v>320.0192083893519</v>
       </c>
       <c r="C236">
-        <v>9.967818279266808</v>
+        <v>9.967835354099837</v>
       </c>
       <c r="D236">
-        <v>1932.024667100651</v>
+        <v>1932.027976651214</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -10608,10 +10608,10 @@
         <v>323.7969144558571</v>
       </c>
       <c r="C237">
-        <v>9.822296064918721</v>
+        <v>9.822311664840738</v>
       </c>
       <c r="D237">
-        <v>1926.292505606214</v>
+        <v>1926.295564973665</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -10622,10 +10622,10 @@
         <v>327.5477351189684</v>
       </c>
       <c r="C238">
-        <v>9.681528890266168</v>
+        <v>9.681543863208816</v>
       </c>
       <c r="D238">
-        <v>1920.68018101697</v>
+        <v>1920.683151439773</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -10636,10 +10636,10 @@
         <v>331.2706446141489</v>
       </c>
       <c r="C239">
-        <v>9.545340340483865</v>
+        <v>9.545355030938538</v>
       </c>
       <c r="D239">
-        <v>1915.185650493605</v>
+        <v>1915.188597999612</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -10650,10 +10650,10 @@
         <v>334.9646464499609</v>
       </c>
       <c r="C240">
-        <v>9.413561642190748</v>
+        <v>9.413576098360886</v>
       </c>
       <c r="D240">
-        <v>1909.806871196811</v>
+        <v>1909.809804039247</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>338.628773483797</v>
       </c>
       <c r="C241">
-        <v>9.286031291030321</v>
+        <v>9.286045460356938</v>
       </c>
       <c r="D241">
-        <v>1904.541800287273</v>
+        <v>1904.544706380735</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -10678,10 +10678,10 @@
         <v>342.2620879553367</v>
       </c>
       <c r="C242">
-        <v>9.162594698816923</v>
+        <v>9.162608612869018</v>
       </c>
       <c r="D242">
-        <v>1899.38839492568</v>
+        <v>1899.391279282126</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -10692,10 +10692,10 @@
         <v>345.8636814784477</v>
       </c>
       <c r="C243">
-        <v>9.04310385919052</v>
+        <v>9.043117808837851</v>
       </c>
       <c r="D243">
-        <v>1894.344612272721</v>
+        <v>1894.347534437465</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -10706,10 +10706,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C244">
-        <v>8.92741790174307</v>
+        <v>8.927431732494473</v>
       </c>
       <c r="D244">
-        <v>1889.408593821269</v>
+        <v>1889.411520976786</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C245">
-        <v>8.815400623124752</v>
+        <v>8.815415190993125</v>
       </c>
       <c r="D245">
-        <v>1884.578211111083</v>
+        <v>1884.581325466118</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C246">
-        <v>8.706922896998426</v>
+        <v>8.706938822426226</v>
       </c>
       <c r="D246">
-        <v>1879.851633558272</v>
+        <v>1879.855071907482</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C247">
-        <v>8.601861430367109</v>
+        <v>8.601878819315077</v>
       </c>
       <c r="D247">
-        <v>1875.227130905097</v>
+        <v>1875.230921738892</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>363.3660880792924</v>
       </c>
       <c r="C248">
-        <v>8.500098032870842</v>
+        <v>8.500116666719773</v>
       </c>
       <c r="D248">
-        <v>1870.702972893817</v>
+        <v>1870.707073834355</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -10776,10 +10776,10 @@
         <v>366.7599136665034</v>
       </c>
       <c r="C249">
-        <v>8.401519377994141</v>
+        <v>8.401538894159625</v>
       </c>
       <c r="D249">
-        <v>1866.277429266692</v>
+        <v>1866.281764503869</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10790,10 +10790,10 @@
         <v>370.1164730856487</v>
       </c>
       <c r="C250">
-        <v>8.30601677654823</v>
+        <v>8.306036840580184</v>
       </c>
       <c r="D250">
-        <v>1861.948769765982</v>
+        <v>1861.953267493427</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10804,10 +10804,10 @@
         <v>373.4350879721127</v>
       </c>
       <c r="C251">
-        <v>8.213485961761879</v>
+        <v>8.2135064316463</v>
       </c>
       <c r="D251">
-        <v>1857.715264133945</v>
+        <v>1857.719893985012</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>376.715107553764</v>
       </c>
       <c r="C252">
-        <v>8.12382765498063</v>
+        <v>8.123847968680771</v>
       </c>
       <c r="D252">
-        <v>1853.575357715656</v>
+        <v>1853.579992596602</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>379.9559082852275</v>
       </c>
       <c r="C253">
-        <v>8.036945405429663</v>
+        <v>8.036965928607085</v>
       </c>
       <c r="D253">
-        <v>1849.527226421701</v>
+        <v>1849.531949382167</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10846,10 +10846,10 @@
         <v>383.1568934536982</v>
       </c>
       <c r="C254">
-        <v>7.95274792351672</v>
+        <v>7.952768774290862</v>
       </c>
       <c r="D254">
-        <v>1845.569349057697</v>
+        <v>1845.574187831669</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10860,10 +10860,10 @@
         <v>386.3174927578165</v>
       </c>
       <c r="C255">
-        <v>7.871147831684974</v>
+        <v>7.871168774709227</v>
       </c>
       <c r="D255">
-        <v>1841.700268598039</v>
+        <v>1841.705168871063</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>389.4371618611554</v>
       </c>
       <c r="C256">
-        <v>7.792061217833712</v>
+        <v>7.792081834409868</v>
       </c>
       <c r="D256">
-        <v>1837.918528017122</v>
+        <v>1837.923390862298</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10888,10 +10888,10 @@
         <v>392.5153819218946</v>
       </c>
       <c r="C257">
-        <v>7.71540748060173</v>
+        <v>7.715427331752243</v>
       </c>
       <c r="D257">
-        <v>1834.222670289343</v>
+        <v>1834.227389603312</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10902,10 +10902,10 @@
         <v>395.5516591002701</v>
       </c>
       <c r="C258">
-        <v>7.641109182368385</v>
+        <v>7.641127965452448</v>
       </c>
       <c r="D258">
-        <v>1830.611238389098</v>
+        <v>1830.615738328041</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10916,10 +10916,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C259">
-        <v>7.569091909560147</v>
+        <v>7.569109608980771</v>
       </c>
       <c r="D259">
-        <v>1827.082775290782</v>
+        <v>1827.087047706409</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C260">
-        <v>7.499284341872244</v>
+        <v>7.499301172386639</v>
       </c>
       <c r="D260">
-        <v>1823.635873089824</v>
+        <v>1823.639965844334</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10944,10 +10944,10 @@
         <v>404.4042590660648</v>
       </c>
       <c r="C261">
-        <v>7.43161831247881</v>
+        <v>7.43163447115017</v>
       </c>
       <c r="D261">
-        <v>1820.269220446972</v>
+        <v>1820.273178283729</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10958,10 +10958,10 @@
         <v>407.2683080088374</v>
       </c>
       <c r="C262">
-        <v>7.36602830441401</v>
+        <v>7.366044101682564</v>
       </c>
       <c r="D262">
-        <v>1816.981511283165</v>
+        <v>1816.985408002497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Output/Ergebnisse.xlsx
+++ b/Code/Output/Ergebnisse.xlsx
@@ -906,787 +906,787 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="0">
-                  <c:v>1.088759781086738</c:v>
+                  <c:v>0.9786355433564358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.095124289299665</c:v>
+                  <c:v>0.9843241682304766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.101712736381529</c:v>
+                  <c:v>0.9902128503426524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.108530801436664</c:v>
+                  <c:v>0.9963066563797774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.11558440604138</c:v>
+                  <c:v>1.002610869229481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.122879725605705</c:v>
+                  <c:v>1.009130998165976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.130423199052752</c:v>
+                  <c:v>1.015872787471786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.138221538998511</c:v>
+                  <c:v>1.022842225504937</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.146281742457988</c:v>
+                  <c:v>1.03004555423483</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.154611102105073</c:v>
+                  <c:v>1.037489279271114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.163217218115127</c:v>
+                  <c:v>1.045180180411398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.172108078224589</c:v>
+                  <c:v>1.053125387928188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.181292035377312</c:v>
+                  <c:v>1.061332379660862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.190777639522464</c:v>
+                  <c:v>1.069808776442467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.200573810072033</c:v>
+                  <c:v>1.07856252635437</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.210689855472231</c:v>
+                  <c:v>1.08760192509139</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.221135489603333</c:v>
+                  <c:v>1.096935630583586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231920849055033</c:v>
+                  <c:v>1.106572678399499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.243056511325874</c:v>
+                  <c:v>1.116522497974189</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.254553513998317</c:v>
+                  <c:v>1.126794929708086</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.26642337494421</c:v>
+                  <c:v>1.137400242985524</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.278678113618793</c:v>
+                  <c:v>1.148349155164849</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.291330273504981</c:v>
+                  <c:v>1.159652851595207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.304392945773524</c:v>
+                  <c:v>1.171323006718553</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.31787979422867</c:v>
+                  <c:v>1.183371806319051</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.331805081613333</c:v>
+                  <c:v>1.195811970985886</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.34618369735235</c:v>
+                  <c:v>1.208656780859668</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.361031186817318</c:v>
+                  <c:v>1.221920101736928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.376363782201701</c:v>
+                  <c:v>1.235616412611888</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.39219843510043</c:v>
+                  <c:v>1.249760834739615</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.408552850894103</c:v>
+                  <c:v>1.264369162309921</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.42544552504415</c:v>
+                  <c:v>1.279457894826952</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.442895781411919</c:v>
+                  <c:v>1.295044271295327</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.460923812721774</c:v>
+                  <c:v>1.311146306320006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.479550723295662</c:v>
+                  <c:v>1.327782828233696</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.498798574194655</c:v>
+                  <c:v>1.344973519372755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.518690430911328</c:v>
+                  <c:v>1.362738958630038</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.539250413765775</c:v>
+                  <c:v>1.381100666421091</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.560503751167524</c:v>
+                  <c:v>1.400081152208579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.582476835915656</c:v>
+                  <c:v>1.419703964738754</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.60519728471995</c:v>
+                  <c:v>1.439993745153227</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.628694001137169</c:v>
+                  <c:v>1.460976283149309</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.652997242128345</c:v>
+                  <c:v>1.482678576372774</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.67813885254552</c:v>
+                  <c:v>1.505128893237972</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.704152400868386</c:v>
+                  <c:v>1.528356871483161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.731072746833026</c:v>
+                  <c:v>1.552393911227355</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.75893644172217</c:v>
+                  <c:v>1.577272698657157</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.787781830995917</c:v>
+                  <c:v>1.603027423515561</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.817649150519185</c:v>
+                  <c:v>1.629693963556607</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.848580628495556</c:v>
+                  <c:v>1.657309975553971</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.880620593453149</c:v>
+                  <c:v>1.685914991718301</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.913815588647798</c:v>
+                  <c:v>1.715550521850026</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.948214493269156</c:v>
+                  <c:v>1.746260161572607</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.983868650856391</c:v>
+                  <c:v>1.778089707010029</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.020832005351736</c:v>
+                  <c:v>1.811087276291752</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.059161245242269</c:v>
+                  <c:v>1.84530343828808</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.098915956262715</c:v>
+                  <c:v>1.880791348999129</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.140158783154728</c:v>
+                  <c:v>1.917606896040806</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.18295560100059</c:v>
+                  <c:v>1.955808851691496</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.227375696671551</c:v>
+                  <c:v>1.995459034983104</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.273491960952506</c:v>
+                  <c:v>2.036622483339475</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.321381091925181</c:v>
+                  <c:v>2.079367634283607</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.371123810210754</c:v>
+                  <c:v>2.12376651775203</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.422805086689454</c:v>
+                  <c:v>2.169894959569729</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.476514383328169</c:v>
+                  <c:v>2.217832796651246</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.532345907756845</c:v>
+                  <c:v>2.267664104502551</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.590398882239009</c:v>
+                  <c:v>2.31947743760258</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.650777827680311</c:v>
+                  <c:v>2.373366083242344</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.713592863309449</c:v>
+                  <c:v>2.429428329391313</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.778960022646975</c:v>
+                  <c:v>2.487767747144289</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.847001586346675</c:v>
+                  <c:v>2.548493488274825</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.917846432449274</c:v>
+                  <c:v>2.611720598381579</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.991630404525996</c:v>
+                  <c:v>2.677570275861814</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.068496698106593</c:v>
+                  <c:v>2.74616908317467</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.148596265678895</c:v>
+                  <c:v>2.81765191399642</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.232087364218481</c:v>
+                  <c:v>2.892161461153041</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.31913621457276</c:v>
+                  <c:v>2.969847883364323</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.409920368513462</c:v>
+                  <c:v>3.050869192983081</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.504626656313431</c:v>
+                  <c:v>3.135391657089428</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.603451543367046</c:v>
+                  <c:v>3.223590210944288</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.706601597038095</c:v>
+                  <c:v>3.315648882437396</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.814293962733831</c:v>
+                  <c:v>3.411761225724578</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.926756846484963</c:v>
+                  <c:v>3.512130761725657</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.044230000607179</c:v>
+                  <c:v>3.616971422534806</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.166965208191203</c:v>
+                  <c:v>3.726507996064993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.295226761196731</c:v>
+                  <c:v>3.840976566390781</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.429291925790428</c:v>
+                  <c:v>3.960624944250567</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.569451387246794</c:v>
+                  <c:v>4.085713081000304</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.716009665197871</c:v>
+                  <c:v>4.216513457952745</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.869285488247016</c:v>
+                  <c:v>4.35331144146566</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.02961211492351</c:v>
+                  <c:v>4.496405592332287</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.197337585618598</c:v>
+                  <c:v>4.646107915950121</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.372824887477835</c:v>
+                  <c:v>4.802743929940322</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.556452011197877</c:v>
+                  <c:v>4.96664184911111</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.748609422502507</c:v>
+                  <c:v>5.138148986354842</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.94968175024829</c:v>
+                  <c:v>5.317631628908855</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.160089502678749</c:v>
+                  <c:v>5.5054653659352</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.380269275776736</c:v>
+                  <c:v>5.702034035516725</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.610664692872954</c:v>
+                  <c:v>5.907728374718677</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.851724384807406</c:v>
+                  <c:v>6.122944325699848</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.103899509451411</c:v>
+                  <c:v>6.348080945610706</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.367640744442889</c:v>
+                  <c:v>6.583537862635234</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.643394680961163</c:v>
+                  <c:v>6.829712215165696</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.93159954062953</c:v>
+                  <c:v>7.086995005950981</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.232680132506275</c:v>
+                  <c:v>7.355766798404392</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.547041963027382</c:v>
+                  <c:v>7.636392678455611</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.875064409229459</c:v>
+                  <c:v>7.929216402841725</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.217092865276308</c:v>
+                  <c:v>8.234553654128966</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.573429775047321</c:v>
+                  <c:v>8.552684324740406</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>9.944324470293157</c:v>
+                  <c:v>8.883843757678909</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>10.32996174575654</c:v>
+                  <c:v>9.228202067922187</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>10.73044912098691</c:v>
+                  <c:v>9.585833307345185</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>11.1458027647684</c:v>
+                  <c:v>9.956743813686984</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11.57593209364607</c:v>
+                  <c:v>10.34083497996406</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.02058912309371</c:v>
+                  <c:v>10.73788503739502</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>12.47934783704929</c:v>
+                  <c:v>11.14753147143587</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>12.95162530990211</c:v>
+                  <c:v>11.56925250045541</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13.4366390107774</c:v>
+                  <c:v>12.00234789138015</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>13.93338501069353</c:v>
+                  <c:v>12.44591948583134</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>14.4406164093854</c:v>
+                  <c:v>12.89885192204602</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>14.95682265865642</c:v>
+                  <c:v>13.35979415960995</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>15.4802106036361</c:v>
+                  <c:v>13.82714254131924</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>16.00868820468443</c:v>
+                  <c:v>14.29902625281365</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>16.53985203305371</c:v>
+                  <c:v>14.77329615711008</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.07097974019002</c:v>
+                  <c:v>15.24751812387906</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>17.59902876866878</c:v>
+                  <c:v>15.71897924880566</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>18.12064702598797</c:v>
+                  <c:v>16.18469332429417</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>18.63221593884098</c:v>
+                  <c:v>16.64142326063091</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>19.12986119477269</c:v>
+                  <c:v>17.08571145723954</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19.60949901429694</c:v>
+                  <c:v>17.5139132930585</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20.06689333823592</c:v>
+                  <c:v>17.92174013964866</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20.49772602263837</c:v>
+                  <c:v>18.53257402530745</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>20.8972362563141</c:v>
+                  <c:v>19.57503676678823</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>21.52828108410602</c:v>
+                  <c:v>21.0402186173901</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>22.65525687106201</c:v>
+                  <c:v>22.90109458995758</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>24.26387600633937</c:v>
+                  <c:v>25.11377594699643</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>26.32129504877021</c:v>
+                  <c:v>27.62180817647953</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>28.77809834344786</c:v>
+                  <c:v>30.36488622662729</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>31.5697872517641</c:v>
+                  <c:v>33.28237576730318</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>34.62415191535234</c:v>
+                  <c:v>36.31233366193609</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>37.86445922329422</c:v>
+                  <c:v>39.39110275323434</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>41.213458332579</c:v>
+                  <c:v>42.45723819428968</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44.59510081713482</c:v>
+                  <c:v>45.45292036278322</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>47.93759864069898</c:v>
+                  <c:v>48.32510385486528</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>51.1752430769818</c:v>
+                  <c:v>51.02651530889191</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>54.24952890065754</c:v>
+                  <c:v>53.51638420520161</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>57.11005067946872</c:v>
+                  <c:v>55.76096563047877</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>59.71501263531388</c:v>
+                  <c:v>57.73401321539466</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>62.03163202114592</c:v>
+                  <c:v>59.41686228559647</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>64.03586061522144</c:v>
+                  <c:v>60.79816550606969</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>65.71213290992679</c:v>
+                  <c:v>61.87360620184329</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>67.05301125805904</c:v>
+                  <c:v>62.64546071837693</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>68.05854178714873</c:v>
+                  <c:v>63.12176138675224</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>68.73522924451679</c:v>
+                  <c:v>63.31550625491647</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>69.09590536501754</c:v>
+                  <c:v>63.24448572857627</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>69.15772035202845</c:v>
+                  <c:v>62.929031123283</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>68.94128651818514</c:v>
+                  <c:v>62.39136208196595</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>68.47000403007613</c:v>
+                  <c:v>61.6550579381894</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>67.76941693113362</c:v>
+                  <c:v>60.74457060357165</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>66.8664902811374</c:v>
+                  <c:v>59.68478716644935</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>65.78781463380965</c:v>
+                  <c:v>58.49978872773745</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>64.56023460513211</c:v>
+                  <c:v>57.2122327014935</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>63.20935583290512</c:v>
+                  <c:v>55.84358769969579</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>61.75905336912351</c:v>
+                  <c:v>54.41341196052846</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>60.23141391456372</c:v>
+                  <c:v>52.93936948837857</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>58.64671954213357</c:v>
+                  <c:v>51.43727758816098</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>57.02346569946019</c:v>
+                  <c:v>49.92117879003658</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>55.37826900044057</c:v>
+                  <c:v>48.40329341455032</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>53.72520181163551</c:v>
+                  <c:v>46.89385404263342</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>52.07644726786446</c:v>
+                  <c:v>45.40148753144211</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>50.44231758293082</c:v>
+                  <c:v>43.93332466967172</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>48.83137843136433</c:v>
+                  <c:v>42.49513963541256</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>47.2506139426021</c:v>
+                  <c:v>41.09148610889417</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>45.70558551817646</c:v>
+                  <c:v>39.72582709798948</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>44.20060592050115</c:v>
+                  <c:v>38.40067435839796</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>42.73897124685615</c:v>
+                  <c:v>37.11788368873553</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>41.32280417288771</c:v>
+                  <c:v>35.87840573116792</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>39.95349316745445</c:v>
+                  <c:v>34.68265151164215</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>38.63184282001605</c:v>
+                  <c:v>33.53065754260201</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>37.35814910188374</c:v>
+                  <c:v>32.42213795589896</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>36.13226749848248</c:v>
+                  <c:v>31.35653138319862</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>34.95367433251641</c:v>
+                  <c:v>30.33304287136664</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>33.82152166429918</c:v>
+                  <c:v>29.35068115698763</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32.73468619635366</c:v>
+                  <c:v>28.40829164398195</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>31.6918305860985</c:v>
+                  <c:v>27.50458543503362</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>30.6916572677538</c:v>
+                  <c:v>26.63816476445902</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>29.73271849999533</c:v>
+                  <c:v>25.80765216546969</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>28.81350452722143</c:v>
+                  <c:v>25.01173512837187</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>27.93250536153091</c:v>
+                  <c:v>24.24902500004202</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>27.08821922908209</c:v>
+                  <c:v>23.51815937436049</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>26.27915956740803</c:v>
+                  <c:v>22.81780648721173</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>25.50386075693897</c:v>
+                  <c:v>22.14666828112919</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24.76088275130392</c:v>
+                  <c:v>21.50348270480994</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>24.04881475345579</c:v>
+                  <c:v>20.88702535986521</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>23.36627806841593</c:v>
+                  <c:v>20.29611059368475</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>22.71193895110343</c:v>
+                  <c:v>19.72959212506246</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>22.08454757295003</c:v>
+                  <c:v>19.18636327822809</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>21.48288443357774</c:v>
+                  <c:v>18.66536638393072</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>20.90578044155773</c:v>
+                  <c:v>18.16560078623155</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>20.35211882927394</c:v>
+                  <c:v>17.68609961588019</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>19.82083344372179</c:v>
+                  <c:v>17.22594021601015</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>19.31090696676918</c:v>
+                  <c:v>16.78424285567258</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>18.82136909197079</c:v>
+                  <c:v>16.36016908196575</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>18.35129468040788</c:v>
+                  <c:v>15.95292006143412</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>17.89980191405231</c:v>
+                  <c:v>15.56173492605475</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>17.46605046175221</c:v>
+                  <c:v>15.18588913624214</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>17.04923967002867</c:v>
+                  <c:v>14.82469287084014</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>16.64860678840018</c:v>
+                  <c:v>14.4774894519796</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>16.26342535809496</c:v>
+                  <c:v>14.1436538109115</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>15.8930074817879</c:v>
+                  <c:v>13.82259099943463</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>15.53669852188019</c:v>
+                  <c:v>13.51373475028636</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.19387473010469</c:v>
+                  <c:v>13.21654608882007</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>14.86394300645834</c:v>
+                  <c:v>12.93051229091208</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>14.5463393622695</c:v>
+                  <c:v>12.65514739693977</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>14.24052745060313</c:v>
+                  <c:v>12.38998837573357</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>13.94599716316032</c:v>
+                  <c:v>12.13459454460954</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>13.66226329242565</c:v>
+                  <c:v>11.88854669387357</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.38886425750041</c:v>
+                  <c:v>11.65144599033353</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>13.12536089182007</c:v>
+                  <c:v>11.42291293387264</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>12.87133529077438</c:v>
+                  <c:v>11.20258636540819</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>12.6263897171231</c:v>
+                  <c:v>10.99012252444762</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>12.39014556201569</c:v>
+                  <c:v>10.78519415437882</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>12.1622423593748</c:v>
+                  <c:v>10.58748965358625</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>11.94233685138421</c:v>
+                  <c:v>10.39671227046611</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11.73010210282552</c:v>
+                  <c:v>10.21257934041424</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>11.52522666203105</c:v>
+                  <c:v>10.03482156287886</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>11.32741376625804</c:v>
+                  <c:v>9.863182316600527</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>11.13638058933957</c:v>
+                  <c:v>9.697417011203845</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>10.95185752952564</c:v>
+                  <c:v>9.537292473353835</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10.77358753549421</c:v>
+                  <c:v>9.382586365745926</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>10.60132546858181</c:v>
+                  <c:v>9.233086637257466</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>10.43483734338207</c:v>
+                  <c:v>9.088591002651647</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>10.27389976933831</c:v>
+                  <c:v>8.948906450288847</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10.11830010364552</c:v>
+                  <c:v>8.813848776365603</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9.967835354099837</c:v>
+                  <c:v>8.683242144267098</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.822311664840738</c:v>
+                  <c:v>8.556918667683544</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.681543863208816</c:v>
+                  <c:v>8.434718016205256</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.545355030938538</c:v>
+                  <c:v>8.316487042173376</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.413576098360886</c:v>
+                  <c:v>8.202079427624705</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.286045460356938</c:v>
+                  <c:v>8.091355348646973</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.162608612869018</c:v>
+                  <c:v>7.984180896892436</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9.043117808837851</c:v>
+                  <c:v>7.880428088453531</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8.927431732494473</c:v>
+                  <c:v>7.779974678364439</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.815415190993125</c:v>
+                  <c:v>7.682703700955115</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.706938822426226</c:v>
+                  <c:v>7.588503218490676</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.601878819315077</c:v>
+                  <c:v>7.497266083097442</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.500116666719773</c:v>
+                  <c:v>7.408889711242244</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.401538894159625</c:v>
+                  <c:v>7.32327587007237</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.306036840580184</c:v>
+                  <c:v>7.240330474961752</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.2135064316463</c:v>
+                  <c:v>7.159963397645939</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.123847968680771</c:v>
+                  <c:v>7.082088284362748</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>8.036965928607085</c:v>
+                  <c:v>7.00662238344864</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7.952768774290862</c:v>
+                  <c:v>6.933486381871804</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.871168774709227</c:v>
+                  <c:v>6.862604250212456</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7.792081834409868</c:v>
+                  <c:v>6.79390309562871</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.715427331752243</c:v>
+                  <c:v>6.72731302237262</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.641127965452448</c:v>
+                  <c:v>6.662766999445827</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.569109608980771</c:v>
+                  <c:v>6.600200735007804</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.499301172386639</c:v>
+                  <c:v>6.539552557171658</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.43163447115017</c:v>
+                  <c:v>6.480763300843414</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7.366044101682564</c:v>
+                  <c:v>6.423776200280455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,784 +2611,784 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.4693001373295</c:v>
+                  <c:v>300.459490914819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.9529466120424</c:v>
+                  <c:v>300.9330399895935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301.4511526698265</c:v>
+                  <c:v>301.4208571324586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>301.964137934535</c:v>
+                  <c:v>301.9231585469208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302.4921290030088</c:v>
+                  <c:v>302.4401673413788</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>303.0353594451152</c:v>
+                  <c:v>302.9721135291942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303.5940698037491</c:v>
+                  <c:v>303.5192340286907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304.1685075948318</c:v>
+                  <c:v>304.0817726631547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304.7589273073121</c:v>
+                  <c:v>304.6599801608349</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>305.3655904031656</c:v>
+                  <c:v>305.2541141549426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>305.9887829658768</c:v>
+                  <c:v>305.8644581179938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306.6288059942453</c:v>
+                  <c:v>306.4913166126805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307.2859281776633</c:v>
+                  <c:v>307.1349525890125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>307.9604275427399</c:v>
+                  <c:v>307.79563767252</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>308.6525925037209</c:v>
+                  <c:v>308.4736540579563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309.3627218624883</c:v>
+                  <c:v>309.1692945092981</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310.0911248085605</c:v>
+                  <c:v>309.8828623597458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>310.8381209190924</c:v>
+                  <c:v>310.6146715117228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>311.6040401588754</c:v>
+                  <c:v>311.3650464368761</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>312.3892228803371</c:v>
+                  <c:v>312.134322176076</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>313.1940198235417</c:v>
+                  <c:v>312.9228443394163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>314.0187921161898</c:v>
+                  <c:v>313.7309691062139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>314.8639112736184</c:v>
+                  <c:v>314.5590632250094</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>315.7297591988009</c:v>
+                  <c:v>315.4075040135666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>316.6167281823471</c:v>
+                  <c:v>316.2766793588727</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>317.5252209025032</c:v>
+                  <c:v>317.1669877171385</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>318.455650425152</c:v>
+                  <c:v>318.0788381137976</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>319.4084402038125</c:v>
+                  <c:v>319.0126501435078</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>320.3840240796403</c:v>
+                  <c:v>319.9688539701495</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>321.3828462814272</c:v>
+                  <c:v>320.947890326827</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>322.4053614256016</c:v>
+                  <c:v>321.9502105158678</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>323.4520345162283</c:v>
+                  <c:v>322.9762764088227</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>324.5233409450086</c:v>
+                  <c:v>324.0265604464661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>325.6197664912798</c:v>
+                  <c:v>325.1015456387956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>326.7418073220163</c:v>
+                  <c:v>326.2017255650322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>327.8899699918283</c:v>
+                  <c:v>327.3276043736204</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>329.0647714429628</c:v>
+                  <c:v>328.4796967822278</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>330.266739005303</c:v>
+                  <c:v>329.6585280777458</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>331.4964103963687</c:v>
+                  <c:v>330.8646341162887</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>332.754333721316</c:v>
+                  <c:v>332.0985613231947</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>334.0410674729374</c:v>
+                  <c:v>333.3608666930249</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>335.357180531662</c:v>
+                  <c:v>334.6521177895642</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>336.7032850887393</c:v>
+                  <c:v>335.9728927458205</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>338.0800469511803</c:v>
+                  <c:v>337.3237873490732</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>339.4880827094286</c:v>
+                  <c:v>338.705485053584</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>340.9280243740006</c:v>
+                  <c:v>340.1186337058105</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>342.4005217659748</c:v>
+                  <c:v>341.5638775545124</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>343.9062425169912</c:v>
+                  <c:v>343.0418792479879</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>345.4458720692521</c:v>
+                  <c:v>344.5533198340743</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>347.0201136755211</c:v>
+                  <c:v>346.0988987601476</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>348.6296883991244</c:v>
+                  <c:v>347.679333873123</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>350.2753351139493</c:v>
+                  <c:v>349.295361419454</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>351.9578105044455</c:v>
+                  <c:v>350.9477360451335</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>353.6778890656243</c:v>
+                  <c:v>352.637230795693</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>355.4363631030589</c:v>
+                  <c:v>354.3646371162027</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>357.2340427328845</c:v>
+                  <c:v>356.1307648512723</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>359.0717558817979</c:v>
+                  <c:v>357.9364422450495</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>360.950348287058</c:v>
+                  <c:v>359.7825159412214</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>362.8706834964854</c:v>
+                  <c:v>361.6698509830141</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>364.8336428684627</c:v>
+                  <c:v>363.5993308131921</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>366.8401255719344</c:v>
+                  <c:v>365.571857274059</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>368.8910485864066</c:v>
+                  <c:v>367.5883506074572</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>370.9873467019474</c:v>
+                  <c:v>369.6497494547681</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>373.1299725191869</c:v>
+                  <c:v>371.757010856912</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>375.3198964493168</c:v>
+                  <c:v>373.9111102543476</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>377.558106714091</c:v>
+                  <c:v>376.1130414870731</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>379.8456093458249</c:v>
+                  <c:v>378.3638167946251</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>382.183428187396</c:v>
+                  <c:v>380.6644668160794</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>384.5726048922435</c:v>
+                  <c:v>383.0160405900502</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>387.0141989243687</c:v>
+                  <c:v>385.4196055546911</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>389.5092875583344</c:v>
+                  <c:v>387.8762475476942</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>392.0589658792657</c:v>
+                  <c:v>390.3870605716334</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>394.6643467828491</c:v>
+                  <c:v>392.9529854373706</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>397.3265609753333</c:v>
+                  <c:v>395.5751917309603</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>400.0466485243178</c:v>
+                  <c:v>398.2549334039188</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>402.825595743709</c:v>
+                  <c:v>400.9934437812162</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>405.6646887447258</c:v>
+                  <c:v>403.7919355612771</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>408.5651913407085</c:v>
+                  <c:v>406.65160081598</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>411.528332569681</c:v>
+                  <c:v>409.5736109906579</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>414.5553066943509</c:v>
+                  <c:v>412.5591169040978</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>417.6472732021091</c:v>
+                  <c:v>415.609248748541</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>420.8053568050305</c:v>
+                  <c:v>418.7251160896828</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>424.0306474398734</c:v>
+                  <c:v>421.9078078666729</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>427.3242002680798</c:v>
+                  <c:v>425.1583923921151</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>430.6870356757753</c:v>
+                  <c:v>428.4779173520674</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>434.1201392737692</c:v>
+                  <c:v>431.8674098060419</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>437.6244618975542</c:v>
+                  <c:v>435.3278761870051</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>441.2009196073067</c:v>
+                  <c:v>438.8603023013777</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>444.850393687887</c:v>
+                  <c:v>442.4656533290341</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>448.5737306488388</c:v>
+                  <c:v>446.1448738233036</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>452.3717422243893</c:v>
+                  <c:v>449.8988877109691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>456.2452053734494</c:v>
+                  <c:v>453.7285881429667</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>460.1948622796138</c:v>
+                  <c:v>457.6338347383704</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>464.221222282229</c:v>
+                  <c:v>461.615056662731</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>468.3231641152832</c:v>
+                  <c:v>465.6731919376904</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472.5013743077186</c:v>
+                  <c:v>469.8088281072756</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>476.7566966544961</c:v>
+                  <c:v>474.0222022378987</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>481.0895159304827</c:v>
+                  <c:v>478.3132009183565</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>485.4997578904521</c:v>
+                  <c:v>482.6813602598308</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.9868892690845</c:v>
+                  <c:v>487.1258658958885</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>494.5499177809664</c:v>
+                  <c:v>491.6455529824814</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>499.1873921205909</c:v>
+                  <c:v>496.2389061979462</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>503.8974019623574</c:v>
+                  <c:v>500.9040597430048</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>508.6775779605721</c:v>
+                  <c:v>505.6387973407637</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>513.5250917494473</c:v>
+                  <c:v>510.4405522367148</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>518.4366559431018</c:v>
+                  <c:v>515.3064071987344</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>523.408524135561</c:v>
+                  <c:v>520.2330945170844</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>528.436490900757</c:v>
+                  <c:v>525.216996004411</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>533.5158917925278</c:v>
+                  <c:v>530.2541429957462</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>538.6416033446183</c:v>
+                  <c:v>535.3395890414123</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>543.8080430706797</c:v>
+                  <c:v>540.4663806844427</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>549.0091694642697</c:v>
+                  <c:v>545.6280164472513</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>554.2384819988523</c:v>
+                  <c:v>550.8170796546322</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>559.4874395874006</c:v>
+                  <c:v>556.0251334207645</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>564.7455525405124</c:v>
+                  <c:v>561.2427206492139</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>570.0023522576414</c:v>
+                  <c:v>566.4593640329308</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>575.2463454794631</c:v>
+                  <c:v>571.6635660542521</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>580.465014187894</c:v>
+                  <c:v>576.8428089849001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>585.6448156060916</c:v>
+                  <c:v>581.9835548859828</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>590.7711821984545</c:v>
+                  <c:v>587.0712456079939</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>595.8285216706222</c:v>
+                  <c:v>592.0903027908129</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>600.8002169694754</c:v>
+                  <c:v>597.0241278637048</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>605.6686262831356</c:v>
+                  <c:v>601.8551020453207</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>610.4150830409656</c:v>
+                  <c:v>606.5645882269215</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>615.0198959135688</c:v>
+                  <c:v>611.1332167780674</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>619.4625006171293</c:v>
+                  <c:v>615.5408497839859</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>623.7223840935288</c:v>
+                  <c:v>619.7668923197984</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>627.7785186819791</c:v>
+                  <c:v>623.7905403337145</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>631.6096745944674</c:v>
+                  <c:v>627.5907806470314</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>635.1947052903511</c:v>
+                  <c:v>631.1287840096965</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>638.5128839152192</c:v>
+                  <c:v>642.2599025466069</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>641.5306904217025</c:v>
+                  <c:v>668.5628737469009</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>652.3227409825686</c:v>
+                  <c:v>709.2747452583892</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>678.6360529665919</c:v>
+                  <c:v>763.1945538346147</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>719.7147856917877</c:v>
+                  <c:v>828.7496287544132</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>774.4285554102702</c:v>
+                  <c:v>904.1433541531936</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>841.3406548112741</c:v>
+                  <c:v>987.6260252232519</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>918.7452471789488</c:v>
+                  <c:v>1077.578343046194</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1004.861074587079</c:v>
+                  <c:v>1172.444040889414</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1097.890381259766</c:v>
+                  <c:v>1270.680733975302</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1196.095723261955</c:v>
+                  <c:v>1370.849265072084</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1297.808458336038</c:v>
+                  <c:v>1471.622186876933</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1401.477267507789</c:v>
+                  <c:v>1571.786894983622</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1505.684636544056</c:v>
+                  <c:v>1670.248537219799</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1609.148845650885</c:v>
+                  <c:v>1766.030071939213</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1710.726106457951</c:v>
+                  <c:v>1858.272106539487</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1809.408775735252</c:v>
+                  <c:v>1946.238214571033</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1904.328171936445</c:v>
+                  <c:v>2029.314614932384</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1994.744294574933</c:v>
+                  <c:v>2107.004876905811</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2080.042894242575</c:v>
+                  <c:v>2178.929810396731</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2159.735472609689</c:v>
+                  <c:v>2244.827465933704</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2233.455335183861</c:v>
+                  <c:v>2304.543052877912</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2300.944836423579</c:v>
+                  <c:v>2358.022744370521</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2362.074723845831</c:v>
+                  <c:v>2405.332230242724</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2416.802343561457</c:v>
+                  <c:v>2446.597874478467</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2465.166134306509</c:v>
+                  <c:v>2482.003336064019</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2507.285627442247</c:v>
+                  <c:v>2511.78956898797</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2543.361446955141</c:v>
+                  <c:v>2536.254822241232</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2573.670544517976</c:v>
+                  <c:v>2555.754639817036</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2598.516136244665</c:v>
+                  <c:v>2570.664145412253</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2618.265427107049</c:v>
+                  <c:v>2581.359858366193</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2633.302647001831</c:v>
+                  <c:v>2588.235608398315</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2644.014602339447</c:v>
+                  <c:v>2591.673346252072</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2650.790676044073</c:v>
+                  <c:v>2592.04313947775</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2654.022827553616</c:v>
+                  <c:v>2589.70317243247</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2654.105592819724</c:v>
+                  <c:v>2584.999746280187</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2651.429491658414</c:v>
+                  <c:v>2578.259954435669</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2646.34401383283</c:v>
+                  <c:v>2569.775927113489</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2639.180388397963</c:v>
+                  <c:v>2559.816852334168</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2630.245056856048</c:v>
+                  <c:v>2548.627327487694</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2619.81761446886</c:v>
+                  <c:v>2536.427301457576</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2608.150810257714</c:v>
+                  <c:v>2523.412074620841</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2595.470547003461</c:v>
+                  <c:v>2509.75229884804</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2581.977241793667</c:v>
+                  <c:v>2495.595091911324</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2567.85145384321</c:v>
+                  <c:v>2481.076320418877</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2553.237050739689</c:v>
+                  <c:v>2466.298133370266</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2538.25994407216</c:v>
+                  <c:v>2451.346576404454</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2523.031934772644</c:v>
+                  <c:v>2436.298382542469</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2507.650713116126</c:v>
+                  <c:v>2421.220972187395</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2492.19985872056</c:v>
+                  <c:v>2406.172453124376</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2476.748840546863</c:v>
+                  <c:v>2391.201620520618</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2461.353016898922</c:v>
+                  <c:v>2376.347956925384</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2446.053635423585</c:v>
+                  <c:v>2361.641632269999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2430.879210399006</c:v>
+                  <c:v>2347.103503867846</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2415.862670801918</c:v>
+                  <c:v>2332.74511641437</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2401.025693241943</c:v>
+                  <c:v>2318.578314551152</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2386.383742894793</c:v>
+                  <c:v>2304.618816495852</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2371.949935492699</c:v>
+                  <c:v>2290.872892165471</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2357.735037324417</c:v>
+                  <c:v>2277.345669740072</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2343.74746523522</c:v>
+                  <c:v>2264.041174026124</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2329.993286626906</c:v>
+                  <c:v>2250.962326456499</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2316.476219457795</c:v>
+                  <c:v>2238.110945090477</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2303.197632242724</c:v>
+                  <c:v>2225.487744613743</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2290.156544053058</c:v>
+                  <c:v>2213.092336338386</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2277.350697678773</c:v>
+                  <c:v>2200.923228202905</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2264.780519727391</c:v>
+                  <c:v>2188.977824772201</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2252.443949498002</c:v>
+                  <c:v>2177.253534547856</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2240.338462991972</c:v>
+                  <c:v>2165.748889803947</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2228.46141801806</c:v>
+                  <c:v>2154.461021253545</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2216.810054192421</c:v>
+                  <c:v>2143.386991609211</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2205.381492938608</c:v>
+                  <c:v>2132.523833458424</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2194.172737487567</c:v>
+                  <c:v>2121.868549263578</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2183.180672877642</c:v>
+                  <c:v>2111.418111361987</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2172.402065954572</c:v>
+                  <c:v>2101.169461965879</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2161.833565371491</c:v>
+                  <c:v>2091.119513162401</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2151.47170158893</c:v>
+                  <c:v>2081.265146913617</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2141.312886874814</c:v>
+                  <c:v>2071.603215056507</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2131.353431193518</c:v>
+                  <c:v>2062.130539302968</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2121.590071549489</c:v>
+                  <c:v>2052.843911239815</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2112.019522999554</c:v>
+                  <c:v>2043.740092328781</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2102.638373976017</c:v>
+                  <c:v>2034.815813906512</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2093.443261662389</c:v>
+                  <c:v>2026.067823170584</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2084.430871993391</c:v>
+                  <c:v>2017.493173519735</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2075.597939654944</c:v>
+                  <c:v>2009.088830285523</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2066.94124808418</c:v>
+                  <c:v>2000.851761798569</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2058.457629469438</c:v>
+                  <c:v>1992.778981815303</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2050.14396475026</c:v>
+                  <c:v>1984.867549517964</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2041.997183617398</c:v>
+                  <c:v>1977.114569514602</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2034.014264512808</c:v>
+                  <c:v>1969.517191839078</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2026.192234629655</c:v>
+                  <c:v>1962.072611951062</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2018.528169912308</c:v>
+                  <c:v>1954.778070736035</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2011.019195056344</c:v>
+                  <c:v>1947.630854505287</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2003.662483508545</c:v>
+                  <c:v>1940.628294995919</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1996.455257466903</c:v>
+                  <c:v>1933.767769370842</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1989.394787880611</c:v>
+                  <c:v>1927.046700218778</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1982.478394450074</c:v>
+                  <c:v>1920.462555554256</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1975.7034456269</c:v>
+                  <c:v>1914.01284881762</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1969.067358613905</c:v>
+                  <c:v>1907.695138875019</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1962.567599365111</c:v>
+                  <c:v>1901.507030018417</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1956.201682585747</c:v>
+                  <c:v>1895.446171965584</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1949.967142584976</c:v>
+                  <c:v>1889.510259860102</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1943.86153381696</c:v>
+                  <c:v>1883.697034271364</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1937.882561958342</c:v>
+                  <c:v>1878.004281194572</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1932.027976651214</c:v>
+                  <c:v>1872.429832050738</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1926.295564973665</c:v>
+                  <c:v>1866.971563686684</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1920.683151439773</c:v>
+                  <c:v>1861.627398375043</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1915.188597999612</c:v>
+                  <c:v>1856.395303814258</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1909.809804039247</c:v>
+                  <c:v>1851.273293128582</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1904.544706380735</c:v>
+                  <c:v>1846.259424507394</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1899.391279282126</c:v>
+                  <c:v>1841.351740677155</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1894.347534437465</c:v>
+                  <c:v>1836.548337487872</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1889.411520976786</c:v>
+                  <c:v>1831.8473874932</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1884.581325466118</c:v>
+                  <c:v>1827.247096112832</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1879.855071907482</c:v>
+                  <c:v>1822.745701632507</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1875.230921738892</c:v>
+                  <c:v>1818.341475204003</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1870.707073834355</c:v>
+                  <c:v>1814.032720845138</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1866.281764503869</c:v>
+                  <c:v>1809.817775439774</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1861.953267493427</c:v>
+                  <c:v>1805.695008737811</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1857.719893985012</c:v>
+                  <c:v>1801.662823355193</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1853.579992596602</c:v>
+                  <c:v>1797.719654773903</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1849.531949382167</c:v>
+                  <c:v>1793.863971341967</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1845.574187831669</c:v>
+                  <c:v>1790.094274273452</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1841.705168871063</c:v>
+                  <c:v>1786.409097648465</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1837.923390862298</c:v>
+                  <c:v>1782.807008413156</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1834.227389603312</c:v>
+                  <c:v>1779.286606379714</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1830.615738328041</c:v>
+                  <c:v>1775.84652422637</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1827.087047706409</c:v>
+                  <c:v>1772.485427497398</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1823.639965844334</c:v>
+                  <c:v>1769.202014603112</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1820.273178283729</c:v>
+                  <c:v>1765.995016819866</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1816.985408002497</c:v>
+                  <c:v>1762.863198290056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,787 +4310,787 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="262"/>
                 <c:pt idx="0">
-                  <c:v>1.088759781086738</c:v>
+                  <c:v>0.9786355433564358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.095124289299665</c:v>
+                  <c:v>0.9843241682304766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.101712736381529</c:v>
+                  <c:v>0.9902128503426524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.108530801436664</c:v>
+                  <c:v>0.9963066563797774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.11558440604138</c:v>
+                  <c:v>1.002610869229481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.122879725605705</c:v>
+                  <c:v>1.009130998165976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.130423199052752</c:v>
+                  <c:v>1.015872787471786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.138221538998511</c:v>
+                  <c:v>1.022842225504937</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.146281742457988</c:v>
+                  <c:v>1.03004555423483</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.154611102105073</c:v>
+                  <c:v>1.037489279271114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.163217218115127</c:v>
+                  <c:v>1.045180180411398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.172108078224589</c:v>
+                  <c:v>1.053125387928188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.181292035377312</c:v>
+                  <c:v>1.061332379660862</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.190777639522464</c:v>
+                  <c:v>1.069808776442467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.200573810072033</c:v>
+                  <c:v>1.07856252635437</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.210689855472231</c:v>
+                  <c:v>1.08760192509139</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.221135489603333</c:v>
+                  <c:v>1.096935630583586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.231920849055033</c:v>
+                  <c:v>1.106572678399499</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.243056511325874</c:v>
+                  <c:v>1.116522497974189</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.254553513998317</c:v>
+                  <c:v>1.126794929708086</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.26642337494421</c:v>
+                  <c:v>1.137400242985524</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.278678113618793</c:v>
+                  <c:v>1.148349155164849</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.291330273504981</c:v>
+                  <c:v>1.159652851595207</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.304392945773524</c:v>
+                  <c:v>1.171323006718553</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.31787979422867</c:v>
+                  <c:v>1.183371806319051</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.331805081613333</c:v>
+                  <c:v>1.195811970985886</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.34618369735235</c:v>
+                  <c:v>1.208656780859668</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.361031186817318</c:v>
+                  <c:v>1.221920101736928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.376363782201701</c:v>
+                  <c:v>1.235616412611888</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.39219843510043</c:v>
+                  <c:v>1.249760834739615</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.408552850894103</c:v>
+                  <c:v>1.264369162309921</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.42544552504415</c:v>
+                  <c:v>1.279457894826952</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.442895781411919</c:v>
+                  <c:v>1.295044271295327</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.460923812721774</c:v>
+                  <c:v>1.311146306320006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.479550723295662</c:v>
+                  <c:v>1.327782828233696</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.498798574194655</c:v>
+                  <c:v>1.344973519372755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.518690430911328</c:v>
+                  <c:v>1.362738958630038</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.539250413765775</c:v>
+                  <c:v>1.381100666421091</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.560503751167524</c:v>
+                  <c:v>1.400081152208579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.582476835915656</c:v>
+                  <c:v>1.419703964738754</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.60519728471995</c:v>
+                  <c:v>1.439993745153227</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.628694001137169</c:v>
+                  <c:v>1.460976283149309</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.652997242128345</c:v>
+                  <c:v>1.482678576372774</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.67813885254552</c:v>
+                  <c:v>1.505128893237972</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.704152400868386</c:v>
+                  <c:v>1.528356871483161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.731072746833026</c:v>
+                  <c:v>1.552393911227355</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.75893644172217</c:v>
+                  <c:v>1.577272698657157</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.787781830995917</c:v>
+                  <c:v>1.603027423515561</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.817649150519185</c:v>
+                  <c:v>1.629693963556607</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.848580628495556</c:v>
+                  <c:v>1.657309975553971</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.880620593453149</c:v>
+                  <c:v>1.685914991718301</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.913815588647798</c:v>
+                  <c:v>1.715550521850026</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.948214493269156</c:v>
+                  <c:v>1.746260161572607</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.983868650856391</c:v>
+                  <c:v>1.778089707010029</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.020832005351736</c:v>
+                  <c:v>1.811087276291752</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.059161245242269</c:v>
+                  <c:v>1.84530343828808</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.098915956262715</c:v>
+                  <c:v>1.880791348999129</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.140158783154728</c:v>
+                  <c:v>1.917606896040806</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.18295560100059</c:v>
+                  <c:v>1.955808851691496</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.227375696671551</c:v>
+                  <c:v>1.995459034983104</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.273491960952506</c:v>
+                  <c:v>2.036622483339475</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.321381091925181</c:v>
+                  <c:v>2.079367634283607</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.371123810210754</c:v>
+                  <c:v>2.12376651775203</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.422805086689454</c:v>
+                  <c:v>2.169894959569729</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.476514383328169</c:v>
+                  <c:v>2.217832796651246</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.532345907756845</c:v>
+                  <c:v>2.267664104502551</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.590398882239009</c:v>
+                  <c:v>2.31947743760258</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.650777827680311</c:v>
+                  <c:v>2.373366083242344</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.713592863309449</c:v>
+                  <c:v>2.429428329391313</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.778960022646975</c:v>
+                  <c:v>2.487767747144289</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.847001586346675</c:v>
+                  <c:v>2.548493488274825</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.917846432449274</c:v>
+                  <c:v>2.611720598381579</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.991630404525996</c:v>
+                  <c:v>2.677570275861814</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.068496698106593</c:v>
+                  <c:v>2.74616908317467</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.148596265678895</c:v>
+                  <c:v>2.81765191399642</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.232087364218481</c:v>
+                  <c:v>2.892161461153041</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.31913621457276</c:v>
+                  <c:v>2.969847883364323</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.409920368513462</c:v>
+                  <c:v>3.050869192983081</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.504626656313431</c:v>
+                  <c:v>3.135391657089428</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.603451543367046</c:v>
+                  <c:v>3.223590210944288</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.706601597038095</c:v>
+                  <c:v>3.315648882437396</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.814293962733831</c:v>
+                  <c:v>3.411761225724578</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.926756846484963</c:v>
+                  <c:v>3.512130761725657</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.044230000607179</c:v>
+                  <c:v>3.616971422534806</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.166965208191203</c:v>
+                  <c:v>3.726507996064993</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.295226761196731</c:v>
+                  <c:v>3.840976566390781</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.429291925790428</c:v>
+                  <c:v>3.960624944250567</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.569451387246794</c:v>
+                  <c:v>4.085713081000304</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.716009665197871</c:v>
+                  <c:v>4.216513457952745</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.869285488247016</c:v>
+                  <c:v>4.35331144146566</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.02961211492351</c:v>
+                  <c:v>4.496405592332287</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.197337585618598</c:v>
+                  <c:v>4.646107915950121</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.372824887477835</c:v>
+                  <c:v>4.802743929940322</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.556452011197877</c:v>
+                  <c:v>4.96664184911111</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.748609422502507</c:v>
+                  <c:v>5.138148986354842</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.94968175024829</c:v>
+                  <c:v>5.317631628908855</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.160089502678749</c:v>
+                  <c:v>5.5054653659352</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.380269275776736</c:v>
+                  <c:v>5.702034035516725</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.610664692872954</c:v>
+                  <c:v>5.907728374718677</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.851724384807406</c:v>
+                  <c:v>6.122944325699848</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.103899509451411</c:v>
+                  <c:v>6.348080945610706</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.367640744442889</c:v>
+                  <c:v>6.583537862635234</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.643394680961163</c:v>
+                  <c:v>6.829712215165696</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.93159954062953</c:v>
+                  <c:v>7.086995005950981</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.232680132506275</c:v>
+                  <c:v>7.355766798404392</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.547041963027382</c:v>
+                  <c:v>7.636392678455611</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.875064409229459</c:v>
+                  <c:v>7.929216402841725</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.217092865276308</c:v>
+                  <c:v>8.234553654128966</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.573429775047321</c:v>
+                  <c:v>8.552684324740406</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>9.944324470293157</c:v>
+                  <c:v>8.883843757678909</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>10.32996174575654</c:v>
+                  <c:v>9.228202067922187</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>10.73044912098691</c:v>
+                  <c:v>9.585833307345185</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>11.1458027647684</c:v>
+                  <c:v>9.956743813686984</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11.57593209364607</c:v>
+                  <c:v>10.34083497996406</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.02058912309371</c:v>
+                  <c:v>10.73788503739502</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>12.47934783704929</c:v>
+                  <c:v>11.14753147143587</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>12.95162530990211</c:v>
+                  <c:v>11.56925250045541</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13.4366390107774</c:v>
+                  <c:v>12.00234789138015</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>13.93338501069353</c:v>
+                  <c:v>12.44591948583134</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>14.4406164093854</c:v>
+                  <c:v>12.89885192204602</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>14.95682265865642</c:v>
+                  <c:v>13.35979415960995</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>15.4802106036361</c:v>
+                  <c:v>13.82714254131924</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>16.00868820468443</c:v>
+                  <c:v>14.29902625281365</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>16.53985203305371</c:v>
+                  <c:v>14.77329615711008</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.07097974019002</c:v>
+                  <c:v>15.24751812387906</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>17.59902876866878</c:v>
+                  <c:v>15.71897924880566</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>18.12064702598797</c:v>
+                  <c:v>16.18469332429417</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>18.63221593884098</c:v>
+                  <c:v>16.64142326063091</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>19.12986119477269</c:v>
+                  <c:v>17.08571145723954</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19.60949901429694</c:v>
+                  <c:v>17.5139132930585</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20.06689333823592</c:v>
+                  <c:v>17.92174013964866</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20.49772602263837</c:v>
+                  <c:v>18.53257402530745</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>20.8972362563141</c:v>
+                  <c:v>19.57503676678823</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>21.52828108410602</c:v>
+                  <c:v>21.0402186173901</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>22.65525687106201</c:v>
+                  <c:v>22.90109458995758</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>24.26387600633937</c:v>
+                  <c:v>25.11377594699643</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>26.32129504877021</c:v>
+                  <c:v>27.62180817647953</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>28.77809834344786</c:v>
+                  <c:v>30.36488622662729</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>31.5697872517641</c:v>
+                  <c:v>33.28237576730318</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>34.62415191535234</c:v>
+                  <c:v>36.31233366193609</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>37.86445922329422</c:v>
+                  <c:v>39.39110275323434</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>41.213458332579</c:v>
+                  <c:v>42.45723819428968</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>44.59510081713482</c:v>
+                  <c:v>45.45292036278322</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>47.93759864069898</c:v>
+                  <c:v>48.32510385486528</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>51.1752430769818</c:v>
+                  <c:v>51.02651530889191</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>54.24952890065754</c:v>
+                  <c:v>53.51638420520161</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>57.11005067946872</c:v>
+                  <c:v>55.76096563047877</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>59.71501263531388</c:v>
+                  <c:v>57.73401321539466</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>62.03163202114592</c:v>
+                  <c:v>59.41686228559647</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>64.03586061522144</c:v>
+                  <c:v>60.79816550606969</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>65.71213290992679</c:v>
+                  <c:v>61.87360620184329</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>67.05301125805904</c:v>
+                  <c:v>62.64546071837693</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>68.05854178714873</c:v>
+                  <c:v>63.12176138675224</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>68.73522924451679</c:v>
+                  <c:v>63.31550625491647</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>69.09590536501754</c:v>
+                  <c:v>63.24448572857627</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>69.15772035202845</c:v>
+                  <c:v>62.929031123283</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>68.94128651818514</c:v>
+                  <c:v>62.39136208196595</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>68.47000403007613</c:v>
+                  <c:v>61.6550579381894</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>67.76941693113362</c:v>
+                  <c:v>60.74457060357165</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>66.8664902811374</c:v>
+                  <c:v>59.68478716644935</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>65.78781463380965</c:v>
+                  <c:v>58.49978872773745</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>64.56023460513211</c:v>
+                  <c:v>57.2122327014935</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>63.20935583290512</c:v>
+                  <c:v>55.84358769969579</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>61.75905336912351</c:v>
+                  <c:v>54.41341196052846</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>60.23141391456372</c:v>
+                  <c:v>52.93936948837857</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>58.64671954213357</c:v>
+                  <c:v>51.43727758816098</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>57.02346569946019</c:v>
+                  <c:v>49.92117879003658</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>55.37826900044057</c:v>
+                  <c:v>48.40329341455032</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>53.72520181163551</c:v>
+                  <c:v>46.89385404263342</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>52.07644726786446</c:v>
+                  <c:v>45.40148753144211</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>50.44231758293082</c:v>
+                  <c:v>43.93332466967172</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>48.83137843136433</c:v>
+                  <c:v>42.49513963541256</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>47.2506139426021</c:v>
+                  <c:v>41.09148610889417</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>45.70558551817646</c:v>
+                  <c:v>39.72582709798948</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>44.20060592050115</c:v>
+                  <c:v>38.40067435839796</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>42.73897124685615</c:v>
+                  <c:v>37.11788368873553</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>41.32280417288771</c:v>
+                  <c:v>35.87840573116792</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>39.95349316745445</c:v>
+                  <c:v>34.68265151164215</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>38.63184282001605</c:v>
+                  <c:v>33.53065754260201</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>37.35814910188374</c:v>
+                  <c:v>32.42213795589896</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>36.13226749848248</c:v>
+                  <c:v>31.35653138319862</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>34.95367433251641</c:v>
+                  <c:v>30.33304287136664</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>33.82152166429918</c:v>
+                  <c:v>29.35068115698763</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32.73468619635366</c:v>
+                  <c:v>28.40829164398195</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>31.6918305860985</c:v>
+                  <c:v>27.50458543503362</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>30.6916572677538</c:v>
+                  <c:v>26.63816476445902</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>29.73271849999533</c:v>
+                  <c:v>25.80765216546969</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>28.81350452722143</c:v>
+                  <c:v>25.01173512837187</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>27.93250536153091</c:v>
+                  <c:v>24.24902500004202</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>27.08821922908209</c:v>
+                  <c:v>23.51815937436049</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>26.27915956740803</c:v>
+                  <c:v>22.81780648721173</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>25.50386075693897</c:v>
+                  <c:v>22.14666828112919</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24.76088275130392</c:v>
+                  <c:v>21.50348270480994</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>24.04881475345579</c:v>
+                  <c:v>20.88702535986521</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>23.36627806841593</c:v>
+                  <c:v>20.29611059368475</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>22.71193895110343</c:v>
+                  <c:v>19.72959212506246</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>22.08454757295003</c:v>
+                  <c:v>19.18636327822809</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>21.48288443357774</c:v>
+                  <c:v>18.66536638393072</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>20.90578044155773</c:v>
+                  <c:v>18.16560078623155</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>20.35211882927394</c:v>
+                  <c:v>17.68609961588019</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>19.82083344372179</c:v>
+                  <c:v>17.22594021601015</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>19.31090696676918</c:v>
+                  <c:v>16.78424285567258</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>18.82136909197079</c:v>
+                  <c:v>16.36016908196575</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>18.35129468040788</c:v>
+                  <c:v>15.95292006143412</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>17.89980191405231</c:v>
+                  <c:v>15.56173492605475</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>17.46605046175221</c:v>
+                  <c:v>15.18588913624214</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>17.04923967002867</c:v>
+                  <c:v>14.82469287084014</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>16.64860678840018</c:v>
+                  <c:v>14.4774894519796</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>16.26342535809496</c:v>
+                  <c:v>14.1436538109115</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>15.8930074817879</c:v>
+                  <c:v>13.82259099943463</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>15.53669852188019</c:v>
+                  <c:v>13.51373475028636</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.19387473010469</c:v>
+                  <c:v>13.21654608882007</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>14.86394300645834</c:v>
+                  <c:v>12.93051229091208</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>14.5463393622695</c:v>
+                  <c:v>12.65514739693977</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>14.24052745060313</c:v>
+                  <c:v>12.38998837573357</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>13.94599716316032</c:v>
+                  <c:v>12.13459454460954</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>13.66226329242565</c:v>
+                  <c:v>11.88854669387357</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.38886425750041</c:v>
+                  <c:v>11.65144599033353</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>13.12536089182007</c:v>
+                  <c:v>11.42291293387264</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>12.87133529077438</c:v>
+                  <c:v>11.20258636540819</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>12.6263897171231</c:v>
+                  <c:v>10.99012252444762</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>12.39014556201569</c:v>
+                  <c:v>10.78519415437882</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>12.1622423593748</c:v>
+                  <c:v>10.58748965358625</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>11.94233685138421</c:v>
+                  <c:v>10.39671227046611</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11.73010210282552</c:v>
+                  <c:v>10.21257934041424</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>11.52522666203105</c:v>
+                  <c:v>10.03482156287886</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>11.32741376625804</c:v>
+                  <c:v>9.863182316600527</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>11.13638058933957</c:v>
+                  <c:v>9.697417011203845</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>10.95185752952564</c:v>
+                  <c:v>9.537292473353835</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10.77358753549421</c:v>
+                  <c:v>9.382586365745926</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>10.60132546858181</c:v>
+                  <c:v>9.233086637257466</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>10.43483734338207</c:v>
+                  <c:v>9.088591002651647</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>10.27389976933831</c:v>
+                  <c:v>8.948906450288847</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10.11830010364552</c:v>
+                  <c:v>8.813848776365603</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>9.967835354099837</c:v>
+                  <c:v>8.683242144267098</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>9.822311664840738</c:v>
+                  <c:v>8.556918667683544</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>9.681543863208816</c:v>
+                  <c:v>8.434718016205256</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>9.545355030938538</c:v>
+                  <c:v>8.316487042173376</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>9.413576098360886</c:v>
+                  <c:v>8.202079427624705</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>9.286045460356938</c:v>
+                  <c:v>8.091355348646973</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>9.162608612869018</c:v>
+                  <c:v>7.984180896892436</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>9.043117808837851</c:v>
+                  <c:v>7.880428088453531</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>8.927431732494473</c:v>
+                  <c:v>7.779974678364439</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.815415190993125</c:v>
+                  <c:v>7.682703700955115</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.706938822426226</c:v>
+                  <c:v>7.588503218490676</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.601878819315077</c:v>
+                  <c:v>7.497266083097442</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.500116666719773</c:v>
+                  <c:v>7.408889711242244</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.401538894159625</c:v>
+                  <c:v>7.32327587007237</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.306036840580184</c:v>
+                  <c:v>7.240330474961752</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>8.2135064316463</c:v>
+                  <c:v>7.159963397645939</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.123847968680771</c:v>
+                  <c:v>7.082088284362748</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>8.036965928607085</c:v>
+                  <c:v>7.00662238344864</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>7.952768774290862</c:v>
+                  <c:v>6.933486381871804</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>7.871168774709227</c:v>
+                  <c:v>6.862604250212456</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>7.792081834409868</c:v>
+                  <c:v>6.79390309562871</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>7.715427331752243</c:v>
+                  <c:v>6.72731302237262</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.641127965452448</c:v>
+                  <c:v>6.662766999445827</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.569109608980771</c:v>
+                  <c:v>6.600200735007804</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.499301172386639</c:v>
+                  <c:v>6.539552557171658</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.43163447115017</c:v>
+                  <c:v>6.480763300843414</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>7.366044101682564</c:v>
+                  <c:v>6.423776200280455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,784 +6015,784 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300.4693001373295</c:v>
+                  <c:v>300.459490914819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.9529466120424</c:v>
+                  <c:v>300.9330399895935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>301.4511526698265</c:v>
+                  <c:v>301.4208571324586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>301.964137934535</c:v>
+                  <c:v>301.9231585469208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302.4921290030088</c:v>
+                  <c:v>302.4401673413788</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>303.0353594451152</c:v>
+                  <c:v>302.9721135291942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303.5940698037491</c:v>
+                  <c:v>303.5192340286907</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304.1685075948318</c:v>
+                  <c:v>304.0817726631547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304.7589273073121</c:v>
+                  <c:v>304.6599801608349</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>305.3655904031656</c:v>
+                  <c:v>305.2541141549426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>305.9887829658768</c:v>
+                  <c:v>305.8644581179938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306.6288059942453</c:v>
+                  <c:v>306.4913166126805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>307.2859281776633</c:v>
+                  <c:v>307.1349525890125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>307.9604275427399</c:v>
+                  <c:v>307.79563767252</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>308.6525925037209</c:v>
+                  <c:v>308.4736540579563</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>309.3627218624883</c:v>
+                  <c:v>309.1692945092981</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310.0911248085605</c:v>
+                  <c:v>309.8828623597458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>310.8381209190924</c:v>
+                  <c:v>310.6146715117228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>311.6040401588754</c:v>
+                  <c:v>311.3650464368761</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>312.3892228803371</c:v>
+                  <c:v>312.134322176076</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>313.1940198235417</c:v>
+                  <c:v>312.9228443394163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>314.0187921161898</c:v>
+                  <c:v>313.7309691062139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>314.8639112736184</c:v>
+                  <c:v>314.5590632250094</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>315.7297591988009</c:v>
+                  <c:v>315.4075040135666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>316.6167281823471</c:v>
+                  <c:v>316.2766793588727</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>317.5252209025032</c:v>
+                  <c:v>317.1669877171385</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>318.455650425152</c:v>
+                  <c:v>318.0788381137976</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>319.4084402038125</c:v>
+                  <c:v>319.0126501435078</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>320.3840240796403</c:v>
+                  <c:v>319.9688539701495</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>321.3828462814272</c:v>
+                  <c:v>320.947890326827</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>322.4053614256016</c:v>
+                  <c:v>321.9502105158678</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>323.4520345162283</c:v>
+                  <c:v>322.9762764088227</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>324.5233409450086</c:v>
+                  <c:v>324.0265604464661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>325.6197664912798</c:v>
+                  <c:v>325.1015456387956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>326.7418073220163</c:v>
+                  <c:v>326.2017255650322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>327.8899699918283</c:v>
+                  <c:v>327.3276043736204</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>329.0647714429628</c:v>
+                  <c:v>328.4796967822278</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>330.266739005303</c:v>
+                  <c:v>329.6585280777458</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>331.4964103963687</c:v>
+                  <c:v>330.8646341162887</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>332.754333721316</c:v>
+                  <c:v>332.0985613231947</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>334.0410674729374</c:v>
+                  <c:v>333.3608666930249</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>335.357180531662</c:v>
+                  <c:v>334.6521177895642</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>336.7032850887393</c:v>
+                  <c:v>335.9728927458205</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>338.0800469511803</c:v>
+                  <c:v>337.3237873490732</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>339.4880827094286</c:v>
+                  <c:v>338.705485053584</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>340.9280243740006</c:v>
+                  <c:v>340.1186337058105</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>342.4005217659748</c:v>
+                  <c:v>341.5638775545124</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>343.9062425169912</c:v>
+                  <c:v>343.0418792479879</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>345.4458720692521</c:v>
+                  <c:v>344.5533198340743</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>347.0201136755211</c:v>
+                  <c:v>346.0988987601476</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>348.6296883991244</c:v>
+                  <c:v>347.679333873123</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>350.2753351139493</c:v>
+                  <c:v>349.295361419454</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>351.9578105044455</c:v>
+                  <c:v>350.9477360451335</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>353.6778890656243</c:v>
+                  <c:v>352.637230795693</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>355.4363631030589</c:v>
+                  <c:v>354.3646371162027</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>357.2340427328845</c:v>
+                  <c:v>356.1307648512723</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>359.0717558817979</c:v>
+                  <c:v>357.9364422450495</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>360.950348287058</c:v>
+                  <c:v>359.7825159412214</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>362.8706834964854</c:v>
+                  <c:v>361.6698509830141</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>364.8336428684627</c:v>
+                  <c:v>363.5993308131921</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>366.8401255719344</c:v>
+                  <c:v>365.571857274059</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>368.8910485864066</c:v>
+                  <c:v>367.5883506074572</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>370.9873467019474</c:v>
+                  <c:v>369.6497494547681</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>373.1299725191869</c:v>
+                  <c:v>371.757010856912</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>375.3198964493168</c:v>
+                  <c:v>373.9111102543476</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>377.558106714091</c:v>
+                  <c:v>376.1130414870731</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>379.8456093458249</c:v>
+                  <c:v>378.3638167946251</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>382.183428187396</c:v>
+                  <c:v>380.6644668160794</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>384.5726048922435</c:v>
+                  <c:v>383.0160405900502</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>387.0141989243687</c:v>
+                  <c:v>385.4196055546911</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>389.5092875583344</c:v>
+                  <c:v>387.8762475476942</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>392.0589658792657</c:v>
+                  <c:v>390.3870605716334</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>394.6643467828491</c:v>
+                  <c:v>392.9529854373706</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>397.3265609753333</c:v>
+                  <c:v>395.5751917309603</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>400.0466485243178</c:v>
+                  <c:v>398.2549334039188</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>402.825595743709</c:v>
+                  <c:v>400.9934437812162</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>405.6646887447258</c:v>
+                  <c:v>403.7919355612771</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>408.5651913407085</c:v>
+                  <c:v>406.65160081598</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>411.528332569681</c:v>
+                  <c:v>409.5736109906579</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>414.5553066943509</c:v>
+                  <c:v>412.5591169040978</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>417.6472732021091</c:v>
+                  <c:v>415.609248748541</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>420.8053568050305</c:v>
+                  <c:v>418.7251160896828</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>424.0306474398734</c:v>
+                  <c:v>421.9078078666729</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>427.3242002680798</c:v>
+                  <c:v>425.1583923921151</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>430.6870356757753</c:v>
+                  <c:v>428.4779173520674</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>434.1201392737692</c:v>
+                  <c:v>431.8674098060419</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>437.6244618975542</c:v>
+                  <c:v>435.3278761870051</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>441.2009196073067</c:v>
+                  <c:v>438.8603023013777</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>444.850393687887</c:v>
+                  <c:v>442.4656533290341</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>448.5737306488388</c:v>
+                  <c:v>446.1448738233036</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>452.3717422243893</c:v>
+                  <c:v>449.8988877109691</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>456.2452053734494</c:v>
+                  <c:v>453.7285881429667</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>460.1948622796138</c:v>
+                  <c:v>457.6338347383704</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>464.221222282229</c:v>
+                  <c:v>461.615056662731</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>468.3231641152832</c:v>
+                  <c:v>465.6731919376904</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>472.5013743077186</c:v>
+                  <c:v>469.8088281072756</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>476.7566966544961</c:v>
+                  <c:v>474.0222022378987</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>481.0895159304827</c:v>
+                  <c:v>478.3132009183565</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>485.4997578904521</c:v>
+                  <c:v>482.6813602598308</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>489.9868892690845</c:v>
+                  <c:v>487.1258658958885</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>494.5499177809664</c:v>
+                  <c:v>491.6455529824814</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>499.1873921205909</c:v>
+                  <c:v>496.2389061979462</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>503.8974019623574</c:v>
+                  <c:v>500.9040597430048</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>508.6775779605721</c:v>
+                  <c:v>505.6387973407637</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>513.5250917494473</c:v>
+                  <c:v>510.4405522367148</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>518.4366559431018</c:v>
+                  <c:v>515.3064071987344</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>523.408524135561</c:v>
+                  <c:v>520.2330945170844</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>528.436490900757</c:v>
+                  <c:v>525.216996004411</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>533.5158917925278</c:v>
+                  <c:v>530.2541429957462</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>538.6416033446183</c:v>
+                  <c:v>535.3395890414123</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>543.8080430706797</c:v>
+                  <c:v>540.4663806844427</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>549.0091694642697</c:v>
+                  <c:v>545.6280164472513</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>554.2384819988523</c:v>
+                  <c:v>550.8170796546322</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>559.4874395874006</c:v>
+                  <c:v>556.0251334207645</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>564.7455525405124</c:v>
+                  <c:v>561.2427206492139</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>570.0023522576414</c:v>
+                  <c:v>566.4593640329308</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>575.2463454794631</c:v>
+                  <c:v>571.6635660542521</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>580.465014187894</c:v>
+                  <c:v>576.8428089849001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>585.6448156060916</c:v>
+                  <c:v>581.9835548859828</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>590.7711821984545</c:v>
+                  <c:v>587.0712456079939</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>595.8285216706222</c:v>
+                  <c:v>592.0903027908129</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>600.8002169694754</c:v>
+                  <c:v>597.0241278637048</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>605.6686262831356</c:v>
+                  <c:v>601.8551020453207</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>610.4150830409656</c:v>
+                  <c:v>606.5645882269215</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>615.0198959135688</c:v>
+                  <c:v>611.1332167780674</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>619.4625006171293</c:v>
+                  <c:v>615.5408497839859</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>623.7223840935288</c:v>
+                  <c:v>619.7668923197984</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>627.7785186819791</c:v>
+                  <c:v>623.7905403337145</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>631.6096745944674</c:v>
+                  <c:v>627.5907806470314</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>635.1947052903511</c:v>
+                  <c:v>631.1287840096965</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>638.5128839152192</c:v>
+                  <c:v>642.2599025466069</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>641.5306904217025</c:v>
+                  <c:v>668.5628737469009</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>652.3227409825686</c:v>
+                  <c:v>709.2747452583892</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>678.6360529665919</c:v>
+                  <c:v>763.1945538346147</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>719.7147856917877</c:v>
+                  <c:v>828.7496287544132</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>774.4285554102702</c:v>
+                  <c:v>904.1433541531936</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>841.3406548112741</c:v>
+                  <c:v>987.6260252232519</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>918.7452471789488</c:v>
+                  <c:v>1077.578343046194</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1004.861074587079</c:v>
+                  <c:v>1172.444040889414</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1097.890381259766</c:v>
+                  <c:v>1270.680733975302</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1196.095723261955</c:v>
+                  <c:v>1370.849265072084</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1297.808458336038</c:v>
+                  <c:v>1471.622186876933</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1401.477267507789</c:v>
+                  <c:v>1571.786894983622</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1505.684636544056</c:v>
+                  <c:v>1670.248537219799</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1609.148845650885</c:v>
+                  <c:v>1766.030071939213</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1710.726106457951</c:v>
+                  <c:v>1858.272106539487</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1809.408775735252</c:v>
+                  <c:v>1946.238214571033</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1904.328171936445</c:v>
+                  <c:v>2029.314614932384</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1994.744294574933</c:v>
+                  <c:v>2107.004876905811</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2080.042894242575</c:v>
+                  <c:v>2178.929810396731</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2159.735472609689</c:v>
+                  <c:v>2244.827465933704</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2233.455335183861</c:v>
+                  <c:v>2304.543052877912</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2300.944836423579</c:v>
+                  <c:v>2358.022744370521</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2362.074723845831</c:v>
+                  <c:v>2405.332230242724</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2416.802343561457</c:v>
+                  <c:v>2446.597874478467</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2465.166134306509</c:v>
+                  <c:v>2482.003336064019</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2507.285627442247</c:v>
+                  <c:v>2511.78956898797</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2543.361446955141</c:v>
+                  <c:v>2536.254822241232</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2573.670544517976</c:v>
+                  <c:v>2555.754639817036</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2598.516136244665</c:v>
+                  <c:v>2570.664145412253</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2618.265427107049</c:v>
+                  <c:v>2581.359858366193</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2633.302647001831</c:v>
+                  <c:v>2588.235608398315</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2644.014602339447</c:v>
+                  <c:v>2591.673346252072</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2650.790676044073</c:v>
+                  <c:v>2592.04313947775</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2654.022827553616</c:v>
+                  <c:v>2589.70317243247</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2654.105592819724</c:v>
+                  <c:v>2584.999746280187</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2651.429491658414</c:v>
+                  <c:v>2578.259954435669</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2646.34401383283</c:v>
+                  <c:v>2569.775927113489</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2639.180388397963</c:v>
+                  <c:v>2559.816852334168</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2630.245056856048</c:v>
+                  <c:v>2548.627327487694</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2619.81761446886</c:v>
+                  <c:v>2536.427301457576</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2608.150810257714</c:v>
+                  <c:v>2523.412074620841</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2595.470547003461</c:v>
+                  <c:v>2509.75229884804</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2581.977241793667</c:v>
+                  <c:v>2495.595091911324</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2567.85145384321</c:v>
+                  <c:v>2481.076320418877</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2553.237050739689</c:v>
+                  <c:v>2466.298133370266</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2538.25994407216</c:v>
+                  <c:v>2451.346576404454</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2523.031934772644</c:v>
+                  <c:v>2436.298382542469</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2507.650713116126</c:v>
+                  <c:v>2421.220972187395</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2492.19985872056</c:v>
+                  <c:v>2406.172453124376</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2476.748840546863</c:v>
+                  <c:v>2391.201620520618</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2461.353016898922</c:v>
+                  <c:v>2376.347956925384</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2446.053635423585</c:v>
+                  <c:v>2361.641632269999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2430.879210399006</c:v>
+                  <c:v>2347.103503867846</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2415.862670801918</c:v>
+                  <c:v>2332.74511641437</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2401.025693241943</c:v>
+                  <c:v>2318.578314551152</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2386.383742894793</c:v>
+                  <c:v>2304.618816495852</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2371.949935492699</c:v>
+                  <c:v>2290.872892165471</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2357.735037324417</c:v>
+                  <c:v>2277.345669740072</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2343.74746523522</c:v>
+                  <c:v>2264.041174026124</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2329.993286626906</c:v>
+                  <c:v>2250.962326456499</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2316.476219457795</c:v>
+                  <c:v>2238.110945090477</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2303.197632242724</c:v>
+                  <c:v>2225.487744613743</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2290.156544053058</c:v>
+                  <c:v>2213.092336338386</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2277.350697678773</c:v>
+                  <c:v>2200.923228202905</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2264.780519727391</c:v>
+                  <c:v>2188.977824772201</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2252.443949498002</c:v>
+                  <c:v>2177.253534547856</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2240.338462991972</c:v>
+                  <c:v>2165.748889803947</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2228.46141801806</c:v>
+                  <c:v>2154.461021253545</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2216.810054192421</c:v>
+                  <c:v>2143.386991609211</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2205.381492938608</c:v>
+                  <c:v>2132.523833458424</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2194.172737487567</c:v>
+                  <c:v>2121.868549263578</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2183.180672877642</c:v>
+                  <c:v>2111.418111361987</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2172.402065954572</c:v>
+                  <c:v>2101.169461965879</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2161.833565371491</c:v>
+                  <c:v>2091.119513162401</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2151.47170158893</c:v>
+                  <c:v>2081.265146913617</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2141.312886874814</c:v>
+                  <c:v>2071.603215056507</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2131.353431193518</c:v>
+                  <c:v>2062.130539302968</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2121.590071549489</c:v>
+                  <c:v>2052.843911239815</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2112.019522999554</c:v>
+                  <c:v>2043.740092328781</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2102.638373976017</c:v>
+                  <c:v>2034.815813906512</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2093.443261662389</c:v>
+                  <c:v>2026.067823170584</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2084.430871993391</c:v>
+                  <c:v>2017.493173519735</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2075.597939654944</c:v>
+                  <c:v>2009.088830285523</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2066.94124808418</c:v>
+                  <c:v>2000.851761798569</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2058.457629469438</c:v>
+                  <c:v>1992.778981815303</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2050.14396475026</c:v>
+                  <c:v>1984.867549517964</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2041.997183617398</c:v>
+                  <c:v>1977.114569514602</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2034.014264512808</c:v>
+                  <c:v>1969.517191839078</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2026.192234629655</c:v>
+                  <c:v>1962.072611951062</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2018.528169912308</c:v>
+                  <c:v>1954.778070736035</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2011.019195056344</c:v>
+                  <c:v>1947.630854505287</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2003.662483508545</c:v>
+                  <c:v>1940.628294995919</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1996.455257466903</c:v>
+                  <c:v>1933.767769370842</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1989.394787880611</c:v>
+                  <c:v>1927.046700218778</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1982.478394450074</c:v>
+                  <c:v>1920.462555554256</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1975.7034456269</c:v>
+                  <c:v>1914.01284881762</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1969.067358613905</c:v>
+                  <c:v>1907.695138875019</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1962.567599365111</c:v>
+                  <c:v>1901.507030018417</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1956.201682585747</c:v>
+                  <c:v>1895.446171965584</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1949.967142584976</c:v>
+                  <c:v>1889.510259860102</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1943.86153381696</c:v>
+                  <c:v>1883.697034271364</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1937.882561958342</c:v>
+                  <c:v>1878.004281194572</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1932.027976651214</c:v>
+                  <c:v>1872.429832050738</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1926.295564973665</c:v>
+                  <c:v>1866.971563686684</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1920.683151439773</c:v>
+                  <c:v>1861.627398375043</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1915.188597999612</c:v>
+                  <c:v>1856.395303814258</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1909.809804039247</c:v>
+                  <c:v>1851.273293128582</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1904.544706380735</c:v>
+                  <c:v>1846.259424507394</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1899.391279282126</c:v>
+                  <c:v>1841.351740677155</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1894.347534437465</c:v>
+                  <c:v>1836.548337487872</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1889.411520976786</c:v>
+                  <c:v>1831.8473874932</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1884.581325466118</c:v>
+                  <c:v>1827.247096112832</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1879.855071907482</c:v>
+                  <c:v>1822.745701632507</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1875.230921738892</c:v>
+                  <c:v>1818.341475204003</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1870.707073834355</c:v>
+                  <c:v>1814.032720845138</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1866.281764503869</c:v>
+                  <c:v>1809.817775439774</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1861.953267493427</c:v>
+                  <c:v>1805.695008737811</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1857.719893985012</c:v>
+                  <c:v>1801.662823355193</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1853.579992596602</c:v>
+                  <c:v>1797.719654773903</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1849.531949382167</c:v>
+                  <c:v>1793.863971341967</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1845.574187831669</c:v>
+                  <c:v>1790.094274273452</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1841.705168871063</c:v>
+                  <c:v>1786.409097648465</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1837.923390862298</c:v>
+                  <c:v>1782.807008413156</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1834.227389603312</c:v>
+                  <c:v>1779.286606379714</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1830.615738328041</c:v>
+                  <c:v>1775.84652422637</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1827.087047706409</c:v>
+                  <c:v>1772.485427497398</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1823.639965844334</c:v>
+                  <c:v>1769.202014603112</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1820.273178283729</c:v>
+                  <c:v>1765.995016819866</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1816.985408002497</c:v>
+                  <c:v>1762.863198290056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7318,7 +7318,7 @@
         <v>454.9384845735369</v>
       </c>
       <c r="C2">
-        <v>1.088759781086738</v>
+        <v>0.9786355433564358</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -7332,10 +7332,10 @@
         <v>453.0020688411092</v>
       </c>
       <c r="C3">
-        <v>1.095124289299665</v>
+        <v>0.9843241682304766</v>
       </c>
       <c r="D3">
-        <v>300.4693001373295</v>
+        <v>300.459490914819</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>451.0178404944635</v>
       </c>
       <c r="C4">
-        <v>1.101712736381529</v>
+        <v>0.9902128503426524</v>
       </c>
       <c r="D4">
-        <v>300.9529466120424</v>
+        <v>300.9330399895935</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7360,10 +7360,10 @@
         <v>448.9858719852913</v>
       </c>
       <c r="C5">
-        <v>1.108530801436664</v>
+        <v>0.9963066563797774</v>
       </c>
       <c r="D5">
-        <v>301.4511526698265</v>
+        <v>301.4208571324586</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>446.9062461758243</v>
       </c>
       <c r="C6">
-        <v>1.11558440604138</v>
+        <v>1.002610869229481</v>
       </c>
       <c r="D6">
-        <v>301.964137934535</v>
+        <v>301.9231585469208</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>444.7790569342612</v>
       </c>
       <c r="C7">
-        <v>1.122879725605705</v>
+        <v>1.009130998165976</v>
       </c>
       <c r="D7">
-        <v>302.4921290030088</v>
+        <v>302.4401673413788</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>442.6044097388335</v>
       </c>
       <c r="C8">
-        <v>1.130423199052752</v>
+        <v>1.015872787471786</v>
       </c>
       <c r="D8">
-        <v>303.0353594451152</v>
+        <v>302.9721135291942</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7416,10 +7416,10 @@
         <v>440.3824222897506</v>
       </c>
       <c r="C9">
-        <v>1.138221538998511</v>
+        <v>1.022842225504937</v>
       </c>
       <c r="D9">
-        <v>303.5940698037491</v>
+        <v>303.5192340286907</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>438.1132251282135</v>
       </c>
       <c r="C10">
-        <v>1.146281742457988</v>
+        <v>1.03004555423483</v>
       </c>
       <c r="D10">
-        <v>304.1685075948318</v>
+        <v>304.0817726631547</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7444,10 +7444,10 @@
         <v>435.7969622616277</v>
       </c>
       <c r="C11">
-        <v>1.154611102105073</v>
+        <v>1.037489279271114</v>
       </c>
       <c r="D11">
-        <v>304.7589273073121</v>
+        <v>304.6599801608349</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>433.4337917941004</v>
       </c>
       <c r="C12">
-        <v>1.163217218115127</v>
+        <v>1.045180180411398</v>
       </c>
       <c r="D12">
-        <v>305.3655904031656</v>
+        <v>305.2541141549426</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7472,10 +7472,10 @@
         <v>431.0238865612484</v>
       </c>
       <c r="C13">
-        <v>1.172108078224589</v>
+        <v>1.053125387928188</v>
       </c>
       <c r="D13">
-        <v>305.9887829658768</v>
+        <v>305.8644581179938</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7486,10 +7486,10 @@
         <v>428.5674347682892</v>
       </c>
       <c r="C14">
-        <v>1.181292035377312</v>
+        <v>1.061332379660862</v>
       </c>
       <c r="D14">
-        <v>306.6288059942453</v>
+        <v>306.4913166126805</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7500,10 +7500,10 @@
         <v>426.0646406303418</v>
       </c>
       <c r="C15">
-        <v>1.190777639522464</v>
+        <v>1.069808776442467</v>
       </c>
       <c r="D15">
-        <v>307.2859281776633</v>
+        <v>307.1349525890125</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7514,10 +7514,10 @@
         <v>423.5157250138036</v>
       </c>
       <c r="C16">
-        <v>1.200573810072033</v>
+        <v>1.07856252635437</v>
       </c>
       <c r="D16">
-        <v>307.9604275427399</v>
+        <v>307.79563767252</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>420.920926077624</v>
       </c>
       <c r="C17">
-        <v>1.210689855472231</v>
+        <v>1.08760192509139</v>
       </c>
       <c r="D17">
-        <v>308.6525925037209</v>
+        <v>308.4736540579563</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7542,10 +7542,10 @@
         <v>418.280499913244</v>
       </c>
       <c r="C18">
-        <v>1.221135489603333</v>
+        <v>1.096935630583586</v>
       </c>
       <c r="D18">
-        <v>309.3627218624883</v>
+        <v>309.1692945092981</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>415.5947211819234</v>
       </c>
       <c r="C19">
-        <v>1.231920849055033</v>
+        <v>1.106572678399499</v>
       </c>
       <c r="D19">
-        <v>310.0911248085605</v>
+        <v>309.8828623597458</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>412.8638837481304</v>
       </c>
       <c r="C20">
-        <v>1.243056511325874</v>
+        <v>1.116522497974189</v>
       </c>
       <c r="D20">
-        <v>310.8381209190924</v>
+        <v>310.6146715117228</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7584,10 +7584,10 @@
         <v>410.0883013076264</v>
       </c>
       <c r="C21">
-        <v>1.254553513998317</v>
+        <v>1.126794929708086</v>
       </c>
       <c r="D21">
-        <v>311.6040401588754</v>
+        <v>311.3650464368761</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7598,10 +7598,10 @@
         <v>407.2683080088377</v>
       </c>
       <c r="C22">
-        <v>1.26642337494421</v>
+        <v>1.137400242985524</v>
       </c>
       <c r="D22">
-        <v>312.3892228803371</v>
+        <v>312.134322176076</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>404.4042590660646</v>
       </c>
       <c r="C23">
-        <v>1.278678113618793</v>
+        <v>1.148349155164849</v>
       </c>
       <c r="D23">
-        <v>313.1940198235417</v>
+        <v>312.9228443394163</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7626,10 +7626,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C24">
-        <v>1.291330273504981</v>
+        <v>1.159652851595207</v>
       </c>
       <c r="D24">
-        <v>314.0187921161898</v>
+        <v>313.7309691062139</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C25">
-        <v>1.304392945773524</v>
+        <v>1.171323006718553</v>
       </c>
       <c r="D25">
-        <v>314.8639112736184</v>
+        <v>314.5590632250094</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7654,10 +7654,10 @@
         <v>395.5516591002702</v>
       </c>
       <c r="C26">
-        <v>1.31787979422867</v>
+        <v>1.183371806319051</v>
       </c>
       <c r="D26">
-        <v>315.7297591988009</v>
+        <v>315.4075040135666</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7668,10 +7668,10 @@
         <v>392.5153819218948</v>
       </c>
       <c r="C27">
-        <v>1.331805081613333</v>
+        <v>1.195811970985886</v>
       </c>
       <c r="D27">
-        <v>316.6167281823471</v>
+        <v>316.2766793588727</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7682,10 +7682,10 @@
         <v>389.4371618611553</v>
       </c>
       <c r="C28">
-        <v>1.34618369735235</v>
+        <v>1.208656780859668</v>
       </c>
       <c r="D28">
-        <v>317.5252209025032</v>
+        <v>317.1669877171385</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7696,10 +7696,10 @@
         <v>386.3174927578167</v>
       </c>
       <c r="C29">
-        <v>1.361031186817318</v>
+        <v>1.221920101736928</v>
       </c>
       <c r="D29">
-        <v>318.455650425152</v>
+        <v>318.0788381137976</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7710,10 +7710,10 @@
         <v>383.1568934536983</v>
       </c>
       <c r="C30">
-        <v>1.376363782201701</v>
+        <v>1.235616412611888</v>
       </c>
       <c r="D30">
-        <v>319.4084402038125</v>
+        <v>319.0126501435078</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7724,10 +7724,10 @@
         <v>379.9559082852276</v>
       </c>
       <c r="C31">
-        <v>1.39219843510043</v>
+        <v>1.249760834739615</v>
       </c>
       <c r="D31">
-        <v>320.3840240796403</v>
+        <v>319.9688539701495</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>376.7151075537643</v>
       </c>
       <c r="C32">
-        <v>1.408552850894103</v>
+        <v>1.264369162309921</v>
       </c>
       <c r="D32">
-        <v>321.3828462814272</v>
+        <v>320.947890326827</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7752,10 +7752,10 @@
         <v>373.435087972113</v>
       </c>
       <c r="C33">
-        <v>1.42544552504415</v>
+        <v>1.279457894826952</v>
       </c>
       <c r="D33">
-        <v>322.4053614256016</v>
+        <v>321.9502105158678</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>370.116473085649</v>
       </c>
       <c r="C34">
-        <v>1.442895781411919</v>
+        <v>1.295044271295327</v>
       </c>
       <c r="D34">
-        <v>323.4520345162283</v>
+        <v>322.9762764088227</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7780,10 +7780,10 @@
         <v>366.7599136665037</v>
       </c>
       <c r="C35">
-        <v>1.460923812721774</v>
+        <v>1.311146306320006</v>
       </c>
       <c r="D35">
-        <v>324.5233409450086</v>
+        <v>324.0265604464661</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7794,10 +7794,10 @@
         <v>363.3660880792923</v>
       </c>
       <c r="C36">
-        <v>1.479550723295662</v>
+        <v>1.327782828233696</v>
       </c>
       <c r="D36">
-        <v>325.6197664912798</v>
+        <v>325.1015456387956</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C37">
-        <v>1.498798574194655</v>
+        <v>1.344973519372755</v>
       </c>
       <c r="D37">
-        <v>326.7418073220163</v>
+        <v>326.2017255650322</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7822,10 +7822,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C38">
-        <v>1.518690430911328</v>
+        <v>1.362738958630038</v>
       </c>
       <c r="D38">
-        <v>327.8899699918283</v>
+        <v>327.3276043736204</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -7836,10 +7836,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C39">
-        <v>1.539250413765775</v>
+        <v>1.381100666421091</v>
       </c>
       <c r="D39">
-        <v>329.0647714429628</v>
+        <v>328.4796967822278</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7850,10 +7850,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C40">
-        <v>1.560503751167524</v>
+        <v>1.400081152208579</v>
       </c>
       <c r="D40">
-        <v>330.266739005303</v>
+        <v>329.6585280777458</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>345.8636814784479</v>
       </c>
       <c r="C41">
-        <v>1.582476835915656</v>
+        <v>1.419703964738754</v>
       </c>
       <c r="D41">
-        <v>331.4964103963687</v>
+        <v>330.8646341162887</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -7878,10 +7878,10 @@
         <v>342.2620879553368</v>
       </c>
       <c r="C42">
-        <v>1.60519728471995</v>
+        <v>1.439993745153227</v>
       </c>
       <c r="D42">
-        <v>332.754333721316</v>
+        <v>332.0985613231947</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -7892,10 +7892,10 @@
         <v>338.6287734837973</v>
       </c>
       <c r="C43">
-        <v>1.628694001137169</v>
+        <v>1.460976283149309</v>
       </c>
       <c r="D43">
-        <v>334.0410674729374</v>
+        <v>333.3608666930249</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7906,10 +7906,10 @@
         <v>334.964646449961</v>
       </c>
       <c r="C44">
-        <v>1.652997242128345</v>
+        <v>1.482678576372774</v>
       </c>
       <c r="D44">
-        <v>335.357180531662</v>
+        <v>334.6521177895642</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7920,10 +7920,10 @@
         <v>331.2706446141488</v>
       </c>
       <c r="C45">
-        <v>1.67813885254552</v>
+        <v>1.505128893237972</v>
       </c>
       <c r="D45">
-        <v>336.7032850887393</v>
+        <v>335.9728927458205</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7934,10 +7934,10 @@
         <v>327.5477351189685</v>
       </c>
       <c r="C46">
-        <v>1.704152400868386</v>
+        <v>1.528356871483161</v>
       </c>
       <c r="D46">
-        <v>338.0800469511803</v>
+        <v>337.3237873490732</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7948,10 +7948,10 @@
         <v>323.7969144558572</v>
       </c>
       <c r="C47">
-        <v>1.731072746833026</v>
+        <v>1.552393911227355</v>
       </c>
       <c r="D47">
-        <v>339.4880827094286</v>
+        <v>338.705485053584</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7962,10 +7962,10 @@
         <v>320.0192083893523</v>
       </c>
       <c r="C48">
-        <v>1.75893644172217</v>
+        <v>1.577272698657157</v>
       </c>
       <c r="D48">
-        <v>340.9280243740006</v>
+        <v>340.1186337058105</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7976,10 +7976,10 @@
         <v>316.2156718384867</v>
       </c>
       <c r="C49">
-        <v>1.787781830995917</v>
+        <v>1.603027423515561</v>
       </c>
       <c r="D49">
-        <v>342.4005217659748</v>
+        <v>341.5638775545124</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>312.3873887148046</v>
       </c>
       <c r="C50">
-        <v>1.817649150519185</v>
+        <v>1.629693963556607</v>
       </c>
       <c r="D50">
-        <v>343.9062425169912</v>
+        <v>343.0418792479879</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8004,10 +8004,10 @@
         <v>308.5354717165984</v>
       </c>
       <c r="C51">
-        <v>1.848580628495556</v>
+        <v>1.657309975553971</v>
       </c>
       <c r="D51">
-        <v>345.4458720692521</v>
+        <v>344.5533198340743</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>304.6610620790851</v>
       </c>
       <c r="C52">
-        <v>1.880620593453149</v>
+        <v>1.685914991718301</v>
       </c>
       <c r="D52">
-        <v>347.0201136755211</v>
+        <v>346.0988987601476</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -8032,10 +8032,10 @@
         <v>300.7653292803428</v>
       </c>
       <c r="C53">
-        <v>1.913815588647798</v>
+        <v>1.715550521850026</v>
       </c>
       <c r="D53">
-        <v>348.6296883991244</v>
+        <v>347.679333873123</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8046,10 +8046,10 @@
         <v>296.8494707029503</v>
       </c>
       <c r="C54">
-        <v>1.948214493269156</v>
+        <v>1.746260161572607</v>
       </c>
       <c r="D54">
-        <v>350.2753351139493</v>
+        <v>349.295361419454</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8060,10 +8060,10 @@
         <v>292.9147112513796</v>
       </c>
       <c r="C55">
-        <v>1.983868650856391</v>
+        <v>1.778089707010029</v>
       </c>
       <c r="D55">
-        <v>351.9578105044455</v>
+        <v>350.9477360451335</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8074,10 +8074,10 @@
         <v>288.9623029253086</v>
       </c>
       <c r="C56">
-        <v>2.020832005351736</v>
+        <v>1.811087276291752</v>
       </c>
       <c r="D56">
-        <v>353.6778890656243</v>
+        <v>352.637230795693</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8088,10 +8088,10 @@
         <v>284.9935243491365</v>
       </c>
       <c r="C57">
-        <v>2.059161245242269</v>
+        <v>1.84530343828808</v>
       </c>
       <c r="D57">
-        <v>355.4363631030589</v>
+        <v>354.3646371162027</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -8102,10 +8102,10 @@
         <v>281.009680258094</v>
       </c>
       <c r="C58">
-        <v>2.098915956262715</v>
+        <v>1.880791348999129</v>
       </c>
       <c r="D58">
-        <v>357.2340427328845</v>
+        <v>356.1307648512723</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8116,10 +8116,10 @@
         <v>277.0121009414553</v>
       </c>
       <c r="C59">
-        <v>2.140158783154728</v>
+        <v>1.917606896040806</v>
       </c>
       <c r="D59">
-        <v>359.0717558817979</v>
+        <v>357.9364422450495</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C60">
-        <v>2.18295560100059</v>
+        <v>1.955808851691496</v>
       </c>
       <c r="D60">
-        <v>360.950348287058</v>
+        <v>359.7825159412214</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8144,10 +8144,10 @@
         <v>268.9811819227082</v>
       </c>
       <c r="C61">
-        <v>2.227375696671551</v>
+        <v>1.995459034983104</v>
       </c>
       <c r="D61">
-        <v>362.8706834964854</v>
+        <v>361.6698509830141</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8158,10 +8158,10 @@
         <v>264.950624970735</v>
       </c>
       <c r="C62">
-        <v>2.273491960952506</v>
+        <v>2.036622483339475</v>
       </c>
       <c r="D62">
-        <v>364.8336428684627</v>
+        <v>363.5993308131921</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8172,10 +8172,10 @@
         <v>260.9118968908913</v>
       </c>
       <c r="C63">
-        <v>2.321381091925181</v>
+        <v>2.079367634283607</v>
       </c>
       <c r="D63">
-        <v>366.8401255719344</v>
+        <v>365.571857274059</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8186,10 +8186,10 @@
         <v>256.8664459383544</v>
       </c>
       <c r="C64">
-        <v>2.371123810210754</v>
+        <v>2.12376651775203</v>
       </c>
       <c r="D64">
-        <v>368.8910485864066</v>
+        <v>367.5883506074572</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -8200,10 +8200,10 @@
         <v>252.8157417225046</v>
       </c>
       <c r="C65">
-        <v>2.422805086689454</v>
+        <v>2.169894959569729</v>
       </c>
       <c r="D65">
-        <v>370.9873467019474</v>
+        <v>369.6497494547681</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8214,10 +8214,10 @@
         <v>248.7612743728317</v>
       </c>
       <c r="C66">
-        <v>2.476514383328169</v>
+        <v>2.217832796651246</v>
       </c>
       <c r="D66">
-        <v>373.1299725191869</v>
+        <v>371.757010856912</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>244.704553669659</v>
       </c>
       <c r="C67">
-        <v>2.532345907756845</v>
+        <v>2.267664104502551</v>
       </c>
       <c r="D67">
-        <v>375.3198964493168</v>
+        <v>373.9111102543476</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>240.6471081410551</v>
       </c>
       <c r="C68">
-        <v>2.590398882239009</v>
+        <v>2.31947743760258</v>
       </c>
       <c r="D68">
-        <v>377.558106714091</v>
+        <v>376.1130414870731</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -8256,10 +8256,10 @@
         <v>236.5904841273563</v>
       </c>
       <c r="C69">
-        <v>2.650777827680311</v>
+        <v>2.373366083242344</v>
       </c>
       <c r="D69">
-        <v>379.8456093458249</v>
+        <v>378.3638167946251</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -8270,10 +8270,10 @@
         <v>232.5362448148089</v>
       </c>
       <c r="C70">
-        <v>2.713592863309449</v>
+        <v>2.429428329391313</v>
       </c>
       <c r="D70">
-        <v>382.183428187396</v>
+        <v>380.6644668160794</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -8284,10 +8284,10 @@
         <v>228.485969239881</v>
       </c>
       <c r="C71">
-        <v>2.778960022646975</v>
+        <v>2.487767747144289</v>
       </c>
       <c r="D71">
-        <v>384.5726048922435</v>
+        <v>383.0160405900502</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -8298,10 +8298,10 @@
         <v>224.4412512658597</v>
       </c>
       <c r="C72">
-        <v>2.847001586346675</v>
+        <v>2.548493488274825</v>
       </c>
       <c r="D72">
-        <v>387.0141989243687</v>
+        <v>385.4196055546911</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8312,10 +8312,10 @@
         <v>220.4036985333859</v>
       </c>
       <c r="C73">
-        <v>2.917846432449274</v>
+        <v>2.611720598381579</v>
       </c>
       <c r="D73">
-        <v>389.5092875583344</v>
+        <v>387.8762475476942</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8326,10 +8326,10 @@
         <v>216.3749313866268</v>
       </c>
       <c r="C74">
-        <v>2.991630404525996</v>
+        <v>2.677570275861814</v>
       </c>
       <c r="D74">
-        <v>392.0589658792657</v>
+        <v>390.3870605716334</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -8340,10 +8340,10 @@
         <v>212.356581776814</v>
       </c>
       <c r="C75">
-        <v>3.068496698106593</v>
+        <v>2.74616908317467</v>
       </c>
       <c r="D75">
-        <v>394.6643467828491</v>
+        <v>392.9529854373706</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -8354,10 +8354,10 @@
         <v>208.3502921449035</v>
       </c>
       <c r="C76">
-        <v>3.148596265678895</v>
+        <v>2.81765191399642</v>
       </c>
       <c r="D76">
-        <v>397.3265609753333</v>
+        <v>395.5751917309603</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -8368,10 +8368,10 @@
         <v>204.3577142851373</v>
       </c>
       <c r="C77">
-        <v>3.232087364218481</v>
+        <v>2.892161461153041</v>
       </c>
       <c r="D77">
-        <v>400.0466485243178</v>
+        <v>398.2549334039188</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8382,10 +8382,10 @@
         <v>200.3805081912936</v>
       </c>
       <c r="C78">
-        <v>3.31913621457276</v>
+        <v>2.969847883364323</v>
       </c>
       <c r="D78">
-        <v>402.825595743709</v>
+        <v>400.9934437812162</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C79">
-        <v>3.409920368513462</v>
+        <v>3.050869192983081</v>
       </c>
       <c r="D79">
-        <v>405.6646887447258</v>
+        <v>403.7919355612771</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>192.4788852449206</v>
       </c>
       <c r="C80">
-        <v>3.504626656313431</v>
+        <v>3.135391657089428</v>
       </c>
       <c r="D80">
-        <v>408.5651913407085</v>
+        <v>406.65160081598</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -8424,10 +8424,10 @@
         <v>188.5578187875755</v>
       </c>
       <c r="C81">
-        <v>3.603451543367046</v>
+        <v>3.223590210944288</v>
       </c>
       <c r="D81">
-        <v>411.528332569681</v>
+        <v>409.5736109906579</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8438,10 +8438,10 @@
         <v>184.6588224866492</v>
       </c>
       <c r="C82">
-        <v>3.706601597038095</v>
+        <v>3.315648882437396</v>
       </c>
       <c r="D82">
-        <v>414.5553066943509</v>
+        <v>412.5591169040978</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -8452,10 +8452,10 @@
         <v>180.7835795474954</v>
       </c>
       <c r="C83">
-        <v>3.814293962733831</v>
+        <v>3.411761225724578</v>
       </c>
       <c r="D83">
-        <v>417.6472732021091</v>
+        <v>415.609248748541</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8466,10 +8466,10 @@
         <v>176.9337741896296</v>
       </c>
       <c r="C84">
-        <v>3.926756846484963</v>
+        <v>3.512130761725657</v>
       </c>
       <c r="D84">
-        <v>420.8053568050305</v>
+        <v>418.7251160896828</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>173.1110904219308</v>
       </c>
       <c r="C85">
-        <v>4.044230000607179</v>
+        <v>3.616971422534806</v>
       </c>
       <c r="D85">
-        <v>424.0306474398734</v>
+        <v>421.9078078666729</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8494,10 +8494,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C86">
-        <v>4.166965208191203</v>
+        <v>3.726507996064993</v>
       </c>
       <c r="D86">
-        <v>427.3242002680798</v>
+        <v>425.1583923921151</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8508,10 +8508,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C87">
-        <v>4.295226761196731</v>
+        <v>3.840976566390781</v>
       </c>
       <c r="D87">
-        <v>430.6870356757753</v>
+        <v>428.4779173520674</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8522,10 +8522,10 @@
         <v>161.8225797930893</v>
       </c>
       <c r="C88">
-        <v>4.429291925790428</v>
+        <v>3.960624944250567</v>
       </c>
       <c r="D88">
-        <v>434.1201392737692</v>
+        <v>431.8674098060419</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8536,10 +8536,10 @@
         <v>158.1251752635391</v>
       </c>
       <c r="C89">
-        <v>4.569451387246794</v>
+        <v>4.085713081000304</v>
       </c>
       <c r="D89">
-        <v>437.6244618975542</v>
+        <v>435.3278761870051</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8550,10 +8550,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C90">
-        <v>4.716009665197871</v>
+        <v>4.216513457952745</v>
       </c>
       <c r="D90">
-        <v>441.2009196073067</v>
+        <v>438.8603023013777</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -8564,10 +8564,10 @@
         <v>150.8385096007949</v>
       </c>
       <c r="C91">
-        <v>4.869285488247016</v>
+        <v>4.35331144146566</v>
       </c>
       <c r="D91">
-        <v>444.850393687887</v>
+        <v>442.4656533290341</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -8578,10 +8578,10 @@
         <v>147.252553609385</v>
       </c>
       <c r="C92">
-        <v>5.02961211492351</v>
+        <v>4.496405592332287</v>
       </c>
       <c r="D92">
-        <v>448.5737306488388</v>
+        <v>446.1448738233036</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8592,10 +8592,10 @@
         <v>143.7070364301009</v>
       </c>
       <c r="C93">
-        <v>5.197337585618598</v>
+        <v>4.646107915950121</v>
       </c>
       <c r="D93">
-        <v>452.3717422243893</v>
+        <v>449.8988877109691</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>140.2035850708226</v>
       </c>
       <c r="C94">
-        <v>5.372824887477835</v>
+        <v>4.802743929940322</v>
       </c>
       <c r="D94">
-        <v>456.2452053734494</v>
+        <v>453.7285881429667</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8620,10 +8620,10 @@
         <v>136.7438141687726</v>
       </c>
       <c r="C95">
-        <v>5.556452011197877</v>
+        <v>4.96664184911111</v>
       </c>
       <c r="D95">
-        <v>460.1948622796138</v>
+        <v>457.6338347383704</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -8634,10 +8634,10 @@
         <v>133.3293248157152</v>
       </c>
       <c r="C96">
-        <v>5.748609422502507</v>
+        <v>5.138148986354842</v>
       </c>
       <c r="D96">
-        <v>464.221222282229</v>
+        <v>461.615056662731</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8648,10 +8648,10 @@
         <v>129.9617033958852</v>
       </c>
       <c r="C97">
-        <v>5.94968175024829</v>
+        <v>5.317631628908855</v>
       </c>
       <c r="D97">
-        <v>468.3231641152832</v>
+        <v>465.6731919376904</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8662,10 +8662,10 @@
         <v>126.6425204377826</v>
       </c>
       <c r="C98">
-        <v>6.160089502678749</v>
+        <v>5.5054653659352</v>
       </c>
       <c r="D98">
-        <v>472.5013743077186</v>
+        <v>469.8088281072756</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>123.3733294809079</v>
       </c>
       <c r="C99">
-        <v>6.380269275776736</v>
+        <v>5.702034035516725</v>
       </c>
       <c r="D99">
-        <v>476.7566966544961</v>
+        <v>474.0222022378987</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -8690,10 +8690,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C100">
-        <v>6.610664692872954</v>
+        <v>5.907728374718677</v>
       </c>
       <c r="D100">
-        <v>481.0895159304827</v>
+        <v>478.3132009183565</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -8704,10 +8704,10 @@
         <v>116.9910460969931</v>
       </c>
       <c r="C101">
-        <v>6.851724384807406</v>
+        <v>6.122944325699848</v>
       </c>
       <c r="D101">
-        <v>485.4997578904521</v>
+        <v>482.6813602598308</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>113.8809658338429</v>
       </c>
       <c r="C102">
-        <v>7.103899509451411</v>
+        <v>6.348080945610706</v>
       </c>
       <c r="D102">
-        <v>489.9868892690845</v>
+        <v>487.1258658958885</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8732,10 +8732,10 @@
         <v>110.8268997533531</v>
       </c>
       <c r="C103">
-        <v>7.367640744442889</v>
+        <v>6.583537862635234</v>
       </c>
       <c r="D103">
-        <v>494.5499177809664</v>
+        <v>491.6455529824814</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8746,10 +8746,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C104">
-        <v>7.643394680961163</v>
+        <v>6.829712215165696</v>
       </c>
       <c r="D104">
-        <v>499.1873921205909</v>
+        <v>496.2389061979462</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -8760,10 +8760,10 @@
         <v>104.8925954669868</v>
       </c>
       <c r="C105">
-        <v>7.93159954062953</v>
+        <v>7.086995005950981</v>
       </c>
       <c r="D105">
-        <v>503.8974019623574</v>
+        <v>500.9040597430048</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>102.0151903678276</v>
       </c>
       <c r="C106">
-        <v>8.232680132506275</v>
+        <v>7.355766798404392</v>
       </c>
       <c r="D106">
-        <v>508.6775779605721</v>
+        <v>505.6387973407637</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8788,10 +8788,10 @@
         <v>99.19946368015324</v>
       </c>
       <c r="C107">
-        <v>8.547041963027382</v>
+        <v>7.636392678455611</v>
       </c>
       <c r="D107">
-        <v>513.5250917494473</v>
+        <v>510.4405522367148</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>96.44676797376539</v>
       </c>
       <c r="C108">
-        <v>8.875064409229459</v>
+        <v>7.929216402841725</v>
       </c>
       <c r="D108">
-        <v>518.4366559431018</v>
+        <v>515.3064071987344</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8816,10 +8816,10 @@
         <v>93.75842851664086</v>
       </c>
       <c r="C109">
-        <v>9.217092865276308</v>
+        <v>8.234553654128966</v>
       </c>
       <c r="D109">
-        <v>523.408524135561</v>
+        <v>520.2330945170844</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>91.1357423616824</v>
       </c>
       <c r="C110">
-        <v>9.573429775047321</v>
+        <v>8.552684324740406</v>
       </c>
       <c r="D110">
-        <v>528.436490900757</v>
+        <v>525.216996004411</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>88.57997745721445</v>
       </c>
       <c r="C111">
-        <v>9.944324470293157</v>
+        <v>8.883843757678909</v>
       </c>
       <c r="D111">
-        <v>533.5158917925278</v>
+        <v>530.2541429957462</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8858,10 +8858,10 @@
         <v>86.09237178165456</v>
       </c>
       <c r="C112">
-        <v>10.32996174575654</v>
+        <v>9.228202067922187</v>
       </c>
       <c r="D112">
-        <v>538.6416033446183</v>
+        <v>535.3395890414123</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8872,10 +8872,10 @@
         <v>83.67413250274423</v>
       </c>
       <c r="C113">
-        <v>10.73044912098691</v>
+        <v>9.585833307345185</v>
       </c>
       <c r="D113">
-        <v>543.8080430706797</v>
+        <v>540.4663806844427</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>81.32643516169593</v>
       </c>
       <c r="C114">
-        <v>11.1458027647684</v>
+        <v>9.956743813686984</v>
       </c>
       <c r="D114">
-        <v>549.0091694642697</v>
+        <v>545.6280164472513</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -8900,10 +8900,10 @@
         <v>79.05042288256821</v>
       </c>
       <c r="C115">
-        <v>11.57593209364607</v>
+        <v>10.34083497996406</v>
       </c>
       <c r="D115">
-        <v>554.2384819988523</v>
+        <v>550.8170796546322</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>76.84720560715456</v>
       </c>
       <c r="C116">
-        <v>12.02058912309371</v>
+        <v>10.73788503739502</v>
       </c>
       <c r="D116">
-        <v>559.4874395874006</v>
+        <v>556.0251334207645</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8928,10 +8928,10 @@
         <v>74.71785935563842</v>
       </c>
       <c r="C117">
-        <v>12.47934783704929</v>
+        <v>11.14753147143587</v>
       </c>
       <c r="D117">
-        <v>564.7455525405124</v>
+        <v>561.2427206492139</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>72.66342551323461</v>
       </c>
       <c r="C118">
-        <v>12.95162530990211</v>
+        <v>11.56925250045541</v>
       </c>
       <c r="D118">
-        <v>570.0023522576414</v>
+        <v>566.4593640329308</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8956,10 +8956,10 @@
         <v>70.6849101430177</v>
       </c>
       <c r="C119">
-        <v>13.4366390107774</v>
+        <v>12.00234789138015</v>
       </c>
       <c r="D119">
-        <v>575.2463454794631</v>
+        <v>571.6635660542521</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8970,10 +8970,10 @@
         <v>68.78328332510246</v>
       </c>
       <c r="C120">
-        <v>13.93338501069353</v>
+        <v>12.44591948583134</v>
       </c>
       <c r="D120">
-        <v>580.465014187894</v>
+        <v>576.8428089849001</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8984,10 +8984,10 @@
         <v>66.95947852232982</v>
       </c>
       <c r="C121">
-        <v>14.4406164093854</v>
+        <v>12.89885192204602</v>
       </c>
       <c r="D121">
-        <v>585.6448156060916</v>
+        <v>581.9835548859828</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8998,10 +8998,10 @@
         <v>65.2143919725788</v>
       </c>
       <c r="C122">
-        <v>14.95682265865642</v>
+        <v>13.35979415960995</v>
       </c>
       <c r="D122">
-        <v>590.7711821984545</v>
+        <v>587.0712456079939</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -9012,10 +9012,10 @@
         <v>63.54888210781604</v>
       </c>
       <c r="C123">
-        <v>15.4802106036361</v>
+        <v>13.82714254131924</v>
       </c>
       <c r="D123">
-        <v>595.8285216706222</v>
+        <v>592.0903027908129</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -9026,10 +9026,10 @@
         <v>61.96376899996756</v>
       </c>
       <c r="C124">
-        <v>16.00868820468443</v>
+        <v>14.29902625281365</v>
       </c>
       <c r="D124">
-        <v>600.8002169694754</v>
+        <v>597.0241278637048</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -9040,10 +9040,10 @@
         <v>60.45983383368911</v>
       </c>
       <c r="C125">
-        <v>16.53985203305371</v>
+        <v>14.77329615711008</v>
       </c>
       <c r="D125">
-        <v>605.6686262831356</v>
+        <v>601.8551020453207</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -9054,10 +9054,10 @@
         <v>59.03781840609101</v>
       </c>
       <c r="C126">
-        <v>17.07097974019002</v>
+        <v>15.24751812387906</v>
       </c>
       <c r="D126">
-        <v>610.4150830409656</v>
+        <v>606.5645882269215</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>57.69842465346358</v>
       </c>
       <c r="C127">
-        <v>17.59902876866878</v>
+        <v>15.71897924880566</v>
       </c>
       <c r="D127">
-        <v>615.0198959135688</v>
+        <v>611.1332167780674</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -9082,10 +9082,10 @@
         <v>56.44231420504</v>
       </c>
       <c r="C128">
-        <v>18.12064702598797</v>
+        <v>16.18469332429417</v>
       </c>
       <c r="D128">
-        <v>619.4625006171293</v>
+        <v>615.5408497839859</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -9096,10 +9096,10 @@
         <v>55.27010796381659</v>
       </c>
       <c r="C129">
-        <v>18.63221593884098</v>
+        <v>16.64142326063091</v>
       </c>
       <c r="D129">
-        <v>623.7223840935288</v>
+        <v>619.7668923197984</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>54.18238571445136</v>
       </c>
       <c r="C130">
-        <v>19.12986119477269</v>
+        <v>17.08571145723954</v>
       </c>
       <c r="D130">
-        <v>627.7785186819791</v>
+        <v>623.7905403337145</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -9124,10 +9124,10 @@
         <v>53.17968575824655</v>
       </c>
       <c r="C131">
-        <v>19.60949901429694</v>
+        <v>17.5139132930585</v>
       </c>
       <c r="D131">
-        <v>631.6096745944674</v>
+        <v>627.5907806470314</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -9138,10 +9138,10 @@
         <v>52.26250457521967</v>
       </c>
       <c r="C132">
-        <v>20.06689333823592</v>
+        <v>17.92174013964866</v>
       </c>
       <c r="D132">
-        <v>635.1947052903511</v>
+        <v>631.1287840096965</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -9152,10 +9152,10 @@
         <v>51.43129651326064</v>
       </c>
       <c r="C133">
-        <v>20.49772602263837</v>
+        <v>18.53257402530745</v>
       </c>
       <c r="D133">
-        <v>638.5128839152192</v>
+        <v>642.2599025466069</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -9166,10 +9166,10 @@
         <v>50.68647350437045</v>
       </c>
       <c r="C134">
-        <v>20.8972362563141</v>
+        <v>19.57503676678823</v>
       </c>
       <c r="D134">
-        <v>641.5306904217025</v>
+        <v>668.5628737469009</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C135">
-        <v>21.52828108410602</v>
+        <v>21.0402186173901</v>
       </c>
       <c r="D135">
-        <v>652.3227409825686</v>
+        <v>709.2747452583892</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>49.4574167812807</v>
       </c>
       <c r="C136">
-        <v>22.65525687106201</v>
+        <v>22.90109458995758</v>
       </c>
       <c r="D136">
-        <v>678.6360529665919</v>
+        <v>763.1945538346147</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -9208,10 +9208,10 @@
         <v>48.97379267673445</v>
       </c>
       <c r="C137">
-        <v>24.26387600633937</v>
+        <v>25.11377594699643</v>
       </c>
       <c r="D137">
-        <v>719.7147856917877</v>
+        <v>828.7496287544132</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -9222,10 +9222,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C138">
-        <v>26.32129504877021</v>
+        <v>27.62180817647953</v>
       </c>
       <c r="D138">
-        <v>774.4285554102702</v>
+        <v>904.1433541531936</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -9236,10 +9236,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C139">
-        <v>28.77809834344786</v>
+        <v>30.36488622662729</v>
       </c>
       <c r="D139">
-        <v>841.3406548112741</v>
+        <v>987.6260252232519</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -9250,10 +9250,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C140">
-        <v>31.5697872517641</v>
+        <v>33.28237576730318</v>
       </c>
       <c r="D140">
-        <v>918.7452471789488</v>
+        <v>1077.578343046194</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -9264,10 +9264,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C141">
-        <v>34.62415191535234</v>
+        <v>36.31233366193609</v>
       </c>
       <c r="D141">
-        <v>1004.861074587079</v>
+        <v>1172.444040889414</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>47.87300763918031</v>
       </c>
       <c r="C142">
-        <v>37.86445922329422</v>
+        <v>39.39110275323434</v>
       </c>
       <c r="D142">
-        <v>1097.890381259766</v>
+        <v>1270.680733975302</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>47.91708278805095</v>
       </c>
       <c r="C143">
-        <v>41.213458332579</v>
+        <v>42.45723819428968</v>
       </c>
       <c r="D143">
-        <v>1196.095723261955</v>
+        <v>1370.849265072084</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -9306,10 +9306,10 @@
         <v>48.04928635153188</v>
       </c>
       <c r="C144">
-        <v>44.59510081713482</v>
+        <v>45.45292036278322</v>
       </c>
       <c r="D144">
-        <v>1297.808458336038</v>
+        <v>1471.622186876933</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -9320,10 +9320,10 @@
         <v>48.26955269372488</v>
       </c>
       <c r="C145">
-        <v>47.93759864069898</v>
+        <v>48.32510385486528</v>
       </c>
       <c r="D145">
-        <v>1401.477267507789</v>
+        <v>1571.786894983622</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -9334,10 +9334,10 @@
         <v>48.57777246645135</v>
       </c>
       <c r="C146">
-        <v>51.1752430769818</v>
+        <v>51.02651530889191</v>
       </c>
       <c r="D146">
-        <v>1505.684636544056</v>
+        <v>1670.248537219799</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>48.97379267673448</v>
       </c>
       <c r="C147">
-        <v>54.24952890065754</v>
+        <v>53.51638420520161</v>
       </c>
       <c r="D147">
-        <v>1609.148845650885</v>
+        <v>1766.030071939213</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>49.45741678128068</v>
       </c>
       <c r="C148">
-        <v>57.11005067946872</v>
+        <v>55.76096563047877</v>
       </c>
       <c r="D148">
-        <v>1710.726106457951</v>
+        <v>1858.272106539487</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -9376,10 +9376,10 @@
         <v>50.0284048079714</v>
       </c>
       <c r="C149">
-        <v>59.71501263531388</v>
+        <v>57.73401321539466</v>
       </c>
       <c r="D149">
-        <v>1809.408775735252</v>
+        <v>1946.238214571033</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -9390,10 +9390,10 @@
         <v>50.68647350437031</v>
       </c>
       <c r="C150">
-        <v>62.03163202114592</v>
+        <v>59.41686228559647</v>
       </c>
       <c r="D150">
-        <v>1904.328171936445</v>
+        <v>2029.314614932384</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -9404,10 +9404,10 @@
         <v>51.43129651326062</v>
       </c>
       <c r="C151">
-        <v>64.03586061522144</v>
+        <v>60.79816550606969</v>
       </c>
       <c r="D151">
-        <v>1994.744294574933</v>
+        <v>2107.004876905811</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -9418,10 +9418,10 @@
         <v>52.26250457521963</v>
       </c>
       <c r="C152">
-        <v>65.71213290992679</v>
+        <v>61.87360620184329</v>
       </c>
       <c r="D152">
-        <v>2080.042894242575</v>
+        <v>2178.929810396731</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>53.17968575824658</v>
       </c>
       <c r="C153">
-        <v>67.05301125805904</v>
+        <v>62.64546071837693</v>
       </c>
       <c r="D153">
-        <v>2159.735472609689</v>
+        <v>2244.827465933704</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -9446,10 +9446,10 @@
         <v>54.18238571445131</v>
       </c>
       <c r="C154">
-        <v>68.05854178714873</v>
+        <v>63.12176138675224</v>
       </c>
       <c r="D154">
-        <v>2233.455335183861</v>
+        <v>2304.543052877912</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -9460,10 +9460,10 @@
         <v>55.27010796381656</v>
       </c>
       <c r="C155">
-        <v>68.73522924451679</v>
+        <v>63.31550625491647</v>
       </c>
       <c r="D155">
-        <v>2300.944836423579</v>
+        <v>2358.022744370521</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -9474,10 +9474,10 @@
         <v>56.44231420504003</v>
       </c>
       <c r="C156">
-        <v>69.09590536501754</v>
+        <v>63.24448572857627</v>
       </c>
       <c r="D156">
-        <v>2362.074723845831</v>
+        <v>2405.332230242724</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -9488,10 +9488,10 @@
         <v>57.69842465346355</v>
       </c>
       <c r="C157">
-        <v>69.15772035202845</v>
+        <v>62.929031123283</v>
       </c>
       <c r="D157">
-        <v>2416.802343561457</v>
+        <v>2446.597874478467</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>59.03781840609098</v>
       </c>
       <c r="C158">
-        <v>68.94128651818514</v>
+        <v>62.39136208196595</v>
       </c>
       <c r="D158">
-        <v>2465.166134306509</v>
+        <v>2482.003336064019</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -9516,10 +9516,10 @@
         <v>60.45983383368914</v>
       </c>
       <c r="C159">
-        <v>68.47000403007613</v>
+        <v>61.6550579381894</v>
       </c>
       <c r="D159">
-        <v>2507.285627442247</v>
+        <v>2511.78956898797</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -9530,10 +9530,10 @@
         <v>61.96376899996753</v>
       </c>
       <c r="C160">
-        <v>67.76941693113362</v>
+        <v>60.74457060357165</v>
       </c>
       <c r="D160">
-        <v>2543.361446955141</v>
+        <v>2536.254822241232</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -9544,10 +9544,10 @@
         <v>63.54888210781595</v>
       </c>
       <c r="C161">
-        <v>66.8664902811374</v>
+        <v>59.68478716644935</v>
       </c>
       <c r="D161">
-        <v>2573.670544517976</v>
+        <v>2555.754639817036</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>65.21439197257881</v>
       </c>
       <c r="C162">
-        <v>65.78781463380965</v>
+        <v>58.49978872773745</v>
       </c>
       <c r="D162">
-        <v>2598.516136244665</v>
+        <v>2570.664145412253</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>66.95947852232968</v>
       </c>
       <c r="C163">
-        <v>64.56023460513211</v>
+        <v>57.2122327014935</v>
       </c>
       <c r="D163">
-        <v>2618.265427107049</v>
+        <v>2581.359858366193</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>68.78328332510243</v>
       </c>
       <c r="C164">
-        <v>63.20935583290512</v>
+        <v>55.84358769969579</v>
       </c>
       <c r="D164">
-        <v>2633.302647001831</v>
+        <v>2588.235608398315</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>70.6849101430175</v>
       </c>
       <c r="C165">
-        <v>61.75905336912351</v>
+        <v>54.41341196052846</v>
       </c>
       <c r="D165">
-        <v>2644.014602339447</v>
+        <v>2591.673346252072</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>72.66342551323459</v>
       </c>
       <c r="C166">
-        <v>60.23141391456372</v>
+        <v>52.93936948837857</v>
       </c>
       <c r="D166">
-        <v>2650.790676044073</v>
+        <v>2592.04313947775</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -9628,10 +9628,10 @@
         <v>74.71785935563838</v>
       </c>
       <c r="C167">
-        <v>58.64671954213357</v>
+        <v>51.43727758816098</v>
       </c>
       <c r="D167">
-        <v>2654.022827553616</v>
+        <v>2589.70317243247</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -9642,10 +9642,10 @@
         <v>76.84720560715459</v>
       </c>
       <c r="C168">
-        <v>57.02346569946019</v>
+        <v>49.92117879003658</v>
       </c>
       <c r="D168">
-        <v>2654.105592819724</v>
+        <v>2584.999746280187</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -9656,10 +9656,10 @@
         <v>79.05042288256826</v>
       </c>
       <c r="C169">
-        <v>55.37826900044057</v>
+        <v>48.40329341455032</v>
       </c>
       <c r="D169">
-        <v>2651.429491658414</v>
+        <v>2578.259954435669</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -9670,10 +9670,10 @@
         <v>81.32643516169587</v>
       </c>
       <c r="C170">
-        <v>53.72520181163551</v>
+        <v>46.89385404263342</v>
       </c>
       <c r="D170">
-        <v>2646.34401383283</v>
+        <v>2569.775927113489</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -9684,10 +9684,10 @@
         <v>83.67413250274427</v>
       </c>
       <c r="C171">
-        <v>52.07644726786446</v>
+        <v>45.40148753144211</v>
       </c>
       <c r="D171">
-        <v>2639.180388397963</v>
+        <v>2559.816852334168</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9698,10 +9698,10 @@
         <v>86.09237178165434</v>
       </c>
       <c r="C172">
-        <v>50.44231758293082</v>
+        <v>43.93332466967172</v>
       </c>
       <c r="D172">
-        <v>2630.245056856048</v>
+        <v>2548.627327487694</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>88.57997745721441</v>
       </c>
       <c r="C173">
-        <v>48.83137843136433</v>
+        <v>42.49513963541256</v>
       </c>
       <c r="D173">
-        <v>2619.81761446886</v>
+        <v>2536.427301457576</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>91.13574236168223</v>
       </c>
       <c r="C174">
-        <v>47.2506139426021</v>
+        <v>41.09148610889417</v>
       </c>
       <c r="D174">
-        <v>2608.150810257714</v>
+        <v>2523.412074620841</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9740,10 +9740,10 @@
         <v>93.75842851664078</v>
       </c>
       <c r="C175">
-        <v>45.70558551817646</v>
+        <v>39.72582709798948</v>
       </c>
       <c r="D175">
-        <v>2595.470547003461</v>
+        <v>2509.75229884804</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -9754,10 +9754,10 @@
         <v>96.44676797376516</v>
       </c>
       <c r="C176">
-        <v>44.20060592050115</v>
+        <v>38.40067435839796</v>
       </c>
       <c r="D176">
-        <v>2581.977241793667</v>
+        <v>2495.595091911324</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9768,10 +9768,10 @@
         <v>99.19946368015319</v>
       </c>
       <c r="C177">
-        <v>42.73897124685615</v>
+        <v>37.11788368873553</v>
       </c>
       <c r="D177">
-        <v>2567.85145384321</v>
+        <v>2481.076320418877</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>102.0151903678277</v>
       </c>
       <c r="C178">
-        <v>41.32280417288771</v>
+        <v>35.87840573116792</v>
       </c>
       <c r="D178">
-        <v>2553.237050739689</v>
+        <v>2466.298133370266</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9796,10 +9796,10 @@
         <v>104.8925954669867</v>
       </c>
       <c r="C179">
-        <v>39.95349316745445</v>
+        <v>34.68265151164215</v>
       </c>
       <c r="D179">
-        <v>2538.25994407216</v>
+        <v>2451.346576404454</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9810,10 +9810,10 @@
         <v>107.8303000425309</v>
       </c>
       <c r="C180">
-        <v>38.63184282001605</v>
+        <v>33.53065754260201</v>
       </c>
       <c r="D180">
-        <v>2523.031934772644</v>
+        <v>2436.298382542469</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9824,10 +9824,10 @@
         <v>110.8268997533529</v>
       </c>
       <c r="C181">
-        <v>37.35814910188374</v>
+        <v>32.42213795589896</v>
       </c>
       <c r="D181">
-        <v>2507.650713116126</v>
+        <v>2421.220972187395</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9838,10 +9838,10 @@
         <v>113.8809658338428</v>
       </c>
       <c r="C182">
-        <v>36.13226749848248</v>
+        <v>31.35653138319862</v>
       </c>
       <c r="D182">
-        <v>2492.19985872056</v>
+        <v>2406.172453124376</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9852,10 +9852,10 @@
         <v>116.991046096993</v>
       </c>
       <c r="C183">
-        <v>34.95367433251641</v>
+        <v>30.33304287136664</v>
       </c>
       <c r="D183">
-        <v>2476.748840546863</v>
+        <v>2391.201620520618</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>120.1556659584651</v>
       </c>
       <c r="C184">
-        <v>33.82152166429918</v>
+        <v>29.35068115698763</v>
       </c>
       <c r="D184">
-        <v>2461.353016898922</v>
+        <v>2376.347956925384</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>123.3733294809078</v>
       </c>
       <c r="C185">
-        <v>32.73468619635366</v>
+        <v>28.40829164398195</v>
       </c>
       <c r="D185">
-        <v>2446.053635423585</v>
+        <v>2361.641632269999</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>126.6425204377825</v>
       </c>
       <c r="C186">
-        <v>31.6918305860985</v>
+        <v>27.50458543503362</v>
       </c>
       <c r="D186">
-        <v>2430.879210399006</v>
+        <v>2347.103503867846</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9908,10 +9908,10 @@
         <v>129.9617033958849</v>
       </c>
       <c r="C187">
-        <v>30.6916572677538</v>
+        <v>26.63816476445902</v>
       </c>
       <c r="D187">
-        <v>2415.862670801918</v>
+        <v>2332.74511641437</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9922,10 +9922,10 @@
         <v>133.329324815715</v>
       </c>
       <c r="C188">
-        <v>29.73271849999533</v>
+        <v>25.80765216546969</v>
       </c>
       <c r="D188">
-        <v>2401.025693241943</v>
+        <v>2318.578314551152</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9936,10 +9936,10 @@
         <v>136.7438141687725</v>
       </c>
       <c r="C189">
-        <v>28.81350452722143</v>
+        <v>25.01173512837187</v>
       </c>
       <c r="D189">
-        <v>2386.383742894793</v>
+        <v>2304.618816495852</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9950,10 +9950,10 @@
         <v>140.2035850708223</v>
       </c>
       <c r="C190">
-        <v>27.93250536153091</v>
+        <v>24.24902500004202</v>
       </c>
       <c r="D190">
-        <v>2371.949935492699</v>
+        <v>2290.872892165471</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9964,10 +9964,10 @@
         <v>143.7070364301008</v>
       </c>
       <c r="C191">
-        <v>27.08821922908209</v>
+        <v>23.51815937436049</v>
       </c>
       <c r="D191">
-        <v>2357.735037324417</v>
+        <v>2277.345669740072</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9978,10 +9978,10 @@
         <v>147.2525536093848</v>
       </c>
       <c r="C192">
-        <v>26.27915956740803</v>
+        <v>22.81780648721173</v>
       </c>
       <c r="D192">
-        <v>2343.74746523522</v>
+        <v>2264.041174026124</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>150.8385096007951</v>
       </c>
       <c r="C193">
-        <v>25.50386075693897</v>
+        <v>22.14666828112919</v>
       </c>
       <c r="D193">
-        <v>2329.993286626906</v>
+        <v>2250.962326456499</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -10006,10 +10006,10 @@
         <v>154.4632662121366</v>
       </c>
       <c r="C194">
-        <v>24.76088275130392</v>
+        <v>21.50348270480994</v>
       </c>
       <c r="D194">
-        <v>2316.476219457795</v>
+        <v>2238.110945090477</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>158.125175263539</v>
       </c>
       <c r="C195">
-        <v>24.04881475345579</v>
+        <v>20.88702535986521</v>
       </c>
       <c r="D195">
-        <v>2303.197632242724</v>
+        <v>2225.487744613743</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -10034,10 +10034,10 @@
         <v>161.8225797930889</v>
       </c>
       <c r="C196">
-        <v>23.36627806841593</v>
+        <v>20.29611059368475</v>
       </c>
       <c r="D196">
-        <v>2290.156544053058</v>
+        <v>2213.092336338386</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -10048,10 +10048,10 @@
         <v>165.5538152701106</v>
       </c>
       <c r="C197">
-        <v>22.71193895110343</v>
+        <v>19.72959212506246</v>
       </c>
       <c r="D197">
-        <v>2277.350697678773</v>
+        <v>2200.923228202905</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>169.3172108146806</v>
       </c>
       <c r="C198">
-        <v>22.08454757295003</v>
+        <v>19.18636327822809</v>
       </c>
       <c r="D198">
-        <v>2264.780519727391</v>
+        <v>2188.977824772201</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -10076,10 +10076,10 @@
         <v>173.1110904219307</v>
       </c>
       <c r="C199">
-        <v>21.48288443357774</v>
+        <v>18.66536638393072</v>
       </c>
       <c r="D199">
-        <v>2252.443949498002</v>
+        <v>2177.253534547856</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>176.9337741896295</v>
       </c>
       <c r="C200">
-        <v>20.90578044155773</v>
+        <v>18.16560078623155</v>
       </c>
       <c r="D200">
-        <v>2240.338462991972</v>
+        <v>2165.748889803947</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -10104,10 +10104,10 @@
         <v>180.7835795474953</v>
       </c>
       <c r="C201">
-        <v>20.35211882927394</v>
+        <v>17.68609961588019</v>
       </c>
       <c r="D201">
-        <v>2228.46141801806</v>
+        <v>2154.461021253545</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>184.6588224866493</v>
       </c>
       <c r="C202">
-        <v>19.82083344372179</v>
+        <v>17.22594021601015</v>
       </c>
       <c r="D202">
-        <v>2216.810054192421</v>
+        <v>2143.386991609211</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -10132,10 +10132,10 @@
         <v>188.5578187875752</v>
       </c>
       <c r="C203">
-        <v>19.31090696676918</v>
+        <v>16.78424285567258</v>
       </c>
       <c r="D203">
-        <v>2205.381492938608</v>
+        <v>2132.523833458424</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -10146,10 +10146,10 @@
         <v>192.4788852449205</v>
       </c>
       <c r="C204">
-        <v>18.82136909197079</v>
+        <v>16.36016908196575</v>
       </c>
       <c r="D204">
-        <v>2194.172737487567</v>
+        <v>2121.868549263578</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -10160,10 +10160,10 @@
         <v>196.4203408874305</v>
       </c>
       <c r="C205">
-        <v>18.35129468040788</v>
+        <v>15.95292006143412</v>
       </c>
       <c r="D205">
-        <v>2183.180672877642</v>
+        <v>2111.418111361987</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -10174,10 +10174,10 @@
         <v>200.3805081912935</v>
       </c>
       <c r="C206">
-        <v>17.89980191405231</v>
+        <v>15.56173492605475</v>
       </c>
       <c r="D206">
-        <v>2172.402065954572</v>
+        <v>2101.169461965879</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -10188,10 +10188,10 @@
         <v>204.3577142851372</v>
       </c>
       <c r="C207">
-        <v>17.46605046175221</v>
+        <v>15.18588913624214</v>
       </c>
       <c r="D207">
-        <v>2161.833565371491</v>
+        <v>2091.119513162401</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -10202,10 +10202,10 @@
         <v>208.3502921449036</v>
       </c>
       <c r="C208">
-        <v>17.04923967002867</v>
+        <v>14.82469287084014</v>
       </c>
       <c r="D208">
-        <v>2151.47170158893</v>
+        <v>2081.265146913617</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -10216,10 +10216,10 @@
         <v>212.3565817768141</v>
       </c>
       <c r="C209">
-        <v>16.64860678840018</v>
+        <v>14.4774894519796</v>
       </c>
       <c r="D209">
-        <v>2141.312886874814</v>
+        <v>2071.603215056507</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -10230,10 +10230,10 @@
         <v>216.3749313866266</v>
       </c>
       <c r="C210">
-        <v>16.26342535809496</v>
+        <v>14.1436538109115</v>
       </c>
       <c r="D210">
-        <v>2131.353431193518</v>
+        <v>2062.130539302968</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -10244,10 +10244,10 @@
         <v>220.4036985333858</v>
       </c>
       <c r="C211">
-        <v>15.8930074817879</v>
+        <v>13.82259099943463</v>
       </c>
       <c r="D211">
-        <v>2121.590071549489</v>
+        <v>2052.843911239815</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -10258,10 +10258,10 @@
         <v>224.4412512658594</v>
       </c>
       <c r="C212">
-        <v>15.53669852188019</v>
+        <v>13.51373475028636</v>
       </c>
       <c r="D212">
-        <v>2112.019522999554</v>
+        <v>2043.740092328781</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -10272,10 +10272,10 @@
         <v>228.4859692398809</v>
       </c>
       <c r="C213">
-        <v>15.19387473010469</v>
+        <v>13.21654608882007</v>
       </c>
       <c r="D213">
-        <v>2102.638373976017</v>
+        <v>2034.815813906512</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -10286,10 +10286,10 @@
         <v>232.5362448148088</v>
       </c>
       <c r="C214">
-        <v>14.86394300645834</v>
+        <v>12.93051229091208</v>
       </c>
       <c r="D214">
-        <v>2093.443261662389</v>
+        <v>2026.067823170584</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>236.5904841273564</v>
       </c>
       <c r="C215">
-        <v>14.5463393622695</v>
+        <v>12.65514739693977</v>
       </c>
       <c r="D215">
-        <v>2084.430871993391</v>
+        <v>2017.493173519735</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -10314,10 +10314,10 @@
         <v>240.647108141055</v>
       </c>
       <c r="C216">
-        <v>14.24052745060313</v>
+        <v>12.38998837573357</v>
       </c>
       <c r="D216">
-        <v>2075.597939654944</v>
+        <v>2009.088830285523</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>244.7045536696592</v>
       </c>
       <c r="C217">
-        <v>13.94599716316032</v>
+        <v>12.13459454460954</v>
       </c>
       <c r="D217">
-        <v>2066.94124808418</v>
+        <v>2000.851761798569</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>248.7612743728313</v>
       </c>
       <c r="C218">
-        <v>13.66226329242565</v>
+        <v>11.88854669387357</v>
       </c>
       <c r="D218">
-        <v>2058.457629469438</v>
+        <v>1992.778981815303</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>252.8157417225045</v>
       </c>
       <c r="C219">
-        <v>13.38886425750041</v>
+        <v>11.65144599033353</v>
       </c>
       <c r="D219">
-        <v>2050.14396475026</v>
+        <v>1984.867549517964</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -10370,10 +10370,10 @@
         <v>256.8664459383542</v>
       </c>
       <c r="C220">
-        <v>13.12536089182007</v>
+        <v>11.42291293387264</v>
       </c>
       <c r="D220">
-        <v>2041.997183617398</v>
+        <v>1977.114569514602</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>260.9118968908909</v>
       </c>
       <c r="C221">
-        <v>12.87133529077438</v>
+        <v>11.20258636540819</v>
       </c>
       <c r="D221">
-        <v>2034.014264512808</v>
+        <v>1969.517191839078</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -10398,10 +10398,10 @@
         <v>264.9506249707349</v>
       </c>
       <c r="C222">
-        <v>12.6263897171231</v>
+        <v>10.99012252444762</v>
       </c>
       <c r="D222">
-        <v>2026.192234629655</v>
+        <v>1962.072611951062</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -10412,10 +10412,10 @@
         <v>268.9811819227081</v>
       </c>
       <c r="C223">
-        <v>12.39014556201569</v>
+        <v>10.78519415437882</v>
       </c>
       <c r="D223">
-        <v>2018.528169912308</v>
+        <v>1954.778070736035</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -10426,10 +10426,10 @@
         <v>273.0021416434657</v>
       </c>
       <c r="C224">
-        <v>12.1622423593748</v>
+        <v>10.58748965358625</v>
       </c>
       <c r="D224">
-        <v>2011.019195056344</v>
+        <v>1947.630854505287</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -10440,10 +10440,10 @@
         <v>277.0121009414551</v>
       </c>
       <c r="C225">
-        <v>11.94233685138421</v>
+        <v>10.39671227046611</v>
       </c>
       <c r="D225">
-        <v>2003.662483508545</v>
+        <v>1940.628294995919</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>281.0096802580939</v>
       </c>
       <c r="C226">
-        <v>11.73010210282552</v>
+        <v>10.21257934041424</v>
       </c>
       <c r="D226">
-        <v>1996.455257466903</v>
+        <v>1933.767769370842</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>284.9935243491361</v>
       </c>
       <c r="C227">
-        <v>11.52522666203105</v>
+        <v>10.03482156287886</v>
       </c>
       <c r="D227">
-        <v>1989.394787880611</v>
+        <v>1927.046700218778</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -10482,10 +10482,10 @@
         <v>288.9623029253084</v>
       </c>
       <c r="C228">
-        <v>11.32741376625804</v>
+        <v>9.863182316600527</v>
       </c>
       <c r="D228">
-        <v>1982.478394450074</v>
+        <v>1920.462555554256</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -10496,10 +10496,10 @@
         <v>292.9147112513795</v>
       </c>
       <c r="C229">
-        <v>11.13638058933957</v>
+        <v>9.697417011203845</v>
       </c>
       <c r="D229">
-        <v>1975.7034456269</v>
+        <v>1914.01284881762</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -10510,10 +10510,10 @@
         <v>296.8494707029504</v>
       </c>
       <c r="C230">
-        <v>10.95185752952564</v>
+        <v>9.537292473353835</v>
       </c>
       <c r="D230">
-        <v>1969.067358613905</v>
+        <v>1907.695138875019</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>300.7653292803427</v>
       </c>
       <c r="C231">
-        <v>10.77358753549421</v>
+        <v>9.382586365745926</v>
       </c>
       <c r="D231">
-        <v>1962.567599365111</v>
+        <v>1901.507030018417</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>304.661062079085</v>
       </c>
       <c r="C232">
-        <v>10.60132546858181</v>
+        <v>9.233086637257466</v>
       </c>
       <c r="D232">
-        <v>1956.201682585747</v>
+        <v>1895.446171965584</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -10552,10 +10552,10 @@
         <v>308.5354717165985</v>
       </c>
       <c r="C233">
-        <v>10.43483734338207</v>
+        <v>9.088591002651647</v>
       </c>
       <c r="D233">
-        <v>1949.967142584976</v>
+        <v>1889.510259860102</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>312.3873887148044</v>
       </c>
       <c r="C234">
-        <v>10.27389976933831</v>
+        <v>8.948906450288847</v>
       </c>
       <c r="D234">
-        <v>1943.86153381696</v>
+        <v>1883.697034271364</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -10580,10 +10580,10 @@
         <v>316.2156718384866</v>
       </c>
       <c r="C235">
-        <v>10.11830010364552</v>
+        <v>8.813848776365603</v>
       </c>
       <c r="D235">
-        <v>1937.882561958342</v>
+        <v>1878.004281194572</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -10594,10 +10594,10 @@
         <v>320.0192083893519</v>
       </c>
       <c r="C236">
-        <v>9.967835354099837</v>
+        <v>8.683242144267098</v>
       </c>
       <c r="D236">
-        <v>1932.027976651214</v>
+        <v>1872.429832050738</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -10608,10 +10608,10 @@
         <v>323.7969144558571</v>
       </c>
       <c r="C237">
-        <v>9.822311664840738</v>
+        <v>8.556918667683544</v>
       </c>
       <c r="D237">
-        <v>1926.295564973665</v>
+        <v>1866.971563686684</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -10622,10 +10622,10 @@
         <v>327.5477351189684</v>
       </c>
       <c r="C238">
-        <v>9.681543863208816</v>
+        <v>8.434718016205256</v>
       </c>
       <c r="D238">
-        <v>1920.683151439773</v>
+        <v>1861.627398375043</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -10636,10 +10636,10 @@
         <v>331.2706446141489</v>
       </c>
       <c r="C239">
-        <v>9.545355030938538</v>
+        <v>8.316487042173376</v>
       </c>
       <c r="D239">
-        <v>1915.188597999612</v>
+        <v>1856.395303814258</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -10650,10 +10650,10 @@
         <v>334.9646464499609</v>
       </c>
       <c r="C240">
-        <v>9.413576098360886</v>
+        <v>8.202079427624705</v>
       </c>
       <c r="D240">
-        <v>1909.809804039247</v>
+        <v>1851.273293128582</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>338.628773483797</v>
       </c>
       <c r="C241">
-        <v>9.286045460356938</v>
+        <v>8.091355348646973</v>
       </c>
       <c r="D241">
-        <v>1904.544706380735</v>
+        <v>1846.259424507394</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -10678,10 +10678,10 @@
         <v>342.2620879553367</v>
       </c>
       <c r="C242">
-        <v>9.162608612869018</v>
+        <v>7.984180896892436</v>
       </c>
       <c r="D242">
-        <v>1899.391279282126</v>
+        <v>1841.351740677155</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -10692,10 +10692,10 @@
         <v>345.8636814784477</v>
       </c>
       <c r="C243">
-        <v>9.043117808837851</v>
+        <v>7.880428088453531</v>
       </c>
       <c r="D243">
-        <v>1894.347534437465</v>
+        <v>1836.548337487872</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -10706,10 +10706,10 @@
         <v>349.4326749923337</v>
       </c>
       <c r="C244">
-        <v>8.927431732494473</v>
+        <v>7.779974678364439</v>
       </c>
       <c r="D244">
-        <v>1889.411520976786</v>
+        <v>1831.8473874932</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>352.9682186728278</v>
       </c>
       <c r="C245">
-        <v>8.815415190993125</v>
+        <v>7.682703700955115</v>
       </c>
       <c r="D245">
-        <v>1884.581325466118</v>
+        <v>1827.247096112832</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>356.4694918048208</v>
       </c>
       <c r="C246">
-        <v>8.706938822426226</v>
+        <v>7.588503218490676</v>
       </c>
       <c r="D246">
-        <v>1879.855071907482</v>
+        <v>1822.745701632507</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>359.9357026168915</v>
       </c>
       <c r="C247">
-        <v>8.601878819315077</v>
+        <v>7.497266083097442</v>
       </c>
       <c r="D247">
-        <v>1875.230921738892</v>
+        <v>1818.341475204003</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>363.3660880792924</v>
       </c>
       <c r="C248">
-        <v>8.500116666719773</v>
+        <v>7.408889711242244</v>
       </c>
       <c r="D248">
-        <v>1870.707073834355</v>
+        <v>1814.032720845138</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -10776,10 +10776,10 @@
         <v>366.7599136665034</v>
       </c>
       <c r="C249">
-        <v>8.401538894159625</v>
+        <v>7.32327587007237</v>
       </c>
       <c r="D249">
-        <v>1866.281764503869</v>
+        <v>1809.817775439774</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10790,10 +10790,10 @@
         <v>370.1164730856487</v>
       </c>
       <c r="C250">
-        <v>8.306036840580184</v>
+        <v>7.240330474961752</v>
       </c>
       <c r="D250">
-        <v>1861.953267493427</v>
+        <v>1805.695008737811</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10804,10 +10804,10 @@
         <v>373.4350879721127</v>
       </c>
       <c r="C251">
-        <v>8.2135064316463</v>
+        <v>7.159963397645939</v>
       </c>
       <c r="D251">
-        <v>1857.719893985012</v>
+        <v>1801.662823355193</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>376.715107553764</v>
       </c>
       <c r="C252">
-        <v>8.123847968680771</v>
+        <v>7.082088284362748</v>
       </c>
       <c r="D252">
-        <v>1853.579992596602</v>
+        <v>1797.719654773903</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>379.9559082852275</v>
       </c>
       <c r="C253">
-        <v>8.036965928607085</v>
+        <v>7.00662238344864</v>
       </c>
       <c r="D253">
-        <v>1849.531949382167</v>
+        <v>1793.863971341967</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10846,10 +10846,10 @@
         <v>383.1568934536982</v>
       </c>
       <c r="C254">
-        <v>7.952768774290862</v>
+        <v>6.933486381871804</v>
       </c>
       <c r="D254">
-        <v>1845.574187831669</v>
+        <v>1790.094274273452</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10860,10 +10860,10 @@
         <v>386.3174927578165</v>
       </c>
       <c r="C255">
-        <v>7.871168774709227</v>
+        <v>6.862604250212456</v>
       </c>
       <c r="D255">
-        <v>1841.705168871063</v>
+        <v>1786.409097648465</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>389.4371618611554</v>
       </c>
       <c r="C256">
-        <v>7.792081834409868</v>
+        <v>6.79390309562871</v>
       </c>
       <c r="D256">
-        <v>1837.923390862298</v>
+        <v>1782.807008413156</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10888,10 +10888,10 @@
         <v>392.5153819218946</v>
       </c>
       <c r="C257">
-        <v>7.715427331752243</v>
+        <v>6.72731302237262</v>
       </c>
       <c r="D257">
-        <v>1834.227389603312</v>
+        <v>1779.286606379714</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10902,10 +10902,10 @@
         <v>395.5516591002701</v>
       </c>
       <c r="C258">
-        <v>7.641127965452448</v>
+        <v>6.662766999445827</v>
       </c>
       <c r="D258">
-        <v>1830.615738328041</v>
+        <v>1775.84652422637</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10916,10 +10916,10 @@
         <v>398.545524045394</v>
       </c>
       <c r="C259">
-        <v>7.569109608980771</v>
+        <v>6.600200735007804</v>
       </c>
       <c r="D259">
-        <v>1827.087047706409</v>
+        <v>1772.485427497398</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>401.4965313630503</v>
       </c>
       <c r="C260">
-        <v>7.499301172386639</v>
+        <v>6.539552557171658</v>
       </c>
       <c r="D260">
-        <v>1823.639965844334</v>
+        <v>1769.202014603112</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10944,10 +10944,10 @@
         <v>404.4042590660648</v>
       </c>
       <c r="C261">
-        <v>7.43163447115017</v>
+        <v>6.480763300843414</v>
       </c>
       <c r="D261">
-        <v>1820.273178283729</v>
+        <v>1765.995016819866</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10958,10 +10958,10 @@
         <v>407.2683080088374</v>
       </c>
       <c r="C262">
-        <v>7.366044101682564</v>
+        <v>6.423776200280455</v>
       </c>
       <c r="D262">
-        <v>1816.985408002497</v>
+        <v>1762.863198290056</v>
       </c>
     </row>
   </sheetData>
